--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\x-template\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\xtemplate\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B675996B-06D2-4A93-ABE0-F504696B5D29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682EBFCF-2596-4A28-86A5-D872631A65AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="23254" windowHeight="12724" tabRatio="323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6444" yWindow="2724" windowWidth="22800" windowHeight="13200" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -23,12 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">minions!$A$1:$BK$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="1505">
   <si>
     <t>主键</t>
   </si>
@@ -4255,43 +4255,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4322,39 +4322,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4379,211 +4379,273 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_hero_windrunner</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_hero_tiny</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua_phantom_strike</t>
+  </si>
+  <si>
+    <t>phantom_assassin_coup_de_grace</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NONE</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPELL_IMMUNITY_ENEMIES_YES</t>
+  </si>
+  <si>
+    <t>AbilityUnitDamageType</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_datadriven</t>
+  </si>
+  <si>
+    <t>ability/phantom_assassin/lua_phantom_strike</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_hero_muerta</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_primal_beast</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_marci</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_dawnbreaker</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_hoodwink</t>
   </si>
 </sst>
 </file>
@@ -4594,12 +4656,33 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4716,6 +4799,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -4817,19 +4913,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4840,22 +4935,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4864,28 +4959,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4894,32 +4989,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4928,22 +5019,27 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4951,13 +5047,54 @@
     <cellStyle name="常规 3" xfId="2" xr:uid="{943AF081-FC7B-4297-9F9D-14246B980CB4}"/>
     <cellStyle name="常规 4" xfId="3" xr:uid="{6A4EF323-2DB5-43F4-8F7C-802CED3DA6D0}"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -4980,9 +5117,33 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5010,49 +5171,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5101,113 +5220,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -5237,245 +5249,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5764,991 +5537,1031 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29C7AE1-1213-469D-856F-83D4B90AB9D9}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="41"/>
+    <col min="1" max="1" width="33" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>1467</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>1466</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>1474</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>1475</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="41">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="41">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="41">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="41">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="41">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="41">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="41">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B74" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="41">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="41">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="41">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="B52" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B61" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="B65" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B70" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="B72" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="B73" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="41" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B74" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B76" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B80" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B81" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B82" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="B83" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="B85" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="B86" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="B87" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B91" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="B92" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="B96" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B97" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B103" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="B104" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B106" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B107" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B108" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="B110" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="41" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="B111" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="41" t="s">
+      <c r="B111" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B112" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="41" t="s">
+      <c r="B112" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="B113" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="41" t="s">
+      <c r="B113" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="41" t="s">
+      <c r="B114" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="B115" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="41" t="s">
+      <c r="B115" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B116" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="41" t="s">
+      <c r="B116" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B117" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="41" t="s">
+      <c r="B117" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="B118" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="41" t="s">
+      <c r="B118" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="B119" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="41" t="s">
+      <c r="B119" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="B120" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="41" t="s">
+      <c r="B120" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="B121" s="41">
-        <v>1</v>
+      <c r="B121" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="38" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B122" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="38" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B123" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="38" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B124" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="38" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B125" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="38" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B126" s="38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6756,190 +6569,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="43"/>
+    <col min="1" max="16384" width="8.77734375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>1463</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>1462</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="48" t="s">
         <v>1485</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="40" t="s">
         <v>1461</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>1460</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="40" t="s">
         <v>1451</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="40" t="s">
         <v>1450</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="40" t="s">
         <v>1449</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="40" t="s">
         <v>1448</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="40" t="s">
         <v>1447</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="40" t="s">
         <v>1446</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="40" t="s">
         <v>1445</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="40" t="s">
         <v>1444</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="40" t="s">
         <v>1443</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" s="40" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="AB1" s="49" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>1441</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>1480</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
         <v>1481</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>1440</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="40" t="s">
         <v>1439</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="40" t="s">
         <v>1438</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="41" t="s">
         <v>1437</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="41" t="s">
         <v>1436</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="41" t="s">
         <v>1435</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="41" t="s">
         <v>1434</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="41" t="s">
         <v>1433</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="41" t="s">
         <v>1432</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="41" t="s">
         <v>1431</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="41" t="s">
         <v>1430</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="41" t="s">
         <v>1429</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>1428</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="40" t="s">
         <v>1419</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="40" t="s">
         <v>1418</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="40" t="s">
         <v>1417</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="40" t="s">
         <v>1416</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>1415</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="40" t="s">
         <v>1414</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="40" t="s">
         <v>1413</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Y2" s="40" t="s">
         <v>1412</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="Z2" s="40" t="s">
         <v>1411</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AA2" s="43" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="AB2" s="49" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>1472</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>1482</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="45" t="s">
         <v>1483</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>1471</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="48" t="s">
         <v>1486</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="40" t="s">
         <v>1408</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="46" t="s">
         <v>1470</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="46" t="s">
         <v>1469</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="40" t="s">
         <v>1468</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="44" t="s">
         <v>1477</v>
       </c>
-      <c r="R3" s="43">
+      <c r="R3" s="40">
         <v>2</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="46" t="s">
         <v>1484</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="40" t="s">
         <v>1405</v>
       </c>
-      <c r="AA3" s="47" t="s">
+      <c r="AA3" s="44" t="s">
         <v>1479</v>
       </c>
     </row>
+    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R4" s="40">
+        <v>3</v>
+      </c>
+      <c r="S4" s="40">
+        <v>2</v>
+      </c>
+      <c r="T4" s="40">
+        <v>2</v>
+      </c>
+      <c r="U4" s="50" t="s">
+        <v>969</v>
+      </c>
+      <c r="V4" s="49" t="s">
+        <v>1491</v>
+      </c>
+      <c r="W4" s="51" t="s">
+        <v>1492</v>
+      </c>
+      <c r="X4" s="51" t="s">
+        <v>1493</v>
+      </c>
+      <c r="Y4" s="49" t="s">
+        <v>1494</v>
+      </c>
+      <c r="Z4" s="40" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>971</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="U5" s="50" t="s">
+        <v>1490</v>
+      </c>
+      <c r="V5" s="49"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6953,204 +6826,204 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="41"/>
-    <col min="5" max="5" width="11.08984375" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="41"/>
+    <col min="1" max="4" width="8.77734375" style="38"/>
+    <col min="5" max="5" width="11.109375" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>1463</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>1462</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>1461</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>1460</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="38" t="s">
         <v>1459</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="38" t="s">
         <v>1458</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="38" t="s">
         <v>1457</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="38" t="s">
         <v>1456</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="38" t="s">
         <v>1455</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="38" t="s">
         <v>1454</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="38" t="s">
         <v>1453</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="38" t="s">
         <v>1452</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="38" t="s">
         <v>1451</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="38" t="s">
         <v>1450</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Y1" s="38" t="s">
         <v>1449</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Z1" s="38" t="s">
         <v>1448</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AA1" s="38" t="s">
         <v>1447</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="38" t="s">
         <v>1446</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="38" t="s">
         <v>1445</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="38" t="s">
         <v>1444</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="38" t="s">
         <v>1443</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="38" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>1441</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>1440</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>1439</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>1438</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>1437</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>1436</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="39" t="s">
         <v>1435</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="39" t="s">
         <v>1434</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="39" t="s">
         <v>1433</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="39" t="s">
         <v>1432</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="39" t="s">
         <v>1431</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="39" t="s">
         <v>1430</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="39" t="s">
         <v>1429</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="38" t="s">
         <v>1428</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="39" t="s">
         <v>1427</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="39" t="s">
         <v>1426</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="39" t="s">
         <v>1425</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="39" t="s">
         <v>1424</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="39" t="s">
         <v>1423</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="39" t="s">
         <v>1422</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="39" t="s">
         <v>1421</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="39" t="s">
         <v>1420</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="38" t="s">
         <v>1419</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="38" t="s">
         <v>1418</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="38" t="s">
         <v>1417</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="38" t="s">
         <v>1416</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="38" t="s">
         <v>1415</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="38" t="s">
         <v>1414</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="38" t="s">
         <v>1413</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="38" t="s">
         <v>1412</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE2" s="38" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>1410</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>1409</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>1408</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>1407</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>1406</v>
       </c>
-      <c r="W3" s="41">
+      <c r="W3" s="38">
         <v>2</v>
       </c>
-      <c r="X3" s="50" t="s">
+      <c r="X3" s="47" t="s">
         <v>1484</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="38" t="s">
         <v>1405</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7164,204 +7037,204 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="41"/>
-    <col min="5" max="5" width="11.08984375" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="41"/>
+    <col min="1" max="4" width="8.77734375" style="38"/>
+    <col min="5" max="5" width="11.109375" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>1463</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>1462</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>1461</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>1460</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="38" t="s">
         <v>1459</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="38" t="s">
         <v>1458</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="38" t="s">
         <v>1457</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="38" t="s">
         <v>1456</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="38" t="s">
         <v>1455</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="38" t="s">
         <v>1454</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="38" t="s">
         <v>1453</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="38" t="s">
         <v>1452</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="38" t="s">
         <v>1451</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="38" t="s">
         <v>1450</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Y1" s="38" t="s">
         <v>1449</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Z1" s="38" t="s">
         <v>1448</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AA1" s="38" t="s">
         <v>1447</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="38" t="s">
         <v>1446</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="38" t="s">
         <v>1445</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="38" t="s">
         <v>1444</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="38" t="s">
         <v>1443</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="38" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>1441</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>1440</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>1439</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>1438</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>1437</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>1436</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="39" t="s">
         <v>1435</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="39" t="s">
         <v>1434</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="39" t="s">
         <v>1433</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="39" t="s">
         <v>1432</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="39" t="s">
         <v>1431</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="39" t="s">
         <v>1430</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="39" t="s">
         <v>1429</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="38" t="s">
         <v>1428</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="39" t="s">
         <v>1427</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="39" t="s">
         <v>1426</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="39" t="s">
         <v>1425</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="39" t="s">
         <v>1424</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="39" t="s">
         <v>1423</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="39" t="s">
         <v>1422</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="39" t="s">
         <v>1421</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="39" t="s">
         <v>1420</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="38" t="s">
         <v>1419</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="38" t="s">
         <v>1418</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="38" t="s">
         <v>1417</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="38" t="s">
         <v>1416</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="38" t="s">
         <v>1415</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="38" t="s">
         <v>1414</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="38" t="s">
         <v>1413</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="38" t="s">
         <v>1412</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE2" s="38" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>1464</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>1409</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>1408</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>1407</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>1406</v>
       </c>
-      <c r="W3" s="41">
+      <c r="W3" s="38">
         <v>2</v>
       </c>
-      <c r="X3" s="50" t="s">
+      <c r="X3" s="47" t="s">
         <v>1484</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="38" t="s">
         <v>1405</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7372,1590 +7245,1411 @@
   <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" customWidth="1"/>
-    <col min="7" max="7" width="51.08984375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.08984375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="5.90625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" customWidth="1"/>
-    <col min="12" max="23" width="5.36328125" customWidth="1"/>
-    <col min="24" max="24" width="10.08984375" customWidth="1"/>
-    <col min="25" max="25" width="40.36328125" customWidth="1"/>
-    <col min="26" max="26" width="20.08984375" style="9" customWidth="1"/>
-    <col min="27" max="27" width="13.81640625" customWidth="1"/>
-    <col min="28" max="28" width="29.81640625" customWidth="1"/>
-    <col min="29" max="29" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="23" width="5.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="25" max="25" width="40.33203125" customWidth="1"/>
+    <col min="26" max="26" width="20.109375" style="8" customWidth="1"/>
+    <col min="27" max="27" width="13.77734375" customWidth="1"/>
+    <col min="28" max="28" width="29.77734375" customWidth="1"/>
+    <col min="29" max="29" width="25.21875" customWidth="1"/>
     <col min="30" max="30" width="23" customWidth="1"/>
-    <col min="31" max="31" width="27.08984375" customWidth="1"/>
-    <col min="32" max="32" width="29.6328125" customWidth="1"/>
-    <col min="33" max="33" width="28.453125" customWidth="1"/>
-    <col min="34" max="34" width="19.81640625" customWidth="1"/>
-    <col min="35" max="35" width="16.36328125" customWidth="1"/>
-    <col min="36" max="38" width="19.81640625" customWidth="1"/>
-    <col min="39" max="39" width="28.6328125" customWidth="1"/>
-    <col min="40" max="40" width="10.36328125" style="8" customWidth="1"/>
-    <col min="41" max="41" width="6.81640625" style="27" customWidth="1"/>
-    <col min="42" max="42" width="6.81640625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="6.81640625" style="39" customWidth="1"/>
-    <col min="44" max="44" width="21" style="8" customWidth="1"/>
-    <col min="45" max="45" width="20.36328125" style="8" customWidth="1"/>
-    <col min="46" max="46" width="30.81640625" style="8" customWidth="1"/>
-    <col min="47" max="54" width="6.81640625" style="8" customWidth="1"/>
-    <col min="55" max="55" width="5.08984375" style="8" customWidth="1"/>
-    <col min="56" max="56" width="5.90625" style="8" customWidth="1"/>
-    <col min="57" max="59" width="6.81640625" style="8" customWidth="1"/>
-    <col min="60" max="60" width="22.90625" style="8" customWidth="1"/>
-    <col min="61" max="61" width="6.81640625" style="8" customWidth="1"/>
-    <col min="62" max="62" width="24.08984375" customWidth="1"/>
-    <col min="63" max="63" width="12.08984375" customWidth="1"/>
-    <col min="64" max="64" width="20.81640625" customWidth="1"/>
+    <col min="31" max="31" width="27.109375" customWidth="1"/>
+    <col min="32" max="32" width="29.6640625" customWidth="1"/>
+    <col min="33" max="33" width="28.44140625" customWidth="1"/>
+    <col min="34" max="34" width="19.77734375" customWidth="1"/>
+    <col min="35" max="35" width="16.33203125" customWidth="1"/>
+    <col min="36" max="38" width="19.77734375" customWidth="1"/>
+    <col min="39" max="39" width="28.6640625" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" style="7" customWidth="1"/>
+    <col min="41" max="41" width="6.77734375" style="26" customWidth="1"/>
+    <col min="42" max="42" width="6.77734375" style="7" customWidth="1"/>
+    <col min="43" max="43" width="6.77734375" style="36" customWidth="1"/>
+    <col min="44" max="44" width="21" style="7" customWidth="1"/>
+    <col min="45" max="45" width="20.33203125" style="7" customWidth="1"/>
+    <col min="46" max="46" width="30.77734375" style="7" customWidth="1"/>
+    <col min="47" max="54" width="6.77734375" style="7" customWidth="1"/>
+    <col min="55" max="55" width="5.109375" style="7" customWidth="1"/>
+    <col min="56" max="56" width="5.88671875" style="7" customWidth="1"/>
+    <col min="57" max="59" width="6.77734375" style="7" customWidth="1"/>
+    <col min="60" max="60" width="22.88671875" style="7" customWidth="1"/>
+    <col min="61" max="61" width="6.77734375" style="7" customWidth="1"/>
+    <col min="62" max="62" width="24.109375" customWidth="1"/>
+    <col min="63" max="63" width="12.109375" customWidth="1"/>
+    <col min="64" max="64" width="20.77734375" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:65" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21" t="s">
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AL1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" s="21" t="s">
+      <c r="AN1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AO1" s="31" t="s">
+      <c r="AO1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" s="36" t="s">
+      <c r="AQ1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AR1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AU1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AX1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AY1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BA1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BB1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BD1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BE1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BF1" s="24" t="s">
+      <c r="BF1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="BG1" s="11" t="s">
+      <c r="BG1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BI1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="BJ1" s="25" t="s">
+      <c r="BJ1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BK1" s="25" t="s">
+      <c r="BK1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="BL1" s="34" t="s">
+      <c r="BL1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="3" customFormat="1" ht="36.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:65" s="2" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>1403</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <v>1</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="17">
         <v>2</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="17">
         <v>3</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="17">
         <v>4</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="17">
         <v>5</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="17">
         <v>6</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="17">
         <v>7</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="17">
         <v>8</v>
       </c>
-      <c r="T2" s="18">
+      <c r="T2" s="17">
         <v>9</v>
       </c>
-      <c r="U2" s="18">
+      <c r="U2" s="17">
         <v>10</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AD2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AG2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21" t="s">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="31" t="s">
+      <c r="AO2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AP2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AQ2" s="36" t="s">
+      <c r="AQ2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AR2" s="22" t="s">
+      <c r="AR2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AS2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AT2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AU2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="23" t="s">
+      <c r="AV2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AW2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AX2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AY2" s="12" t="s">
+      <c r="AY2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AZ2" s="12" t="s">
+      <c r="AZ2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BA2" s="40" t="s">
+      <c r="BA2" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="BB2" s="40" t="s">
+      <c r="BB2" s="37" t="s">
         <v>1402</v>
       </c>
-      <c r="BC2" s="11" t="s">
+      <c r="BC2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="BD2" s="11" t="s">
+      <c r="BD2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="BE2" s="11" t="s">
+      <c r="BE2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="BF2" s="24" t="s">
+      <c r="BF2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="BG2" s="11" t="s">
+      <c r="BG2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="BH2" s="11" t="s">
+      <c r="BH2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="BI2" s="11" t="s">
+      <c r="BI2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="BJ2" s="25" t="s">
+      <c r="BJ2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="BK2" s="25" t="s">
+      <c r="BK2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="BL2" s="34" t="s">
+      <c r="BL2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BM2" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="4" customFormat="1" ht="15.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+    <row r="3" spans="1:65" s="3" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="13" t="str">
         <f>SUBSTITUTE(C3,"npc_dota_hero_","")</f>
         <v>earthshaker</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="15" t="str">
+      <c r="G3" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,2,FALSE)</f>
         <v>models/heroes/earthshaker/earthshaker.vmdl</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15">
+      <c r="H3" s="13"/>
+      <c r="I3" s="14">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,3,FALSE)</f>
         <v>0.93000000715256004</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15" t="str">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,4,FALSE)</f>
         <v>Hero_Earthshaker</v>
       </c>
-      <c r="Y3" s="15" t="str">
+      <c r="Y3" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,5,FALSE)</f>
         <v>particles/units/heroes/hero_earthshaker</v>
       </c>
-      <c r="Z3" s="20" t="str">
+      <c r="Z3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,6,FALSE)</f>
         <v>soundevents/game_sounds_heroes/game_sounds_earthshaker.vsndevts</v>
       </c>
-      <c r="AA3" s="20" t="str">
+      <c r="AA3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,7,FALSE)</f>
         <v>soundevents/voscripts/game_sounds_vo_earthshaker.vsndevts</v>
       </c>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20" t="str">
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,8,FALSE)</f>
         <v>earthshaker_fissure</v>
       </c>
-      <c r="AI3" s="20" t="str">
+      <c r="AI3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,9,FALSE)</f>
         <v>earthshaker_enchant_totem</v>
       </c>
-      <c r="AJ3" s="20" t="str">
+      <c r="AJ3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,10,FALSE)</f>
         <v>earthshaker_aftershock</v>
       </c>
-      <c r="AK3" s="20" t="str">
+      <c r="AK3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,11,FALSE)</f>
         <v>generic_hidden</v>
       </c>
-      <c r="AL3" s="20" t="str">
+      <c r="AL3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,12,FALSE)</f>
         <v>generic_hidden</v>
       </c>
-      <c r="AM3" s="20" t="str">
+      <c r="AM3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,13,FALSE)</f>
         <v>earthshaker_echo_slam</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="AN3" s="14">
         <v>1</v>
       </c>
-      <c r="AO3" s="32">
+      <c r="AO3" s="30">
         <v>200</v>
       </c>
-      <c r="AP3" s="20">
+      <c r="AP3" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,15,FALSE)</f>
         <v>310</v>
       </c>
-      <c r="AQ3" s="37">
+      <c r="AQ3" s="34">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,16,FALSE)</f>
         <v>0.89999997615813998</v>
       </c>
-      <c r="AR3" s="20" t="str">
+      <c r="AR3" s="19" t="str">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,17,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,17,FALSE))</f>
         <v/>
       </c>
-      <c r="AS3" s="20" t="s">
+      <c r="AS3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AT3" s="20" t="str">
+      <c r="AT3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AU3" s="15">
+      <c r="AU3" s="14">
         <v>5</v>
       </c>
-      <c r="AV3" s="15">
+      <c r="AV3" s="14">
         <v>0</v>
       </c>
-      <c r="AW3" s="15">
+      <c r="AW3" s="14">
         <v>500</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="14">
         <v>0</v>
       </c>
-      <c r="AY3" s="15">
+      <c r="AY3" s="14">
         <v>100</v>
       </c>
-      <c r="AZ3" s="15">
+      <c r="AZ3" s="14">
         <v>0</v>
       </c>
-      <c r="BA3" s="15">
+      <c r="BA3" s="14">
         <v>0</v>
       </c>
-      <c r="BB3" s="15">
+      <c r="BB3" s="14">
         <v>0</v>
       </c>
-      <c r="BC3" s="15">
+      <c r="BC3" s="14">
         <v>50</v>
       </c>
-      <c r="BD3" s="15">
+      <c r="BD3" s="14">
         <v>60</v>
       </c>
-      <c r="BE3" s="20">
+      <c r="BE3" s="19">
         <v>1.5</v>
       </c>
-      <c r="BF3" s="20">
+      <c r="BF3" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,20,FALSE)</f>
         <v>0.46700000762938998</v>
       </c>
-      <c r="BG3" s="20">
+      <c r="BG3" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,21,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="BH3" s="20" t="s">
+      <c r="BH3" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="BI3" s="15">
+      <c r="BI3" s="14">
         <v>70</v>
       </c>
-      <c r="BJ3" s="20" t="str">
+      <c r="BJ3" s="19" t="str">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,22,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,22,FALSE))</f>
         <v/>
       </c>
-      <c r="BK3" s="20">
+      <c r="BK3" s="19">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,23,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,23,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="BM3" s="4">
+      <c r="BM3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>1404</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="13" t="str">
         <f>C3&amp;"_1"</f>
         <v>npc_dota_hero_earthshaker_1</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="13" t="str">
         <f>D3</f>
         <v>earthshaker</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="15" t="str">
+      <c r="G4" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,2,FALSE)</f>
         <v>models/heroes/earthshaker/earthshaker.vmdl</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15">
+      <c r="H4" s="13"/>
+      <c r="I4" s="14">
         <v>0.85</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="28">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="5">
         <v>123</v>
       </c>
-      <c r="M4" s="28">
-        <v>223</v>
-      </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15" t="str">
+      <c r="M4" s="5">
+        <v>223</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,4,FALSE)</f>
         <v>Hero_Earthshaker</v>
       </c>
-      <c r="Y4" s="15" t="str">
+      <c r="Y4" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,5,FALSE)</f>
         <v>particles/units/heroes/hero_earthshaker</v>
       </c>
-      <c r="Z4" s="20" t="str">
+      <c r="Z4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,6,FALSE)</f>
         <v>soundevents/game_sounds_heroes/game_sounds_earthshaker.vsndevts</v>
       </c>
-      <c r="AA4" s="20" t="str">
+      <c r="AA4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,7,FALSE)</f>
         <v>soundevents/voscripts/game_sounds_vo_earthshaker.vsndevts</v>
       </c>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20" t="str">
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,8,FALSE)</f>
         <v>earthshaker_fissure</v>
       </c>
-      <c r="AI4" s="20" t="str">
+      <c r="AI4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,9,FALSE)</f>
         <v>earthshaker_enchant_totem</v>
       </c>
-      <c r="AJ4" s="20" t="str">
+      <c r="AJ4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,10,FALSE)</f>
         <v>earthshaker_aftershock</v>
       </c>
-      <c r="AK4" s="20" t="str">
+      <c r="AK4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,11,FALSE)</f>
         <v>generic_hidden</v>
       </c>
-      <c r="AL4" s="20" t="str">
+      <c r="AL4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,12,FALSE)</f>
         <v>generic_hidden</v>
       </c>
-      <c r="AM4" s="20" t="str">
+      <c r="AM4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,13,FALSE)</f>
         <v>earthshaker_echo_slam</v>
       </c>
-      <c r="AN4" s="15">
+      <c r="AN4" s="14">
         <v>1</v>
       </c>
-      <c r="AO4" s="33">
+      <c r="AO4" s="31">
         <f>AO3</f>
         <v>200</v>
       </c>
-      <c r="AP4" s="20">
+      <c r="AP4" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,15,FALSE)</f>
         <v>310</v>
       </c>
-      <c r="AQ4" s="37">
+      <c r="AQ4" s="34">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,16,FALSE)</f>
         <v>0.89999997615813998</v>
       </c>
-      <c r="AR4" s="20" t="str">
+      <c r="AR4" s="19" t="str">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,17,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,17,FALSE))</f>
         <v/>
       </c>
-      <c r="AS4" s="20" t="s">
+      <c r="AS4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AT4" s="20" t="str">
+      <c r="AT4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AU4" s="15">
+      <c r="AU4" s="14">
         <v>5</v>
       </c>
-      <c r="AV4" s="15">
+      <c r="AV4" s="14">
         <v>0</v>
       </c>
-      <c r="AW4" s="15">
+      <c r="AW4" s="14">
         <v>500</v>
       </c>
-      <c r="AX4" s="15">
+      <c r="AX4" s="14">
         <v>0</v>
       </c>
-      <c r="AY4" s="15">
+      <c r="AY4" s="14">
         <v>100</v>
       </c>
-      <c r="AZ4" s="15">
+      <c r="AZ4" s="14">
         <v>0</v>
       </c>
-      <c r="BA4" s="15">
+      <c r="BA4" s="14">
         <v>0</v>
       </c>
-      <c r="BB4" s="15">
+      <c r="BB4" s="14">
         <v>0</v>
       </c>
-      <c r="BC4" s="15">
+      <c r="BC4" s="14">
         <f>BC3</f>
         <v>50</v>
       </c>
-      <c r="BD4" s="15">
+      <c r="BD4" s="14">
         <f>BD3</f>
         <v>60</v>
       </c>
-      <c r="BE4" s="20">
+      <c r="BE4" s="19">
         <v>1.5</v>
       </c>
-      <c r="BF4" s="20">
+      <c r="BF4" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,20,FALSE)</f>
         <v>0.46700000762938998</v>
       </c>
-      <c r="BG4" s="20">
+      <c r="BG4" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,21,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="BH4" s="20" t="s">
+      <c r="BH4" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="BI4" s="15">
+      <c r="BI4" s="14">
         <v>70</v>
       </c>
-      <c r="BJ4" s="20" t="str">
+      <c r="BJ4" s="19" t="str">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,22,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,22,FALSE))</f>
         <v/>
       </c>
-      <c r="BK4" s="20">
+      <c r="BK4" s="19">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,23,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,23,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="5">
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="Z5" s="26"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="17"/>
-      <c r="BA5" s="17"/>
-      <c r="BB5" s="17"/>
-      <c r="BC5" s="17"/>
-      <c r="BD5" s="17"/>
-      <c r="BE5" s="17"/>
-      <c r="BF5" s="17"/>
-      <c r="BG5" s="17"/>
-      <c r="BH5" s="17"/>
-      <c r="BI5" s="17"/>
-    </row>
-    <row r="6" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="Z6" s="26"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="17"/>
-      <c r="BA6" s="17"/>
-      <c r="BB6" s="17"/>
-      <c r="BC6" s="17"/>
-      <c r="BD6" s="17"/>
-      <c r="BE6" s="17"/>
-      <c r="BF6" s="17"/>
-      <c r="BG6" s="17"/>
-      <c r="BH6" s="17"/>
-      <c r="BI6" s="17"/>
-    </row>
-    <row r="7" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="Z7" s="26"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17"/>
-    </row>
-    <row r="8" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="Z8" s="26"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
-      <c r="BA8" s="17"/>
-      <c r="BB8" s="17"/>
-      <c r="BC8" s="17"/>
-      <c r="BD8" s="17"/>
-      <c r="BE8" s="17"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="17"/>
-      <c r="BH8" s="17"/>
-      <c r="BI8" s="17"/>
-    </row>
-    <row r="9" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="Z9" s="26"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-    </row>
-    <row r="10" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="Z10" s="26"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-      <c r="BI10" s="17"/>
-    </row>
-    <row r="11" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="Z11" s="26"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-      <c r="BI11" s="17"/>
-    </row>
-    <row r="12" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="Z12" s="26"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-    </row>
-    <row r="13" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="Z13" s="26"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-    </row>
-    <row r="14" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="Z14" s="26"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-    </row>
-    <row r="15" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-      <c r="Z15" s="26"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-      <c r="BI15" s="17"/>
-    </row>
-    <row r="16" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="Z16" s="26"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-      <c r="BI16" s="17"/>
-    </row>
-    <row r="17" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="Z17" s="26"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-      <c r="BI17" s="17"/>
-    </row>
-    <row r="18" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="Z18" s="26"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="17"/>
-      <c r="BI18" s="17"/>
-    </row>
-    <row r="19" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="Z19" s="26"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="17"/>
-      <c r="BH19" s="17"/>
-      <c r="BI19" s="17"/>
-    </row>
-    <row r="20" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="Z20" s="26"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
-      <c r="BI20" s="17"/>
+    <row r="5" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="Z5" s="25"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="16"/>
+    </row>
+    <row r="6" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="Z6" s="25"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="16"/>
+    </row>
+    <row r="7" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="Z7" s="25"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+    </row>
+    <row r="8" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="Z8" s="25"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+    </row>
+    <row r="9" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="Z9" s="25"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+    </row>
+    <row r="10" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="Z10" s="25"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+    </row>
+    <row r="11" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="Z11" s="25"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16"/>
+      <c r="BI11" s="16"/>
+    </row>
+    <row r="12" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="Z12" s="25"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+      <c r="BI12" s="16"/>
+    </row>
+    <row r="13" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="Z13" s="25"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+    </row>
+    <row r="14" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="Z14" s="25"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+    </row>
+    <row r="15" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="Z15" s="25"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="16"/>
+      <c r="BF15" s="16"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="16"/>
+      <c r="BI15" s="16"/>
+    </row>
+    <row r="16" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="Z16" s="25"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="16"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="16"/>
+      <c r="BI16" s="16"/>
+    </row>
+    <row r="17" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="Z17" s="25"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+    </row>
+    <row r="18" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="Z18" s="25"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+    </row>
+    <row r="19" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="Z19" s="25"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="16"/>
+      <c r="BD19" s="16"/>
+      <c r="BE19" s="16"/>
+      <c r="BF19" s="16"/>
+      <c r="BG19" s="16"/>
+      <c r="BH19" s="16"/>
+      <c r="BI19" s="16"/>
+    </row>
+    <row r="20" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="Z20" s="25"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="16"/>
+      <c r="BI20" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:BK4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="X3 A3:D4">
-    <cfRule type="containsText" dxfId="79" priority="1663" operator="containsText" text="_custom">
+  <phoneticPr fontId="17" type="noConversion"/>
+  <conditionalFormatting sqref="A3:D4">
+    <cfRule type="containsText" dxfId="30" priority="1663" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="containsText" dxfId="78" priority="1664" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",Y3)))</formula>
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="29" priority="1787" operator="equal">
+      <formula>"metal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="1788" operator="equal">
+      <formula>"earth"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="1789" operator="equal">
+      <formula>"fire"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="1790" operator="equal">
+      <formula>"wood"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="1791" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
-    <cfRule type="containsText" dxfId="77" priority="1665" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",Z3)))</formula>
+  <conditionalFormatting sqref="E5:E21">
+    <cfRule type="cellIs" dxfId="24" priority="1398" operator="equal">
+      <formula>"metal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="1399" operator="equal">
+      <formula>"earth"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="1400" operator="equal">
+      <formula>"fire"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="1401" operator="equal">
+      <formula>"wood"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="1402" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AC3">
-    <cfRule type="containsText" dxfId="76" priority="1662" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AA3)))</formula>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="containsText" dxfId="19" priority="1793" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3">
-    <cfRule type="containsText" dxfId="75" priority="1661" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AH3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI3">
-    <cfRule type="containsText" dxfId="74" priority="1660" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AI3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3:AM3">
-    <cfRule type="containsText" dxfId="73" priority="1659" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AJ3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR3">
-    <cfRule type="containsText" dxfId="72" priority="1651" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AR3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="1652" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AR3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="1653" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AR3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF3">
-    <cfRule type="containsText" dxfId="69" priority="1643" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="1644" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="1645" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="1646" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG3">
-    <cfRule type="containsText" dxfId="65" priority="1639" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BG3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="1640" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BG3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="1641" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BG3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="1642" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BG3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ3">
-    <cfRule type="containsText" dxfId="61" priority="1632" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="1633" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="1634" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="1635" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="1636" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="1637" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="1638" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BJ3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK3">
-    <cfRule type="containsText" dxfId="54" priority="1625" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BK3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="1626" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BK3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="1627" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BK3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="1628" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BK3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="1629" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BK3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="1630" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BK3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="1631" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BK3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="containsText" dxfId="47" priority="1668" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",X4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4">
-    <cfRule type="containsText" dxfId="46" priority="1667" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",Y4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
-    <cfRule type="containsText" dxfId="45" priority="1666" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",Z4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG5:BK1048576 AO4:AV4 J4:K4 Q4:AD4 A3:I4 AF3:AN4 J3:AD3 BI3:XFD4 AY4:BG4 AO3:BG3">
-    <cfRule type="expression" dxfId="44" priority="1547">
+  <conditionalFormatting sqref="J3:AD3 Q4:AD4 A3:I4 J4:K4 BG5:BK1048576">
+    <cfRule type="expression" dxfId="18" priority="1547">
       <formula>$AT3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT1:AT1048576">
-    <cfRule type="containsText" dxfId="43" priority="1457" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="1458" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
+  <conditionalFormatting sqref="X3:AC4">
+    <cfRule type="containsText" dxfId="17" priority="1662" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",X3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E21">
-    <cfRule type="cellIs" dxfId="41" priority="1398" operator="equal">
-      <formula>"metal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="1399" operator="equal">
-      <formula>"earth"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="1400" operator="equal">
-      <formula>"fire"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="1401" operator="equal">
-      <formula>"wood"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="1402" operator="equal">
-      <formula>"water"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD4">
-    <cfRule type="containsText" dxfId="36" priority="1475" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AD3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BE4">
-    <cfRule type="containsText" dxfId="35" priority="1618" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BE3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="1619" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BE3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="1620" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BE3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="1621" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BE3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="1622" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BE3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="1623" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BE3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="1624" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BE3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH3:BH4">
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BH3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BH3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BH3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="9">
-      <formula>$AT3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF4:BG4 BJ4:BK4">
-    <cfRule type="containsText" dxfId="24" priority="1794" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="1795" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG1:BK2">
-    <cfRule type="expression" dxfId="22" priority="1796">
-      <formula>$AT1="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW4:AX4">
-    <cfRule type="expression" dxfId="21" priority="318">
-      <formula>$AT4="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH4:AM4 BF4:BG4 AO4:AT4 G3:G4 AA4:AC4 BJ4:BK4">
-    <cfRule type="containsText" dxfId="20" priority="1793" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",G3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="19" priority="1787" operator="equal">
-      <formula>"metal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="1788" operator="equal">
-      <formula>"earth"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="1789" operator="equal">
-      <formula>"fire"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="1790" operator="equal">
-      <formula>"wood"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="1791" operator="equal">
-      <formula>"water"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
-    <cfRule type="containsText" dxfId="14" priority="564" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AC3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="566" operator="containsText" text="_custom">
+  <conditionalFormatting sqref="AC3:AD4">
+    <cfRule type="containsText" dxfId="16" priority="563" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AC3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AG4">
-    <cfRule type="containsText" dxfId="12" priority="196" operator="containsText" text="_custom">
+    <cfRule type="containsText" dxfId="15" priority="196" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AF3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO3">
-    <cfRule type="containsText" dxfId="11" priority="1658" operator="containsText" text="_custom">
+  <conditionalFormatting sqref="AF3:BG4">
+    <cfRule type="expression" dxfId="14" priority="318">
+      <formula>$AT3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AM4">
+    <cfRule type="containsText" dxfId="13" priority="1659" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",AH3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO3:AT4">
+    <cfRule type="containsText" dxfId="12" priority="1647" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AO3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP3">
-    <cfRule type="containsText" dxfId="10" priority="1656" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AP3)))</formula>
+  <conditionalFormatting sqref="AT1:AT1048576">
+    <cfRule type="containsText" dxfId="11" priority="1457" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="1657" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AP3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ3">
-    <cfRule type="containsText" dxfId="8" priority="1654" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AQ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="1655" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AQ3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS3">
-    <cfRule type="containsText" dxfId="6" priority="1649" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AS3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="1650" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AS3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT3">
-    <cfRule type="containsText" dxfId="4" priority="1647" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AT3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1648" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AT3)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="1458" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE3:BE4">
-    <cfRule type="containsBlanks" dxfId="2" priority="1792">
+    <cfRule type="containsBlanks" dxfId="9" priority="1792">
       <formula>LEN(TRIM(BE3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC4">
-    <cfRule type="containsText" dxfId="1" priority="563" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AC4)))</formula>
+  <conditionalFormatting sqref="BE3:BG4">
+    <cfRule type="containsText" dxfId="8" priority="1618" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",BE3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="565" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AC4)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE3:BH4">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BE3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BE3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG1:BK2">
+    <cfRule type="expression" dxfId="5" priority="1796">
+      <formula>$AT1="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH3:BH4">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",BH3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH3:XFD4">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$AT3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ3:BK4">
+    <cfRule type="containsText" dxfId="2" priority="1625" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1630" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BJ3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1631" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BJ3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8967,46 +8661,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="42.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="22.08984375" customWidth="1"/>
-    <col min="10" max="10" width="18.08984375" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.08984375" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>126</v>
       </c>
       <c r="B2" t="s">
@@ -9015,7 +8709,7 @@
       <c r="C2" s="1">
         <v>0.79000002145767001</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>216</v>
       </c>
       <c r="E2" t="s">
@@ -9079,7 +8773,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -9153,7 +8847,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -9227,7 +8921,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -9301,7 +8995,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -9375,7 +9069,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -9449,7 +9143,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -9523,7 +9217,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -9597,7 +9291,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -9671,7 +9365,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -9745,9 +9439,9 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>1487</v>
       </c>
       <c r="B12" t="s">
         <v>316</v>
@@ -9819,9 +9513,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>1488</v>
       </c>
       <c r="B13" t="s">
         <v>326</v>
@@ -9893,7 +9587,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -9967,7 +9661,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -10041,8 +9735,8 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>358</v>
       </c>
       <c r="B16" t="s">
@@ -10115,7 +9809,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -10189,7 +9883,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -10263,7 +9957,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>389</v>
       </c>
@@ -10337,7 +10031,7 @@
         <v>1.6000000238419001</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>204</v>
       </c>
@@ -10411,7 +10105,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -10485,7 +10179,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -10559,7 +10253,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -10633,7 +10327,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>439</v>
       </c>
@@ -10707,7 +10401,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -10781,7 +10475,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -10855,7 +10549,7 @@
         <v>1.6000000238419001</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>184</v>
       </c>
@@ -10929,7 +10623,7 @@
         <v>1.6000000238419001</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -11003,7 +10697,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -11077,7 +10771,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -11151,7 +10845,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -11225,7 +10919,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -11299,7 +10993,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -11373,7 +11067,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -11447,7 +11141,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -11521,7 +11215,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -11595,7 +11289,7 @@
         <v>1.3999999761580999</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -11669,7 +11363,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -11743,7 +11437,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -11817,7 +11511,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>595</v>
       </c>
@@ -11873,7 +11567,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -11947,7 +11641,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>608</v>
       </c>
@@ -12003,7 +11697,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>206</v>
       </c>
@@ -12077,7 +11771,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -12151,7 +11845,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -12225,7 +11919,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -12299,7 +11993,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -12373,7 +12067,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -12447,7 +12141,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -12521,7 +12215,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -12595,7 +12289,7 @@
         <v>1.8999999761580999</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -12669,7 +12363,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -12743,7 +12437,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>173</v>
       </c>
@@ -12817,7 +12511,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -12891,7 +12585,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -12965,7 +12659,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -13039,7 +12733,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -13113,7 +12807,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -13187,7 +12881,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -13261,7 +12955,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -13335,7 +13029,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -13409,7 +13103,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -13483,7 +13177,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -13557,7 +13251,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>198</v>
       </c>
@@ -13631,7 +13325,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -13705,7 +13399,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -13779,7 +13473,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -13853,7 +13547,7 @@
         <v>1.8999999761580999</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -13927,7 +13621,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -14001,7 +13695,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -14075,7 +13769,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>179</v>
       </c>
@@ -14149,7 +13843,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -14223,7 +13917,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>195</v>
       </c>
@@ -14297,7 +13991,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>194</v>
       </c>
@@ -14371,7 +14065,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -14445,7 +14139,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -14519,7 +14213,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>130</v>
       </c>
@@ -14593,7 +14287,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -14667,7 +14361,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>209</v>
       </c>
@@ -14741,7 +14435,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -14815,7 +14509,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>193</v>
       </c>
@@ -14889,7 +14583,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -14963,7 +14657,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -15037,7 +14731,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -15111,7 +14805,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -15185,7 +14879,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -15259,7 +14953,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>192</v>
       </c>
@@ -15333,7 +15027,7 @@
         <v>1.8999999761580999</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>191</v>
       </c>
@@ -15407,7 +15101,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -15481,7 +15175,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -15555,7 +15249,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -15629,7 +15323,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -15703,7 +15397,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -15777,7 +15471,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -15851,7 +15545,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -15925,7 +15619,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -15999,7 +15693,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -16073,7 +15767,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -16147,7 +15841,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -16221,7 +15915,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -16295,7 +15989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>137</v>
       </c>
@@ -16369,7 +16063,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>185</v>
       </c>
@@ -16443,7 +16137,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>159</v>
       </c>
@@ -16517,7 +16211,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>132</v>
       </c>
@@ -16591,7 +16285,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>169</v>
       </c>
@@ -16665,7 +16359,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>162</v>
       </c>
@@ -16739,7 +16433,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>182</v>
       </c>
@@ -16813,7 +16507,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -16887,7 +16581,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>171</v>
       </c>
@@ -16961,7 +16655,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>165</v>
       </c>
@@ -17035,7 +16729,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>201</v>
       </c>
@@ -17109,7 +16803,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>147</v>
       </c>
@@ -17183,7 +16877,7 @@
         <v>1.3999999761580999</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>170</v>
       </c>
@@ -17257,7 +16951,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>138</v>
       </c>
@@ -17331,7 +17025,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>168</v>
       </c>
@@ -17405,7 +17099,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>101</v>
       </c>
@@ -17479,7 +17173,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -17553,7 +17247,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>155</v>
       </c>
@@ -17627,7 +17321,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>151</v>
       </c>
@@ -17701,7 +17395,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>158</v>
       </c>
@@ -17775,7 +17469,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -17849,7 +17543,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>178</v>
       </c>
@@ -17924,7 +17618,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D47068-547A-494B-ACBE-B3F3ADD09662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E5E7E-7355-43F3-9ADA-00BE4CC1A976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9036" yWindow="1308" windowWidth="20916" windowHeight="13200" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12012" yWindow="912" windowWidth="16392" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="__OriginalData" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">minions!$A$1:$BK$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">minions!$A$1:$BL$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="1560">
   <si>
     <t>主键</t>
   </si>
@@ -1572,9 +1572,6 @@
     <t>skeleton_king_mortal_strike</t>
   </si>
   <si>
-    <t>skeleton_king_reincarnation</t>
-  </si>
-  <si>
     <t>models/heroes/slark/slark.vmdl</t>
   </si>
   <si>
@@ -2760,9 +2757,6 @@
     <t>models/heroes/disruptor/disruptor.vmdl</t>
   </si>
   <si>
-    <t>Hero_Disruptor</t>
-  </si>
-  <si>
     <t>particles/units/heroes/hero_disruptor</t>
   </si>
   <si>
@@ -4249,43 +4243,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4316,39 +4310,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4373,255 +4367,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroNames</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>HeroNames</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua_phantom_strike</t>
-  </si>
-  <si>
-    <t>phantom_assassin_coup_de_grace</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_TARGET_FLAG_NONE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ability/phantom_assassin/lua_phantom_strike</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4640,110 +4609,331 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_reincarnation</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_Disruptor</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability_phantom_strike</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uration 160</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+  </si>
+  <si>
+    <t>学习要求等级</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequiredLevel</t>
+  </si>
+  <si>
+    <t>升级间隔等级</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelsBetweenUpgrades</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>phantom_assassin_phantom_strike</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标队伍</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilitySound</t>
+  </si>
+  <si>
+    <t>施法音效</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_PhantomAssassin.Strike.Start</t>
+  </si>
+  <si>
+    <t>施法范围</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCastRange</t>
+  </si>
+  <si>
+    <t>AbilityCastPoint</t>
+  </si>
+  <si>
+    <t>施法前摇</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法动画</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityCastAnimation</t>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_2</t>
+  </si>
+  <si>
+    <t>AbilityType</t>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_TYPE_BASIC</t>
+  </si>
+  <si>
+    <t>Hero_PhantomAssassin.CoupDeGrace</t>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_4</t>
+  </si>
+  <si>
+    <t>UnitRelationshipClass</t>
+  </si>
+  <si>
+    <t>单位相关类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_times 1 2 3</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00 1600 2000</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00 1600 2000</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_NONE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityUnitTargetTeam</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_ENEMY | DOTA_UNIT_TARGET_TEAM_NONE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_OPTIONAL_NO_TARGET</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability/phantom_assassin/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ability_phantom_strike</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4754,12 +4944,26 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4901,6 +5105,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4909,6 +5114,14 @@
       <color rgb="FF1C1E21"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -5011,18 +5224,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5033,22 +5246,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5057,28 +5270,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5087,28 +5300,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5117,32 +5330,55 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5677,26 +5913,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>1474</v>
+        <v>1462</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="40" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>1471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>1473</v>
       </c>
       <c r="B3" s="38">
         <v>0</v>
@@ -6264,7 +6500,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B74" s="38">
         <v>0</v>
@@ -6634,7 +6870,7 @@
       <c r="A120" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="B120" s="53">
+      <c r="B120" s="43">
         <v>0</v>
       </c>
     </row>
@@ -6648,7 +6884,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="38" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="B122" s="38">
         <v>0</v>
@@ -6656,7 +6892,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="38" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="B123" s="38">
         <v>0</v>
@@ -6664,7 +6900,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="38" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="B124" s="38">
         <v>0</v>
@@ -6672,7 +6908,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="38" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="B125" s="38">
         <v>0</v>
@@ -6680,14 +6916,14 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="38" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="B126" s="38">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6695,256 +6931,394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="40" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="40"/>
+    <col min="1" max="1" width="32" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="47" customWidth="1"/>
+    <col min="4" max="4" width="32" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="2.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="47"/>
+    <col min="15" max="16" width="2.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" style="47" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" style="47" customWidth="1"/>
+    <col min="21" max="22" width="16" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="37" style="47" customWidth="1"/>
+    <col min="27" max="27" width="32.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="35.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.77734375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>1460</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F1" s="40" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>1459</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="D1" s="47" t="s">
         <v>1458</v>
       </c>
-      <c r="R1" s="40" t="s">
-        <v>1449</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>1448</v>
-      </c>
-      <c r="T1" s="40" t="s">
+      <c r="E1" s="46" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>1456</v>
+      </c>
+      <c r="R1" s="47" t="s">
         <v>1447</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="S1" s="49" t="s">
+        <v>1525</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>1527</v>
+      </c>
+      <c r="U1" s="47" t="s">
         <v>1446</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="47" t="s">
         <v>1445</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="49" t="s">
+        <v>1529</v>
+      </c>
+      <c r="X1" s="47" t="s">
+        <v>1443</v>
+      </c>
+      <c r="Y1" s="49" t="s">
+        <v>1543</v>
+      </c>
+      <c r="Z1" s="54" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AA1" s="47" t="s">
         <v>1444</v>
       </c>
-      <c r="X1" s="40" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Y1" s="40" t="s">
-        <v>1442</v>
-      </c>
-      <c r="Z1" s="40" t="s">
+      <c r="AB1" s="49" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AC1" s="47" t="s">
         <v>1441</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AD1" s="47" t="s">
         <v>1440</v>
       </c>
-      <c r="AB1" s="49" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="AE1" s="47" t="s">
         <v>1439</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="AF1" s="49" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AG1" s="49" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AH1" s="49" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AI1" s="49" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AJ1" s="47" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AK1" s="50" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>1430</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>1428</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>1426</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>1425</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>1415</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>1526</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>1528</v>
+      </c>
+      <c r="U2" s="47" t="s">
+        <v>1414</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W2" s="49" t="s">
+        <v>1529</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>1542</v>
+      </c>
+      <c r="Z2" s="54" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AH2" s="49" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AI2" s="49" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AJ2" s="41" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AK2" s="50" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>1478</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C3" s="48" t="s">
         <v>1479</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>1436</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>1435</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>1434</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>1433</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>1432</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>1431</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>1430</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>1429</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>1428</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>1427</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>1426</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>1417</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>1416</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>1415</v>
-      </c>
-      <c r="U2" s="40" t="s">
-        <v>1414</v>
-      </c>
-      <c r="V2" s="40" t="s">
-        <v>1413</v>
-      </c>
-      <c r="W2" s="40" t="s">
-        <v>1412</v>
-      </c>
-      <c r="X2" s="40" t="s">
-        <v>1411</v>
-      </c>
-      <c r="Y2" s="40" t="s">
-        <v>1410</v>
-      </c>
-      <c r="Z2" s="40" t="s">
-        <v>1409</v>
-      </c>
-      <c r="AA2" s="43" t="s">
-        <v>1476</v>
-      </c>
-      <c r="AB2" s="49" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="D3" s="52" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>1464</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>1473</v>
+      </c>
+      <c r="R3" s="47">
+        <v>2</v>
+      </c>
+      <c r="U3" s="52" t="s">
         <v>1480</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>1484</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>1406</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>1468</v>
-      </c>
-      <c r="J3" s="46" t="s">
+      <c r="V3" s="47" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AJ3" s="41" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="42.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="52" t="s">
         <v>1467</v>
       </c>
-      <c r="K3" s="40" t="s">
-        <v>1466</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>1475</v>
-      </c>
-      <c r="R3" s="40">
+      <c r="F4" s="54" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>1554</v>
+      </c>
+      <c r="R4" s="47">
+        <v>3</v>
+      </c>
+      <c r="S4" s="47">
+        <v>0</v>
+      </c>
+      <c r="T4" s="47">
+        <v>10</v>
+      </c>
+      <c r="U4" s="54">
+        <v>3</v>
+      </c>
+      <c r="V4" s="54">
         <v>2</v>
       </c>
-      <c r="S3" s="46" t="s">
-        <v>1482</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>1403</v>
-      </c>
-      <c r="AA3" s="44" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>1469</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>1496</v>
-      </c>
-      <c r="R4" s="40">
+      <c r="W4" s="47">
+        <v>5191</v>
+      </c>
+      <c r="X4" s="54" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="54" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AA4" s="55" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="47" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AF4" s="47" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AG4" s="49" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AH4" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="AI4" s="47" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>967</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="H5" s="49" t="s">
+        <v>1523</v>
+      </c>
+      <c r="R5" s="47">
         <v>3</v>
       </c>
-      <c r="S4" s="40">
-        <v>2</v>
-      </c>
-      <c r="T4" s="40">
-        <v>2</v>
-      </c>
-      <c r="U4" s="50" t="s">
+      <c r="S5" s="47">
+        <v>0</v>
+      </c>
+      <c r="T5" s="47">
+        <v>10</v>
+      </c>
+      <c r="W5" s="47">
+        <v>5193</v>
+      </c>
+      <c r="X5" s="50" t="s">
+        <v>1524</v>
+      </c>
+      <c r="Y5" s="50" t="s">
+        <v>1544</v>
+      </c>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="57" t="s">
         <v>967</v>
       </c>
-      <c r="V4" s="49" t="s">
-        <v>1489</v>
-      </c>
-      <c r="W4" s="51" t="s">
-        <v>1490</v>
-      </c>
-      <c r="X4" s="51" t="s">
-        <v>1491</v>
-      </c>
-      <c r="Y4" s="49" t="s">
-        <v>1492</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
-        <v>969</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>969</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="U5" s="50" t="s">
-        <v>1488</v>
-      </c>
-      <c r="V5" s="49"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="47" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AF5" s="47" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AI5" s="47" t="s">
+        <v>1546</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6967,195 +7341,195 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="Q1" s="38" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="R1" s="38" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="T1" s="38" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="U1" s="38" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="V1" s="38" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="X1" s="38" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="Y1" s="38" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="Z1" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="AA1" s="38" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="AB1" s="38" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="AC1" s="38" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="AD1" s="38" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="AE1" s="38" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="AF1" s="38" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="T2" s="39" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="W2" s="38" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="X2" s="38" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="Y2" s="38" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Z2" s="38" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="AA2" s="38" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AB2" s="38" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="AC2" s="38" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="AD2" s="38" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="AE2" s="38" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>1405</v>
+        <v>1404</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>1403</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="W3" s="38">
         <v>2</v>
       </c>
-      <c r="X3" s="47" t="s">
-        <v>1482</v>
+      <c r="X3" s="42" t="s">
+        <v>1480</v>
       </c>
       <c r="Y3" s="38" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7178,195 +7552,195 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="Q1" s="38" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="R1" s="38" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="T1" s="38" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="U1" s="38" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="V1" s="38" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="X1" s="38" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="Y1" s="38" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="Z1" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="AA1" s="38" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="AB1" s="38" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="AC1" s="38" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="AD1" s="38" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="AE1" s="38" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="AF1" s="38" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="T2" s="39" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="W2" s="38" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="X2" s="38" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="Y2" s="38" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Z2" s="38" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="AA2" s="38" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AB2" s="38" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="AC2" s="38" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="AD2" s="38" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="AE2" s="38" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>1405</v>
+        <v>1404</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>1403</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="W3" s="38">
         <v>2</v>
       </c>
-      <c r="X3" s="47" t="s">
-        <v>1482</v>
+      <c r="X3" s="42" t="s">
+        <v>1480</v>
       </c>
       <c r="Y3" s="38" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7374,13 +7748,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT20"/>
+  <dimension ref="A1:BV20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BO5" sqref="BO5:BO7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7394,9 +7768,11 @@
     <col min="7" max="7" width="51.109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="5.109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="5.88671875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="23" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="5.33203125" customWidth="1"/>
     <col min="24" max="24" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="39" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="75.77734375" style="8" bestFit="1" customWidth="1"/>
@@ -7417,27 +7793,28 @@
     <col min="43" max="43" width="10" style="36" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="21" style="7" customWidth="1"/>
     <col min="45" max="45" width="33.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="30.77734375" style="7" customWidth="1"/>
-    <col min="47" max="54" width="6.77734375" style="7" customWidth="1"/>
-    <col min="55" max="55" width="5.109375" style="7" customWidth="1"/>
-    <col min="56" max="56" width="5.88671875" style="7" customWidth="1"/>
-    <col min="57" max="59" width="6.77734375" style="7" customWidth="1"/>
-    <col min="60" max="60" width="22.88671875" style="7" customWidth="1"/>
-    <col min="61" max="61" width="6.77734375" style="7" customWidth="1"/>
-    <col min="62" max="62" width="24.109375" customWidth="1"/>
-    <col min="63" max="63" width="12.109375" customWidth="1"/>
-    <col min="64" max="64" width="20.77734375" customWidth="1"/>
-    <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="32.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="32.6640625" style="7" customWidth="1"/>
+    <col min="48" max="55" width="6.77734375" style="7" customWidth="1"/>
+    <col min="56" max="56" width="5.109375" style="7" customWidth="1"/>
+    <col min="57" max="57" width="5.88671875" style="7" customWidth="1"/>
+    <col min="58" max="60" width="6.77734375" style="7" customWidth="1"/>
+    <col min="61" max="61" width="22.88671875" style="7" customWidth="1"/>
+    <col min="62" max="62" width="6.77734375" style="7" customWidth="1"/>
+    <col min="63" max="63" width="24.109375" customWidth="1"/>
+    <col min="64" max="64" width="12.109375" customWidth="1"/>
+    <col min="65" max="66" width="20.77734375" customWidth="1"/>
+    <col min="67" max="67" width="13" customWidth="1"/>
+    <col min="68" max="68" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7540,86 +7917,92 @@
       <c r="AT1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AU1" s="20" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BB1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BC1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BD1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BE1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BF1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BF1" s="23" t="s">
+      <c r="BG1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BH1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BI1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="BJ1" s="24" t="s">
+      <c r="BK1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BK1" s="24" t="s">
+      <c r="BL1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="44" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BN1" s="54" t="s">
+      <c r="BP1" s="44" t="s">
+        <v>1506</v>
+      </c>
+      <c r="BQ1" s="44" t="s">
+        <v>1514</v>
+      </c>
+      <c r="BR1" s="44" t="s">
         <v>1515</v>
       </c>
-      <c r="BO1" s="54" t="s">
-        <v>1523</v>
-      </c>
-      <c r="BP1" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="BQ1" s="54" t="s">
-        <v>1525</v>
-      </c>
-      <c r="BR1" s="54" t="s">
-        <v>1526</v>
-      </c>
-      <c r="BS1" s="54" t="s">
-        <v>1527</v>
-      </c>
-      <c r="BT1" s="54" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="2" spans="1:72" s="2" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BS1" s="44" t="s">
+        <v>1516</v>
+      </c>
+      <c r="BT1" s="44" t="s">
+        <v>1517</v>
+      </c>
+      <c r="BU1" s="44" t="s">
+        <v>1518</v>
+      </c>
+      <c r="BV1" s="44" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" s="2" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -7644,7 +8027,7 @@
         <v>53</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>54</v>
@@ -7725,7 +8108,7 @@
         <v>66</v>
       </c>
       <c r="AO2" s="29" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="AP2" s="11" t="s">
         <v>67</v>
@@ -7740,88 +8123,94 @@
         <v>70</v>
       </c>
       <c r="AT2" s="10" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB2" s="37" t="s">
+        <v>1397</v>
+      </c>
+      <c r="BC2" s="37" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK2" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN2" s="44" t="s">
+        <v>1551</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP2" s="44" t="s">
+        <v>1505</v>
+      </c>
+      <c r="BQ2" s="44" t="s">
+        <v>1508</v>
+      </c>
+      <c r="BR2" s="44" t="s">
+        <v>1509</v>
+      </c>
+      <c r="BS2" s="44" t="s">
         <v>1510</v>
       </c>
-      <c r="AU2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA2" s="37" t="s">
-        <v>1399</v>
-      </c>
-      <c r="BB2" s="37" t="s">
-        <v>1400</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ2" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK2" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN2" s="54" t="s">
-        <v>1514</v>
-      </c>
-      <c r="BO2" s="54" t="s">
-        <v>1517</v>
-      </c>
-      <c r="BP2" s="54" t="s">
-        <v>1518</v>
-      </c>
-      <c r="BQ2" s="54" t="s">
-        <v>1519</v>
-      </c>
-      <c r="BR2" s="54" t="s">
-        <v>1520</v>
-      </c>
-      <c r="BS2" s="54" t="s">
-        <v>1521</v>
-      </c>
-      <c r="BT2" s="54" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:72" s="3" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT2" s="44" t="s">
+        <v>1511</v>
+      </c>
+      <c r="BU2" s="44" t="s">
+        <v>1512</v>
+      </c>
+      <c r="BV2" s="44" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" s="3" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -7931,23 +8320,21 @@
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AU3" s="14">
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="14">
         <v>5</v>
       </c>
-      <c r="AV3" s="14">
+      <c r="AW3" s="14">
         <v>0</v>
       </c>
-      <c r="AW3" s="14">
+      <c r="AX3" s="14">
         <v>500</v>
       </c>
-      <c r="AX3" s="14">
+      <c r="AY3" s="14">
         <v>0</v>
       </c>
-      <c r="AY3" s="14">
+      <c r="AZ3" s="14">
         <v>100</v>
-      </c>
-      <c r="AZ3" s="14">
-        <v>0</v>
       </c>
       <c r="BA3" s="14">
         <v>0</v>
@@ -7956,43 +8343,46 @@
         <v>0</v>
       </c>
       <c r="BC3" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="14">
         <v>50</v>
       </c>
-      <c r="BD3" s="14">
+      <c r="BE3" s="14">
         <v>60</v>
       </c>
-      <c r="BE3" s="19">
+      <c r="BF3" s="19">
         <v>1.5</v>
       </c>
-      <c r="BF3" s="19">
+      <c r="BG3" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,20,FALSE)</f>
         <v>0.46700000762938998</v>
       </c>
-      <c r="BG3" s="19">
+      <c r="BH3" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,21,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="BH3" s="19" t="s">
+      <c r="BI3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="BI3" s="14">
+      <c r="BJ3" s="14">
         <v>70</v>
       </c>
-      <c r="BJ3" s="19" t="str">
+      <c r="BK3" s="19" t="str">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,22,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,22,FALSE))</f>
         <v/>
       </c>
-      <c r="BK3" s="19">
+      <c r="BL3" s="19">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,23,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,23,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="BM3" s="3">
+      <c r="BO3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -8109,23 +8499,21 @@
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AU4" s="14">
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="14">
         <v>5</v>
       </c>
-      <c r="AV4" s="14">
+      <c r="AW4" s="14">
         <v>0</v>
       </c>
-      <c r="AW4" s="14">
+      <c r="AX4" s="14">
         <v>500</v>
       </c>
-      <c r="AX4" s="14">
+      <c r="AY4" s="14">
         <v>0</v>
       </c>
-      <c r="AY4" s="14">
+      <c r="AZ4" s="14">
         <v>100</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>0</v>
       </c>
       <c r="BA4" s="14">
         <v>0</v>
@@ -8134,71 +8522,92 @@
         <v>0</v>
       </c>
       <c r="BC4" s="14">
-        <f>BC3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="14">
         <f>BD3</f>
+        <v>50</v>
+      </c>
+      <c r="BE4" s="14">
+        <f>BE3</f>
         <v>60</v>
       </c>
-      <c r="BE4" s="19">
+      <c r="BF4" s="19">
         <v>1.5</v>
       </c>
-      <c r="BF4" s="19">
+      <c r="BG4" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,20,FALSE)</f>
         <v>0.46700000762938998</v>
       </c>
-      <c r="BG4" s="19">
+      <c r="BH4" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,21,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="BH4" s="19" t="s">
+      <c r="BI4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="BI4" s="14">
+      <c r="BJ4" s="14">
         <v>70</v>
       </c>
-      <c r="BJ4" s="19" t="str">
+      <c r="BK4" s="19" t="str">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,22,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,22,FALSE))</f>
         <v/>
       </c>
-      <c r="BK4" s="19">
+      <c r="BL4" s="19">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,23,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,23,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="4">
+      <c r="BM4" s="3"/>
+      <c r="BO4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="E5" s="16">
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="16">
         <v>0.7</v>
       </c>
+      <c r="L5" s="5">
+        <v>6872</v>
+      </c>
+      <c r="M5" s="5">
+        <v>14948</v>
+      </c>
+      <c r="N5" s="5">
+        <v>18450</v>
+      </c>
+      <c r="O5" s="5">
+        <v>18451</v>
+      </c>
+      <c r="P5" s="5">
+        <v>13478</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>18455</v>
+      </c>
       <c r="X5" s="5" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="Z5" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5,__OriginalData!$A$2:$W$122,6,FALSE)</f>
@@ -8209,13 +8618,13 @@
         <v>soundevents/voscripts/game_sounds_vo_phantom_assassin.vsndevts</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AN5" s="16">
         <v>1</v>
       </c>
       <c r="AO5" s="32" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="AP5" s="16">
         <v>305</v>
@@ -8225,104 +8634,132 @@
       </c>
       <c r="AR5" s="16"/>
       <c r="AS5" s="16" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="AT5" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AU5" s="16">
+      <c r="AU5" s="19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AV5" s="16">
         <v>1</v>
       </c>
-      <c r="AV5" s="16">
+      <c r="AW5" s="16">
         <v>25</v>
       </c>
-      <c r="AW5" s="16">
+      <c r="AX5" s="16">
         <v>200</v>
       </c>
-      <c r="AX5" s="16">
+      <c r="AY5" s="16">
         <v>0</v>
       </c>
-      <c r="AY5" s="16">
+      <c r="AZ5" s="16">
         <v>100</v>
       </c>
-      <c r="AZ5" s="16">
+      <c r="BA5" s="16">
         <v>0</v>
       </c>
-      <c r="BA5" s="16"/>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="16">
+      <c r="BB5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="16">
         <v>24</v>
       </c>
-      <c r="BD5" s="16">
+      <c r="BE5" s="16">
         <v>26</v>
       </c>
-      <c r="BE5" s="16">
+      <c r="BF5" s="16">
         <v>1.7</v>
       </c>
-      <c r="BF5" s="16">
+      <c r="BG5" s="16">
         <v>0.3</v>
       </c>
-      <c r="BG5" s="16">
+      <c r="BH5" s="16">
         <v>300</v>
       </c>
-      <c r="BH5" s="16"/>
-      <c r="BI5" s="16">
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="16">
         <v>60</v>
       </c>
-      <c r="BM5" s="5">
+      <c r="BN5" s="5">
         <v>1</v>
       </c>
-      <c r="BN5" s="55" t="s">
-        <v>1516</v>
-      </c>
       <c r="BO5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="45" t="s">
+        <v>1507</v>
+      </c>
+      <c r="BQ5" s="5">
         <v>21</v>
       </c>
-      <c r="BP5" s="5">
+      <c r="BR5" s="5">
         <v>1.2</v>
       </c>
-      <c r="BQ5" s="5">
+      <c r="BS5" s="5">
         <v>23</v>
       </c>
-      <c r="BR5" s="5">
+      <c r="BT5" s="5">
         <v>2.4</v>
       </c>
-      <c r="BS5" s="5">
+      <c r="BU5" s="5">
         <v>15</v>
       </c>
-      <c r="BT5" s="5">
+      <c r="BV5" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="B6" s="15">
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="E6" s="16">
         <v>2</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="16">
         <v>0.8</v>
       </c>
+      <c r="L6" s="5">
+        <v>6872</v>
+      </c>
+      <c r="M6" s="5">
+        <v>14948</v>
+      </c>
+      <c r="N6" s="5">
+        <v>18450</v>
+      </c>
+      <c r="O6" s="5">
+        <v>18451</v>
+      </c>
+      <c r="P6" s="5">
+        <v>13478</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>18455</v>
+      </c>
       <c r="X6" s="5" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="Z6" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D6,__OriginalData!$A$2:$W$122,6,FALSE)</f>
@@ -8333,13 +8770,13 @@
         <v>soundevents/voscripts/game_sounds_vo_phantom_assassin.vsndevts</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AN6" s="16">
         <v>1</v>
       </c>
       <c r="AO6" s="32" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="AP6" s="16">
         <v>305</v>
@@ -8349,104 +8786,132 @@
       </c>
       <c r="AR6" s="16"/>
       <c r="AS6" s="16" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="AT6" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D6,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AU6" s="16">
+      <c r="AU6" s="19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AV6" s="16">
         <v>1</v>
       </c>
-      <c r="AV6" s="16">
+      <c r="AW6" s="16">
         <v>25</v>
       </c>
-      <c r="AW6" s="16">
+      <c r="AX6" s="16">
         <v>200</v>
       </c>
-      <c r="AX6" s="16">
+      <c r="AY6" s="16">
         <v>0</v>
       </c>
-      <c r="AY6" s="16">
+      <c r="AZ6" s="16">
         <v>100</v>
       </c>
-      <c r="AZ6" s="16">
+      <c r="BA6" s="16">
         <v>0</v>
       </c>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="16"/>
-      <c r="BC6" s="16">
+      <c r="BB6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="16">
         <v>24</v>
       </c>
-      <c r="BD6" s="16">
+      <c r="BE6" s="16">
         <v>26</v>
       </c>
-      <c r="BE6" s="16">
+      <c r="BF6" s="16">
         <v>1.7</v>
       </c>
-      <c r="BF6" s="16">
+      <c r="BG6" s="16">
         <v>0.3</v>
       </c>
-      <c r="BG6" s="16">
+      <c r="BH6" s="16">
         <v>300</v>
       </c>
-      <c r="BH6" s="16"/>
-      <c r="BI6" s="16">
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="16">
         <v>60</v>
       </c>
-      <c r="BM6" s="5">
+      <c r="BN6" s="5">
         <v>1</v>
       </c>
-      <c r="BN6" s="55" t="s">
-        <v>1516</v>
-      </c>
       <c r="BO6" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="45" t="s">
+        <v>1507</v>
+      </c>
+      <c r="BQ6" s="5">
         <v>21</v>
       </c>
-      <c r="BP6" s="5">
+      <c r="BR6" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BQ6" s="5">
+      <c r="BS6" s="5">
         <v>23</v>
       </c>
-      <c r="BR6" s="5">
+      <c r="BT6" s="5">
         <v>3.4</v>
       </c>
-      <c r="BS6" s="5">
+      <c r="BU6" s="5">
         <v>15</v>
       </c>
-      <c r="BT6" s="5">
+      <c r="BV6" s="5">
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="B7" s="15">
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="E7" s="16">
         <v>3</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="16">
         <v>0.9</v>
       </c>
+      <c r="L7" s="5">
+        <v>6872</v>
+      </c>
+      <c r="M7" s="5">
+        <v>14948</v>
+      </c>
+      <c r="N7" s="5">
+        <v>18450</v>
+      </c>
+      <c r="O7" s="5">
+        <v>18451</v>
+      </c>
+      <c r="P7" s="5">
+        <v>13478</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>18455</v>
+      </c>
       <c r="X7" s="5" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="Z7" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D7,__OriginalData!$A$2:$W$122,6,FALSE)</f>
@@ -8457,13 +8922,13 @@
         <v>soundevents/voscripts/game_sounds_vo_phantom_assassin.vsndevts</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AN7" s="16">
         <v>1</v>
       </c>
       <c r="AO7" s="32" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="AP7" s="16">
         <v>305</v>
@@ -8473,77 +8938,87 @@
       </c>
       <c r="AR7" s="16"/>
       <c r="AS7" s="16" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="AT7" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D7,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AU7" s="16">
+      <c r="AU7" s="19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AV7" s="16">
         <v>1</v>
       </c>
-      <c r="AV7" s="16">
+      <c r="AW7" s="16">
         <v>25</v>
       </c>
-      <c r="AW7" s="16">
+      <c r="AX7" s="16">
         <v>200</v>
       </c>
-      <c r="AX7" s="16">
+      <c r="AY7" s="16">
         <v>0</v>
       </c>
-      <c r="AY7" s="16">
+      <c r="AZ7" s="16">
         <v>100</v>
       </c>
-      <c r="AZ7" s="16">
+      <c r="BA7" s="16">
         <v>0</v>
       </c>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16">
+      <c r="BB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="16">
         <v>24</v>
       </c>
-      <c r="BD7" s="16">
+      <c r="BE7" s="16">
         <v>26</v>
       </c>
-      <c r="BE7" s="16">
+      <c r="BF7" s="16">
         <v>1.7</v>
       </c>
-      <c r="BF7" s="16">
+      <c r="BG7" s="16">
         <v>0.3</v>
       </c>
-      <c r="BG7" s="16">
+      <c r="BH7" s="16">
         <v>300</v>
       </c>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16">
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16">
         <v>60</v>
       </c>
-      <c r="BM7" s="5">
+      <c r="BN7" s="5">
         <v>1</v>
       </c>
-      <c r="BN7" s="55" t="s">
-        <v>1516</v>
-      </c>
       <c r="BO7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="45" t="s">
+        <v>1507</v>
+      </c>
+      <c r="BQ7" s="5">
         <v>21</v>
       </c>
-      <c r="BP7" s="5">
+      <c r="BR7" s="5">
         <v>3.2</v>
       </c>
-      <c r="BQ7" s="5">
+      <c r="BS7" s="5">
         <v>23</v>
       </c>
-      <c r="BR7" s="5">
+      <c r="BT7" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="BS7" s="5">
+      <c r="BU7" s="5">
         <v>15</v>
       </c>
-      <c r="BT7" s="5">
+      <c r="BV7" s="5">
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -8576,8 +9051,9 @@
       <c r="BG8" s="16"/>
       <c r="BH8" s="16"/>
       <c r="BI8" s="16"/>
-    </row>
-    <row r="9" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ8" s="16"/>
+    </row>
+    <row r="9" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -8610,8 +9086,9 @@
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
       <c r="BI9" s="16"/>
-    </row>
-    <row r="10" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ9" s="16"/>
+    </row>
+    <row r="10" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -8644,8 +9121,9 @@
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
       <c r="BI10" s="16"/>
-    </row>
-    <row r="11" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ10" s="16"/>
+    </row>
+    <row r="11" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -8678,8 +9156,9 @@
       <c r="BG11" s="16"/>
       <c r="BH11" s="16"/>
       <c r="BI11" s="16"/>
-    </row>
-    <row r="12" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ11" s="16"/>
+    </row>
+    <row r="12" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -8712,8 +9191,9 @@
       <c r="BG12" s="16"/>
       <c r="BH12" s="16"/>
       <c r="BI12" s="16"/>
-    </row>
-    <row r="13" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ12" s="16"/>
+    </row>
+    <row r="13" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -8746,8 +9226,9 @@
       <c r="BG13" s="16"/>
       <c r="BH13" s="16"/>
       <c r="BI13" s="16"/>
-    </row>
-    <row r="14" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ13" s="16"/>
+    </row>
+    <row r="14" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -8780,8 +9261,9 @@
       <c r="BG14" s="16"/>
       <c r="BH14" s="16"/>
       <c r="BI14" s="16"/>
-    </row>
-    <row r="15" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ14" s="16"/>
+    </row>
+    <row r="15" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -8814,8 +9296,9 @@
       <c r="BG15" s="16"/>
       <c r="BH15" s="16"/>
       <c r="BI15" s="16"/>
-    </row>
-    <row r="16" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ15" s="16"/>
+    </row>
+    <row r="16" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -8848,8 +9331,9 @@
       <c r="BG16" s="16"/>
       <c r="BH16" s="16"/>
       <c r="BI16" s="16"/>
-    </row>
-    <row r="17" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ16" s="16"/>
+    </row>
+    <row r="17" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -8882,8 +9366,9 @@
       <c r="BG17" s="16"/>
       <c r="BH17" s="16"/>
       <c r="BI17" s="16"/>
-    </row>
-    <row r="18" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ17" s="16"/>
+    </row>
+    <row r="18" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -8916,8 +9401,9 @@
       <c r="BG18" s="16"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="16"/>
-    </row>
-    <row r="19" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ18" s="16"/>
+    </row>
+    <row r="19" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -8950,8 +9436,9 @@
       <c r="BG19" s="16"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="16"/>
-    </row>
-    <row r="20" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ19" s="16"/>
+    </row>
+    <row r="20" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -8984,10 +9471,11 @@
       <c r="BG20" s="16"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="16"/>
+      <c r="BJ20" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BK4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <autoFilter ref="A1:BL4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -9040,7 +9528,7 @@
       <formula>NOT(ISERROR(SEARCH("_custom",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:AD3 Q4:AD4 Z5:AA7 A3:I4 J4:K4 BG5:BK1048576">
+  <conditionalFormatting sqref="J3:AD3 Q4:AD4 Z5:AA7 A3:I4 J4:K4 BH5:BL1048576">
     <cfRule type="expression" dxfId="19" priority="1553">
       <formula>$AT3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
@@ -9065,7 +9553,7 @@
       <formula>NOT(ISERROR(SEARCH("_custom",AF3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:BG4 AT5:AT7">
+  <conditionalFormatting sqref="AF3:BH4 AT5:AU7 BB5:BC7">
     <cfRule type="expression" dxfId="14" priority="324">
       <formula>$AT3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
@@ -9075,12 +9563,12 @@
       <formula>NOT(ISERROR(SEARCH("_custom",AH3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO3:AT4 AT5:AT7">
+  <conditionalFormatting sqref="AO3:AU4 AT5:AU7">
     <cfRule type="containsText" dxfId="12" priority="1653" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AO3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT1:AT1048576">
+  <conditionalFormatting sqref="AT1:AU1048576">
     <cfRule type="containsText" dxfId="11" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
     </cfRule>
@@ -9088,48 +9576,48 @@
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BE4">
+  <conditionalFormatting sqref="BF3:BF4">
     <cfRule type="containsBlanks" dxfId="9" priority="1798">
-      <formula>LEN(TRIM(BE3))=0</formula>
+      <formula>LEN(TRIM(BF3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BG4">
+  <conditionalFormatting sqref="BF3:BH4">
     <cfRule type="containsText" dxfId="8" priority="1624" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BE3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_custom",BF3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BH4">
+  <conditionalFormatting sqref="BF3:BI4">
     <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BE3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BE3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG1:BK2">
+  <conditionalFormatting sqref="BH1:BL2">
     <cfRule type="expression" dxfId="5" priority="1802">
       <formula>$AT1="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH3:BH4">
+  <conditionalFormatting sqref="BI3:BI4">
     <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BH3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_custom",BI3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH3:XFD4">
+  <conditionalFormatting sqref="BI3:XFD4">
     <cfRule type="expression" dxfId="3" priority="15">
       <formula>$AT3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ3:BK4">
+  <conditionalFormatting sqref="BK3:BL4">
     <cfRule type="containsText" dxfId="2" priority="1631" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_custom",BK3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="1636" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BJ3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BK3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="1637" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BJ3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BK3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9141,8 +9629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="D57" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9921,7 +10409,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B12" t="s">
         <v>314</v>
@@ -9995,7 +10483,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B13" t="s">
         <v>324</v>
@@ -11289,7 +11777,7 @@
         <v>221</v>
       </c>
       <c r="M30" t="s">
-        <v>507</v>
+        <v>1520</v>
       </c>
       <c r="N30" t="s">
         <v>223</v>
@@ -11330,40 +11818,40 @@
         <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C31" s="1">
         <v>0.89999997615813998</v>
       </c>
       <c r="D31" t="s">
+        <v>508</v>
+      </c>
+      <c r="E31" t="s">
         <v>509</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>510</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>511</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>512</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>513</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>514</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" t="s">
+        <v>221</v>
+      </c>
+      <c r="M31" t="s">
         <v>515</v>
-      </c>
-      <c r="K31" t="s">
-        <v>221</v>
-      </c>
-      <c r="L31" t="s">
-        <v>221</v>
-      </c>
-      <c r="M31" t="s">
-        <v>516</v>
       </c>
       <c r="N31" t="s">
         <v>223</v>
@@ -11404,40 +11892,40 @@
         <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C32" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D32" t="s">
+        <v>517</v>
+      </c>
+      <c r="E32" t="s">
         <v>518</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>519</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>520</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>521</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>522</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>523</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s">
+        <v>221</v>
+      </c>
+      <c r="M32" t="s">
         <v>524</v>
-      </c>
-      <c r="K32" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" t="s">
-        <v>221</v>
-      </c>
-      <c r="M32" t="s">
-        <v>525</v>
       </c>
       <c r="N32" t="s">
         <v>223</v>
@@ -11464,7 +11952,7 @@
         <v>425</v>
       </c>
       <c r="V32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="W32">
         <v>900</v>
@@ -11478,40 +11966,40 @@
         <v>200</v>
       </c>
       <c r="B33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C33" s="1">
         <v>0.77999997138976995</v>
       </c>
       <c r="D33" t="s">
+        <v>527</v>
+      </c>
+      <c r="E33" t="s">
         <v>528</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>529</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>530</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>531</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>532</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>533</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L33" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" t="s">
         <v>534</v>
-      </c>
-      <c r="K33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L33" t="s">
-        <v>221</v>
-      </c>
-      <c r="M33" t="s">
-        <v>535</v>
       </c>
       <c r="N33" t="s">
         <v>223</v>
@@ -11552,40 +12040,40 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C34" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D34" t="s">
+        <v>536</v>
+      </c>
+      <c r="E34" t="s">
         <v>537</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>538</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>539</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>540</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>541</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>542</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" t="s">
+        <v>221</v>
+      </c>
+      <c r="M34" t="s">
         <v>543</v>
-      </c>
-      <c r="K34" t="s">
-        <v>221</v>
-      </c>
-      <c r="L34" t="s">
-        <v>221</v>
-      </c>
-      <c r="M34" t="s">
-        <v>544</v>
       </c>
       <c r="N34" t="s">
         <v>223</v>
@@ -11626,40 +12114,40 @@
         <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C35" s="1">
         <v>0.86000001430510997</v>
       </c>
       <c r="D35" t="s">
+        <v>545</v>
+      </c>
+      <c r="E35" t="s">
         <v>546</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>547</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>548</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>549</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>550</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>551</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>552</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
+        <v>221</v>
+      </c>
+      <c r="M35" t="s">
         <v>553</v>
-      </c>
-      <c r="L35" t="s">
-        <v>221</v>
-      </c>
-      <c r="M35" t="s">
-        <v>554</v>
       </c>
       <c r="N35" t="s">
         <v>223</v>
@@ -11686,7 +12174,7 @@
         <v>550</v>
       </c>
       <c r="V35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W35">
         <v>900</v>
@@ -11700,40 +12188,40 @@
         <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C36" s="1">
         <v>0.89999997615813998</v>
       </c>
       <c r="D36" t="s">
+        <v>556</v>
+      </c>
+      <c r="E36" t="s">
         <v>557</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>558</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>559</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>560</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>561</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>562</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
+        <v>221</v>
+      </c>
+      <c r="L36" t="s">
+        <v>221</v>
+      </c>
+      <c r="M36" t="s">
         <v>563</v>
-      </c>
-      <c r="K36" t="s">
-        <v>221</v>
-      </c>
-      <c r="L36" t="s">
-        <v>221</v>
-      </c>
-      <c r="M36" t="s">
-        <v>564</v>
       </c>
       <c r="N36" t="s">
         <v>223</v>
@@ -11774,40 +12262,40 @@
         <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C37" s="1">
         <v>1.0249999761580999</v>
       </c>
       <c r="D37" t="s">
+        <v>565</v>
+      </c>
+      <c r="E37" t="s">
         <v>566</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>567</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>568</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>569</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>570</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>571</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>221</v>
+      </c>
+      <c r="L37" t="s">
+        <v>221</v>
+      </c>
+      <c r="M37" t="s">
         <v>572</v>
-      </c>
-      <c r="K37" t="s">
-        <v>221</v>
-      </c>
-      <c r="L37" t="s">
-        <v>221</v>
-      </c>
-      <c r="M37" t="s">
-        <v>573</v>
       </c>
       <c r="N37" t="s">
         <v>223</v>
@@ -11848,40 +12336,40 @@
         <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C38" s="1">
         <v>0.89999997615813998</v>
       </c>
       <c r="D38" t="s">
+        <v>574</v>
+      </c>
+      <c r="E38" t="s">
         <v>575</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>576</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>577</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>578</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>579</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>580</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
+        <v>221</v>
+      </c>
+      <c r="L38" t="s">
+        <v>221</v>
+      </c>
+      <c r="M38" t="s">
         <v>581</v>
-      </c>
-      <c r="K38" t="s">
-        <v>221</v>
-      </c>
-      <c r="L38" t="s">
-        <v>221</v>
-      </c>
-      <c r="M38" t="s">
-        <v>582</v>
       </c>
       <c r="N38">
         <v>180</v>
@@ -11922,40 +12410,40 @@
         <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C39" s="1">
         <v>0.93000000715256004</v>
       </c>
       <c r="D39" t="s">
+        <v>583</v>
+      </c>
+      <c r="E39" t="s">
         <v>584</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>585</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>586</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>587</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>588</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>589</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
+        <v>221</v>
+      </c>
+      <c r="L39" t="s">
+        <v>221</v>
+      </c>
+      <c r="M39" t="s">
         <v>590</v>
-      </c>
-      <c r="K39" t="s">
-        <v>221</v>
-      </c>
-      <c r="L39" t="s">
-        <v>221</v>
-      </c>
-      <c r="M39" t="s">
-        <v>591</v>
       </c>
       <c r="N39" t="s">
         <v>223</v>
@@ -11982,7 +12470,7 @@
         <v>400</v>
       </c>
       <c r="V39" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W39">
         <v>900</v>
@@ -11993,10 +12481,10 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>592</v>
+      </c>
+      <c r="B40" t="s">
         <v>593</v>
-      </c>
-      <c r="B40" t="s">
-        <v>594</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -12029,7 +12517,7 @@
         <v>90</v>
       </c>
       <c r="S40" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T40">
         <v>0.5</v>
@@ -12052,40 +12540,40 @@
         <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C41" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D41" t="s">
+        <v>596</v>
+      </c>
+      <c r="E41" t="s">
         <v>597</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>598</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>599</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>600</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>601</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>602</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>603</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>221</v>
+      </c>
+      <c r="M41" t="s">
         <v>604</v>
-      </c>
-      <c r="L41" t="s">
-        <v>221</v>
-      </c>
-      <c r="M41" t="s">
-        <v>605</v>
       </c>
       <c r="N41" t="s">
         <v>223</v>
@@ -12123,10 +12611,10 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>605</v>
+      </c>
+      <c r="B42" t="s">
         <v>606</v>
-      </c>
-      <c r="B42" t="s">
-        <v>607</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>223</v>
@@ -12168,7 +12656,7 @@
         <v>600</v>
       </c>
       <c r="V42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="W42">
         <v>900</v>
@@ -12182,40 +12670,40 @@
         <v>204</v>
       </c>
       <c r="B43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" t="s">
+        <v>609</v>
+      </c>
+      <c r="E43" t="s">
         <v>610</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>611</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>612</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>613</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>614</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>615</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>616</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>221</v>
+      </c>
+      <c r="M43" t="s">
         <v>617</v>
-      </c>
-      <c r="L43" t="s">
-        <v>221</v>
-      </c>
-      <c r="M43" t="s">
-        <v>618</v>
       </c>
       <c r="N43" t="s">
         <v>223</v>
@@ -12242,7 +12730,7 @@
         <v>625</v>
       </c>
       <c r="V43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="W43">
         <v>900</v>
@@ -12256,40 +12744,40 @@
         <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C44" s="1">
         <v>0.98000001907348999</v>
       </c>
       <c r="D44" t="s">
+        <v>620</v>
+      </c>
+      <c r="E44" t="s">
         <v>621</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>622</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>623</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>624</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>625</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>626</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>627</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
+        <v>221</v>
+      </c>
+      <c r="M44" t="s">
         <v>628</v>
-      </c>
-      <c r="L44" t="s">
-        <v>221</v>
-      </c>
-      <c r="M44" t="s">
-        <v>629</v>
       </c>
       <c r="N44" t="s">
         <v>223</v>
@@ -12330,40 +12818,40 @@
         <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" t="s">
+        <v>630</v>
+      </c>
+      <c r="E45" t="s">
         <v>631</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>632</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>633</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>634</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>635</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>636</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
+        <v>221</v>
+      </c>
+      <c r="L45" t="s">
+        <v>221</v>
+      </c>
+      <c r="M45" t="s">
         <v>637</v>
-      </c>
-      <c r="K45" t="s">
-        <v>221</v>
-      </c>
-      <c r="L45" t="s">
-        <v>221</v>
-      </c>
-      <c r="M45" t="s">
-        <v>638</v>
       </c>
       <c r="N45" t="s">
         <v>223</v>
@@ -12390,7 +12878,7 @@
         <v>425</v>
       </c>
       <c r="V45" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W45">
         <v>700</v>
@@ -12404,40 +12892,40 @@
         <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C46" s="1">
         <v>0.85000002384186002</v>
       </c>
       <c r="D46" t="s">
+        <v>640</v>
+      </c>
+      <c r="E46" t="s">
         <v>641</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>642</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>643</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>644</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>645</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>646</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
+        <v>221</v>
+      </c>
+      <c r="L46" t="s">
+        <v>221</v>
+      </c>
+      <c r="M46" t="s">
         <v>647</v>
-      </c>
-      <c r="K46" t="s">
-        <v>221</v>
-      </c>
-      <c r="L46" t="s">
-        <v>221</v>
-      </c>
-      <c r="M46" t="s">
-        <v>648</v>
       </c>
       <c r="N46" t="s">
         <v>223</v>
@@ -12478,40 +12966,40 @@
         <v>203</v>
       </c>
       <c r="B47" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C47" s="1">
         <v>0.60000002384186002</v>
       </c>
       <c r="D47" t="s">
+        <v>649</v>
+      </c>
+      <c r="E47" t="s">
         <v>650</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>651</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>652</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>653</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>654</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>655</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>656</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>657</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>658</v>
-      </c>
-      <c r="M47" t="s">
-        <v>659</v>
       </c>
       <c r="N47" t="s">
         <v>223</v>
@@ -12538,7 +13026,7 @@
         <v>700</v>
       </c>
       <c r="V47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W47">
         <v>900</v>
@@ -12552,40 +13040,40 @@
         <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C48" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D48" t="s">
+        <v>661</v>
+      </c>
+      <c r="E48" t="s">
         <v>662</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>663</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>664</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>665</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>666</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>667</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
+        <v>221</v>
+      </c>
+      <c r="L48" t="s">
+        <v>221</v>
+      </c>
+      <c r="M48" t="s">
         <v>668</v>
-      </c>
-      <c r="K48" t="s">
-        <v>221</v>
-      </c>
-      <c r="L48" t="s">
-        <v>221</v>
-      </c>
-      <c r="M48" t="s">
-        <v>669</v>
       </c>
       <c r="N48">
         <v>190</v>
@@ -12612,7 +13100,7 @@
         <v>675</v>
       </c>
       <c r="V48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W48">
         <v>1250</v>
@@ -12626,40 +13114,40 @@
         <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C49" s="1">
         <v>0.94999998807907005</v>
       </c>
       <c r="D49" t="s">
+        <v>671</v>
+      </c>
+      <c r="E49" t="s">
         <v>672</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>673</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>674</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>675</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>676</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>677</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>678</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
+        <v>221</v>
+      </c>
+      <c r="M49" t="s">
         <v>679</v>
-      </c>
-      <c r="L49" t="s">
-        <v>221</v>
-      </c>
-      <c r="M49" t="s">
-        <v>680</v>
       </c>
       <c r="N49">
         <v>250</v>
@@ -12686,7 +13174,7 @@
         <v>500</v>
       </c>
       <c r="V49" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="W49">
         <v>1100</v>
@@ -12700,40 +13188,40 @@
         <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C50" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D50" t="s">
+        <v>682</v>
+      </c>
+      <c r="E50" t="s">
         <v>683</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>684</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>685</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>686</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>687</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>688</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>689</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>690</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>691</v>
-      </c>
-      <c r="M50" t="s">
-        <v>692</v>
       </c>
       <c r="N50" t="s">
         <v>223</v>
@@ -12774,40 +13262,40 @@
         <v>179</v>
       </c>
       <c r="B51" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C51" s="1">
         <v>0.81000000238419001</v>
       </c>
       <c r="D51" t="s">
+        <v>693</v>
+      </c>
+      <c r="E51" t="s">
         <v>694</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>695</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>696</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>697</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>698</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>699</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
+        <v>221</v>
+      </c>
+      <c r="L51" t="s">
+        <v>221</v>
+      </c>
+      <c r="M51" t="s">
         <v>700</v>
-      </c>
-      <c r="K51" t="s">
-        <v>221</v>
-      </c>
-      <c r="L51" t="s">
-        <v>221</v>
-      </c>
-      <c r="M51" t="s">
-        <v>701</v>
       </c>
       <c r="N51" t="s">
         <v>223</v>
@@ -12848,40 +13336,40 @@
         <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C52" s="1">
         <v>0.89999997615813998</v>
       </c>
       <c r="D52" t="s">
+        <v>702</v>
+      </c>
+      <c r="E52" t="s">
         <v>703</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>704</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>705</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>706</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>707</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>708</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
+        <v>221</v>
+      </c>
+      <c r="L52" t="s">
+        <v>221</v>
+      </c>
+      <c r="M52" t="s">
         <v>709</v>
-      </c>
-      <c r="K52" t="s">
-        <v>221</v>
-      </c>
-      <c r="L52" t="s">
-        <v>221</v>
-      </c>
-      <c r="M52" t="s">
-        <v>710</v>
       </c>
       <c r="N52" t="s">
         <v>223</v>
@@ -12922,40 +13410,40 @@
         <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C53" s="1">
         <v>0.69999998807907005</v>
       </c>
       <c r="D53" t="s">
+        <v>711</v>
+      </c>
+      <c r="E53" t="s">
         <v>712</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>713</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>714</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>715</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>716</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>717</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
+        <v>221</v>
+      </c>
+      <c r="L53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M53" t="s">
         <v>718</v>
-      </c>
-      <c r="K53" t="s">
-        <v>221</v>
-      </c>
-      <c r="L53" t="s">
-        <v>221</v>
-      </c>
-      <c r="M53" t="s">
-        <v>719</v>
       </c>
       <c r="N53" t="s">
         <v>223</v>
@@ -12982,7 +13470,7 @@
         <v>450</v>
       </c>
       <c r="V53" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="W53">
         <v>900</v>
@@ -12996,40 +13484,40 @@
         <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C54" s="1">
         <v>0.93000000715256004</v>
       </c>
       <c r="D54" t="s">
+        <v>721</v>
+      </c>
+      <c r="E54" t="s">
         <v>722</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>723</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>724</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>725</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>726</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>727</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
+        <v>221</v>
+      </c>
+      <c r="L54" t="s">
+        <v>221</v>
+      </c>
+      <c r="M54" t="s">
         <v>728</v>
-      </c>
-      <c r="K54" t="s">
-        <v>221</v>
-      </c>
-      <c r="L54" t="s">
-        <v>221</v>
-      </c>
-      <c r="M54" t="s">
-        <v>729</v>
       </c>
       <c r="N54" t="s">
         <v>223</v>
@@ -13070,40 +13558,40 @@
         <v>143</v>
       </c>
       <c r="B55" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C55" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D55" t="s">
+        <v>730</v>
+      </c>
+      <c r="E55" t="s">
         <v>731</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>732</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>733</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>734</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>735</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>736</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>737</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
+        <v>221</v>
+      </c>
+      <c r="M55" t="s">
         <v>738</v>
-      </c>
-      <c r="L55" t="s">
-        <v>221</v>
-      </c>
-      <c r="M55" t="s">
-        <v>739</v>
       </c>
       <c r="N55" t="s">
         <v>223</v>
@@ -13130,7 +13618,7 @@
         <v>575</v>
       </c>
       <c r="V55" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="W55">
         <v>900</v>
@@ -13144,40 +13632,40 @@
         <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C56" s="1">
         <v>0.94999998807907005</v>
       </c>
       <c r="D56" t="s">
+        <v>741</v>
+      </c>
+      <c r="E56" t="s">
         <v>742</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>743</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>744</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>745</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>746</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>747</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>748</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>749</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>750</v>
-      </c>
-      <c r="M56" t="s">
-        <v>751</v>
       </c>
       <c r="N56" t="s">
         <v>223</v>
@@ -13218,40 +13706,40 @@
         <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C57" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D57" t="s">
+        <v>752</v>
+      </c>
+      <c r="E57" t="s">
         <v>753</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>754</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>755</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>756</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>757</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>758</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
+        <v>221</v>
+      </c>
+      <c r="L57" t="s">
+        <v>221</v>
+      </c>
+      <c r="M57" t="s">
         <v>759</v>
-      </c>
-      <c r="K57" t="s">
-        <v>221</v>
-      </c>
-      <c r="L57" t="s">
-        <v>221</v>
-      </c>
-      <c r="M57" t="s">
-        <v>760</v>
       </c>
       <c r="N57" t="s">
         <v>223</v>
@@ -13278,7 +13766,7 @@
         <v>600</v>
       </c>
       <c r="V57" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="W57">
         <v>900</v>
@@ -13292,40 +13780,40 @@
         <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C58" s="1">
         <v>0.79000002145767001</v>
       </c>
       <c r="D58" t="s">
+        <v>762</v>
+      </c>
+      <c r="E58" t="s">
         <v>763</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>764</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>765</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>766</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>767</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>768</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
+        <v>221</v>
+      </c>
+      <c r="L58" t="s">
+        <v>221</v>
+      </c>
+      <c r="M58" t="s">
         <v>769</v>
-      </c>
-      <c r="K58" t="s">
-        <v>221</v>
-      </c>
-      <c r="L58" t="s">
-        <v>221</v>
-      </c>
-      <c r="M58" t="s">
-        <v>770</v>
       </c>
       <c r="N58" t="s">
         <v>223</v>
@@ -13352,7 +13840,7 @@
         <v>500</v>
       </c>
       <c r="V58" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="W58">
         <v>900</v>
@@ -13366,40 +13854,40 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" t="s">
+        <v>772</v>
+      </c>
+      <c r="E59" t="s">
         <v>773</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>774</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>775</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>776</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>777</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>778</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>779</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
+        <v>221</v>
+      </c>
+      <c r="M59" t="s">
         <v>780</v>
-      </c>
-      <c r="L59" t="s">
-        <v>221</v>
-      </c>
-      <c r="M59" t="s">
-        <v>781</v>
       </c>
       <c r="N59">
         <v>230</v>
@@ -13426,7 +13914,7 @@
         <v>475</v>
       </c>
       <c r="V59" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="W59">
         <v>1200</v>
@@ -13440,40 +13928,40 @@
         <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C60" s="1">
         <v>0.89999997615813998</v>
       </c>
       <c r="D60" t="s">
+        <v>783</v>
+      </c>
+      <c r="E60" t="s">
         <v>784</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>785</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>786</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>787</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>788</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>789</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>790</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
+        <v>221</v>
+      </c>
+      <c r="M60" t="s">
         <v>791</v>
-      </c>
-      <c r="L60" t="s">
-        <v>221</v>
-      </c>
-      <c r="M60" t="s">
-        <v>792</v>
       </c>
       <c r="N60" t="s">
         <v>223</v>
@@ -13514,40 +14002,40 @@
         <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C61" s="1">
         <v>0.80000001192092995</v>
       </c>
       <c r="D61" t="s">
+        <v>793</v>
+      </c>
+      <c r="E61" t="s">
         <v>794</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>795</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>796</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>797</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>798</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>799</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
+        <v>221</v>
+      </c>
+      <c r="L61" t="s">
+        <v>221</v>
+      </c>
+      <c r="M61" t="s">
         <v>800</v>
-      </c>
-      <c r="K61" t="s">
-        <v>221</v>
-      </c>
-      <c r="L61" t="s">
-        <v>221</v>
-      </c>
-      <c r="M61" t="s">
-        <v>801</v>
       </c>
       <c r="N61" t="s">
         <v>223</v>
@@ -13588,40 +14076,40 @@
         <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C62" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D62" t="s">
+        <v>802</v>
+      </c>
+      <c r="E62" t="s">
         <v>803</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>804</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>805</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>806</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>807</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>808</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
+        <v>221</v>
+      </c>
+      <c r="L62" t="s">
+        <v>221</v>
+      </c>
+      <c r="M62" t="s">
         <v>809</v>
-      </c>
-      <c r="K62" t="s">
-        <v>221</v>
-      </c>
-      <c r="L62" t="s">
-        <v>221</v>
-      </c>
-      <c r="M62" t="s">
-        <v>810</v>
       </c>
       <c r="N62" t="s">
         <v>223</v>
@@ -13662,40 +14150,40 @@
         <v>198</v>
       </c>
       <c r="B63" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C63" s="1">
         <v>0.89999997615813998</v>
       </c>
       <c r="D63" t="s">
+        <v>811</v>
+      </c>
+      <c r="E63" t="s">
         <v>812</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>813</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>814</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>815</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>816</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>817</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>818</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
+        <v>221</v>
+      </c>
+      <c r="M63" t="s">
         <v>819</v>
-      </c>
-      <c r="L63" t="s">
-        <v>221</v>
-      </c>
-      <c r="M63" t="s">
-        <v>820</v>
       </c>
       <c r="N63" t="s">
         <v>223</v>
@@ -13722,7 +14210,7 @@
         <v>500</v>
       </c>
       <c r="V63" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="W63">
         <v>1200</v>
@@ -13736,40 +14224,40 @@
         <v>196</v>
       </c>
       <c r="B64" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C64" s="1">
         <v>0.67000001668929998</v>
       </c>
       <c r="D64" t="s">
+        <v>822</v>
+      </c>
+      <c r="E64" t="s">
         <v>823</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>824</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>825</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>826</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>827</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>828</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>829</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
+        <v>221</v>
+      </c>
+      <c r="M64" t="s">
         <v>830</v>
-      </c>
-      <c r="L64" t="s">
-        <v>221</v>
-      </c>
-      <c r="M64" t="s">
-        <v>831</v>
       </c>
       <c r="N64" t="s">
         <v>223</v>
@@ -13796,7 +14284,7 @@
         <v>600</v>
       </c>
       <c r="V64" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="W64">
         <v>900</v>
@@ -13810,40 +14298,40 @@
         <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C65" s="1">
         <v>0.80000001192092995</v>
       </c>
       <c r="D65" t="s">
+        <v>833</v>
+      </c>
+      <c r="E65" t="s">
         <v>834</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>835</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>836</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>837</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>838</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>839</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
+        <v>221</v>
+      </c>
+      <c r="L65" t="s">
+        <v>221</v>
+      </c>
+      <c r="M65" t="s">
         <v>840</v>
-      </c>
-      <c r="K65" t="s">
-        <v>221</v>
-      </c>
-      <c r="L65" t="s">
-        <v>221</v>
-      </c>
-      <c r="M65" t="s">
-        <v>841</v>
       </c>
       <c r="N65" t="s">
         <v>223</v>
@@ -13870,7 +14358,7 @@
         <v>600</v>
       </c>
       <c r="V65" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="W65">
         <v>900</v>
@@ -13884,40 +14372,40 @@
         <v>164</v>
       </c>
       <c r="B66" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C66" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D66" t="s">
+        <v>843</v>
+      </c>
+      <c r="E66" t="s">
         <v>844</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>845</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>846</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>847</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>848</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>849</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
+        <v>221</v>
+      </c>
+      <c r="L66" t="s">
+        <v>221</v>
+      </c>
+      <c r="M66" t="s">
         <v>850</v>
-      </c>
-      <c r="K66" t="s">
-        <v>221</v>
-      </c>
-      <c r="L66" t="s">
-        <v>221</v>
-      </c>
-      <c r="M66" t="s">
-        <v>851</v>
       </c>
       <c r="N66" t="s">
         <v>223</v>
@@ -13958,40 +14446,40 @@
         <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C67" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D67" t="s">
+        <v>852</v>
+      </c>
+      <c r="E67" t="s">
         <v>853</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>854</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>855</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>856</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>857</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>858</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
+        <v>221</v>
+      </c>
+      <c r="L67" t="s">
+        <v>221</v>
+      </c>
+      <c r="M67" t="s">
         <v>859</v>
-      </c>
-      <c r="K67" t="s">
-        <v>221</v>
-      </c>
-      <c r="L67" t="s">
-        <v>221</v>
-      </c>
-      <c r="M67" t="s">
-        <v>860</v>
       </c>
       <c r="N67" t="s">
         <v>223</v>
@@ -14032,40 +14520,40 @@
         <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C68" s="1">
         <v>0.75</v>
       </c>
       <c r="D68" t="s">
+        <v>861</v>
+      </c>
+      <c r="E68" t="s">
         <v>862</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>863</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>864</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>865</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>866</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>867</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
+        <v>221</v>
+      </c>
+      <c r="L68" t="s">
+        <v>221</v>
+      </c>
+      <c r="M68" t="s">
         <v>868</v>
-      </c>
-      <c r="K68" t="s">
-        <v>221</v>
-      </c>
-      <c r="L68" t="s">
-        <v>221</v>
-      </c>
-      <c r="M68" t="s">
-        <v>869</v>
       </c>
       <c r="N68" t="s">
         <v>223</v>
@@ -14106,40 +14594,40 @@
         <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C69" s="1">
         <v>0.87999999523162997</v>
       </c>
       <c r="D69" t="s">
+        <v>870</v>
+      </c>
+      <c r="E69" t="s">
         <v>871</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>872</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>873</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>874</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>875</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>876</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>877</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
+        <v>221</v>
+      </c>
+      <c r="M69" t="s">
         <v>878</v>
-      </c>
-      <c r="L69" t="s">
-        <v>221</v>
-      </c>
-      <c r="M69" t="s">
-        <v>879</v>
       </c>
       <c r="N69" t="s">
         <v>223</v>
@@ -14180,40 +14668,40 @@
         <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C70" s="1">
         <v>0.98000001907348999</v>
       </c>
       <c r="D70" t="s">
+        <v>880</v>
+      </c>
+      <c r="E70" t="s">
         <v>881</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>882</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>883</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>884</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>885</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>886</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>887</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>888</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>889</v>
-      </c>
-      <c r="M70" t="s">
-        <v>890</v>
       </c>
       <c r="N70" t="s">
         <v>223</v>
@@ -14240,7 +14728,7 @@
         <v>500</v>
       </c>
       <c r="V70" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="W70">
         <v>1200</v>
@@ -14254,40 +14742,40 @@
         <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C71" s="1">
         <v>0.79000002145767001</v>
       </c>
       <c r="D71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E71" t="s">
         <v>893</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>894</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>895</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>896</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>897</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>898</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
+        <v>221</v>
+      </c>
+      <c r="L71" t="s">
+        <v>221</v>
+      </c>
+      <c r="M71" t="s">
         <v>899</v>
-      </c>
-      <c r="K71" t="s">
-        <v>221</v>
-      </c>
-      <c r="L71" t="s">
-        <v>221</v>
-      </c>
-      <c r="M71" t="s">
-        <v>900</v>
       </c>
       <c r="N71" t="s">
         <v>223</v>
@@ -14314,7 +14802,7 @@
         <v>550</v>
       </c>
       <c r="V71" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="W71">
         <v>1200</v>
@@ -14328,40 +14816,40 @@
         <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C72" s="1">
         <v>0.79000002145767001</v>
       </c>
       <c r="D72" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E72" t="s">
+        <v>902</v>
+      </c>
+      <c r="F72" t="s">
         <v>903</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
         <v>904</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>905</v>
       </c>
-      <c r="G72" t="s">
+      <c r="I72" t="s">
         <v>906</v>
       </c>
-      <c r="H72" t="s">
+      <c r="J72" t="s">
         <v>907</v>
       </c>
-      <c r="I72" t="s">
+      <c r="K72" t="s">
+        <v>221</v>
+      </c>
+      <c r="L72" t="s">
+        <v>221</v>
+      </c>
+      <c r="M72" t="s">
         <v>908</v>
-      </c>
-      <c r="J72" t="s">
-        <v>909</v>
-      </c>
-      <c r="K72" t="s">
-        <v>221</v>
-      </c>
-      <c r="L72" t="s">
-        <v>221</v>
-      </c>
-      <c r="M72" t="s">
-        <v>910</v>
       </c>
       <c r="N72" t="s">
         <v>223</v>
@@ -14388,7 +14876,7 @@
         <v>625</v>
       </c>
       <c r="V72" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="W72">
         <v>1200</v>
@@ -14402,40 +14890,40 @@
         <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C73" s="1">
         <v>0.69999998807907005</v>
       </c>
       <c r="D73" t="s">
+        <v>911</v>
+      </c>
+      <c r="E73" t="s">
+        <v>912</v>
+      </c>
+      <c r="F73" t="s">
         <v>913</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>914</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>915</v>
       </c>
-      <c r="G73" t="s">
+      <c r="I73" t="s">
         <v>916</v>
       </c>
-      <c r="H73" t="s">
+      <c r="J73" t="s">
         <v>917</v>
       </c>
-      <c r="I73" t="s">
+      <c r="K73" t="s">
         <v>918</v>
       </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
         <v>919</v>
       </c>
-      <c r="K73" t="s">
+      <c r="M73" t="s">
         <v>920</v>
-      </c>
-      <c r="L73" t="s">
-        <v>921</v>
-      </c>
-      <c r="M73" t="s">
-        <v>922</v>
       </c>
       <c r="N73" t="s">
         <v>223</v>
@@ -14462,7 +14950,7 @@
         <v>550</v>
       </c>
       <c r="V73" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="W73">
         <v>1125</v>
@@ -14476,40 +14964,40 @@
         <v>192</v>
       </c>
       <c r="B74" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C74" s="1">
         <v>0.93000000715256004</v>
       </c>
       <c r="D74" t="s">
+        <v>923</v>
+      </c>
+      <c r="E74" t="s">
+        <v>924</v>
+      </c>
+      <c r="F74" t="s">
         <v>925</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>926</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>927</v>
       </c>
-      <c r="G74" t="s">
+      <c r="I74" t="s">
         <v>928</v>
       </c>
-      <c r="H74" t="s">
+      <c r="J74" t="s">
         <v>929</v>
       </c>
-      <c r="I74" t="s">
+      <c r="K74" t="s">
+        <v>221</v>
+      </c>
+      <c r="L74" t="s">
+        <v>221</v>
+      </c>
+      <c r="M74" t="s">
         <v>930</v>
-      </c>
-      <c r="J74" t="s">
-        <v>931</v>
-      </c>
-      <c r="K74" t="s">
-        <v>221</v>
-      </c>
-      <c r="L74" t="s">
-        <v>221</v>
-      </c>
-      <c r="M74" t="s">
-        <v>932</v>
       </c>
       <c r="N74" t="s">
         <v>223</v>
@@ -14550,40 +15038,40 @@
         <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C75" s="1">
         <v>1.1000000238419001</v>
       </c>
       <c r="D75" t="s">
+        <v>932</v>
+      </c>
+      <c r="E75" t="s">
+        <v>933</v>
+      </c>
+      <c r="F75" t="s">
         <v>934</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>935</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>936</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I75" t="s">
         <v>937</v>
       </c>
-      <c r="H75" t="s">
+      <c r="J75" t="s">
         <v>938</v>
       </c>
-      <c r="I75" t="s">
+      <c r="K75" t="s">
+        <v>221</v>
+      </c>
+      <c r="L75" t="s">
+        <v>221</v>
+      </c>
+      <c r="M75" t="s">
         <v>939</v>
-      </c>
-      <c r="J75" t="s">
-        <v>940</v>
-      </c>
-      <c r="K75" t="s">
-        <v>221</v>
-      </c>
-      <c r="L75" t="s">
-        <v>221</v>
-      </c>
-      <c r="M75" t="s">
-        <v>941</v>
       </c>
       <c r="N75">
         <v>300</v>
@@ -14624,40 +15112,40 @@
         <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C76" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D76" t="s">
+        <v>941</v>
+      </c>
+      <c r="E76" t="s">
+        <v>942</v>
+      </c>
+      <c r="F76" t="s">
         <v>943</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>944</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>945</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
         <v>946</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J76" t="s">
         <v>947</v>
       </c>
-      <c r="I76" t="s">
+      <c r="K76" t="s">
+        <v>221</v>
+      </c>
+      <c r="L76" t="s">
+        <v>221</v>
+      </c>
+      <c r="M76" t="s">
         <v>948</v>
-      </c>
-      <c r="J76" t="s">
-        <v>949</v>
-      </c>
-      <c r="K76" t="s">
-        <v>221</v>
-      </c>
-      <c r="L76" t="s">
-        <v>221</v>
-      </c>
-      <c r="M76" t="s">
-        <v>950</v>
       </c>
       <c r="N76" t="s">
         <v>223</v>
@@ -14684,7 +15172,7 @@
         <v>375</v>
       </c>
       <c r="V76" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="W76">
         <v>900</v>
@@ -14698,40 +15186,40 @@
         <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C77" s="1">
         <v>0.93000000715256004</v>
       </c>
       <c r="D77" t="s">
+        <v>951</v>
+      </c>
+      <c r="E77" t="s">
+        <v>952</v>
+      </c>
+      <c r="F77" t="s">
         <v>953</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>954</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
         <v>955</v>
       </c>
-      <c r="G77" t="s">
+      <c r="I77" t="s">
         <v>956</v>
       </c>
-      <c r="H77" t="s">
+      <c r="J77" t="s">
         <v>957</v>
       </c>
-      <c r="I77" t="s">
+      <c r="K77" t="s">
+        <v>221</v>
+      </c>
+      <c r="L77" t="s">
+        <v>221</v>
+      </c>
+      <c r="M77" t="s">
         <v>958</v>
-      </c>
-      <c r="J77" t="s">
-        <v>959</v>
-      </c>
-      <c r="K77" t="s">
-        <v>221</v>
-      </c>
-      <c r="L77" t="s">
-        <v>221</v>
-      </c>
-      <c r="M77" t="s">
-        <v>960</v>
       </c>
       <c r="N77" t="s">
         <v>223</v>
@@ -14772,40 +15260,40 @@
         <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C78" s="1">
         <v>0.86000001430510997</v>
       </c>
       <c r="D78" t="s">
+        <v>960</v>
+      </c>
+      <c r="E78" t="s">
+        <v>961</v>
+      </c>
+      <c r="F78" t="s">
         <v>962</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>963</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>964</v>
       </c>
-      <c r="G78" t="s">
+      <c r="I78" t="s">
         <v>965</v>
       </c>
-      <c r="H78" t="s">
+      <c r="J78" t="s">
         <v>966</v>
       </c>
-      <c r="I78" t="s">
+      <c r="K78" t="s">
+        <v>221</v>
+      </c>
+      <c r="L78" t="s">
+        <v>221</v>
+      </c>
+      <c r="M78" t="s">
         <v>967</v>
-      </c>
-      <c r="J78" t="s">
-        <v>968</v>
-      </c>
-      <c r="K78" t="s">
-        <v>221</v>
-      </c>
-      <c r="L78" t="s">
-        <v>221</v>
-      </c>
-      <c r="M78" t="s">
-        <v>969</v>
       </c>
       <c r="N78" t="s">
         <v>223</v>
@@ -14846,40 +15334,40 @@
         <v>207</v>
       </c>
       <c r="B79" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C79" s="1">
         <v>0.89999997615813998</v>
       </c>
       <c r="D79" t="s">
+        <v>969</v>
+      </c>
+      <c r="E79" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" t="s">
+        <v>970</v>
+      </c>
+      <c r="G79" t="s">
         <v>971</v>
       </c>
-      <c r="E79" t="s">
-        <v>223</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>972</v>
       </c>
-      <c r="G79" t="s">
+      <c r="I79" t="s">
         <v>973</v>
       </c>
-      <c r="H79" t="s">
+      <c r="J79" t="s">
         <v>974</v>
       </c>
-      <c r="I79" t="s">
+      <c r="K79" t="s">
+        <v>221</v>
+      </c>
+      <c r="L79" t="s">
+        <v>221</v>
+      </c>
+      <c r="M79" t="s">
         <v>975</v>
-      </c>
-      <c r="J79" t="s">
-        <v>976</v>
-      </c>
-      <c r="K79" t="s">
-        <v>221</v>
-      </c>
-      <c r="L79" t="s">
-        <v>221</v>
-      </c>
-      <c r="M79" t="s">
-        <v>977</v>
       </c>
       <c r="N79" t="s">
         <v>223</v>
@@ -14920,40 +15408,40 @@
         <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C80" s="1">
         <v>0.79000002145767001</v>
       </c>
       <c r="D80" t="s">
+        <v>977</v>
+      </c>
+      <c r="E80" t="s">
+        <v>978</v>
+      </c>
+      <c r="F80" t="s">
         <v>979</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G80" t="s">
         <v>980</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
         <v>981</v>
       </c>
-      <c r="G80" t="s">
+      <c r="I80" t="s">
         <v>982</v>
       </c>
-      <c r="H80" t="s">
+      <c r="J80" t="s">
         <v>983</v>
       </c>
-      <c r="I80" t="s">
+      <c r="K80" t="s">
+        <v>221</v>
+      </c>
+      <c r="L80" t="s">
+        <v>221</v>
+      </c>
+      <c r="M80" t="s">
         <v>984</v>
-      </c>
-      <c r="J80" t="s">
-        <v>985</v>
-      </c>
-      <c r="K80" t="s">
-        <v>221</v>
-      </c>
-      <c r="L80" t="s">
-        <v>221</v>
-      </c>
-      <c r="M80" t="s">
-        <v>986</v>
       </c>
       <c r="N80" t="s">
         <v>223</v>
@@ -14994,40 +15482,40 @@
         <v>191</v>
       </c>
       <c r="B81" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C81" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D81" t="s">
+        <v>986</v>
+      </c>
+      <c r="E81" t="s">
+        <v>987</v>
+      </c>
+      <c r="F81" t="s">
         <v>988</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>989</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>990</v>
       </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>991</v>
       </c>
-      <c r="H81" t="s">
+      <c r="J81" t="s">
         <v>992</v>
       </c>
-      <c r="I81" t="s">
+      <c r="K81" t="s">
         <v>993</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
+        <v>221</v>
+      </c>
+      <c r="M81" t="s">
         <v>994</v>
-      </c>
-      <c r="K81" t="s">
-        <v>995</v>
-      </c>
-      <c r="L81" t="s">
-        <v>221</v>
-      </c>
-      <c r="M81" t="s">
-        <v>996</v>
       </c>
       <c r="N81" t="s">
         <v>223</v>
@@ -15054,7 +15542,7 @@
         <v>500</v>
       </c>
       <c r="V81" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="W81">
         <v>900</v>
@@ -15068,40 +15556,40 @@
         <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C82" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D82" t="s">
+        <v>997</v>
+      </c>
+      <c r="E82" t="s">
+        <v>998</v>
+      </c>
+      <c r="F82" t="s">
         <v>999</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>1000</v>
       </c>
-      <c r="F82" t="s">
+      <c r="H82" t="s">
         <v>1001</v>
       </c>
-      <c r="G82" t="s">
+      <c r="I82" t="s">
         <v>1002</v>
       </c>
-      <c r="H82" t="s">
+      <c r="J82" t="s">
         <v>1003</v>
       </c>
-      <c r="I82" t="s">
+      <c r="K82" t="s">
+        <v>221</v>
+      </c>
+      <c r="L82" t="s">
+        <v>221</v>
+      </c>
+      <c r="M82" t="s">
         <v>1004</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1005</v>
-      </c>
-      <c r="K82" t="s">
-        <v>221</v>
-      </c>
-      <c r="L82" t="s">
-        <v>221</v>
-      </c>
-      <c r="M82" t="s">
-        <v>1006</v>
       </c>
       <c r="N82" t="s">
         <v>223</v>
@@ -15128,7 +15616,7 @@
         <v>330</v>
       </c>
       <c r="V82" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="W82">
         <v>900</v>
@@ -15142,40 +15630,40 @@
         <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C83" s="1">
         <v>0.69999998807907005</v>
       </c>
       <c r="D83" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F83" t="s">
         <v>1009</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>1010</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
         <v>1011</v>
       </c>
-      <c r="G83" t="s">
+      <c r="I83" t="s">
         <v>1012</v>
       </c>
-      <c r="H83" t="s">
+      <c r="J83" t="s">
         <v>1013</v>
       </c>
-      <c r="I83" t="s">
+      <c r="K83" t="s">
+        <v>221</v>
+      </c>
+      <c r="L83" t="s">
+        <v>221</v>
+      </c>
+      <c r="M83" t="s">
         <v>1014</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K83" t="s">
-        <v>221</v>
-      </c>
-      <c r="L83" t="s">
-        <v>221</v>
-      </c>
-      <c r="M83" t="s">
-        <v>1016</v>
       </c>
       <c r="N83" t="s">
         <v>223</v>
@@ -15202,7 +15690,7 @@
         <v>600</v>
       </c>
       <c r="V83" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="W83">
         <v>900</v>
@@ -15216,40 +15704,40 @@
         <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C84" s="1">
         <v>0.76999998092651001</v>
       </c>
       <c r="D84" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F84" t="s">
         <v>1019</v>
       </c>
-      <c r="E84" t="s">
+      <c r="G84" t="s">
         <v>1020</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>1021</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>1022</v>
       </c>
-      <c r="H84" t="s">
+      <c r="J84" t="s">
         <v>1023</v>
       </c>
-      <c r="I84" t="s">
+      <c r="K84" t="s">
         <v>1024</v>
       </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
+        <v>221</v>
+      </c>
+      <c r="M84" t="s">
         <v>1025</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1026</v>
-      </c>
-      <c r="L84" t="s">
-        <v>221</v>
-      </c>
-      <c r="M84" t="s">
-        <v>1027</v>
       </c>
       <c r="N84" t="s">
         <v>223</v>
@@ -15290,40 +15778,40 @@
         <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
       </c>
       <c r="D85" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F85" t="s">
         <v>1029</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
         <v>1030</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>1031</v>
       </c>
-      <c r="G85" t="s">
+      <c r="I85" t="s">
         <v>1032</v>
       </c>
-      <c r="H85" t="s">
+      <c r="J85" t="s">
         <v>1033</v>
       </c>
-      <c r="I85" t="s">
+      <c r="K85" t="s">
+        <v>221</v>
+      </c>
+      <c r="L85" t="s">
+        <v>221</v>
+      </c>
+      <c r="M85" t="s">
         <v>1034</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K85" t="s">
-        <v>221</v>
-      </c>
-      <c r="L85" t="s">
-        <v>221</v>
-      </c>
-      <c r="M85" t="s">
-        <v>1036</v>
       </c>
       <c r="N85" t="s">
         <v>223</v>
@@ -15364,40 +15852,40 @@
         <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C86" s="1">
         <v>0.93000000715256004</v>
       </c>
       <c r="D86" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F86" t="s">
         <v>1038</v>
       </c>
-      <c r="E86" t="s">
+      <c r="G86" t="s">
         <v>1039</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" t="s">
         <v>1040</v>
       </c>
-      <c r="G86" t="s">
+      <c r="I86" t="s">
         <v>1041</v>
       </c>
-      <c r="H86" t="s">
+      <c r="J86" t="s">
         <v>1042</v>
       </c>
-      <c r="I86" t="s">
+      <c r="K86" t="s">
+        <v>221</v>
+      </c>
+      <c r="L86" t="s">
+        <v>221</v>
+      </c>
+      <c r="M86" t="s">
         <v>1043</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1044</v>
-      </c>
-      <c r="K86" t="s">
-        <v>221</v>
-      </c>
-      <c r="L86" t="s">
-        <v>221</v>
-      </c>
-      <c r="M86" t="s">
-        <v>1045</v>
       </c>
       <c r="N86" t="s">
         <v>223</v>
@@ -15424,7 +15912,7 @@
         <v>600</v>
       </c>
       <c r="V86" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="W86">
         <v>1200</v>
@@ -15438,40 +15926,40 @@
         <v>190</v>
       </c>
       <c r="B87" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C87" s="1">
         <v>0.69999998807907005</v>
       </c>
       <c r="D87" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F87" t="s">
         <v>1048</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" t="s">
         <v>1049</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
         <v>1050</v>
       </c>
-      <c r="G87" t="s">
+      <c r="I87" t="s">
         <v>1051</v>
       </c>
-      <c r="H87" t="s">
+      <c r="J87" t="s">
         <v>1052</v>
       </c>
-      <c r="I87" t="s">
+      <c r="K87" t="s">
+        <v>221</v>
+      </c>
+      <c r="L87" t="s">
+        <v>221</v>
+      </c>
+      <c r="M87" t="s">
         <v>1053</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K87" t="s">
-        <v>221</v>
-      </c>
-      <c r="L87" t="s">
-        <v>221</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1055</v>
       </c>
       <c r="N87">
         <v>300</v>
@@ -15498,7 +15986,7 @@
         <v>450</v>
       </c>
       <c r="V87" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="W87">
         <v>900</v>
@@ -15512,40 +16000,40 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C88" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D88" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F88" t="s">
         <v>1058</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>1059</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H88" t="s">
         <v>1060</v>
       </c>
-      <c r="G88" t="s">
+      <c r="I88" t="s">
         <v>1061</v>
       </c>
-      <c r="H88" t="s">
+      <c r="J88" t="s">
         <v>1062</v>
       </c>
-      <c r="I88" t="s">
+      <c r="K88" t="s">
+        <v>221</v>
+      </c>
+      <c r="L88" t="s">
+        <v>221</v>
+      </c>
+      <c r="M88" t="s">
         <v>1063</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1064</v>
-      </c>
-      <c r="K88" t="s">
-        <v>221</v>
-      </c>
-      <c r="L88" t="s">
-        <v>221</v>
-      </c>
-      <c r="M88" t="s">
-        <v>1065</v>
       </c>
       <c r="N88" t="s">
         <v>223</v>
@@ -15572,7 +16060,7 @@
         <v>600</v>
       </c>
       <c r="V88" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="W88">
         <v>900</v>
@@ -15586,40 +16074,40 @@
         <v>186</v>
       </c>
       <c r="B89" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C89" s="1">
         <v>0.67000001668929998</v>
       </c>
       <c r="D89" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F89" t="s">
         <v>1068</v>
       </c>
-      <c r="E89" t="s">
+      <c r="G89" t="s">
         <v>1069</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H89" t="s">
         <v>1070</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
         <v>1071</v>
       </c>
-      <c r="H89" t="s">
+      <c r="J89" t="s">
         <v>1072</v>
       </c>
-      <c r="I89" t="s">
+      <c r="K89" t="s">
         <v>1073</v>
       </c>
-      <c r="J89" t="s">
+      <c r="L89" t="s">
         <v>1074</v>
       </c>
-      <c r="K89" t="s">
+      <c r="M89" t="s">
         <v>1075</v>
-      </c>
-      <c r="L89" t="s">
-        <v>1076</v>
-      </c>
-      <c r="M89" t="s">
-        <v>1077</v>
       </c>
       <c r="N89" t="s">
         <v>223</v>
@@ -15660,40 +16148,40 @@
         <v>188</v>
       </c>
       <c r="B90" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C90" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D90" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F90" t="s">
         <v>1079</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>1080</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>1081</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
         <v>1082</v>
       </c>
-      <c r="H90" t="s">
+      <c r="J90" t="s">
         <v>1083</v>
       </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>1084</v>
       </c>
-      <c r="J90" t="s">
+      <c r="L90" t="s">
         <v>1085</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>1086</v>
-      </c>
-      <c r="L90" t="s">
-        <v>1087</v>
-      </c>
-      <c r="M90" t="s">
-        <v>1088</v>
       </c>
       <c r="N90" t="s">
         <v>223</v>
@@ -15720,7 +16208,7 @@
         <v>600</v>
       </c>
       <c r="V90" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="W90">
         <v>900</v>
@@ -15734,40 +16222,40 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C91" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D91" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F91" t="s">
         <v>1091</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>1092</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>1093</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
         <v>1094</v>
       </c>
-      <c r="H91" t="s">
+      <c r="J91" t="s">
         <v>1095</v>
       </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
+        <v>221</v>
+      </c>
+      <c r="L91" t="s">
+        <v>221</v>
+      </c>
+      <c r="M91" t="s">
         <v>1096</v>
-      </c>
-      <c r="J91" t="s">
-        <v>1097</v>
-      </c>
-      <c r="K91" t="s">
-        <v>221</v>
-      </c>
-      <c r="L91" t="s">
-        <v>221</v>
-      </c>
-      <c r="M91" t="s">
-        <v>1098</v>
       </c>
       <c r="N91" t="s">
         <v>223</v>
@@ -15808,40 +16296,40 @@
         <v>131</v>
       </c>
       <c r="B92" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F92" t="s">
         <v>1100</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>1101</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>1102</v>
       </c>
-      <c r="G92" t="s">
+      <c r="I92" t="s">
         <v>1103</v>
       </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
         <v>1104</v>
       </c>
-      <c r="I92" t="s">
+      <c r="K92" t="s">
         <v>1105</v>
       </c>
-      <c r="J92" t="s">
+      <c r="L92" t="s">
+        <v>221</v>
+      </c>
+      <c r="M92" t="s">
         <v>1106</v>
-      </c>
-      <c r="K92" t="s">
-        <v>1107</v>
-      </c>
-      <c r="L92" t="s">
-        <v>221</v>
-      </c>
-      <c r="M92" t="s">
-        <v>1108</v>
       </c>
       <c r="N92" t="s">
         <v>223</v>
@@ -15868,7 +16356,7 @@
         <v>380</v>
       </c>
       <c r="V92" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="W92">
         <v>1100</v>
@@ -15882,40 +16370,40 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C93" s="1">
         <v>0.93000000715256004</v>
       </c>
       <c r="D93" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F93" t="s">
         <v>1111</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>1112</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" t="s">
         <v>1113</v>
       </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>1114</v>
       </c>
-      <c r="H93" t="s">
+      <c r="J93" t="s">
         <v>1115</v>
       </c>
-      <c r="I93" t="s">
+      <c r="K93" t="s">
+        <v>221</v>
+      </c>
+      <c r="L93" t="s">
+        <v>221</v>
+      </c>
+      <c r="M93" t="s">
         <v>1116</v>
-      </c>
-      <c r="J93" t="s">
-        <v>1117</v>
-      </c>
-      <c r="K93" t="s">
-        <v>221</v>
-      </c>
-      <c r="L93" t="s">
-        <v>221</v>
-      </c>
-      <c r="M93" t="s">
-        <v>1118</v>
       </c>
       <c r="N93" t="s">
         <v>223</v>
@@ -15956,40 +16444,40 @@
         <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C94" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D94" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F94" t="s">
         <v>1120</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>1121</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
         <v>1122</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
         <v>1123</v>
       </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
         <v>1124</v>
       </c>
-      <c r="I94" t="s">
+      <c r="K94" t="s">
+        <v>221</v>
+      </c>
+      <c r="L94" t="s">
+        <v>221</v>
+      </c>
+      <c r="M94" t="s">
         <v>1125</v>
-      </c>
-      <c r="J94" t="s">
-        <v>1126</v>
-      </c>
-      <c r="K94" t="s">
-        <v>221</v>
-      </c>
-      <c r="L94" t="s">
-        <v>221</v>
-      </c>
-      <c r="M94" t="s">
-        <v>1127</v>
       </c>
       <c r="N94" t="s">
         <v>223</v>
@@ -16030,40 +16518,40 @@
         <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C95" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D95" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F95" t="s">
         <v>1129</v>
       </c>
-      <c r="E95" t="s">
+      <c r="G95" t="s">
         <v>1130</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H95" t="s">
         <v>1131</v>
       </c>
-      <c r="G95" t="s">
+      <c r="I95" t="s">
         <v>1132</v>
       </c>
-      <c r="H95" t="s">
+      <c r="J95" t="s">
         <v>1133</v>
       </c>
-      <c r="I95" t="s">
+      <c r="K95" t="s">
+        <v>221</v>
+      </c>
+      <c r="L95" t="s">
+        <v>221</v>
+      </c>
+      <c r="M95" t="s">
         <v>1134</v>
-      </c>
-      <c r="J95" t="s">
-        <v>1135</v>
-      </c>
-      <c r="K95" t="s">
-        <v>221</v>
-      </c>
-      <c r="L95" t="s">
-        <v>221</v>
-      </c>
-      <c r="M95" t="s">
-        <v>1136</v>
       </c>
       <c r="N95" t="s">
         <v>223</v>
@@ -16090,7 +16578,7 @@
         <v>365</v>
       </c>
       <c r="V95" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="W95">
         <v>3000</v>
@@ -16104,40 +16592,40 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C96" s="1">
         <v>0.79000002145767001</v>
       </c>
       <c r="D96" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F96" t="s">
         <v>1139</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G96" t="s">
         <v>1140</v>
       </c>
-      <c r="F96" t="s">
+      <c r="H96" t="s">
         <v>1141</v>
       </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
         <v>1142</v>
       </c>
-      <c r="H96" t="s">
+      <c r="J96" t="s">
         <v>1143</v>
       </c>
-      <c r="I96" t="s">
+      <c r="K96" t="s">
+        <v>221</v>
+      </c>
+      <c r="L96" t="s">
+        <v>221</v>
+      </c>
+      <c r="M96" t="s">
         <v>1144</v>
-      </c>
-      <c r="J96" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K96" t="s">
-        <v>221</v>
-      </c>
-      <c r="L96" t="s">
-        <v>221</v>
-      </c>
-      <c r="M96" t="s">
-        <v>1146</v>
       </c>
       <c r="N96" t="s">
         <v>223</v>
@@ -16164,7 +16652,7 @@
         <v>600</v>
       </c>
       <c r="V96" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="W96">
         <v>1125</v>
@@ -16178,40 +16666,40 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C97" s="1">
         <v>0.81000000238419001</v>
       </c>
       <c r="D97" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F97" t="s">
         <v>1149</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>1150</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
         <v>1151</v>
       </c>
-      <c r="G97" t="s">
+      <c r="I97" t="s">
         <v>1152</v>
       </c>
-      <c r="H97" t="s">
+      <c r="J97" t="s">
         <v>1153</v>
       </c>
-      <c r="I97" t="s">
+      <c r="K97" t="s">
+        <v>221</v>
+      </c>
+      <c r="L97" t="s">
+        <v>221</v>
+      </c>
+      <c r="M97" t="s">
         <v>1154</v>
-      </c>
-      <c r="J97" t="s">
-        <v>1155</v>
-      </c>
-      <c r="K97" t="s">
-        <v>221</v>
-      </c>
-      <c r="L97" t="s">
-        <v>221</v>
-      </c>
-      <c r="M97" t="s">
-        <v>1156</v>
       </c>
       <c r="N97" t="s">
         <v>223</v>
@@ -16238,7 +16726,7 @@
         <v>600</v>
       </c>
       <c r="V97" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="W97">
         <v>900</v>
@@ -16252,40 +16740,40 @@
         <v>185</v>
       </c>
       <c r="B98" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C98" s="1">
         <v>0.93000000715256004</v>
       </c>
       <c r="D98" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F98" t="s">
         <v>1159</v>
       </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
         <v>1160</v>
       </c>
-      <c r="F98" t="s">
+      <c r="H98" t="s">
         <v>1161</v>
       </c>
-      <c r="G98" t="s">
+      <c r="I98" t="s">
         <v>1162</v>
       </c>
-      <c r="H98" t="s">
+      <c r="J98" t="s">
         <v>1163</v>
       </c>
-      <c r="I98" t="s">
+      <c r="K98" t="s">
+        <v>221</v>
+      </c>
+      <c r="L98" t="s">
+        <v>221</v>
+      </c>
+      <c r="M98" t="s">
         <v>1164</v>
-      </c>
-      <c r="J98" t="s">
-        <v>1165</v>
-      </c>
-      <c r="K98" t="s">
-        <v>221</v>
-      </c>
-      <c r="L98" t="s">
-        <v>221</v>
-      </c>
-      <c r="M98" t="s">
-        <v>1166</v>
       </c>
       <c r="N98" t="s">
         <v>223</v>
@@ -16312,7 +16800,7 @@
         <v>650</v>
       </c>
       <c r="V98" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="W98">
         <v>1100</v>
@@ -16326,40 +16814,40 @@
         <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C99" s="1">
         <v>0.93000000715256004</v>
       </c>
       <c r="D99" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F99" t="s">
         <v>1169</v>
       </c>
-      <c r="E99" t="s">
+      <c r="G99" t="s">
         <v>1170</v>
       </c>
-      <c r="F99" t="s">
+      <c r="H99" t="s">
         <v>1171</v>
       </c>
-      <c r="G99" t="s">
+      <c r="I99" t="s">
         <v>1172</v>
       </c>
-      <c r="H99" t="s">
+      <c r="J99" t="s">
         <v>1173</v>
       </c>
-      <c r="I99" t="s">
+      <c r="K99" t="s">
+        <v>221</v>
+      </c>
+      <c r="L99" t="s">
+        <v>221</v>
+      </c>
+      <c r="M99" t="s">
         <v>1174</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K99" t="s">
-        <v>221</v>
-      </c>
-      <c r="L99" t="s">
-        <v>221</v>
-      </c>
-      <c r="M99" t="s">
-        <v>1176</v>
       </c>
       <c r="N99" t="s">
         <v>223</v>
@@ -16400,40 +16888,40 @@
         <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C100" s="1">
         <v>0.86000001430510997</v>
       </c>
       <c r="D100" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F100" t="s">
         <v>1178</v>
       </c>
-      <c r="E100" t="s">
+      <c r="G100" t="s">
         <v>1179</v>
       </c>
-      <c r="F100" t="s">
+      <c r="H100" t="s">
         <v>1180</v>
       </c>
-      <c r="G100" t="s">
+      <c r="I100" t="s">
         <v>1181</v>
       </c>
-      <c r="H100" t="s">
+      <c r="J100" t="s">
         <v>1182</v>
       </c>
-      <c r="I100" t="s">
+      <c r="K100" t="s">
         <v>1183</v>
       </c>
-      <c r="J100" t="s">
+      <c r="L100" t="s">
         <v>1184</v>
       </c>
-      <c r="K100" t="s">
+      <c r="M100" t="s">
         <v>1185</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M100" t="s">
-        <v>1187</v>
       </c>
       <c r="N100" t="s">
         <v>223</v>
@@ -16474,40 +16962,40 @@
         <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C101" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D101" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F101" t="s">
         <v>1189</v>
       </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
         <v>1190</v>
       </c>
-      <c r="F101" t="s">
+      <c r="H101" t="s">
         <v>1191</v>
       </c>
-      <c r="G101" t="s">
+      <c r="I101" t="s">
         <v>1192</v>
       </c>
-      <c r="H101" t="s">
+      <c r="J101" t="s">
         <v>1193</v>
       </c>
-      <c r="I101" t="s">
+      <c r="K101" t="s">
+        <v>221</v>
+      </c>
+      <c r="L101" t="s">
+        <v>221</v>
+      </c>
+      <c r="M101" t="s">
         <v>1194</v>
-      </c>
-      <c r="J101" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K101" t="s">
-        <v>221</v>
-      </c>
-      <c r="L101" t="s">
-        <v>221</v>
-      </c>
-      <c r="M101" t="s">
-        <v>1196</v>
       </c>
       <c r="N101" t="s">
         <v>223</v>
@@ -16548,40 +17036,40 @@
         <v>183</v>
       </c>
       <c r="B102" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C102" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D102" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F102" t="s">
         <v>1198</v>
       </c>
-      <c r="E102" t="s">
+      <c r="G102" t="s">
         <v>1199</v>
       </c>
-      <c r="F102" t="s">
+      <c r="H102" t="s">
         <v>1200</v>
       </c>
-      <c r="G102" t="s">
+      <c r="I102" t="s">
         <v>1201</v>
       </c>
-      <c r="H102" t="s">
+      <c r="J102" t="s">
         <v>1202</v>
       </c>
-      <c r="I102" t="s">
+      <c r="K102" t="s">
+        <v>221</v>
+      </c>
+      <c r="L102" t="s">
+        <v>221</v>
+      </c>
+      <c r="M102" t="s">
         <v>1203</v>
-      </c>
-      <c r="J102" t="s">
-        <v>1204</v>
-      </c>
-      <c r="K102" t="s">
-        <v>221</v>
-      </c>
-      <c r="L102" t="s">
-        <v>221</v>
-      </c>
-      <c r="M102" t="s">
-        <v>1205</v>
       </c>
       <c r="N102" t="s">
         <v>223</v>
@@ -16622,40 +17110,40 @@
         <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C103" s="1">
         <v>0.98000001907348999</v>
       </c>
       <c r="D103" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F103" t="s">
         <v>1207</v>
       </c>
-      <c r="E103" t="s">
+      <c r="G103" t="s">
         <v>1208</v>
       </c>
-      <c r="F103" t="s">
+      <c r="H103" t="s">
         <v>1209</v>
       </c>
-      <c r="G103" t="s">
+      <c r="I103" t="s">
         <v>1210</v>
       </c>
-      <c r="H103" t="s">
+      <c r="J103" t="s">
         <v>1211</v>
       </c>
-      <c r="I103" t="s">
+      <c r="K103" t="s">
+        <v>221</v>
+      </c>
+      <c r="L103" t="s">
+        <v>221</v>
+      </c>
+      <c r="M103" t="s">
         <v>1212</v>
-      </c>
-      <c r="J103" t="s">
-        <v>1213</v>
-      </c>
-      <c r="K103" t="s">
-        <v>221</v>
-      </c>
-      <c r="L103" t="s">
-        <v>221</v>
-      </c>
-      <c r="M103" t="s">
-        <v>1214</v>
       </c>
       <c r="N103" t="s">
         <v>223</v>
@@ -16682,7 +17170,7 @@
         <v>400</v>
       </c>
       <c r="V103" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="W103">
         <v>1500</v>
@@ -16696,40 +17184,40 @@
         <v>130</v>
       </c>
       <c r="B104" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C104" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D104" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F104" t="s">
         <v>1217</v>
       </c>
-      <c r="E104" t="s">
+      <c r="G104" t="s">
         <v>1218</v>
       </c>
-      <c r="F104" t="s">
+      <c r="H104" t="s">
         <v>1219</v>
       </c>
-      <c r="G104" t="s">
+      <c r="I104" t="s">
         <v>1220</v>
       </c>
-      <c r="H104" t="s">
+      <c r="J104" t="s">
         <v>1221</v>
       </c>
-      <c r="I104" t="s">
+      <c r="K104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L104" t="s">
+        <v>221</v>
+      </c>
+      <c r="M104" t="s">
         <v>1222</v>
-      </c>
-      <c r="J104" t="s">
-        <v>1223</v>
-      </c>
-      <c r="K104" t="s">
-        <v>221</v>
-      </c>
-      <c r="L104" t="s">
-        <v>221</v>
-      </c>
-      <c r="M104" t="s">
-        <v>1224</v>
       </c>
       <c r="N104" t="s">
         <v>223</v>
@@ -16770,40 +17258,40 @@
         <v>167</v>
       </c>
       <c r="B105" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C105" s="1">
         <v>0.91000002622604004</v>
       </c>
       <c r="D105" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F105" t="s">
         <v>1226</v>
       </c>
-      <c r="E105" t="s">
+      <c r="G105" t="s">
         <v>1227</v>
       </c>
-      <c r="F105" t="s">
+      <c r="H105" t="s">
         <v>1228</v>
       </c>
-      <c r="G105" t="s">
+      <c r="I105" t="s">
         <v>1229</v>
       </c>
-      <c r="H105" t="s">
+      <c r="J105" t="s">
         <v>1230</v>
       </c>
-      <c r="I105" t="s">
+      <c r="K105" t="s">
+        <v>221</v>
+      </c>
+      <c r="L105" t="s">
+        <v>221</v>
+      </c>
+      <c r="M105" t="s">
         <v>1231</v>
-      </c>
-      <c r="J105" t="s">
-        <v>1232</v>
-      </c>
-      <c r="K105" t="s">
-        <v>221</v>
-      </c>
-      <c r="L105" t="s">
-        <v>221</v>
-      </c>
-      <c r="M105" t="s">
-        <v>1233</v>
       </c>
       <c r="N105" t="s">
         <v>223</v>
@@ -16830,7 +17318,7 @@
         <v>400</v>
       </c>
       <c r="V105" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="W105">
         <v>900</v>
@@ -16844,40 +17332,40 @@
         <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C106" s="1">
         <v>1.1499999761580999</v>
       </c>
       <c r="D106" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F106" t="s">
         <v>1236</v>
       </c>
-      <c r="E106" t="s">
+      <c r="G106" t="s">
         <v>1237</v>
       </c>
-      <c r="F106" t="s">
+      <c r="H106" t="s">
         <v>1238</v>
       </c>
-      <c r="G106" t="s">
+      <c r="I106" t="s">
         <v>1239</v>
       </c>
-      <c r="H106" t="s">
+      <c r="J106" t="s">
         <v>1240</v>
       </c>
-      <c r="I106" t="s">
+      <c r="K106" t="s">
+        <v>221</v>
+      </c>
+      <c r="L106" t="s">
+        <v>221</v>
+      </c>
+      <c r="M106" t="s">
         <v>1241</v>
-      </c>
-      <c r="J106" t="s">
-        <v>1242</v>
-      </c>
-      <c r="K106" t="s">
-        <v>221</v>
-      </c>
-      <c r="L106" t="s">
-        <v>221</v>
-      </c>
-      <c r="M106" t="s">
-        <v>1243</v>
       </c>
       <c r="N106" t="s">
         <v>223</v>
@@ -16904,7 +17392,7 @@
         <v>480</v>
       </c>
       <c r="V106" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="W106">
         <v>1100</v>
@@ -16918,40 +17406,40 @@
         <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C107" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D107" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F107" t="s">
         <v>1246</v>
       </c>
-      <c r="E107" t="s">
+      <c r="G107" t="s">
         <v>1247</v>
       </c>
-      <c r="F107" t="s">
+      <c r="H107" t="s">
         <v>1248</v>
       </c>
-      <c r="G107" t="s">
+      <c r="I107" t="s">
         <v>1249</v>
       </c>
-      <c r="H107" t="s">
+      <c r="J107" t="s">
         <v>1250</v>
       </c>
-      <c r="I107" t="s">
+      <c r="K107" t="s">
+        <v>221</v>
+      </c>
+      <c r="L107" t="s">
+        <v>221</v>
+      </c>
+      <c r="M107" t="s">
         <v>1251</v>
-      </c>
-      <c r="J107" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K107" t="s">
-        <v>221</v>
-      </c>
-      <c r="L107" t="s">
-        <v>221</v>
-      </c>
-      <c r="M107" t="s">
-        <v>1253</v>
       </c>
       <c r="N107" t="s">
         <v>223</v>
@@ -16992,40 +17480,40 @@
         <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C108" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D108" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F108" t="s">
         <v>1255</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
         <v>1256</v>
       </c>
-      <c r="F108" t="s">
+      <c r="H108" t="s">
         <v>1257</v>
       </c>
-      <c r="G108" t="s">
+      <c r="I108" t="s">
         <v>1258</v>
       </c>
-      <c r="H108" t="s">
+      <c r="J108" t="s">
         <v>1259</v>
       </c>
-      <c r="I108" t="s">
+      <c r="K108" t="s">
+        <v>221</v>
+      </c>
+      <c r="L108" t="s">
+        <v>221</v>
+      </c>
+      <c r="M108" t="s">
         <v>1260</v>
-      </c>
-      <c r="J108" t="s">
-        <v>1261</v>
-      </c>
-      <c r="K108" t="s">
-        <v>221</v>
-      </c>
-      <c r="L108" t="s">
-        <v>221</v>
-      </c>
-      <c r="M108" t="s">
-        <v>1262</v>
       </c>
       <c r="N108" t="s">
         <v>223</v>
@@ -17052,7 +17540,7 @@
         <v>550</v>
       </c>
       <c r="V108" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="W108">
         <v>1500</v>
@@ -17066,40 +17554,40 @@
         <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C109" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D109" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F109" t="s">
         <v>1265</v>
       </c>
-      <c r="E109" t="s">
+      <c r="G109" t="s">
         <v>1266</v>
       </c>
-      <c r="F109" t="s">
+      <c r="H109" t="s">
         <v>1267</v>
       </c>
-      <c r="G109" t="s">
+      <c r="I109" t="s">
         <v>1268</v>
       </c>
-      <c r="H109" t="s">
+      <c r="J109" t="s">
         <v>1269</v>
       </c>
-      <c r="I109" t="s">
+      <c r="K109" t="s">
+        <v>221</v>
+      </c>
+      <c r="L109" t="s">
+        <v>221</v>
+      </c>
+      <c r="M109" t="s">
         <v>1270</v>
-      </c>
-      <c r="J109" t="s">
-        <v>1271</v>
-      </c>
-      <c r="K109" t="s">
-        <v>221</v>
-      </c>
-      <c r="L109" t="s">
-        <v>221</v>
-      </c>
-      <c r="M109" t="s">
-        <v>1272</v>
       </c>
       <c r="N109" t="s">
         <v>223</v>
@@ -17126,7 +17614,7 @@
         <v>550</v>
       </c>
       <c r="V109" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="W109">
         <v>3000</v>
@@ -17140,40 +17628,40 @@
         <v>163</v>
       </c>
       <c r="B110" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C110" s="1">
         <v>0.87999999523162997</v>
       </c>
       <c r="D110" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F110" t="s">
         <v>1275</v>
       </c>
-      <c r="E110" t="s">
+      <c r="G110" t="s">
         <v>1276</v>
       </c>
-      <c r="F110" t="s">
+      <c r="H110" t="s">
         <v>1277</v>
       </c>
-      <c r="G110" t="s">
+      <c r="I110" t="s">
         <v>1278</v>
       </c>
-      <c r="H110" t="s">
+      <c r="J110" t="s">
         <v>1279</v>
       </c>
-      <c r="I110" t="s">
+      <c r="K110" t="s">
+        <v>221</v>
+      </c>
+      <c r="L110" t="s">
+        <v>221</v>
+      </c>
+      <c r="M110" t="s">
         <v>1280</v>
-      </c>
-      <c r="J110" t="s">
-        <v>1281</v>
-      </c>
-      <c r="K110" t="s">
-        <v>221</v>
-      </c>
-      <c r="L110" t="s">
-        <v>221</v>
-      </c>
-      <c r="M110" t="s">
-        <v>1282</v>
       </c>
       <c r="N110" t="s">
         <v>223</v>
@@ -17214,40 +17702,40 @@
         <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C111" s="1">
         <v>0.75</v>
       </c>
       <c r="D111" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F111" t="s">
         <v>1284</v>
       </c>
-      <c r="E111" t="s">
+      <c r="G111" t="s">
         <v>1285</v>
       </c>
-      <c r="F111" t="s">
+      <c r="H111" t="s">
         <v>1286</v>
       </c>
-      <c r="G111" t="s">
+      <c r="I111" t="s">
         <v>1287</v>
       </c>
-      <c r="H111" t="s">
+      <c r="J111" t="s">
         <v>1288</v>
       </c>
-      <c r="I111" t="s">
+      <c r="K111" t="s">
+        <v>221</v>
+      </c>
+      <c r="L111" t="s">
+        <v>221</v>
+      </c>
+      <c r="M111" t="s">
         <v>1289</v>
-      </c>
-      <c r="J111" t="s">
-        <v>1290</v>
-      </c>
-      <c r="K111" t="s">
-        <v>221</v>
-      </c>
-      <c r="L111" t="s">
-        <v>221</v>
-      </c>
-      <c r="M111" t="s">
-        <v>1291</v>
       </c>
       <c r="N111">
         <v>300</v>
@@ -17274,7 +17762,7 @@
         <v>625</v>
       </c>
       <c r="V111" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="W111">
         <v>1000</v>
@@ -17288,40 +17776,40 @@
         <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C112" s="1">
         <v>0.85000002384186002</v>
       </c>
       <c r="D112" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F112" t="s">
         <v>1294</v>
       </c>
-      <c r="E112" t="s">
+      <c r="G112" t="s">
         <v>1295</v>
       </c>
-      <c r="F112" t="s">
+      <c r="H112" t="s">
         <v>1296</v>
       </c>
-      <c r="G112" t="s">
+      <c r="I112" t="s">
         <v>1297</v>
       </c>
-      <c r="H112" t="s">
+      <c r="J112" t="s">
         <v>1298</v>
       </c>
-      <c r="I112" t="s">
+      <c r="K112" t="s">
+        <v>221</v>
+      </c>
+      <c r="L112" t="s">
+        <v>221</v>
+      </c>
+      <c r="M112" t="s">
         <v>1299</v>
-      </c>
-      <c r="J112" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K112" t="s">
-        <v>221</v>
-      </c>
-      <c r="L112" t="s">
-        <v>221</v>
-      </c>
-      <c r="M112" t="s">
-        <v>1301</v>
       </c>
       <c r="N112" t="s">
         <v>223</v>
@@ -17362,40 +17850,40 @@
         <v>168</v>
       </c>
       <c r="B113" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C113" s="1">
         <v>0.87000000476837003</v>
       </c>
       <c r="D113" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F113" t="s">
         <v>1303</v>
       </c>
-      <c r="E113" t="s">
+      <c r="G113" t="s">
         <v>1304</v>
       </c>
-      <c r="F113" t="s">
+      <c r="H113" t="s">
         <v>1305</v>
       </c>
-      <c r="G113" t="s">
+      <c r="I113" t="s">
         <v>1306</v>
       </c>
-      <c r="H113" t="s">
+      <c r="J113" t="s">
         <v>1307</v>
       </c>
-      <c r="I113" t="s">
+      <c r="K113" t="s">
+        <v>221</v>
+      </c>
+      <c r="L113" t="s">
+        <v>221</v>
+      </c>
+      <c r="M113" t="s">
         <v>1308</v>
-      </c>
-      <c r="J113" t="s">
-        <v>1309</v>
-      </c>
-      <c r="K113" t="s">
-        <v>221</v>
-      </c>
-      <c r="L113" t="s">
-        <v>221</v>
-      </c>
-      <c r="M113" t="s">
-        <v>1310</v>
       </c>
       <c r="N113" t="s">
         <v>223</v>
@@ -17436,40 +17924,40 @@
         <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C114" s="1">
         <v>0.98000001907348999</v>
       </c>
       <c r="D114" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F114" t="s">
         <v>1312</v>
       </c>
-      <c r="E114" t="s">
+      <c r="G114" t="s">
         <v>1313</v>
       </c>
-      <c r="F114" t="s">
+      <c r="H114" t="s">
         <v>1314</v>
       </c>
-      <c r="G114" t="s">
+      <c r="I114" t="s">
         <v>1315</v>
       </c>
-      <c r="H114" t="s">
+      <c r="J114" t="s">
         <v>1316</v>
       </c>
-      <c r="I114" t="s">
+      <c r="K114" t="s">
         <v>1317</v>
       </c>
-      <c r="J114" t="s">
+      <c r="L114" t="s">
+        <v>221</v>
+      </c>
+      <c r="M114" t="s">
         <v>1318</v>
-      </c>
-      <c r="K114" t="s">
-        <v>1319</v>
-      </c>
-      <c r="L114" t="s">
-        <v>221</v>
-      </c>
-      <c r="M114" t="s">
-        <v>1320</v>
       </c>
       <c r="N114" t="s">
         <v>223</v>
@@ -17510,40 +17998,40 @@
         <v>166</v>
       </c>
       <c r="B115" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C115" s="1">
         <v>0.79000002145767001</v>
       </c>
       <c r="D115" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F115" t="s">
         <v>1322</v>
       </c>
-      <c r="E115" t="s">
+      <c r="G115" t="s">
         <v>1323</v>
       </c>
-      <c r="F115" t="s">
+      <c r="H115" t="s">
         <v>1324</v>
       </c>
-      <c r="G115" t="s">
+      <c r="I115" t="s">
         <v>1325</v>
       </c>
-      <c r="H115" t="s">
+      <c r="J115" t="s">
         <v>1326</v>
       </c>
-      <c r="I115" t="s">
+      <c r="K115" t="s">
+        <v>221</v>
+      </c>
+      <c r="L115" t="s">
+        <v>221</v>
+      </c>
+      <c r="M115" t="s">
         <v>1327</v>
-      </c>
-      <c r="J115" t="s">
-        <v>1328</v>
-      </c>
-      <c r="K115" t="s">
-        <v>221</v>
-      </c>
-      <c r="L115" t="s">
-        <v>221</v>
-      </c>
-      <c r="M115" t="s">
-        <v>1329</v>
       </c>
       <c r="N115">
         <v>255</v>
@@ -17570,7 +18058,7 @@
         <v>550</v>
       </c>
       <c r="V115" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="W115">
         <v>900</v>
@@ -17584,40 +18072,40 @@
         <v>99</v>
       </c>
       <c r="B116" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C116" s="1">
         <v>0.80000001192092995</v>
       </c>
       <c r="D116" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F116" t="s">
         <v>1332</v>
       </c>
-      <c r="E116" t="s">
+      <c r="G116" t="s">
         <v>1333</v>
       </c>
-      <c r="F116" t="s">
+      <c r="H116" t="s">
         <v>1334</v>
       </c>
-      <c r="G116" t="s">
+      <c r="I116" t="s">
         <v>1335</v>
       </c>
-      <c r="H116" t="s">
+      <c r="J116" t="s">
         <v>1336</v>
       </c>
-      <c r="I116" t="s">
+      <c r="K116" t="s">
+        <v>221</v>
+      </c>
+      <c r="L116" t="s">
+        <v>221</v>
+      </c>
+      <c r="M116" t="s">
         <v>1337</v>
-      </c>
-      <c r="J116" t="s">
-        <v>1338</v>
-      </c>
-      <c r="K116" t="s">
-        <v>221</v>
-      </c>
-      <c r="L116" t="s">
-        <v>221</v>
-      </c>
-      <c r="M116" t="s">
-        <v>1339</v>
       </c>
       <c r="N116" t="s">
         <v>223</v>
@@ -17644,7 +18132,7 @@
         <v>500</v>
       </c>
       <c r="V116" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="W116">
         <v>900</v>
@@ -17658,40 +18146,40 @@
         <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C117" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D117" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F117" t="s">
         <v>1342</v>
       </c>
-      <c r="E117" t="s">
+      <c r="G117" t="s">
         <v>1343</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H117" t="s">
         <v>1344</v>
       </c>
-      <c r="G117" t="s">
+      <c r="I117" t="s">
         <v>1345</v>
       </c>
-      <c r="H117" t="s">
+      <c r="J117" t="s">
         <v>1346</v>
       </c>
-      <c r="I117" t="s">
+      <c r="K117" t="s">
+        <v>221</v>
+      </c>
+      <c r="L117" t="s">
+        <v>221</v>
+      </c>
+      <c r="M117" t="s">
         <v>1347</v>
-      </c>
-      <c r="J117" t="s">
-        <v>1348</v>
-      </c>
-      <c r="K117" t="s">
-        <v>221</v>
-      </c>
-      <c r="L117" t="s">
-        <v>221</v>
-      </c>
-      <c r="M117" t="s">
-        <v>1349</v>
       </c>
       <c r="N117" t="s">
         <v>223</v>
@@ -17732,40 +18220,40 @@
         <v>153</v>
       </c>
       <c r="B118" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C118" s="1">
         <v>0.79000002145767001</v>
       </c>
       <c r="D118" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F118" t="s">
         <v>1351</v>
       </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
         <v>1352</v>
       </c>
-      <c r="F118" t="s">
+      <c r="H118" t="s">
         <v>1353</v>
       </c>
-      <c r="G118" t="s">
+      <c r="I118" t="s">
         <v>1354</v>
       </c>
-      <c r="H118" t="s">
+      <c r="J118" t="s">
         <v>1355</v>
       </c>
-      <c r="I118" t="s">
+      <c r="K118" t="s">
+        <v>221</v>
+      </c>
+      <c r="L118" t="s">
+        <v>221</v>
+      </c>
+      <c r="M118" t="s">
         <v>1356</v>
-      </c>
-      <c r="J118" t="s">
-        <v>1357</v>
-      </c>
-      <c r="K118" t="s">
-        <v>221</v>
-      </c>
-      <c r="L118" t="s">
-        <v>221</v>
-      </c>
-      <c r="M118" t="s">
-        <v>1358</v>
       </c>
       <c r="N118" t="s">
         <v>223</v>
@@ -17792,7 +18280,7 @@
         <v>630</v>
       </c>
       <c r="V118" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="W118">
         <v>900</v>
@@ -17806,40 +18294,40 @@
         <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C119" s="1">
         <v>1.2000000476837001</v>
       </c>
       <c r="D119" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F119" t="s">
         <v>1361</v>
       </c>
-      <c r="E119" t="s">
+      <c r="G119" t="s">
         <v>1362</v>
       </c>
-      <c r="F119" t="s">
+      <c r="H119" t="s">
         <v>1363</v>
       </c>
-      <c r="G119" t="s">
+      <c r="I119" t="s">
         <v>1364</v>
       </c>
-      <c r="H119" t="s">
+      <c r="J119" t="s">
         <v>1365</v>
       </c>
-      <c r="I119" t="s">
+      <c r="K119" t="s">
         <v>1366</v>
       </c>
-      <c r="J119" t="s">
+      <c r="L119" t="s">
+        <v>221</v>
+      </c>
+      <c r="M119" t="s">
         <v>1367</v>
-      </c>
-      <c r="K119" t="s">
-        <v>1368</v>
-      </c>
-      <c r="L119" t="s">
-        <v>221</v>
-      </c>
-      <c r="M119" t="s">
-        <v>1369</v>
       </c>
       <c r="N119" t="s">
         <v>223</v>
@@ -17880,40 +18368,40 @@
         <v>156</v>
       </c>
       <c r="B120" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C120" s="1">
         <v>0.83999997377395996</v>
       </c>
       <c r="D120" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F120" t="s">
         <v>1371</v>
       </c>
-      <c r="E120" t="s">
+      <c r="G120" t="s">
         <v>1372</v>
       </c>
-      <c r="F120" t="s">
+      <c r="H120" t="s">
         <v>1373</v>
       </c>
-      <c r="G120" t="s">
+      <c r="I120" t="s">
         <v>1374</v>
       </c>
-      <c r="H120" t="s">
+      <c r="J120" t="s">
         <v>1375</v>
       </c>
-      <c r="I120" t="s">
+      <c r="K120" t="s">
+        <v>221</v>
+      </c>
+      <c r="L120" t="s">
+        <v>221</v>
+      </c>
+      <c r="M120" t="s">
         <v>1376</v>
-      </c>
-      <c r="J120" t="s">
-        <v>1377</v>
-      </c>
-      <c r="K120" t="s">
-        <v>221</v>
-      </c>
-      <c r="L120" t="s">
-        <v>221</v>
-      </c>
-      <c r="M120" t="s">
-        <v>1378</v>
       </c>
       <c r="N120" t="s">
         <v>223</v>
@@ -17940,7 +18428,7 @@
         <v>600</v>
       </c>
       <c r="V120" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="W120">
         <v>1200</v>
@@ -17954,40 +18442,40 @@
         <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C121" s="1">
         <v>0.79000002145767001</v>
       </c>
       <c r="D121" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F121" t="s">
         <v>1381</v>
       </c>
-      <c r="E121" t="s">
+      <c r="G121" t="s">
         <v>1382</v>
       </c>
-      <c r="F121" t="s">
+      <c r="H121" t="s">
         <v>1383</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I121" t="s">
         <v>1384</v>
       </c>
-      <c r="H121" t="s">
+      <c r="J121" t="s">
         <v>1385</v>
       </c>
-      <c r="I121" t="s">
+      <c r="K121" t="s">
+        <v>221</v>
+      </c>
+      <c r="L121" t="s">
+        <v>221</v>
+      </c>
+      <c r="M121" t="s">
         <v>1386</v>
-      </c>
-      <c r="J121" t="s">
-        <v>1387</v>
-      </c>
-      <c r="K121" t="s">
-        <v>221</v>
-      </c>
-      <c r="L121" t="s">
-        <v>221</v>
-      </c>
-      <c r="M121" t="s">
-        <v>1388</v>
       </c>
       <c r="N121">
         <v>260</v>
@@ -18028,40 +18516,40 @@
         <v>176</v>
       </c>
       <c r="B122" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C122" s="1">
         <v>0.74000000953674006</v>
       </c>
       <c r="D122" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F122" t="s">
         <v>1390</v>
       </c>
-      <c r="E122" t="s">
+      <c r="G122" t="s">
         <v>1391</v>
       </c>
-      <c r="F122" t="s">
+      <c r="H122" t="s">
         <v>1392</v>
       </c>
-      <c r="G122" t="s">
+      <c r="I122" t="s">
         <v>1393</v>
       </c>
-      <c r="H122" t="s">
+      <c r="J122" t="s">
         <v>1394</v>
       </c>
-      <c r="I122" t="s">
+      <c r="K122" t="s">
+        <v>221</v>
+      </c>
+      <c r="L122" t="s">
+        <v>221</v>
+      </c>
+      <c r="M122" t="s">
         <v>1395</v>
-      </c>
-      <c r="J122" t="s">
-        <v>1396</v>
-      </c>
-      <c r="K122" t="s">
-        <v>221</v>
-      </c>
-      <c r="L122" t="s">
-        <v>221</v>
-      </c>
-      <c r="M122" t="s">
-        <v>1397</v>
       </c>
       <c r="N122" t="s">
         <v>223</v>
@@ -18088,7 +18576,7 @@
         <v>575</v>
       </c>
       <c r="V122" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="W122">
         <v>1200</v>
@@ -18098,7 +18586,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E5E7E-7355-43F3-9ADA-00BE4CC1A976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3006F6E1-F7AD-40BD-BE6A-9C2842DE9C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12012" yWindow="912" windowWidth="16392" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4243,43 +4243,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4310,39 +4310,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4367,230 +4367,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4609,118 +4609,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
@@ -4739,50 +4739,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4792,11 +4792,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4809,7 +4809,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4825,18 +4825,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4852,7 +4852,7 @@
       </rPr>
       <t>_times 1 2 3</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4868,7 +4868,7 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4901,23 +4901,23 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_NONE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY | DOTA_UNIT_TARGET_TEAM_NONE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_OPTIONAL_NO_TARGET</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4933,7 +4933,7 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4944,12 +4944,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5224,9 +5231,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5234,8 +5241,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5246,22 +5253,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5270,28 +5277,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5300,28 +5307,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5330,55 +5337,55 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5429,12 +5436,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -5459,12 +5466,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -5568,7 +5575,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39979247413556324"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5582,21 +5603,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39979247413556324"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6923,7 +6930,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6935,7 +6942,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+      <selection pane="topRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7235,10 +7242,10 @@
         <v>10</v>
       </c>
       <c r="U4" s="54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4" s="47">
         <v>5191</v>
@@ -7318,7 +7325,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7529,7 +7536,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7740,7 +7747,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7750,11 +7757,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9475,7 +9482,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BL4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -9490,20 +9497,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="30" priority="1793" operator="equal">
-      <formula>"metal"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="1797" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="1794" operator="equal">
-      <formula>"earth"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="1796" operator="equal">
+      <formula>"wood"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="1795" operator="equal">
       <formula>"fire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="1796" operator="equal">
-      <formula>"wood"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="1794" operator="equal">
+      <formula>"earth"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1797" operator="equal">
-      <formula>"water"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="1793" operator="equal">
+      <formula>"metal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E21">
@@ -9569,11 +9576,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="containsText" dxfId="11" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="11" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
@@ -9587,11 +9594,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BI4">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH1:BL2">
@@ -18586,7 +18593,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3006F6E1-F7AD-40BD-BE6A-9C2842DE9C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D17DBB-B912-46F9-BEE4-CDA69F63D816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12012" yWindow="912" windowWidth="16392" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6912" yWindow="480" windowWidth="22860" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -4840,22 +4840,6 @@
   </si>
   <si>
     <r>
-      <t>attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_times 1 2 3</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>9</t>
     </r>
     <r>
@@ -4871,39 +4855,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00 1600 2000</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_NONE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -4913,10 +4864,6 @@
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY | DOTA_UNIT_TARGET_TEAM_NONE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_OPTIONAL_NO_TARGET</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -4933,6 +4880,18 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>range 1000 1600 2000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_times 1 2 3</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5235,7 +5194,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5386,6 +5345,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6941,8 +6903,8 @@
   <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U5" sqref="U5"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7134,7 +7096,7 @@
         <v>1542</v>
       </c>
       <c r="Z2" s="54" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="AA2" s="47" t="s">
         <v>1412</v>
@@ -7214,7 +7176,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="42.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>1522</v>
       </c>
@@ -7224,13 +7186,13 @@
         <v>1467</v>
       </c>
       <c r="F4" s="54" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H4" s="58" t="s">
         <v>1559</v>
       </c>
-      <c r="H4" s="49" t="s">
-        <v>1552</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>1554</v>
+      <c r="I4" s="58" t="s">
+        <v>1558</v>
       </c>
       <c r="R4" s="47">
         <v>3</v>
@@ -7242,7 +7204,7 @@
         <v>10</v>
       </c>
       <c r="U4" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" s="54">
         <v>0</v>
@@ -7250,19 +7212,19 @@
       <c r="W4" s="47">
         <v>5191</v>
       </c>
-      <c r="X4" s="54" t="s">
-        <v>1558</v>
+      <c r="X4" s="58" t="s">
+        <v>1557</v>
       </c>
       <c r="Y4" s="50"/>
       <c r="Z4" s="54" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="AA4" s="55" t="s">
         <v>1530</v>
       </c>
       <c r="AB4" s="56"/>
       <c r="AC4" s="56" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="AD4" s="50"/>
       <c r="AE4" s="47" t="s">
@@ -7272,7 +7234,7 @@
         <v>1534</v>
       </c>
       <c r="AG4" s="49" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="AH4" s="47">
         <v>0.25</v>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D17DBB-B912-46F9-BEE4-CDA69F63D816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6675FE9-6DFC-4FAC-BAE5-31499AFF86BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6912" yWindow="480" windowWidth="22860" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11556" yWindow="1152" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="1576">
   <si>
     <t>主键</t>
   </si>
@@ -4243,43 +4243,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4310,39 +4310,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4367,230 +4367,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4609,121 +4609,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ability_phantom_strike</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4739,50 +4736,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4792,11 +4789,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4809,7 +4806,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4825,18 +4822,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4852,19 +4849,19 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_NONE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY | DOTA_UNIT_TARGET_TEAM_NONE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4880,19 +4877,165 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>range 1000 1600 2000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability_meepo_poof</t>
+  </si>
+  <si>
+    <t>Ability_phantom_strike</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meepo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ability_meepo_poof</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_MAGICAL</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO</t>
+  </si>
+  <si>
+    <t>SPELL_IMMUNITY_ALLIES_YES</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_Meepo.Poof</t>
+  </si>
+  <si>
+    <t>持续施法时间</t>
+  </si>
+  <si>
+    <t>AbilityChannelTime</t>
+  </si>
+  <si>
+    <t>Ability_meepo_ransack</t>
+  </si>
+  <si>
+    <r>
+      <t>ability/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meepo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Ability_meepo_ransack</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ddsh 1 2 3</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_Meepo.Geostrike</t>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_3</t>
+  </si>
+  <si>
+    <t>poof_damage 100 150 200</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4903,12 +5046,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5089,6 +5239,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -5140,7 +5297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -5187,21 +5344,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5212,22 +5384,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5236,28 +5408,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5266,28 +5438,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5296,46 +5468,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5344,11 +5519,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5398,12 +5576,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -5428,12 +5606,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -5537,7 +5715,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5551,21 +5743,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6892,7 +7070,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6900,11 +7078,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V4" sqref="V4"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6930,22 +7108,23 @@
     <col min="21" max="22" width="16" style="47" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.5546875" style="47" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="38.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="37" style="47" customWidth="1"/>
-    <col min="27" max="27" width="32.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="37" style="47" customWidth="1"/>
     <col min="28" max="28" width="21.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.21875" style="47" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="35.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.77734375" style="47"/>
+    <col min="29" max="29" width="22.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="35.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.33203125" style="47" customWidth="1"/>
+    <col min="37" max="37" width="26.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.77734375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>1459</v>
       </c>
@@ -6965,10 +7144,10 @@
         <v>1447</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="T1" s="49" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="U1" s="47" t="s">
         <v>1446</v>
@@ -6977,52 +7156,55 @@
         <v>1445</v>
       </c>
       <c r="W1" s="49" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="X1" s="47" t="s">
         <v>1443</v>
       </c>
-      <c r="Y1" s="49" t="s">
-        <v>1543</v>
-      </c>
-      <c r="Z1" s="54" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AA1" s="47" t="s">
+      <c r="Y1" s="47" t="s">
         <v>1444</v>
       </c>
+      <c r="Z1" s="49" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AA1" s="54" t="s">
+        <v>1530</v>
+      </c>
       <c r="AB1" s="49" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AC1" s="47" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AC1" s="50" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AD1" s="47" t="s">
         <v>1441</v>
       </c>
-      <c r="AD1" s="47" t="s">
+      <c r="AE1" s="47" t="s">
         <v>1440</v>
       </c>
-      <c r="AE1" s="47" t="s">
+      <c r="AF1" s="47" t="s">
         <v>1439</v>
       </c>
-      <c r="AF1" s="49" t="s">
-        <v>1533</v>
-      </c>
       <c r="AG1" s="49" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="AH1" s="49" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AI1" s="49" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AJ1" s="60" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AK1" s="49" t="s">
         <v>1538</v>
       </c>
-      <c r="AI1" s="49" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AJ1" s="47" t="s">
+      <c r="AL1" s="47" t="s">
         <v>1438</v>
       </c>
-      <c r="AK1" s="50" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>1437</v>
       </c>
@@ -7075,10 +7257,10 @@
         <v>1415</v>
       </c>
       <c r="S2" s="47" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="T2" s="47" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="U2" s="47" t="s">
         <v>1414</v>
@@ -7087,52 +7269,55 @@
         <v>1413</v>
       </c>
       <c r="W2" s="49" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="X2" s="47" t="s">
         <v>1411</v>
       </c>
       <c r="Y2" s="47" t="s">
-        <v>1542</v>
-      </c>
-      <c r="Z2" s="54" t="s">
-        <v>1554</v>
-      </c>
-      <c r="AA2" s="47" t="s">
         <v>1412</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AA2" s="54" t="s">
+        <v>1553</v>
       </c>
       <c r="AB2" s="47" t="s">
         <v>1410</v>
       </c>
-      <c r="AC2" s="47" t="s">
+      <c r="AC2" s="50" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AD2" s="47" t="s">
         <v>1409</v>
       </c>
-      <c r="AD2" s="47" t="s">
+      <c r="AE2" s="47" t="s">
         <v>1408</v>
       </c>
-      <c r="AE2" s="47" t="s">
+      <c r="AF2" s="47" t="s">
         <v>1407</v>
       </c>
-      <c r="AF2" s="47" t="s">
-        <v>1532</v>
-      </c>
       <c r="AG2" s="47" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AH2" s="47" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AI2" s="49" t="s">
         <v>1536</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AI2" s="49" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="AJ2" s="49" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AK2" s="49" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AL2" s="41" t="s">
         <v>1474</v>
       </c>
-      <c r="AK2" s="50" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:38" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>1468</v>
       </c>
@@ -7172,13 +7357,13 @@
       <c r="V3" s="47" t="s">
         <v>1401</v>
       </c>
-      <c r="AJ3" s="41" t="s">
+      <c r="AL3" s="41" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="30" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
-        <v>1522</v>
+    <row r="4" spans="1:38" ht="30" x14ac:dyDescent="0.35">
+      <c r="A4" s="59" t="s">
+        <v>1560</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -7186,13 +7371,13 @@
         <v>1467</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="R4" s="47">
         <v>3</v>
@@ -7213,43 +7398,43 @@
         <v>5191</v>
       </c>
       <c r="X4" s="58" t="s">
-        <v>1557</v>
-      </c>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="54" t="s">
-        <v>1555</v>
-      </c>
-      <c r="AA4" s="55" t="s">
-        <v>1530</v>
+        <v>1556</v>
+      </c>
+      <c r="Y4" s="55" t="s">
+        <v>1529</v>
+      </c>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="54" t="s">
+        <v>1554</v>
       </c>
       <c r="AB4" s="56"/>
-      <c r="AC4" s="56" t="s">
-        <v>1553</v>
-      </c>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="47" t="s">
+      <c r="AD4" s="56" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="47" t="s">
         <v>1485</v>
       </c>
-      <c r="AF4" s="47" t="s">
-        <v>1534</v>
-      </c>
-      <c r="AG4" s="49" t="s">
-        <v>1552</v>
-      </c>
-      <c r="AH4" s="47">
+      <c r="AG4" s="47" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AH4" s="49" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AI4" s="47">
         <v>0.25</v>
       </c>
-      <c r="AI4" s="47" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="AK4" s="47" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="53" t="s">
         <v>967</v>
       </c>
       <c r="F5" s="50"/>
       <c r="H5" s="49" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="R5" s="47">
         <v>3</v>
@@ -7260,34 +7445,146 @@
       <c r="T5" s="47">
         <v>10</v>
       </c>
+      <c r="U5" s="47">
+        <v>3</v>
+      </c>
+      <c r="V5" s="47">
+        <v>2</v>
+      </c>
       <c r="W5" s="47">
         <v>5193</v>
       </c>
       <c r="X5" s="50" t="s">
-        <v>1524</v>
-      </c>
-      <c r="Y5" s="50" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Y5" s="57" t="s">
+        <v>967</v>
+      </c>
+      <c r="Z5" s="50" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="47" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AG5" s="47" t="s">
         <v>1544</v>
       </c>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="57" t="s">
-        <v>967</v>
-      </c>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="47" t="s">
+      <c r="AK5" s="47" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>1575</v>
+      </c>
+      <c r="R6" s="47">
+        <v>3</v>
+      </c>
+      <c r="S6" s="47">
+        <v>0</v>
+      </c>
+      <c r="T6" s="47">
+        <v>10</v>
+      </c>
+      <c r="U6" s="47">
+        <v>3</v>
+      </c>
+      <c r="V6" s="47">
+        <v>2</v>
+      </c>
+      <c r="W6" s="47">
+        <v>5431</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>1563</v>
+      </c>
+      <c r="Y6" s="47" t="s">
+        <v>956</v>
+      </c>
+      <c r="AC6" s="47" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AD6" s="47" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AF6" s="59" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AG6" s="47" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AI6" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="AJ6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="47" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R7" s="47">
+        <v>3</v>
+      </c>
+      <c r="S7" s="47">
+        <v>0</v>
+      </c>
+      <c r="T7" s="47">
+        <v>10</v>
+      </c>
+      <c r="W7" s="47">
+        <v>7318</v>
+      </c>
+      <c r="X7" s="47" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Y7" s="47" t="s">
+        <v>957</v>
+      </c>
+      <c r="Z7" s="47" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AF7" s="47" t="s">
         <v>1485</v>
       </c>
-      <c r="AF5" s="47" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AI5" s="47" t="s">
-        <v>1546</v>
+      <c r="AG7" s="47" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AK7" s="47" t="s">
+        <v>1574</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7498,7 +7795,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7709,7 +8006,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7887,7 +8184,7 @@
         <v>27</v>
       </c>
       <c r="AU1" s="20" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="AV1" s="11" t="s">
         <v>28</v>
@@ -7944,7 +8241,7 @@
         <v>45</v>
       </c>
       <c r="BN1" s="44" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="BO1" s="2" t="s">
         <v>46</v>
@@ -8095,7 +8392,7 @@
         <v>1501</v>
       </c>
       <c r="AU2" s="20" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="AV2" s="11" t="s">
         <v>71</v>
@@ -8152,7 +8449,7 @@
         <v>86</v>
       </c>
       <c r="BN2" s="44" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="BO2" s="2" t="s">
         <v>87</v>
@@ -8610,7 +8907,7 @@
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
       <c r="AU5" s="19" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="AV5" s="16">
         <v>1</v>
@@ -8762,7 +9059,7 @@
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
       <c r="AU6" s="19" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="AV6" s="16">
         <v>1</v>
@@ -8914,7 +9211,7 @@
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
       <c r="AU7" s="19" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="AV7" s="16">
         <v>1</v>
@@ -9444,7 +9741,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BL4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -9459,20 +9756,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="30" priority="1797" operator="equal">
-      <formula>"water"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="1793" operator="equal">
+      <formula>"metal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="1796" operator="equal">
-      <formula>"wood"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="1794" operator="equal">
+      <formula>"earth"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="1795" operator="equal">
       <formula>"fire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="1794" operator="equal">
-      <formula>"earth"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="1796" operator="equal">
+      <formula>"wood"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1793" operator="equal">
-      <formula>"metal"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="1797" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E21">
@@ -9538,11 +9835,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="containsText" dxfId="11" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="11" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
@@ -9556,11 +9853,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BI4">
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH1:BL2">
@@ -18555,7 +18852,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D31C18-77C9-4E6C-BD34-16F8506374B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBB0BEF-0AB7-4D84-A895-9DB0B590AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10008" yWindow="2232" windowWidth="19068" windowHeight="13200" tabRatio="623" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8172" yWindow="2940" windowWidth="19068" windowHeight="11232" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="1614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="1656">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,19 +4843,19 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_NONE</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY | DOTA_UNIT_TARGET_TEAM_NONE</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4871,26 +4871,26 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>range 1000 1600 2000</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4936,7 +4936,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4952,7 +4952,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4965,7 +4965,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ALLIES_YES</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Poof</t>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5019,7 +5019,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5029,7 +5029,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5046,30 +5046,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5121,7 +5121,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5247,7 +5247,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5269,7 +5269,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5286,15 +5286,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5311,11 +5311,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5335,21 +5335,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,7 +5365,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5381,15 +5381,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5455,10 +5455,381 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
+  </si>
+  <si>
+    <t>Ability_lina_dragon_slave</t>
+  </si>
+  <si>
+    <t>Ability_lina_light_strike_array</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bility/lina/Ability_lina_dragon_slave</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/lina/Ability_lina_light_strike_array</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ragon_slave_speed 1200</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ange 3</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ragon_slave_damage 200 250 300</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ight_strike_array_damage 150 200 250</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ight_strike_array_stun_duration 1</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
+  </si>
+  <si>
+    <t>Hero_Lina.DragonSlave</t>
+  </si>
+  <si>
+    <t>Ability.LightStrikeArray</t>
+  </si>
+  <si>
+    <r>
+      <t>Ability_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BZ_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lina_dragon_slave</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz_lina_1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz_lina_11</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz_lina_111</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_hero_lina</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>lina</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>models/heroes/lina/lina.vmdl</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability_BZ_lina_dragon_slave</t>
+  </si>
+  <si>
+    <t>DOTA_ATTRIBUTE_INTELLECT</t>
+  </si>
+  <si>
+    <t>Ability_zuus_arc_lightning</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bility/zuus/Ability_zuus_arc_lightning</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability_zuus_lightning_bolt</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rc_damage 75 95 115</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ange 5</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ump_count 3 4 5</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ump_delay 0.3</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amage 200 250 300</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
+  </si>
+  <si>
+    <t>Hero_Zuus.ArcLightning.Cast</t>
+  </si>
+  <si>
+    <t>ability/zuus/Ability_zuus_lightning_bolt</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_Zuus.LightningBolt</t>
+  </si>
+  <si>
+    <t>bz_zuus_1</t>
+  </si>
+  <si>
+    <r>
+      <t>bz_zuus_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bz_zuus_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>npc_dota_hero_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zuus</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uus</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability_BZ_zuus_lightning_bolt</t>
   </si>
 </sst>
 </file>
@@ -5469,12 +5840,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5792,18 +6170,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5814,22 +6192,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5838,28 +6216,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5868,28 +6246,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5898,46 +6276,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5946,27 +6327,32 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7509,7 +7895,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7517,11 +7903,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ10" sqref="AJ10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7530,12 +7916,12 @@
     <col min="2" max="2" width="9.5546875" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="47" customWidth="1"/>
     <col min="4" max="4" width="32" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="47" customWidth="1"/>
     <col min="6" max="6" width="42.5546875" style="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="47" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="64" customWidth="1"/>
     <col min="11" max="11" width="26.5546875" style="47" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="2.5546875" style="47" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.77734375" style="47"/>
@@ -7664,7 +8050,7 @@
       <c r="I2" s="51" t="s">
         <v>1430</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="65" t="s">
         <v>1429</v>
       </c>
       <c r="K2" s="51" t="s">
@@ -7771,7 +8157,7 @@
       <c r="I3" s="52" t="s">
         <v>1464</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="66" t="s">
         <v>1463</v>
       </c>
       <c r="K3" s="47" t="s">
@@ -8033,7 +8419,7 @@
         <v>3</v>
       </c>
       <c r="V8" s="47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8" s="47">
         <v>5075</v>
@@ -8085,7 +8471,7 @@
       <c r="I9" s="61" t="s">
         <v>1587</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="67" t="s">
         <v>1588</v>
       </c>
       <c r="K9" s="61" t="s">
@@ -8137,7 +8523,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>1611</v>
       </c>
@@ -8153,7 +8539,7 @@
       <c r="I10" s="61" t="s">
         <v>1609</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="67" t="s">
         <v>1610</v>
       </c>
       <c r="K10" s="61" t="s">
@@ -8205,8 +8591,328 @@
         <v>1538</v>
       </c>
     </row>
+    <row r="11" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K11" s="61"/>
+      <c r="R11" s="47">
+        <v>3</v>
+      </c>
+      <c r="S11" s="47">
+        <v>0</v>
+      </c>
+      <c r="T11" s="47">
+        <v>10</v>
+      </c>
+      <c r="U11" s="47">
+        <v>1</v>
+      </c>
+      <c r="W11" s="47">
+        <v>5040</v>
+      </c>
+      <c r="X11" s="47" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Y11" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB11" s="47" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AC11" s="47" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AE11" s="47" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AF11" s="47" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AG11" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AJ11" s="47" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R12" s="47">
+        <v>3</v>
+      </c>
+      <c r="S12" s="47">
+        <v>0</v>
+      </c>
+      <c r="T12" s="47">
+        <v>10</v>
+      </c>
+      <c r="U12" s="47">
+        <v>3</v>
+      </c>
+      <c r="V12" s="47">
+        <v>4</v>
+      </c>
+      <c r="W12" s="47">
+        <v>5041</v>
+      </c>
+      <c r="X12" s="47" t="s">
+        <v>1623</v>
+      </c>
+      <c r="Y12" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB12" s="47" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AC12" s="47" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AE12" s="47" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AF12" s="47" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AG12" s="47">
+        <v>625</v>
+      </c>
+      <c r="AH12" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AJ12" s="47" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>1620</v>
+      </c>
+      <c r="R13" s="47">
+        <v>3</v>
+      </c>
+      <c r="S13" s="47">
+        <v>0</v>
+      </c>
+      <c r="T13" s="47">
+        <v>10</v>
+      </c>
+      <c r="U13" s="47">
+        <v>1</v>
+      </c>
+      <c r="V13" s="47">
+        <v>100</v>
+      </c>
+      <c r="W13" s="47">
+        <v>5040</v>
+      </c>
+      <c r="X13" s="47" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Y13" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB13" s="47" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AC13" s="47" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AE13" s="47" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AF13" s="47" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AG13" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="AJ13" s="47" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>1641</v>
+      </c>
+      <c r="K14" s="68" t="s">
+        <v>1642</v>
+      </c>
+      <c r="R14" s="47">
+        <v>3</v>
+      </c>
+      <c r="S14" s="47">
+        <v>0</v>
+      </c>
+      <c r="T14" s="47">
+        <v>10</v>
+      </c>
+      <c r="U14" s="47">
+        <v>2</v>
+      </c>
+      <c r="V14" s="47">
+        <v>2</v>
+      </c>
+      <c r="W14" s="47">
+        <v>5110</v>
+      </c>
+      <c r="X14" s="47" t="s">
+        <v>1561</v>
+      </c>
+      <c r="Y14" s="47" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AA14" s="47" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AB14" s="47" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AC14" s="47" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AD14" s="47" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AE14" s="47" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AF14" s="47" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AH14" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="AJ14" s="47" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>1643</v>
+      </c>
+      <c r="R15" s="47">
+        <v>3</v>
+      </c>
+      <c r="S15" s="47">
+        <v>0</v>
+      </c>
+      <c r="T15" s="47">
+        <v>10</v>
+      </c>
+      <c r="U15" s="47">
+        <v>3</v>
+      </c>
+      <c r="V15" s="47">
+        <v>2</v>
+      </c>
+      <c r="W15" s="47">
+        <v>5111</v>
+      </c>
+      <c r="X15" s="47" t="s">
+        <v>1561</v>
+      </c>
+      <c r="Y15" s="47" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AA15" s="47" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AB15" s="47" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AC15" s="47" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AD15" s="47" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AE15" s="47" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AF15" s="47" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AH15" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="AJ15" s="47" t="s">
+        <v>1538</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8417,7 +9123,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8628,7 +9334,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8638,11 +9344,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BM6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
+      <selection pane="bottomRight" activeCell="BV18" sqref="BV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10845,222 +11551,948 @@
       </c>
     </row>
     <row r="14" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="15" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>1633</v>
+      </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="Z14" s="25"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="35"/>
+      <c r="I14" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="L14" s="5">
+        <v>318</v>
+      </c>
+      <c r="M14" s="5">
+        <v>319</v>
+      </c>
+      <c r="N14" s="5">
+        <v>320</v>
+      </c>
+      <c r="O14" s="5">
+        <v>321</v>
+      </c>
+      <c r="P14" s="5">
+        <v>504</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z14" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AN14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AP14" s="16">
+        <v>290</v>
+      </c>
+      <c r="AQ14" s="35">
+        <v>0.6</v>
+      </c>
       <c r="AR14" s="16"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
-      <c r="AW14" s="16"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="16"/>
-      <c r="BF14" s="16"/>
-      <c r="BG14" s="16"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="16"/>
+      <c r="AS14" s="16" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AT14" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU14" s="16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AV14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="16">
+        <v>24</v>
+      </c>
+      <c r="AX14" s="16">
+        <v>200</v>
+      </c>
+      <c r="AY14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="16">
+        <v>100</v>
+      </c>
+      <c r="BA14" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="16">
+        <v>21</v>
+      </c>
+      <c r="BE14" s="16">
+        <v>33</v>
+      </c>
+      <c r="BF14" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="BG14" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="BH14" s="16">
+        <v>800</v>
+      </c>
+      <c r="BI14" s="16">
+        <v>400</v>
+      </c>
       <c r="BJ14" s="16"/>
-      <c r="BK14" s="16"/>
+      <c r="BK14" s="16">
+        <v>60</v>
+      </c>
+      <c r="BL14" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="BM14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="BO14" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP14" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ14" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="BR14" s="5">
+        <v>20</v>
+      </c>
+      <c r="BS14" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="BT14" s="5">
+        <v>30</v>
+      </c>
+      <c r="BU14" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="BV14" s="5">
+        <v>23</v>
+      </c>
+      <c r="BW14" s="5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="15" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
+      <c r="A15" s="15" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>457</v>
+      </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="Z15" s="25"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="35"/>
+      <c r="I15" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="5">
+        <v>4757</v>
+      </c>
+      <c r="M15" s="5">
+        <v>5931</v>
+      </c>
+      <c r="N15" s="5">
+        <v>5932</v>
+      </c>
+      <c r="O15" s="5">
+        <v>5933</v>
+      </c>
+      <c r="P15" s="5">
+        <v>504</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z15" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AN15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AP15" s="16">
+        <v>290</v>
+      </c>
+      <c r="AQ15" s="35">
+        <v>0.6</v>
+      </c>
       <c r="AR15" s="16"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="16"/>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="16"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="16"/>
-      <c r="AZ15" s="16"/>
-      <c r="BA15" s="16"/>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="16"/>
-      <c r="BD15" s="16"/>
-      <c r="BE15" s="16"/>
-      <c r="BF15" s="16"/>
-      <c r="BG15" s="16"/>
-      <c r="BH15" s="16"/>
-      <c r="BI15" s="16"/>
+      <c r="AS15" s="16" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AT15" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU15" s="16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AV15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="16">
+        <v>24</v>
+      </c>
+      <c r="AX15" s="16">
+        <v>200</v>
+      </c>
+      <c r="AY15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="16">
+        <v>100</v>
+      </c>
+      <c r="BA15" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="16">
+        <v>21</v>
+      </c>
+      <c r="BE15" s="16">
+        <v>33</v>
+      </c>
+      <c r="BF15" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="BG15" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="BH15" s="16">
+        <v>800</v>
+      </c>
+      <c r="BI15" s="16">
+        <v>400</v>
+      </c>
       <c r="BJ15" s="16"/>
-      <c r="BK15" s="16"/>
+      <c r="BK15" s="16">
+        <v>60</v>
+      </c>
+      <c r="BL15" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="BM15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="BO15" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP15" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="BR15" s="5">
+        <v>20</v>
+      </c>
+      <c r="BS15" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT15" s="5">
+        <v>30</v>
+      </c>
+      <c r="BU15" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="BV15" s="5">
+        <v>23</v>
+      </c>
+      <c r="BW15" s="5">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="16" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
+      <c r="A16" s="15" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>1633</v>
+      </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="Z16" s="25"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="16"/>
-      <c r="AQ16" s="35"/>
+      <c r="I16" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="L16" s="5">
+        <v>8004</v>
+      </c>
+      <c r="M16" s="5">
+        <v>4794</v>
+      </c>
+      <c r="N16" s="5">
+        <v>7717</v>
+      </c>
+      <c r="O16" s="5">
+        <v>7716</v>
+      </c>
+      <c r="P16" s="5">
+        <v>504</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z16" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AN16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AP16" s="16">
+        <v>290</v>
+      </c>
+      <c r="AQ16" s="35">
+        <v>0.6</v>
+      </c>
       <c r="AR16" s="16"/>
-      <c r="AS16" s="16"/>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="16"/>
-      <c r="AV16" s="16"/>
-      <c r="AW16" s="16"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="16"/>
-      <c r="AZ16" s="16"/>
-      <c r="BA16" s="16"/>
-      <c r="BB16" s="16"/>
-      <c r="BC16" s="16"/>
-      <c r="BD16" s="16"/>
-      <c r="BE16" s="16"/>
-      <c r="BF16" s="16"/>
-      <c r="BG16" s="16"/>
-      <c r="BH16" s="16"/>
-      <c r="BI16" s="16"/>
+      <c r="AS16" s="16" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AT16" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU16" s="16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AV16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="16">
+        <v>24</v>
+      </c>
+      <c r="AX16" s="16">
+        <v>200</v>
+      </c>
+      <c r="AY16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="16">
+        <v>100</v>
+      </c>
+      <c r="BA16" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="16">
+        <v>21</v>
+      </c>
+      <c r="BE16" s="16">
+        <v>33</v>
+      </c>
+      <c r="BF16" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="BG16" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="BH16" s="16">
+        <v>800</v>
+      </c>
+      <c r="BI16" s="16">
+        <v>400</v>
+      </c>
       <c r="BJ16" s="16"/>
-      <c r="BK16" s="16"/>
-    </row>
-    <row r="17" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
+      <c r="BK16" s="16">
+        <v>60</v>
+      </c>
+      <c r="BL16" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="BM16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="BO16" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP16" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ16" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="BR16" s="5">
+        <v>20</v>
+      </c>
+      <c r="BS16" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="BT16" s="5">
+        <v>30</v>
+      </c>
+      <c r="BU16" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="BV16" s="5">
+        <v>23</v>
+      </c>
+      <c r="BW16" s="5">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>1095</v>
+      </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="Z17" s="25"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="35"/>
+      <c r="I17" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="L17" s="5">
+        <v>8632</v>
+      </c>
+      <c r="M17" s="5">
+        <v>605</v>
+      </c>
+      <c r="N17" s="5">
+        <v>607</v>
+      </c>
+      <c r="O17" s="5">
+        <v>606</v>
+      </c>
+      <c r="P17" s="5">
+        <v>8692</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>604</v>
+      </c>
+      <c r="R17" s="5">
+        <v>593</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Z17" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AN17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AP17" s="16">
+        <v>295</v>
+      </c>
+      <c r="AQ17" s="35">
+        <v>0.6</v>
+      </c>
       <c r="AR17" s="16"/>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="16"/>
-      <c r="BA17" s="16"/>
-      <c r="BB17" s="16"/>
-      <c r="BC17" s="16"/>
-      <c r="BD17" s="16"/>
-      <c r="BE17" s="16"/>
-      <c r="BF17" s="16"/>
-      <c r="BG17" s="16"/>
-      <c r="BH17" s="16"/>
-      <c r="BI17" s="16"/>
+      <c r="AS17" s="16" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AT17" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU17" s="16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AV17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="16">
+        <v>24</v>
+      </c>
+      <c r="AX17" s="16">
+        <v>200</v>
+      </c>
+      <c r="AY17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="16">
+        <v>100</v>
+      </c>
+      <c r="BA17" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="16">
+        <v>33</v>
+      </c>
+      <c r="BE17" s="16">
+        <v>41</v>
+      </c>
+      <c r="BF17" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="BG17" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="BH17" s="16">
+        <v>800</v>
+      </c>
+      <c r="BI17" s="16">
+        <v>400</v>
+      </c>
       <c r="BJ17" s="16"/>
-      <c r="BK17" s="16"/>
-    </row>
-    <row r="18" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
+      <c r="BK17" s="16">
+        <v>60</v>
+      </c>
+      <c r="BL17" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BM17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="BO17" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP17" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ17" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="BR17" s="5">
+        <v>21</v>
+      </c>
+      <c r="BS17" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BT17" s="5">
+        <v>21</v>
+      </c>
+      <c r="BU17" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BV17" s="5">
+        <v>11</v>
+      </c>
+      <c r="BW17" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E18" s="16">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>1095</v>
+      </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="Z18" s="25"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="35"/>
+      <c r="I18" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="L18" s="5">
+        <v>8069</v>
+      </c>
+      <c r="M18" s="5">
+        <v>605</v>
+      </c>
+      <c r="N18" s="5">
+        <v>9037</v>
+      </c>
+      <c r="O18" s="5">
+        <v>9038</v>
+      </c>
+      <c r="P18" s="5">
+        <v>9052</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>5412</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Z18" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AN18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AP18" s="16">
+        <v>295</v>
+      </c>
+      <c r="AQ18" s="35">
+        <v>0.6</v>
+      </c>
       <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="16"/>
-      <c r="BB18" s="16"/>
-      <c r="BC18" s="16"/>
-      <c r="BD18" s="16"/>
-      <c r="BE18" s="16"/>
-      <c r="BF18" s="16"/>
-      <c r="BG18" s="16"/>
-      <c r="BH18" s="16"/>
-      <c r="BI18" s="16"/>
+      <c r="AS18" s="16" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AT18" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU18" s="16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AV18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="16">
+        <v>24</v>
+      </c>
+      <c r="AX18" s="16">
+        <v>200</v>
+      </c>
+      <c r="AY18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="16">
+        <v>100</v>
+      </c>
+      <c r="BA18" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="16">
+        <v>33</v>
+      </c>
+      <c r="BE18" s="16">
+        <v>41</v>
+      </c>
+      <c r="BF18" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="BG18" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="BH18" s="16">
+        <v>800</v>
+      </c>
+      <c r="BI18" s="16">
+        <v>400</v>
+      </c>
       <c r="BJ18" s="16"/>
-      <c r="BK18" s="16"/>
-    </row>
-    <row r="19" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
+      <c r="BK18" s="16">
+        <v>60</v>
+      </c>
+      <c r="BL18" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BM18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="BO18" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP18" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ18" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="BR18" s="5">
+        <v>21</v>
+      </c>
+      <c r="BS18" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="BT18" s="5">
+        <v>21</v>
+      </c>
+      <c r="BU18" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="BV18" s="5">
+        <v>11</v>
+      </c>
+      <c r="BW18" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E19" s="16">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>1095</v>
+      </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="Z19" s="25"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="16"/>
-      <c r="AQ19" s="35"/>
+      <c r="I19" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="L19" s="5">
+        <v>8069</v>
+      </c>
+      <c r="M19" s="5">
+        <v>605</v>
+      </c>
+      <c r="N19" s="5">
+        <v>9037</v>
+      </c>
+      <c r="O19" s="5">
+        <v>12323</v>
+      </c>
+      <c r="P19" s="5">
+        <v>6914</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>5412</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Z19" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AN19" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AP19" s="16">
+        <v>295</v>
+      </c>
+      <c r="AQ19" s="35">
+        <v>0.6</v>
+      </c>
       <c r="AR19" s="16"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="16"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="16"/>
-      <c r="AZ19" s="16"/>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="16"/>
-      <c r="BD19" s="16"/>
-      <c r="BE19" s="16"/>
-      <c r="BF19" s="16"/>
-      <c r="BG19" s="16"/>
-      <c r="BH19" s="16"/>
-      <c r="BI19" s="16"/>
+      <c r="AS19" s="16" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AT19" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU19" s="16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AV19" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="16">
+        <v>24</v>
+      </c>
+      <c r="AX19" s="16">
+        <v>200</v>
+      </c>
+      <c r="AY19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="16">
+        <v>100</v>
+      </c>
+      <c r="BA19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="16">
+        <v>33</v>
+      </c>
+      <c r="BE19" s="16">
+        <v>41</v>
+      </c>
+      <c r="BF19" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="BG19" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="BH19" s="16">
+        <v>800</v>
+      </c>
+      <c r="BI19" s="16">
+        <v>400</v>
+      </c>
       <c r="BJ19" s="16"/>
-      <c r="BK19" s="16"/>
-    </row>
-    <row r="20" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BK19" s="16">
+        <v>60</v>
+      </c>
+      <c r="BL19" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BM19" s="5">
+        <v>1100</v>
+      </c>
+      <c r="BO19" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP19" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ19" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="BR19" s="5">
+        <v>21</v>
+      </c>
+      <c r="BS19" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="BT19" s="5">
+        <v>21</v>
+      </c>
+      <c r="BU19" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="BV19" s="5">
+        <v>11</v>
+      </c>
+      <c r="BW19" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -11098,7 +12530,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -11151,7 +12583,7 @@
       <formula>NOT(ISERROR(SEARCH("_custom",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:AD3 Q4:AD4 Z5:AA7 A3:I4 J4:K4 BI5:BM1048576">
+  <conditionalFormatting sqref="J3:AD3 Q4:AD4 Z5:AA7 A3:I4 J4:K4 BI20:BM1048576 BI5:BM16 BJ17:BM19">
     <cfRule type="expression" dxfId="19" priority="1553">
       <formula>$AT3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
@@ -20210,7 +21642,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBB0BEF-0AB7-4D84-A895-9DB0B590AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A84F2F-8E27-4A3C-AB8C-655BDFF63A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8172" yWindow="2940" windowWidth="19068" windowHeight="11232" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2772" yWindow="672" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="1656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="1681">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroNames</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>HeroNames</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,19 +4843,19 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_NONE</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY | DOTA_UNIT_TARGET_TEAM_NONE</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4871,26 +4871,26 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>range 1000 1600 2000</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4936,7 +4936,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4952,7 +4952,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4965,7 +4965,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ALLIES_YES</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Poof</t>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5019,7 +5019,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5029,7 +5029,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5046,30 +5046,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5121,7 +5121,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5247,7 +5247,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5269,7 +5269,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5286,15 +5286,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5311,11 +5311,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5335,21 +5335,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,7 +5365,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5381,15 +5381,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5455,7 +5455,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5480,11 +5480,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5500,7 +5500,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5516,7 +5516,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5532,7 +5532,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5548,7 +5548,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5564,7 +5564,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5599,35 +5599,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5652,7 +5652,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5671,7 +5671,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5687,7 +5687,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5703,7 +5703,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5719,7 +5719,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5735,7 +5735,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5748,7 +5748,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5771,7 +5771,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5788,7 +5788,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5805,7 +5805,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5822,14 +5822,193 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uration 1 2 3</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amage 100 125 150</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onus_atk -20 -30 -40</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_Axe.Battle_Hunger</t>
+  </si>
+  <si>
+    <t>ACT_DOTA_OVERRIDE_ABILITY_2</t>
+  </si>
+  <si>
+    <t>技能修饰器辅助值</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adius 300</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hance 15 20 25</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amage 100 120 140</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_PURE</t>
+  </si>
+  <si>
+    <t>Hero_Axe.CounterHelix</t>
+  </si>
+  <si>
+    <t>trigger_attacks 7 6 5</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz_axe_1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz_axe_11</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz_axe_111</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_hero_axe</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ATTRIBUTE_STRENGTH</t>
+  </si>
+  <si>
+    <t>Ability_axe_helix_counter</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/axe/Ability_axe_helix_counter</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ability_axe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>helix_counter</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_battle_hunger</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityModifierSupportValue</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability_axe_battle_hunger</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/axe/Ability_axe_battle_hunger</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5840,12 +6019,26 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6170,18 +6363,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6192,22 +6385,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6216,28 +6409,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6246,28 +6439,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="23" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6276,83 +6469,91 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6401,12 +6602,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -6431,12 +6632,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -6540,7 +6741,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39979247413556324"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6554,21 +6769,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39979247413556324"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7895,7 +8096,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7903,11 +8104,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V8" sqref="V8"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7944,11 +8145,12 @@
     <col min="34" max="34" width="15.33203125" style="47" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15.33203125" style="47" customWidth="1"/>
     <col min="36" max="36" width="26.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.77734375" style="47"/>
+    <col min="37" max="37" width="26.33203125" style="47" customWidth="1"/>
+    <col min="38" max="38" width="20.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.77734375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>1457</v>
       </c>
@@ -8021,11 +8223,14 @@
       <c r="AJ1" s="49" t="s">
         <v>1536</v>
       </c>
-      <c r="AK1" s="47" t="s">
+      <c r="AK1" s="60" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AL1" s="47" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>1435</v>
       </c>
@@ -8131,11 +8336,14 @@
       <c r="AJ2" s="49" t="s">
         <v>1537</v>
       </c>
-      <c r="AK2" s="41" t="s">
+      <c r="AK2" s="73" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AL2" s="41" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>1466</v>
       </c>
@@ -8175,11 +8383,11 @@
       <c r="V3" s="47" t="s">
         <v>1399</v>
       </c>
-      <c r="AK3" s="41" t="s">
+      <c r="AL3" s="41" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
         <v>1558</v>
       </c>
@@ -8209,9 +8417,7 @@
       <c r="U4" s="54">
         <v>3</v>
       </c>
-      <c r="V4" s="54">
-        <v>2</v>
-      </c>
+      <c r="V4" s="54"/>
       <c r="W4" s="47">
         <v>5191</v>
       </c>
@@ -8245,7 +8451,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="53" t="s">
         <v>965</v>
       </c>
@@ -8287,7 +8493,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>1557</v>
       </c>
@@ -8349,7 +8555,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>1568</v>
       </c>
@@ -8393,7 +8599,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>1582</v>
       </c>
@@ -8455,7 +8661,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>1581</v>
       </c>
@@ -8523,7 +8729,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>1611</v>
       </c>
@@ -8591,7 +8797,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>1614</v>
       </c>
@@ -8651,7 +8857,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>1615</v>
       </c>
@@ -8716,7 +8922,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>1626</v>
       </c>
@@ -8778,7 +8984,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>1636</v>
       </c>
@@ -8849,7 +9055,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>1638</v>
       </c>
@@ -8911,8 +9117,147 @@
         <v>1538</v>
       </c>
     </row>
+    <row r="16" spans="1:38" ht="69" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>1658</v>
+      </c>
+      <c r="R16" s="47">
+        <v>3</v>
+      </c>
+      <c r="S16" s="47">
+        <v>0</v>
+      </c>
+      <c r="T16" s="47">
+        <v>10</v>
+      </c>
+      <c r="U16" s="47">
+        <v>2</v>
+      </c>
+      <c r="W16" s="47">
+        <v>5008</v>
+      </c>
+      <c r="X16" s="47" t="s">
+        <v>1561</v>
+      </c>
+      <c r="Y16" s="73" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AA16" s="47" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AB16" s="47" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AC16" s="47" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AD16" s="47" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AE16" s="47" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AF16" s="47" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AG16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="AJ16" s="47" t="s">
+        <v>1660</v>
+      </c>
+      <c r="AK16" s="47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="69" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>1675</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I17" s="70" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>1664</v>
+      </c>
+      <c r="R17" s="47">
+        <v>3</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0</v>
+      </c>
+      <c r="T17" s="47">
+        <v>10</v>
+      </c>
+      <c r="U17" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="W17" s="47">
+        <v>5009</v>
+      </c>
+      <c r="X17" s="47" t="s">
+        <v>1521</v>
+      </c>
+      <c r="Y17" s="47" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AA17" s="47" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AB17" s="47" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AC17" s="47" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AD17" s="47" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AE17" s="47" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AF17" s="47" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AG17" s="47">
+        <v>300</v>
+      </c>
+      <c r="AJ17" s="47" t="s">
+        <v>1572</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9123,7 +9468,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9334,7 +9679,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9342,13 +9687,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW20"/>
+  <dimension ref="A1:BW22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BM6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BV18" sqref="BV18"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11222,13 +11567,13 @@
         <v>3</v>
       </c>
       <c r="BT11" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BU11" s="5">
         <v>0.5</v>
       </c>
       <c r="BV11" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BW11" s="5">
         <v>0.5</v>
@@ -11380,13 +11725,13 @@
         <v>4</v>
       </c>
       <c r="BT12" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BU12" s="5">
         <v>1.5</v>
       </c>
       <c r="BV12" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BW12" s="5">
         <v>1.5</v>
@@ -11538,13 +11883,13 @@
         <v>5</v>
       </c>
       <c r="BT13" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BU13" s="5">
         <v>2.5</v>
       </c>
       <c r="BV13" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BW13" s="5">
         <v>2.5</v>
@@ -11693,16 +12038,16 @@
         <v>1.2</v>
       </c>
       <c r="BT14" s="5">
+        <v>23</v>
+      </c>
+      <c r="BU14" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="BV14" s="5">
         <v>30</v>
       </c>
-      <c r="BU14" s="5">
+      <c r="BW14" s="5">
         <v>2.7</v>
-      </c>
-      <c r="BV14" s="5">
-        <v>23</v>
-      </c>
-      <c r="BW14" s="5">
-        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11848,16 +12193,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="BT15" s="5">
+        <v>23</v>
+      </c>
+      <c r="BU15" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="BV15" s="5">
         <v>30</v>
       </c>
-      <c r="BU15" s="5">
+      <c r="BW15" s="5">
         <v>3.7</v>
-      </c>
-      <c r="BV15" s="5">
-        <v>23</v>
-      </c>
-      <c r="BW15" s="5">
-        <v>1.8</v>
       </c>
     </row>
     <row r="16" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12003,16 +12348,16 @@
         <v>3.2</v>
       </c>
       <c r="BT16" s="5">
+        <v>23</v>
+      </c>
+      <c r="BU16" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="BV16" s="5">
         <v>30</v>
       </c>
-      <c r="BU16" s="5">
+      <c r="BW16" s="5">
         <v>4.7</v>
-      </c>
-      <c r="BV16" s="5">
-        <v>23</v>
-      </c>
-      <c r="BW16" s="5">
-        <v>2.8</v>
       </c>
     </row>
     <row r="17" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12164,16 +12509,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BT17" s="5">
+        <v>11</v>
+      </c>
+      <c r="BU17" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="BV17" s="5">
         <v>21</v>
       </c>
-      <c r="BU17" s="5">
+      <c r="BW17" s="5">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="BV17" s="5">
-        <v>11</v>
-      </c>
-      <c r="BW17" s="5">
-        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12322,16 +12667,16 @@
         <v>2.1</v>
       </c>
       <c r="BT18" s="5">
+        <v>11</v>
+      </c>
+      <c r="BU18" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="BV18" s="5">
         <v>21</v>
       </c>
-      <c r="BU18" s="5">
+      <c r="BW18" s="5">
         <v>3.3</v>
-      </c>
-      <c r="BV18" s="5">
-        <v>11</v>
-      </c>
-      <c r="BW18" s="5">
-        <v>1.2</v>
       </c>
     </row>
     <row r="19" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12480,57 +12825,465 @@
         <v>3.1</v>
       </c>
       <c r="BT19" s="5">
+        <v>11</v>
+      </c>
+      <c r="BU19" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV19" s="5">
         <v>21</v>
       </c>
-      <c r="BU19" s="5">
+      <c r="BW19" s="5">
         <v>4.3</v>
       </c>
-      <c r="BV19" s="5">
-        <v>11</v>
-      </c>
-      <c r="BW19" s="5">
+    </row>
+    <row r="20" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3</v>
+      </c>
+      <c r="N20" s="5">
+        <v>4</v>
+      </c>
+      <c r="O20" s="5">
+        <v>5</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Z20" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AB20" s="45" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AN20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AP20" s="16">
+        <v>295</v>
+      </c>
+      <c r="AQ20" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AT20" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU20" s="16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AV20" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AW20" s="16">
+        <v>24</v>
+      </c>
+      <c r="AX20" s="16">
+        <v>200</v>
+      </c>
+      <c r="AY20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="16">
+        <v>100</v>
+      </c>
+      <c r="BA20" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="16">
+        <v>27</v>
+      </c>
+      <c r="BE20" s="16">
+        <v>31</v>
+      </c>
+      <c r="BF20" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="BG20" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="BH20" s="16">
+        <v>600</v>
+      </c>
+      <c r="BI20" s="16">
+        <v>300</v>
+      </c>
+      <c r="BJ20" s="16"/>
+      <c r="BK20" s="16">
+        <v>60</v>
+      </c>
+      <c r="BO20" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP20" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ20" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="BR20" s="5">
+        <v>25</v>
+      </c>
+      <c r="BS20" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="BT20" s="5">
+        <v>20</v>
+      </c>
+      <c r="BU20" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="BV20" s="5">
+        <v>18</v>
+      </c>
+      <c r="BW20" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="L21" s="72">
+        <v>5106</v>
+      </c>
+      <c r="M21" s="72">
+        <v>5107</v>
+      </c>
+      <c r="N21" s="72">
+        <v>5108</v>
+      </c>
+      <c r="O21" s="72">
+        <v>5109</v>
+      </c>
+      <c r="P21" s="72">
+        <v>4364</v>
+      </c>
+      <c r="Q21" s="72">
+        <v>4528</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AB21" s="45" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AN21" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AP21" s="16">
+        <v>295</v>
+      </c>
+      <c r="AQ21" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="AS21" s="16" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AT21" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU21" s="16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AV21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AW21" s="16">
+        <v>24</v>
+      </c>
+      <c r="AX21" s="16">
+        <v>200</v>
+      </c>
+      <c r="AY21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="16">
+        <v>100</v>
+      </c>
+      <c r="BA21" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="16">
+        <v>27</v>
+      </c>
+      <c r="BE21" s="16">
+        <v>31</v>
+      </c>
+      <c r="BF21" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="BG21" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="BH21" s="16">
+        <v>600</v>
+      </c>
+      <c r="BI21" s="16">
+        <v>300</v>
+      </c>
+      <c r="BK21" s="7">
+        <v>60</v>
+      </c>
+      <c r="BO21" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP21" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="BR21" s="72">
+        <v>25</v>
+      </c>
+      <c r="BS21" s="72">
+        <v>3.4</v>
+      </c>
+      <c r="BT21" s="5">
+        <v>20</v>
+      </c>
+      <c r="BU21" s="5">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="Z20" s="25"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="35"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="16"/>
-      <c r="AX20" s="16"/>
-      <c r="AY20" s="16"/>
-      <c r="AZ20" s="16"/>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="16"/>
-      <c r="BC20" s="16"/>
-      <c r="BD20" s="16"/>
-      <c r="BE20" s="16"/>
-      <c r="BF20" s="16"/>
-      <c r="BG20" s="16"/>
-      <c r="BH20" s="16"/>
-      <c r="BI20" s="16"/>
-      <c r="BJ20" s="16"/>
-      <c r="BK20" s="16"/>
+      <c r="BV21" s="5">
+        <v>18</v>
+      </c>
+      <c r="BW21" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="L22" s="72">
+        <v>8468</v>
+      </c>
+      <c r="M22" s="72">
+        <v>7766</v>
+      </c>
+      <c r="N22" s="72">
+        <v>7214</v>
+      </c>
+      <c r="O22" s="72">
+        <v>6605</v>
+      </c>
+      <c r="P22" s="72">
+        <v>5675</v>
+      </c>
+      <c r="Q22" s="72">
+        <v>4528</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AB22" s="45" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AN22" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AP22" s="16">
+        <v>295</v>
+      </c>
+      <c r="AQ22" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="AS22" s="16" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AT22" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU22" s="16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AV22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AW22" s="16">
+        <v>24</v>
+      </c>
+      <c r="AX22" s="16">
+        <v>200</v>
+      </c>
+      <c r="AY22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="16">
+        <v>100</v>
+      </c>
+      <c r="BA22" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="16">
+        <v>27</v>
+      </c>
+      <c r="BE22" s="16">
+        <v>31</v>
+      </c>
+      <c r="BF22" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="BG22" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="BH22" s="16">
+        <v>600</v>
+      </c>
+      <c r="BI22" s="16">
+        <v>300</v>
+      </c>
+      <c r="BK22" s="7">
+        <v>60</v>
+      </c>
+      <c r="BO22" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP22" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>1673</v>
+      </c>
+      <c r="BR22" s="72">
+        <v>25</v>
+      </c>
+      <c r="BS22" s="72">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BT22" s="5">
+        <v>20</v>
+      </c>
+      <c r="BU22" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="BV22" s="5">
+        <v>18</v>
+      </c>
+      <c r="BW22" s="5">
+        <v>2.6</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -12545,20 +13298,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="30" priority="1793" operator="equal">
-      <formula>"metal"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="1797" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="1794" operator="equal">
-      <formula>"earth"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="1796" operator="equal">
+      <formula>"wood"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="1795" operator="equal">
       <formula>"fire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="1796" operator="equal">
-      <formula>"wood"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="1794" operator="equal">
+      <formula>"earth"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1797" operator="equal">
-      <formula>"water"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="1793" operator="equal">
+      <formula>"metal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E21">
@@ -12583,7 +13336,7 @@
       <formula>NOT(ISERROR(SEARCH("_custom",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:AD3 Q4:AD4 Z5:AA7 A3:I4 J4:K4 BI20:BM1048576 BI5:BM16 BJ17:BM19">
+  <conditionalFormatting sqref="J3:AD3 Q4:AD4 Z5:AA7 A3:I4 J4:K4 BI5:BM16 BJ17:BM19 BI20:BM1048576">
     <cfRule type="expression" dxfId="19" priority="1553">
       <formula>$AT3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
@@ -12624,11 +13377,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="containsText" dxfId="11" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="11" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
@@ -12642,11 +13395,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BJ4">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BM2">
@@ -21642,7 +22395,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A84F2F-8E27-4A3C-AB8C-655BDFF63A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69316233-1D92-4A7B-B10E-6A24E31C3954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2772" yWindow="672" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14100" yWindow="552" windowWidth="16812" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="1681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1694">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,19 +4843,19 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_NONE</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY | DOTA_UNIT_TARGET_TEAM_NONE</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4871,26 +4871,26 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>range 1000 1600 2000</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4936,7 +4936,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4952,7 +4952,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4965,7 +4965,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ALLIES_YES</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Poof</t>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5019,7 +5019,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5029,7 +5029,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5046,30 +5046,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5121,7 +5121,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5247,7 +5247,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5269,7 +5269,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5286,15 +5286,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5311,11 +5311,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5335,21 +5335,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,7 +5365,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5381,15 +5381,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5455,7 +5455,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5480,11 +5480,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5500,7 +5500,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5516,7 +5516,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5532,7 +5532,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5548,7 +5548,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5564,7 +5564,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5599,35 +5599,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5652,7 +5652,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5671,7 +5671,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5687,7 +5687,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5703,7 +5703,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5719,7 +5719,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5735,7 +5735,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5748,7 +5748,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5771,7 +5771,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5788,7 +5788,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5805,7 +5805,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5822,11 +5822,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5845,7 +5845,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5861,7 +5861,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5877,7 +5877,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5902,7 +5902,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5918,7 +5918,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5934,7 +5934,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5944,38 +5944,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5992,23 +5992,146 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_12</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bility/path/path_12</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>okang 15 20 25</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>hujia 10 15 20</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ath_12</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+  </si>
+  <si>
+    <t>path_13_hujia</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_13_mokang</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/path/path_13_huija</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ignore_armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15 25 35</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_13</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ignore_resistance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15 25 35</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/path/path_13_mokang</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6019,12 +6142,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6363,18 +6493,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6385,22 +6515,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6409,28 +6539,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6439,28 +6569,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6469,46 +6599,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6517,40 +6650,40 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8096,7 +8229,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8104,11 +8237,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9256,8 +9389,89 @@
         <v>1572</v>
       </c>
     </row>
+    <row r="18" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>1683</v>
+      </c>
+      <c r="R18" s="47">
+        <v>3</v>
+      </c>
+      <c r="X18" s="47" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Y18" s="74" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AE18" s="47" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="74" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>1690</v>
+      </c>
+      <c r="R19" s="47">
+        <v>3</v>
+      </c>
+      <c r="X19" s="47" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Y19" s="74" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE19" s="47" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>1692</v>
+      </c>
+      <c r="R20" s="47">
+        <v>3</v>
+      </c>
+      <c r="X20" s="47" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Y20" s="74" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE20" s="47" t="s">
+        <v>1483</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9468,7 +9682,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9679,7 +9893,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9693,7 +9907,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13283,7 +13497,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -22395,7 +22609,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69316233-1D92-4A7B-B10E-6A24E31C3954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7380EE86-88A6-4394-ACB5-DD54646E1758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="552" windowWidth="16812" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13212" yWindow="900" windowWidth="16812" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1712">
   <si>
     <t>主键</t>
   </si>
@@ -6131,6 +6131,186 @@
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ath_14</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/path/path_14</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime 1 1.5 2</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hance 25</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_14</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_15</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/path/path_15</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gongsu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20 50 100</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isu 10 20 40</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ath_16</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/path/path_16</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hangxian 1 2 4</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>huimo 1</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uimo_bz 10 20 40</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>no_mana_chance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15 25 40</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_amp 10 20 30</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_cd_chance 0 20 40</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_16</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -6497,7 +6677,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6687,6 +6867,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8237,11 +8418,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8257,7 +8438,8 @@
     <col min="9" max="9" width="14.21875" style="47" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" style="64" customWidth="1"/>
     <col min="11" max="11" width="26.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="2.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" style="47" customWidth="1"/>
+    <col min="13" max="13" width="17" style="47" customWidth="1"/>
     <col min="14" max="14" width="8.77734375" style="47"/>
     <col min="15" max="16" width="2.5546875" style="47" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.21875" style="47" bestFit="1" customWidth="1"/>
@@ -9467,6 +9649,105 @@
         <v>1691</v>
       </c>
       <c r="AE20" s="47" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="74" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>1696</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>1697</v>
+      </c>
+      <c r="R21" s="47">
+        <v>3</v>
+      </c>
+      <c r="X21" s="47" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Y21" s="74" t="s">
+        <v>1698</v>
+      </c>
+      <c r="AE21" s="47" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="74" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H22" s="74" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>1702</v>
+      </c>
+      <c r="R22" s="47">
+        <v>3</v>
+      </c>
+      <c r="X22" s="47" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Y22" s="74" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AE22" s="47" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="74" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H23" s="74" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J23" s="75" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K23" s="74" t="s">
+        <v>1708</v>
+      </c>
+      <c r="L23" s="74" t="s">
+        <v>1710</v>
+      </c>
+      <c r="M23" s="74" t="s">
+        <v>1709</v>
+      </c>
+      <c r="R23" s="47">
+        <v>3</v>
+      </c>
+      <c r="X23" s="47" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Y23" s="74" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AE23" s="47" t="s">
         <v>1483</v>
       </c>
     </row>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7380EE86-88A6-4394-ACB5-DD54646E1758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EC7BCF-172A-49EE-8089-49893FD8B1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13212" yWindow="900" windowWidth="16812" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11412" yWindow="492" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1724">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,19 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_NONE</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOTA_UNIT_TARGET_TEAM_ENEMY | DOTA_UNIT_TARGET_TEAM_NONE</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4871,26 +4863,26 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>range 1000 1600 2000</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4936,7 +4928,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4952,7 +4944,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4965,7 +4957,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ALLIES_YES</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Poof</t>
@@ -5003,7 +4995,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5019,7 +5011,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5029,7 +5021,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5046,30 +5038,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5121,7 +5113,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5159,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5175,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5191,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5207,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5223,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5247,7 +5239,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5269,7 +5261,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5286,15 +5278,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5311,11 +5303,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5335,21 +5327,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,7 +5357,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5381,15 +5373,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5455,7 +5447,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5480,11 +5472,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5500,7 +5492,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5516,7 +5508,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5532,7 +5524,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5548,7 +5540,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5564,7 +5556,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5599,35 +5591,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5652,7 +5644,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5671,7 +5663,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5687,7 +5679,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5703,7 +5695,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5719,7 +5711,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5735,7 +5727,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5748,7 +5740,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5771,7 +5763,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5788,7 +5780,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5805,7 +5797,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5822,11 +5814,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5845,7 +5837,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5861,7 +5853,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5877,7 +5869,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5902,7 +5894,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5918,7 +5910,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5934,7 +5926,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5944,38 +5936,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5992,23 +5984,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6024,7 +6016,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6040,7 +6032,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6056,11 +6048,11 @@
       </rPr>
       <t>okang 15 20 25</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>hujia 10 15 20</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6076,22 +6068,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>ability/path/path_13_huija</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6107,11 +6095,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6127,11 +6115,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6147,11 +6135,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6167,7 +6155,7 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6183,19 +6171,19 @@
       </rPr>
       <t>hance 25</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6211,7 +6199,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6227,7 +6215,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6243,11 +6231,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6263,11 +6251,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6283,7 +6271,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6299,19 +6287,138 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_17</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/path/path_17</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amage 30</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiansu -10 -20 -40</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>path_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability/path/path_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1000 2000 4000</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/path/path_13_hujia</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amage 175 225 275</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_Zuus.LightningBolt</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT_DOTA_CAST_ABILITY_2</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6322,12 +6429,26 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6673,18 +6794,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6695,22 +6816,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6719,28 +6840,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6749,28 +6870,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6779,95 +6900,101 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6916,12 +7043,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -6946,12 +7073,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -7055,7 +7182,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7069,21 +7210,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8410,7 +8537,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8418,11 +8545,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE23" sqref="AE23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8533,13 +8660,13 @@
         <v>1535</v>
       </c>
       <c r="AI1" s="60" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="AJ1" s="49" t="s">
         <v>1536</v>
       </c>
       <c r="AK1" s="60" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="AL1" s="47" t="s">
         <v>1436</v>
@@ -8622,7 +8749,7 @@
         <v>1539</v>
       </c>
       <c r="AA2" s="54" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="AB2" s="50" t="s">
         <v>1484</v>
@@ -8646,13 +8773,13 @@
         <v>1534</v>
       </c>
       <c r="AI2" s="49" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="AJ2" s="49" t="s">
         <v>1537</v>
       </c>
       <c r="AK2" s="73" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="AL2" s="41" t="s">
         <v>1472</v>
@@ -8702,9 +8829,9 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -8712,13 +8839,13 @@
         <v>1465</v>
       </c>
       <c r="F4" s="54" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I4" s="58" t="s">
         <v>1553</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>1555</v>
       </c>
       <c r="R4" s="47">
         <v>3</v>
@@ -8737,17 +8864,17 @@
         <v>5191</v>
       </c>
       <c r="X4" s="58" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="Y4" s="55" t="s">
         <v>1527</v>
       </c>
       <c r="Z4" s="50"/>
-      <c r="AA4" s="54" t="s">
-        <v>1552</v>
-      </c>
-      <c r="AC4" s="56" t="s">
-        <v>1550</v>
+      <c r="AA4" s="47" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AC4" s="47" t="s">
+        <v>1561</v>
       </c>
       <c r="AD4" s="50"/>
       <c r="AE4" s="47" t="s">
@@ -8810,19 +8937,19 @@
     </row>
     <row r="6" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="R6" s="47">
         <v>3</v>
@@ -8843,22 +8970,22 @@
         <v>5431</v>
       </c>
       <c r="X6" s="47" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="Y6" s="47" t="s">
         <v>954</v>
       </c>
       <c r="AB6" s="47" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AC6" s="47" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AE6" s="59" t="s">
         <v>1562</v>
       </c>
-      <c r="AC6" s="47" t="s">
+      <c r="AF6" s="47" t="s">
         <v>1563</v>
-      </c>
-      <c r="AE6" s="59" t="s">
-        <v>1564</v>
-      </c>
-      <c r="AF6" s="47" t="s">
-        <v>1565</v>
       </c>
       <c r="AH6" s="47">
         <v>1.5</v>
@@ -8872,16 +8999,16 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="R7" s="47">
         <v>3</v>
@@ -8908,24 +9035,24 @@
         <v>1483</v>
       </c>
       <c r="AF7" s="47" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="AJ7" s="47" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F8" s="61" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H8" s="61" t="s">
         <v>1583</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>1585</v>
       </c>
       <c r="R8" s="47">
         <v>3</v>
@@ -8946,25 +9073,25 @@
         <v>5075</v>
       </c>
       <c r="X8" s="47" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="Y8" s="47" t="s">
         <v>622</v>
       </c>
       <c r="AB8" s="47" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="AC8" s="47" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="AD8" s="47" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AE8" s="61" t="s">
+        <v>1594</v>
+      </c>
+      <c r="AF8" s="47" t="s">
         <v>1590</v>
-      </c>
-      <c r="AE8" s="61" t="s">
-        <v>1596</v>
-      </c>
-      <c r="AF8" s="47" t="s">
-        <v>1592</v>
       </c>
       <c r="AG8" s="47">
         <v>0</v>
@@ -8973,30 +9100,30 @@
         <v>0.3</v>
       </c>
       <c r="AJ8" s="47" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F9" s="61" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H9" s="61" t="s">
         <v>1584</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="I9" s="61" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J9" s="67" t="s">
         <v>1586</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="K9" s="61" t="s">
         <v>1587</v>
-      </c>
-      <c r="J9" s="67" t="s">
-        <v>1588</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>1589</v>
       </c>
       <c r="R9" s="47">
         <v>3</v>
@@ -9017,22 +9144,22 @@
         <v>5076</v>
       </c>
       <c r="X9" s="47" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="Y9" s="47" t="s">
         <v>623</v>
       </c>
       <c r="AB9" s="47" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="AC9" s="47" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="AE9" s="47" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="AF9" s="47" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="AG9" s="47">
         <v>0</v>
@@ -9046,25 +9173,25 @@
     </row>
     <row r="10" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="H10" s="61" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J10" s="67" t="s">
         <v>1608</v>
       </c>
-      <c r="I10" s="61" t="s">
-        <v>1609</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>1610</v>
-      </c>
       <c r="K10" s="61" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="R10" s="47">
         <v>3</v>
@@ -9085,22 +9212,22 @@
         <v>5076</v>
       </c>
       <c r="X10" s="47" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="Y10" s="47" t="s">
         <v>623</v>
       </c>
       <c r="AB10" s="47" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="AC10" s="47" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="AE10" s="47" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="AF10" s="47" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="AG10" s="47">
         <v>0</v>
@@ -9114,19 +9241,19 @@
     </row>
     <row r="11" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F11" s="61" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H11" s="61" t="s">
         <v>1616</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="I11" s="67" t="s">
         <v>1618</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>1620</v>
       </c>
       <c r="K11" s="61"/>
       <c r="R11" s="47">
@@ -9145,22 +9272,22 @@
         <v>5040</v>
       </c>
       <c r="X11" s="47" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="Y11" s="47" t="s">
         <v>462</v>
       </c>
       <c r="AB11" s="47" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="AC11" s="47" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="AE11" s="47" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="AF11" s="47" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="AG11" s="47">
         <v>0</v>
@@ -9169,27 +9296,27 @@
         <v>0.45</v>
       </c>
       <c r="AJ11" s="47" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F12" s="61" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I12" s="61" t="s">
         <v>1617</v>
       </c>
-      <c r="H12" s="61" t="s">
-        <v>1621</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>1619</v>
-      </c>
       <c r="J12" s="67" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="R12" s="47">
         <v>3</v>
@@ -9210,22 +9337,22 @@
         <v>5041</v>
       </c>
       <c r="X12" s="47" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>463</v>
       </c>
       <c r="AB12" s="47" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="AC12" s="47" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="AE12" s="47" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="AF12" s="47" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="AG12" s="47">
         <v>625</v>
@@ -9239,19 +9366,19 @@
     </row>
     <row r="13" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="H13" s="61" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I13" s="67" t="s">
         <v>1618</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>1620</v>
       </c>
       <c r="R13" s="47">
         <v>3</v>
@@ -9272,22 +9399,22 @@
         <v>5040</v>
       </c>
       <c r="X13" s="47" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="Y13" s="47" t="s">
         <v>462</v>
       </c>
       <c r="AB13" s="47" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="AC13" s="47" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="AE13" s="47" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="AF13" s="47" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="AG13" s="47">
         <v>0</v>
@@ -9296,30 +9423,30 @@
         <v>0.45</v>
       </c>
       <c r="AJ13" s="47" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F14" s="68" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H14" s="68" t="s">
         <v>1637</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="I14" s="68" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J14" s="69" t="s">
         <v>1639</v>
       </c>
-      <c r="I14" s="68" t="s">
+      <c r="K14" s="68" t="s">
         <v>1640</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>1641</v>
-      </c>
-      <c r="K14" s="68" t="s">
-        <v>1642</v>
       </c>
       <c r="R14" s="47">
         <v>3</v>
@@ -9340,48 +9467,48 @@
         <v>5110</v>
       </c>
       <c r="X14" s="47" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="Y14" s="47" t="s">
         <v>1100</v>
       </c>
       <c r="AA14" s="47" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AB14" s="47" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AC14" s="47" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AD14" s="47" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AE14" s="47" t="s">
+        <v>1589</v>
+      </c>
+      <c r="AF14" s="47" t="s">
         <v>1644</v>
-      </c>
-      <c r="AB14" s="47" t="s">
-        <v>1562</v>
-      </c>
-      <c r="AC14" s="47" t="s">
-        <v>1645</v>
-      </c>
-      <c r="AD14" s="47" t="s">
-        <v>1590</v>
-      </c>
-      <c r="AE14" s="47" t="s">
-        <v>1591</v>
-      </c>
-      <c r="AF14" s="47" t="s">
-        <v>1646</v>
       </c>
       <c r="AH14" s="47">
         <v>0.2</v>
       </c>
       <c r="AJ14" s="47" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>1465</v>
       </c>
-      <c r="F15" s="68" t="s">
-        <v>1647</v>
+      <c r="F15" s="77" t="s">
+        <v>1645</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="R15" s="47">
         <v>3</v>
@@ -9402,28 +9529,28 @@
         <v>5111</v>
       </c>
       <c r="X15" s="47" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="Y15" s="47" t="s">
         <v>1101</v>
       </c>
       <c r="AA15" s="47" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="AB15" s="47" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="AC15" s="47" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="AD15" s="47" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="AE15" s="47" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="AF15" s="47" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AH15" s="47">
         <v>0.4</v>
@@ -9433,23 +9560,17 @@
       </c>
     </row>
     <row r="16" spans="1:38" ht="69" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
-        <v>1679</v>
+      <c r="A16" s="5" t="s">
+        <v>1653</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>1465</v>
       </c>
-      <c r="F16" s="73" t="s">
-        <v>1680</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>1656</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>1657</v>
-      </c>
-      <c r="J16" s="71" t="s">
-        <v>1658</v>
+      <c r="F16" s="77" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>1718</v>
       </c>
       <c r="R16" s="47">
         <v>3</v>
@@ -9461,69 +9582,66 @@
         <v>10</v>
       </c>
       <c r="U16" s="47">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="V16" s="47">
+        <v>1</v>
       </c>
       <c r="W16" s="47">
-        <v>5008</v>
+        <v>5111</v>
       </c>
       <c r="X16" s="47" t="s">
-        <v>1561</v>
-      </c>
-      <c r="Y16" s="73" t="s">
-        <v>1677</v>
+        <v>1611</v>
+      </c>
+      <c r="Y16" s="47" t="s">
+        <v>1101</v>
       </c>
       <c r="AA16" s="47" t="s">
-        <v>1644</v>
+        <v>1719</v>
       </c>
       <c r="AB16" s="47" t="s">
-        <v>1562</v>
-      </c>
-      <c r="AC16" s="47" t="s">
-        <v>1645</v>
-      </c>
-      <c r="AD16" s="47" t="s">
-        <v>1590</v>
+        <v>1560</v>
+      </c>
+      <c r="AC16" s="77" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AD16" s="77" t="s">
+        <v>1720</v>
       </c>
       <c r="AE16" s="47" t="s">
-        <v>1591</v>
-      </c>
-      <c r="AF16" s="47" t="s">
-        <v>1659</v>
-      </c>
-      <c r="AG16" s="47">
-        <v>0</v>
+        <v>1589</v>
+      </c>
+      <c r="AF16" s="77" t="s">
+        <v>1722</v>
       </c>
       <c r="AH16" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="AJ16" s="47" t="s">
-        <v>1660</v>
+        <v>0.4</v>
+      </c>
+      <c r="AJ16" s="77" t="s">
+        <v>1723</v>
       </c>
       <c r="AK16" s="47">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="69" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D17" s="70" t="s">
+    <row r="17" spans="1:37" ht="69" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>1465</v>
       </c>
-      <c r="F17" s="70" t="s">
-        <v>1675</v>
+      <c r="F17" s="73" t="s">
+        <v>1678</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="I17" s="70" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>1667</v>
-      </c>
-      <c r="K17" s="70" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="R17" s="47">
         <v>3</v>
@@ -9535,224 +9653,353 @@
         <v>10</v>
       </c>
       <c r="U17" s="47">
+        <v>2</v>
+      </c>
+      <c r="W17" s="47">
+        <v>5008</v>
+      </c>
+      <c r="X17" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="Y17" s="73" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AA17" s="47" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AB17" s="47" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AC17" s="47" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AD17" s="47" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AE17" s="47" t="s">
+        <v>1589</v>
+      </c>
+      <c r="AF17" s="47" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AG17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="47">
         <v>0.3</v>
       </c>
-      <c r="W17" s="47">
-        <v>5009</v>
-      </c>
-      <c r="X17" s="47" t="s">
-        <v>1521</v>
-      </c>
-      <c r="Y17" s="47" t="s">
-        <v>1031</v>
-      </c>
-      <c r="AA17" s="47" t="s">
-        <v>1644</v>
-      </c>
-      <c r="AB17" s="47" t="s">
-        <v>1665</v>
-      </c>
-      <c r="AC17" s="47" t="s">
-        <v>1645</v>
-      </c>
-      <c r="AD17" s="47" t="s">
-        <v>1590</v>
-      </c>
-      <c r="AE17" s="47" t="s">
-        <v>1483</v>
-      </c>
-      <c r="AF17" s="47" t="s">
-        <v>1666</v>
-      </c>
-      <c r="AG17" s="47">
-        <v>300</v>
-      </c>
       <c r="AJ17" s="47" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
-        <v>1681</v>
+        <v>1658</v>
+      </c>
+      <c r="AK17" s="47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="69" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>1672</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>1465</v>
       </c>
-      <c r="F18" s="74" t="s">
-        <v>1682</v>
-      </c>
-      <c r="H18" s="74" t="s">
-        <v>1684</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>1683</v>
+      <c r="F18" s="70" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K18" s="70" t="s">
+        <v>1662</v>
       </c>
       <c r="R18" s="47">
         <v>3</v>
       </c>
+      <c r="S18" s="47">
+        <v>0</v>
+      </c>
+      <c r="T18" s="47">
+        <v>10</v>
+      </c>
+      <c r="U18" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="W18" s="47">
+        <v>5009</v>
+      </c>
       <c r="X18" s="47" t="s">
-        <v>1686</v>
-      </c>
-      <c r="Y18" s="74" t="s">
-        <v>1685</v>
+        <v>1521</v>
+      </c>
+      <c r="Y18" s="47" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AA18" s="47" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AB18" s="47" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AC18" s="47" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AD18" s="47" t="s">
+        <v>1588</v>
       </c>
       <c r="AE18" s="47" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="AF18" s="47" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AG18" s="47">
+        <v>300</v>
+      </c>
+      <c r="AJ18" s="47" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="D19" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>1690</v>
+        <v>1682</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>1681</v>
       </c>
       <c r="R19" s="47">
         <v>3</v>
       </c>
       <c r="X19" s="47" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="Y19" s="74" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="AE19" s="47" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D20" s="70" t="s">
         <v>1465</v>
       </c>
-      <c r="F20" s="74" t="s">
-        <v>1693</v>
+      <c r="F20" s="77" t="s">
+        <v>1716</v>
       </c>
       <c r="H20" s="74" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="R20" s="47">
         <v>3</v>
       </c>
       <c r="X20" s="47" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="Y20" s="74" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="AE20" s="47" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="D21" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F21" s="74" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="H21" s="74" t="s">
-        <v>1696</v>
-      </c>
-      <c r="I21" s="74" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="R21" s="47">
         <v>3</v>
       </c>
       <c r="X21" s="47" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="Y21" s="74" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="AE21" s="47" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="D22" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="H22" s="74" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="R22" s="47">
         <v>3</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="Y22" s="74" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="AE22" s="47" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="D23" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F23" s="74" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="H23" s="74" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
       <c r="I23" s="74" t="s">
-        <v>1706</v>
-      </c>
-      <c r="J23" s="75" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K23" s="74" t="s">
-        <v>1708</v>
-      </c>
-      <c r="L23" s="74" t="s">
-        <v>1710</v>
-      </c>
-      <c r="M23" s="74" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="R23" s="47">
         <v>3</v>
       </c>
       <c r="X23" s="47" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="Y23" s="74" t="s">
-        <v>1711</v>
+        <v>1696</v>
       </c>
       <c r="AE23" s="47" t="s">
         <v>1483</v>
       </c>
     </row>
+    <row r="24" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="74" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H24" s="74" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J24" s="75" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K24" s="74" t="s">
+        <v>1705</v>
+      </c>
+      <c r="L24" s="74" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M24" s="74" t="s">
+        <v>1706</v>
+      </c>
+      <c r="R24" s="47">
+        <v>3</v>
+      </c>
+      <c r="X24" s="47" t="s">
+        <v>1684</v>
+      </c>
+      <c r="Y24" s="74" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AE24" s="47" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="74" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>1711</v>
+      </c>
+      <c r="R25" s="47">
+        <v>3</v>
+      </c>
+      <c r="X25" s="47" t="s">
+        <v>1684</v>
+      </c>
+      <c r="Y25" s="74" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AE25" s="47" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F26" s="76" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H26" s="76" t="s">
+        <v>1715</v>
+      </c>
+      <c r="R26" s="47">
+        <v>3</v>
+      </c>
+      <c r="X26" s="47" t="s">
+        <v>1684</v>
+      </c>
+      <c r="Y26" s="76" t="s">
+        <v>1713</v>
+      </c>
+      <c r="AE26" s="47" t="s">
+        <v>1483</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9963,7 +10210,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10174,7 +10421,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10185,10 +10432,10 @@
   <dimension ref="A1:BW22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10391,7 +10638,7 @@
         <v>39</v>
       </c>
       <c r="BH1" s="23" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="BI1" s="10" t="s">
         <v>40</v>
@@ -10548,7 +10795,7 @@
         <v>1501</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="AQ2" s="33" t="s">
         <v>67</v>
@@ -10590,7 +10837,7 @@
         <v>1396</v>
       </c>
       <c r="BD2" s="10" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="BE2" s="10" t="s">
         <v>76</v>
@@ -10602,7 +10849,7 @@
         <v>78</v>
       </c>
       <c r="BH2" s="23" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="BI2" s="10" t="s">
         <v>79</v>
@@ -11471,7 +11718,7 @@
     </row>
     <row r="8" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B8" s="15">
         <v>1</v>
@@ -11480,7 +11727,7 @@
         <v>126</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -11520,7 +11767,7 @@
         <v>952</v>
       </c>
       <c r="AB8" s="47" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="AN8" s="16">
         <v>1</v>
@@ -11597,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="BR8" s="5">
         <v>24</v>
@@ -11620,7 +11867,7 @@
     </row>
     <row r="9" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B9" s="15">
         <v>1</v>
@@ -11629,7 +11876,7 @@
         <v>126</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E9" s="16">
         <v>2</v>
@@ -11669,7 +11916,7 @@
         <v>952</v>
       </c>
       <c r="AB9" s="47" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="AN9" s="16">
         <v>1</v>
@@ -11746,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="BQ9" s="5" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="BR9" s="5">
         <v>24</v>
@@ -11769,7 +12016,7 @@
     </row>
     <row r="10" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B10" s="15">
         <v>1</v>
@@ -11778,7 +12025,7 @@
         <v>126</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E10" s="16">
         <v>3</v>
@@ -11818,7 +12065,7 @@
         <v>952</v>
       </c>
       <c r="AB10" s="47" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="AN10" s="16">
         <v>1</v>
@@ -11895,7 +12142,7 @@
         <v>1</v>
       </c>
       <c r="BQ10" s="5" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="BR10" s="5">
         <v>24</v>
@@ -11918,7 +12165,7 @@
     </row>
     <row r="11" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B11" s="15">
         <v>1</v>
@@ -11927,7 +12174,7 @@
         <v>146</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -11973,13 +12220,13 @@
         <v>621</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="AN11" s="16">
         <v>1</v>
       </c>
       <c r="AO11" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP11" s="16">
         <v>280</v>
@@ -11989,7 +12236,7 @@
       </c>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT11" s="16" t="s">
         <v>263</v>
@@ -12053,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="BQ11" s="45" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="BR11" s="5">
         <v>25</v>
@@ -12076,7 +12323,7 @@
     </row>
     <row r="12" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B12" s="15">
         <v>1</v>
@@ -12085,7 +12332,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="E12" s="16">
         <v>2</v>
@@ -12131,13 +12378,13 @@
         <v>621</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="AN12" s="16">
         <v>1</v>
       </c>
       <c r="AO12" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP12" s="16">
         <v>280</v>
@@ -12147,7 +12394,7 @@
       </c>
       <c r="AR12" s="16"/>
       <c r="AS12" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT12" s="16" t="s">
         <v>263</v>
@@ -12211,7 +12458,7 @@
         <v>1</v>
       </c>
       <c r="BQ12" s="45" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="BR12" s="5">
         <v>25</v>
@@ -12234,7 +12481,7 @@
     </row>
     <row r="13" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B13" s="15">
         <v>1</v>
@@ -12243,7 +12490,7 @@
         <v>146</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E13" s="16">
         <v>3</v>
@@ -12289,13 +12536,13 @@
         <v>621</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="AN13" s="16">
         <v>1</v>
       </c>
       <c r="AO13" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP13" s="16">
         <v>280</v>
@@ -12305,7 +12552,7 @@
       </c>
       <c r="AR13" s="16"/>
       <c r="AS13" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT13" s="16" t="s">
         <v>263</v>
@@ -12369,7 +12616,7 @@
         <v>1</v>
       </c>
       <c r="BQ13" s="45" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="BR13" s="5">
         <v>25</v>
@@ -12392,16 +12639,16 @@
     </row>
     <row r="14" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
@@ -12410,7 +12657,7 @@
         <v>87</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16">
@@ -12441,13 +12688,13 @@
         <v>461</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="AN14" s="16">
         <v>1</v>
       </c>
       <c r="AO14" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP14" s="16">
         <v>290</v>
@@ -12457,7 +12704,7 @@
       </c>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT14" s="16" t="s">
         <v>263</v>
@@ -12524,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="BQ14" s="5" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="BR14" s="5">
         <v>20</v>
@@ -12547,16 +12794,16 @@
     </row>
     <row r="15" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B15" s="15">
         <v>1</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E15" s="16">
         <v>2</v>
@@ -12596,13 +12843,13 @@
         <v>461</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="AN15" s="16">
         <v>1</v>
       </c>
       <c r="AO15" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP15" s="16">
         <v>290</v>
@@ -12612,7 +12859,7 @@
       </c>
       <c r="AR15" s="16"/>
       <c r="AS15" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT15" s="16" t="s">
         <v>263</v>
@@ -12679,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="BQ15" s="5" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="BR15" s="5">
         <v>20</v>
@@ -12702,16 +12949,16 @@
     </row>
     <row r="16" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B16" s="15">
         <v>1</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E16" s="16">
         <v>3</v>
@@ -12720,7 +12967,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="16">
@@ -12751,13 +12998,13 @@
         <v>461</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="AN16" s="16">
         <v>1</v>
       </c>
       <c r="AO16" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP16" s="16">
         <v>290</v>
@@ -12767,7 +13014,7 @@
       </c>
       <c r="AR16" s="16"/>
       <c r="AS16" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT16" s="16" t="s">
         <v>263</v>
@@ -12834,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="BQ16" s="5" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="BR16" s="5">
         <v>20</v>
@@ -12857,16 +13104,16 @@
     </row>
     <row r="17" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -12912,13 +13159,13 @@
         <v>1099</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="AN17" s="16">
         <v>1</v>
       </c>
       <c r="AO17" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP17" s="16">
         <v>295</v>
@@ -12928,7 +13175,7 @@
       </c>
       <c r="AR17" s="16"/>
       <c r="AS17" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT17" s="16" t="s">
         <v>263</v>
@@ -12995,7 +13242,7 @@
         <v>1</v>
       </c>
       <c r="BQ17" s="5" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="BR17" s="5">
         <v>21</v>
@@ -13018,16 +13265,16 @@
     </row>
     <row r="18" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B18" s="15">
         <v>1</v>
       </c>
       <c r="C18" s="62" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D18" s="62" t="s">
         <v>1652</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>1654</v>
       </c>
       <c r="E18" s="16">
         <v>2</v>
@@ -13070,13 +13317,13 @@
         <v>1099</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="AN18" s="16">
         <v>1</v>
       </c>
       <c r="AO18" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP18" s="16">
         <v>295</v>
@@ -13086,7 +13333,7 @@
       </c>
       <c r="AR18" s="16"/>
       <c r="AS18" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT18" s="16" t="s">
         <v>263</v>
@@ -13153,7 +13400,7 @@
         <v>1</v>
       </c>
       <c r="BQ18" s="5" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="BR18" s="5">
         <v>21</v>
@@ -13176,16 +13423,16 @@
     </row>
     <row r="19" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B19" s="15">
         <v>1</v>
       </c>
       <c r="C19" s="62" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D19" s="62" t="s">
         <v>1652</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>1654</v>
       </c>
       <c r="E19" s="16">
         <v>3</v>
@@ -13228,13 +13475,13 @@
         <v>1099</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="AN19" s="16">
         <v>1</v>
       </c>
       <c r="AO19" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP19" s="16">
         <v>295</v>
@@ -13244,7 +13491,7 @@
       </c>
       <c r="AR19" s="16"/>
       <c r="AS19" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT19" s="16" t="s">
         <v>263</v>
@@ -13311,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="BQ19" s="5" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="BR19" s="5">
         <v>21</v>
@@ -13334,16 +13581,16 @@
     </row>
     <row r="20" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B20" s="15">
         <v>1</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -13380,13 +13627,13 @@
         <v>1028</v>
       </c>
       <c r="AB20" s="45" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="AN20" s="16">
         <v>1</v>
       </c>
       <c r="AO20" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP20" s="16">
         <v>295</v>
@@ -13396,7 +13643,7 @@
       </c>
       <c r="AR20" s="16"/>
       <c r="AS20" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT20" s="16" t="s">
         <v>263</v>
@@ -13457,7 +13704,7 @@
         <v>1</v>
       </c>
       <c r="BQ20" s="5" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="BR20" s="5">
         <v>25</v>
@@ -13480,16 +13727,16 @@
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B21" s="15">
         <v>1</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -13531,13 +13778,13 @@
         <v>1028</v>
       </c>
       <c r="AB21" s="45" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="AN21" s="16">
         <v>1</v>
       </c>
       <c r="AO21" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP21" s="16">
         <v>295</v>
@@ -13546,7 +13793,7 @@
         <v>0.6</v>
       </c>
       <c r="AS21" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT21" s="16" t="s">
         <v>263</v>
@@ -13606,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="BQ21" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="BR21" s="72">
         <v>25</v>
@@ -13629,16 +13876,16 @@
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
@@ -13680,13 +13927,13 @@
         <v>1028</v>
       </c>
       <c r="AB22" s="45" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="AN22" s="16">
         <v>1</v>
       </c>
       <c r="AO22" s="63" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AP22" s="16">
         <v>295</v>
@@ -13695,7 +13942,7 @@
         <v>0.6</v>
       </c>
       <c r="AS22" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AT22" s="16" t="s">
         <v>263</v>
@@ -13755,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="BQ22" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="BR22" s="72">
         <v>25</v>
@@ -13778,7 +14025,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -13793,20 +14040,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="30" priority="1797" operator="equal">
-      <formula>"water"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="1793" operator="equal">
+      <formula>"metal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="1796" operator="equal">
-      <formula>"wood"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="1794" operator="equal">
+      <formula>"earth"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="1795" operator="equal">
       <formula>"fire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="1794" operator="equal">
-      <formula>"earth"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="1796" operator="equal">
+      <formula>"wood"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1793" operator="equal">
-      <formula>"metal"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="1797" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E21">
@@ -13872,11 +14119,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="containsText" dxfId="11" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="11" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
@@ -13890,11 +14137,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BJ4">
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BM2">
@@ -13934,7 +14181,7 @@
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O77" sqref="O77"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -22890,7 +23137,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EC7BCF-172A-49EE-8089-49893FD8B1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033C4768-CE3C-41DB-A240-E5DB51199A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11412" yWindow="492" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11172" yWindow="864" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,11 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4863,26 +4863,26 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>range 1000 1600 2000</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4928,7 +4928,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4944,7 +4944,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4957,7 +4957,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ALLIES_YES</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Poof</t>
@@ -4995,7 +4995,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5011,7 +5011,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5021,7 +5021,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5038,30 +5038,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5113,7 +5113,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5159,7 +5159,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5175,7 +5175,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5191,7 +5191,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5207,7 +5207,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5223,7 +5223,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5239,7 +5239,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5261,7 +5261,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5278,15 +5278,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5303,11 +5303,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5327,21 +5327,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5357,7 +5357,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5373,15 +5373,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5447,13 +5447,10 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
-  </si>
-  <si>
-    <t>Ability_lina_dragon_slave</t>
   </si>
   <si>
     <t>Ability_lina_light_strike_array</t>
@@ -5472,11 +5469,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5492,7 +5489,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5508,7 +5505,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5524,7 +5521,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5540,7 +5537,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5556,7 +5553,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5591,35 +5588,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5644,7 +5641,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5663,7 +5660,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5679,7 +5676,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5695,7 +5692,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5711,7 +5708,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5727,7 +5724,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5740,7 +5737,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5763,7 +5760,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5780,7 +5777,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5797,7 +5794,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5814,11 +5811,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5837,7 +5834,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5853,7 +5850,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5869,7 +5866,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5894,7 +5891,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5910,7 +5907,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5926,7 +5923,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5936,38 +5933,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5984,23 +5981,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6016,7 +6013,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6032,7 +6029,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6048,11 +6045,11 @@
       </rPr>
       <t>okang 15 20 25</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>hujia 10 15 20</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6068,18 +6065,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6095,11 +6092,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6115,11 +6112,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6135,11 +6132,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6155,35 +6152,19 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hance 25</t>
-    </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6199,7 +6180,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6215,7 +6196,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6231,11 +6212,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6251,11 +6232,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6271,7 +6252,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6287,27 +6268,27 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>path_17</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_17</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6323,11 +6304,11 @@
       </rPr>
       <t>amage 30</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>jiansu -10 -20 -40</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6343,7 +6324,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6359,7 +6340,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6375,15 +6356,15 @@
       </rPr>
       <t xml:space="preserve"> 1000 2000 4000</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_hujia</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6399,26 +6380,46 @@
       </rPr>
       <t>amage 175 225 275</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ACT_DOTA_CAST_ABILITY_2</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability_lina_dragon_slave</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hance 100</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6429,12 +6430,26 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6794,18 +6809,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6816,22 +6831,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6840,28 +6855,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6870,28 +6885,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6900,95 +6915,101 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7043,12 +7064,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -7073,12 +7094,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -7182,7 +7203,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39979247413556324"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7196,21 +7231,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39979247413556324"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8537,7 +8558,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8547,9 +8568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK16" sqref="AK16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8666,7 +8687,7 @@
         <v>1536</v>
       </c>
       <c r="AK1" s="60" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="AL1" s="47" t="s">
         <v>1436</v>
@@ -8779,7 +8800,7 @@
         <v>1537</v>
       </c>
       <c r="AK2" s="73" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="AL2" s="41" t="s">
         <v>1472</v>
@@ -8859,7 +8880,9 @@
       <c r="U4" s="54">
         <v>3</v>
       </c>
-      <c r="V4" s="54"/>
+      <c r="V4" s="54">
+        <v>2</v>
+      </c>
       <c r="W4" s="47">
         <v>5191</v>
       </c>
@@ -8871,7 +8894,7 @@
       </c>
       <c r="Z4" s="50"/>
       <c r="AA4" s="47" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="AC4" s="47" t="s">
         <v>1561</v>
@@ -9064,7 +9087,7 @@
         <v>10</v>
       </c>
       <c r="U8" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V8" s="47">
         <v>0</v>
@@ -9240,20 +9263,20 @@
       </c>
     </row>
     <row r="11" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>1612</v>
+      <c r="A11" s="78" t="s">
+        <v>1722</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="K11" s="61"/>
       <c r="R11" s="47">
@@ -9266,7 +9289,10 @@
         <v>10</v>
       </c>
       <c r="U11" s="47">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="V11" s="47">
+        <v>2</v>
       </c>
       <c r="W11" s="47">
         <v>5040</v>
@@ -9287,7 +9313,7 @@
         <v>1589</v>
       </c>
       <c r="AF11" s="47" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="AG11" s="47">
         <v>0</v>
@@ -9301,22 +9327,22 @@
     </row>
     <row r="12" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H12" s="61" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J12" s="67" t="s">
         <v>1619</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>1617</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>1620</v>
       </c>
       <c r="R12" s="47">
         <v>3</v>
@@ -9331,13 +9357,13 @@
         <v>3</v>
       </c>
       <c r="V12" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W12" s="47">
         <v>5041</v>
       </c>
       <c r="X12" s="47" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>463</v>
@@ -9352,7 +9378,7 @@
         <v>1589</v>
       </c>
       <c r="AF12" s="47" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="AG12" s="47">
         <v>625</v>
@@ -9366,19 +9392,19 @@
     </row>
     <row r="13" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="R13" s="47">
         <v>3</v>
@@ -9414,7 +9440,7 @@
         <v>1589</v>
       </c>
       <c r="AF13" s="47" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="AG13" s="47">
         <v>0</v>
@@ -9428,25 +9454,25 @@
     </row>
     <row r="14" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H14" s="68" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I14" s="68" t="s">
         <v>1637</v>
       </c>
-      <c r="I14" s="68" t="s">
+      <c r="J14" s="69" t="s">
         <v>1638</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="K14" s="68" t="s">
         <v>1639</v>
-      </c>
-      <c r="K14" s="68" t="s">
-        <v>1640</v>
       </c>
       <c r="R14" s="47">
         <v>3</v>
@@ -9473,13 +9499,13 @@
         <v>1100</v>
       </c>
       <c r="AA14" s="47" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="AB14" s="47" t="s">
         <v>1560</v>
       </c>
       <c r="AC14" s="47" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="AD14" s="47" t="s">
         <v>1588</v>
@@ -9488,7 +9514,7 @@
         <v>1589</v>
       </c>
       <c r="AF14" s="47" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="AH14" s="47">
         <v>0.2</v>
@@ -9499,16 +9525,16 @@
     </row>
     <row r="15" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="R15" s="47">
         <v>3</v>
@@ -9535,13 +9561,13 @@
         <v>1101</v>
       </c>
       <c r="AA15" s="47" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="AB15" s="47" t="s">
         <v>1560</v>
       </c>
       <c r="AC15" s="47" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="AD15" s="47" t="s">
         <v>1588</v>
@@ -9550,7 +9576,7 @@
         <v>1589</v>
       </c>
       <c r="AF15" s="47" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="AH15" s="47">
         <v>0.4</v>
@@ -9561,16 +9587,16 @@
     </row>
     <row r="16" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="R16" s="47">
         <v>3</v>
@@ -9582,10 +9608,10 @@
         <v>10</v>
       </c>
       <c r="U16" s="47">
+        <v>1</v>
+      </c>
+      <c r="V16" s="47">
         <v>100</v>
-      </c>
-      <c r="V16" s="47">
-        <v>1</v>
       </c>
       <c r="W16" s="47">
         <v>5111</v>
@@ -9597,51 +9623,51 @@
         <v>1101</v>
       </c>
       <c r="AA16" s="47" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="AB16" s="47" t="s">
         <v>1560</v>
       </c>
       <c r="AC16" s="77" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="AD16" s="77" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="AE16" s="47" t="s">
         <v>1589</v>
       </c>
       <c r="AF16" s="77" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="AH16" s="47">
         <v>0.4</v>
       </c>
       <c r="AJ16" s="77" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="AK16" s="47">
         <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="69" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
-        <v>1677</v>
+      <c r="A17" s="78" t="s">
+        <v>1676</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H17" s="70" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I17" s="70" t="s">
         <v>1654</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="J17" s="71" t="s">
         <v>1655</v>
-      </c>
-      <c r="J17" s="71" t="s">
-        <v>1656</v>
       </c>
       <c r="R17" s="47">
         <v>3</v>
@@ -9655,6 +9681,9 @@
       <c r="U17" s="47">
         <v>2</v>
       </c>
+      <c r="V17" s="47">
+        <v>2</v>
+      </c>
       <c r="W17" s="47">
         <v>5008</v>
       </c>
@@ -9662,16 +9691,16 @@
         <v>1559</v>
       </c>
       <c r="Y17" s="73" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="AA17" s="47" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="AB17" s="47" t="s">
         <v>1560</v>
       </c>
       <c r="AC17" s="47" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="AD17" s="47" t="s">
         <v>1588</v>
@@ -9680,7 +9709,7 @@
         <v>1589</v>
       </c>
       <c r="AF17" s="47" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="AG17" s="47">
         <v>0</v>
@@ -9689,7 +9718,7 @@
         <v>0.3</v>
       </c>
       <c r="AJ17" s="47" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AK17" s="47">
         <v>0.1</v>
@@ -9697,25 +9726,25 @@
     </row>
     <row r="18" spans="1:37" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F18" s="70" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H18" s="70" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I18" s="70" t="s">
         <v>1660</v>
       </c>
-      <c r="I18" s="70" t="s">
+      <c r="J18" s="71" t="s">
+        <v>1664</v>
+      </c>
+      <c r="K18" s="70" t="s">
         <v>1661</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>1665</v>
-      </c>
-      <c r="K18" s="70" t="s">
-        <v>1662</v>
       </c>
       <c r="R18" s="47">
         <v>3</v>
@@ -9739,13 +9768,13 @@
         <v>1031</v>
       </c>
       <c r="AA18" s="47" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AB18" s="47" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AC18" s="47" t="s">
         <v>1642</v>
-      </c>
-      <c r="AB18" s="47" t="s">
-        <v>1663</v>
-      </c>
-      <c r="AC18" s="47" t="s">
-        <v>1643</v>
       </c>
       <c r="AD18" s="47" t="s">
         <v>1588</v>
@@ -9754,7 +9783,7 @@
         <v>1483</v>
       </c>
       <c r="AF18" s="47" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="AG18" s="47">
         <v>300</v>
@@ -9765,28 +9794,28 @@
     </row>
     <row r="19" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D19" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F19" s="74" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I19" s="74" t="s">
         <v>1680</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>1682</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>1681</v>
       </c>
       <c r="R19" s="47">
         <v>3</v>
       </c>
       <c r="X19" s="47" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Y19" s="74" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="AE19" s="47" t="s">
         <v>1483</v>
@@ -9794,25 +9823,25 @@
     </row>
     <row r="20" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D20" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="H20" s="74" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="R20" s="47">
         <v>3</v>
       </c>
       <c r="X20" s="47" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Y20" s="74" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="AE20" s="47" t="s">
         <v>1483</v>
@@ -9820,25 +9849,25 @@
     </row>
     <row r="21" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D21" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F21" s="74" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H21" s="74" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="R21" s="47">
         <v>3</v>
       </c>
       <c r="X21" s="47" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Y21" s="74" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="AE21" s="47" t="s">
         <v>1483</v>
@@ -9846,28 +9875,28 @@
     </row>
     <row r="22" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D22" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F22" s="74" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H22" s="74" t="s">
         <v>1692</v>
       </c>
-      <c r="H22" s="74" t="s">
-        <v>1693</v>
-      </c>
-      <c r="I22" s="74" t="s">
-        <v>1694</v>
+      <c r="I22" s="79" t="s">
+        <v>1723</v>
       </c>
       <c r="R22" s="47">
         <v>3</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Y22" s="74" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="AE22" s="47" t="s">
         <v>1483</v>
@@ -9875,28 +9904,28 @@
     </row>
     <row r="23" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D23" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F23" s="74" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H23" s="74" t="s">
+        <v>1696</v>
+      </c>
+      <c r="I23" s="74" t="s">
         <v>1697</v>
-      </c>
-      <c r="H23" s="74" t="s">
-        <v>1698</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>1699</v>
       </c>
       <c r="R23" s="47">
         <v>3</v>
       </c>
       <c r="X23" s="47" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Y23" s="74" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="AE23" s="47" t="s">
         <v>1483</v>
@@ -9904,40 +9933,40 @@
     </row>
     <row r="24" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D24" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F24" s="74" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H24" s="74" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I24" s="74" t="s">
         <v>1701</v>
       </c>
-      <c r="H24" s="74" t="s">
+      <c r="J24" s="75" t="s">
         <v>1702</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="K24" s="74" t="s">
         <v>1703</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="L24" s="74" t="s">
+        <v>1705</v>
+      </c>
+      <c r="M24" s="74" t="s">
         <v>1704</v>
-      </c>
-      <c r="K24" s="74" t="s">
-        <v>1705</v>
-      </c>
-      <c r="L24" s="74" t="s">
-        <v>1707</v>
-      </c>
-      <c r="M24" s="74" t="s">
-        <v>1706</v>
       </c>
       <c r="R24" s="47">
         <v>3</v>
       </c>
       <c r="X24" s="47" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Y24" s="74" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="AE24" s="47" t="s">
         <v>1483</v>
@@ -9945,28 +9974,28 @@
     </row>
     <row r="25" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D25" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F25" s="74" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H25" s="74" t="s">
         <v>1710</v>
       </c>
-      <c r="H25" s="74" t="s">
-        <v>1712</v>
-      </c>
       <c r="I25" s="74" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="R25" s="47">
         <v>3</v>
       </c>
       <c r="X25" s="47" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Y25" s="74" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="AE25" s="47" t="s">
         <v>1483</v>
@@ -9974,32 +10003,32 @@
     </row>
     <row r="26" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D26" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F26" s="76" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="H26" s="76" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="R26" s="47">
         <v>3</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Y26" s="76" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="AE26" s="47" t="s">
         <v>1483</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10210,7 +10239,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10421,7 +10450,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -12639,16 +12668,16 @@
     </row>
     <row r="14" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>1629</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>1630</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
@@ -12657,7 +12686,7 @@
         <v>87</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16">
@@ -12688,7 +12717,7 @@
         <v>461</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="AN14" s="16">
         <v>1</v>
@@ -12771,7 +12800,7 @@
         <v>1</v>
       </c>
       <c r="BQ14" s="5" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="BR14" s="5">
         <v>20</v>
@@ -12794,16 +12823,16 @@
     </row>
     <row r="15" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B15" s="15">
         <v>1</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D15" s="62" t="s">
         <v>1629</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>1630</v>
       </c>
       <c r="E15" s="16">
         <v>2</v>
@@ -12843,7 +12872,7 @@
         <v>461</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="AN15" s="16">
         <v>1</v>
@@ -12926,7 +12955,7 @@
         <v>1</v>
       </c>
       <c r="BQ15" s="5" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="BR15" s="5">
         <v>20</v>
@@ -12949,16 +12978,16 @@
     </row>
     <row r="16" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B16" s="15">
         <v>1</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D16" s="62" t="s">
         <v>1629</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>1630</v>
       </c>
       <c r="E16" s="16">
         <v>3</v>
@@ -12967,7 +12996,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="16">
@@ -12998,7 +13027,7 @@
         <v>461</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="AN16" s="16">
         <v>1</v>
@@ -13081,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="BQ16" s="5" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="BR16" s="5">
         <v>20</v>
@@ -13104,16 +13133,16 @@
     </row>
     <row r="17" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
       </c>
       <c r="C17" s="62" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D17" s="62" t="s">
         <v>1650</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>1651</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -13159,7 +13188,7 @@
         <v>1099</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="AN17" s="16">
         <v>1</v>
@@ -13242,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="BQ17" s="5" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="BR17" s="5">
         <v>21</v>
@@ -13265,16 +13294,16 @@
     </row>
     <row r="18" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B18" s="15">
         <v>1</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E18" s="16">
         <v>2</v>
@@ -13317,7 +13346,7 @@
         <v>1099</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="AN18" s="16">
         <v>1</v>
@@ -13400,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="BQ18" s="5" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="BR18" s="5">
         <v>21</v>
@@ -13423,16 +13452,16 @@
     </row>
     <row r="19" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B19" s="15">
         <v>1</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E19" s="16">
         <v>3</v>
@@ -13475,7 +13504,7 @@
         <v>1099</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="AN19" s="16">
         <v>1</v>
@@ -13558,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="BQ19" s="5" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="BR19" s="5">
         <v>21</v>
@@ -13581,16 +13610,16 @@
     </row>
     <row r="20" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B20" s="15">
         <v>1</v>
       </c>
       <c r="C20" s="62" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D20" s="62" t="s">
         <v>1669</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>1670</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -13627,7 +13656,7 @@
         <v>1028</v>
       </c>
       <c r="AB20" s="45" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="AN20" s="16">
         <v>1</v>
@@ -13704,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="BQ20" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="BR20" s="5">
         <v>25</v>
@@ -13727,16 +13756,16 @@
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B21" s="15">
         <v>1</v>
       </c>
       <c r="C21" s="62" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D21" s="62" t="s">
         <v>1669</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>1670</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -13778,7 +13807,7 @@
         <v>1028</v>
       </c>
       <c r="AB21" s="45" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="AN21" s="16">
         <v>1</v>
@@ -13853,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="BQ21" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="BR21" s="72">
         <v>25</v>
@@ -13876,16 +13905,16 @@
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
       </c>
       <c r="C22" s="62" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D22" s="62" t="s">
         <v>1669</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>1670</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
@@ -13927,7 +13956,7 @@
         <v>1028</v>
       </c>
       <c r="AB22" s="45" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="AN22" s="16">
         <v>1</v>
@@ -14002,7 +14031,7 @@
         <v>1</v>
       </c>
       <c r="BQ22" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="BR22" s="72">
         <v>25</v>
@@ -14025,7 +14054,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -14040,20 +14069,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="30" priority="1793" operator="equal">
-      <formula>"metal"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="1797" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="1794" operator="equal">
-      <formula>"earth"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="1796" operator="equal">
+      <formula>"wood"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="1795" operator="equal">
       <formula>"fire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="1796" operator="equal">
-      <formula>"wood"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="1794" operator="equal">
+      <formula>"earth"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1797" operator="equal">
-      <formula>"water"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="1793" operator="equal">
+      <formula>"metal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E21">
@@ -14119,11 +14148,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="containsText" dxfId="11" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="11" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
@@ -14137,11 +14166,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BJ4">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BM2">
@@ -23137,7 +23166,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033C4768-CE3C-41DB-A240-E5DB51199A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D814DFE2-D7D5-4B11-9C6E-C270A21CE199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11172" yWindow="864" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10644" yWindow="564" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1725">
   <si>
     <t>主键</t>
   </si>
@@ -6417,8 +6417,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hance 100</t>
+      <t>hance 25</t>
     </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -8568,9 +8572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9001,8 +9005,8 @@
       <c r="AB6" s="47" t="s">
         <v>1560</v>
       </c>
-      <c r="AC6" s="47" t="s">
-        <v>1561</v>
+      <c r="AC6" s="79" t="s">
+        <v>1724</v>
       </c>
       <c r="AE6" s="59" t="s">
         <v>1562</v>
@@ -10461,10 +10465,10 @@
   <dimension ref="A1:BW22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
+      <selection pane="bottomRight" activeCell="BQ2" sqref="BQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D814DFE2-D7D5-4B11-9C6E-C270A21CE199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F68F7D-23FE-42D1-A328-F677271016CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10644" yWindow="564" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7968" yWindow="828" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,11 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4863,26 +4863,26 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>range 1000 1600 2000</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4928,7 +4928,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4944,7 +4944,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4957,7 +4957,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ALLIES_YES</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Poof</t>
@@ -4995,7 +4995,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5011,7 +5011,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5021,7 +5021,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5038,30 +5038,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5113,7 +5113,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5159,7 +5159,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5175,7 +5175,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5191,7 +5191,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5207,7 +5207,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5223,7 +5223,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5239,7 +5239,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5261,7 +5261,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5278,15 +5278,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5303,11 +5303,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5327,21 +5327,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5357,7 +5357,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5373,15 +5373,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5447,7 +5447,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5469,11 +5469,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5489,7 +5489,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5505,7 +5505,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5521,7 +5521,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5537,7 +5537,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5553,7 +5553,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5588,35 +5588,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5641,7 +5641,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5660,7 +5660,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5676,7 +5676,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5692,7 +5692,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5708,7 +5708,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5724,7 +5724,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5737,7 +5737,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5760,7 +5760,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5777,7 +5777,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5794,7 +5794,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5811,11 +5811,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5834,7 +5834,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5850,7 +5850,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5866,7 +5866,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5891,7 +5891,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5907,7 +5907,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5923,7 +5923,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5933,38 +5933,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5981,23 +5981,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6013,7 +6013,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6029,7 +6029,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6045,11 +6045,11 @@
       </rPr>
       <t>okang 15 20 25</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>hujia 10 15 20</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6065,18 +6065,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6092,11 +6092,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6112,11 +6112,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6132,11 +6132,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6152,19 +6152,19 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6180,7 +6180,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6196,7 +6196,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6212,11 +6212,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6232,11 +6232,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6252,7 +6252,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6268,27 +6268,27 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>path_17</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_17</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6304,11 +6304,11 @@
       </rPr>
       <t>amage 30</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>jiansu -10 -20 -40</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6324,7 +6324,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6340,7 +6340,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6356,15 +6356,15 @@
       </rPr>
       <t xml:space="preserve"> 1000 2000 4000</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_hujia</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6380,30 +6380,30 @@
       </rPr>
       <t>amage 175 225 275</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ACT_DOTA_CAST_ABILITY_2</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Ability_lina_dragon_slave</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6419,11 +6419,11 @@
       </rPr>
       <t>hance 25</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6434,12 +6434,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6813,9 +6820,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6823,8 +6830,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6835,22 +6842,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6859,28 +6866,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6889,28 +6896,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6919,46 +6926,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6967,47 +6977,47 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7015,9 +7025,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8562,7 +8569,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8573,8 +8580,8 @@
   <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC6" sqref="AC6"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9091,10 +9098,10 @@
         <v>10</v>
       </c>
       <c r="U8" s="47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W8" s="47">
         <v>5075</v>
@@ -10032,7 +10039,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10243,7 +10250,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10454,7 +10461,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -14058,7 +14065,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -23170,7 +23177,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F68F7D-23FE-42D1-A328-F677271016CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F8106-2415-4F81-9866-24592D98EC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7968" yWindow="828" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9624" yWindow="1128" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1724">
   <si>
     <t>主键</t>
   </si>
@@ -4954,10 +4954,6 @@
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-  </si>
-  <si>
-    <t>SPELL_IMMUNITY_ALLIES_YES</t>
-    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Poof</t>
@@ -8580,8 +8576,8 @@
   <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC9" sqref="AC9"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8692,13 +8688,13 @@
         <v>1535</v>
       </c>
       <c r="AI1" s="60" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="AJ1" s="49" t="s">
         <v>1536</v>
       </c>
       <c r="AK1" s="60" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="AL1" s="47" t="s">
         <v>1436</v>
@@ -8805,13 +8801,13 @@
         <v>1534</v>
       </c>
       <c r="AI2" s="49" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="AJ2" s="49" t="s">
         <v>1537</v>
       </c>
       <c r="AK2" s="73" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="AL2" s="41" t="s">
         <v>1472</v>
@@ -8905,7 +8901,7 @@
       </c>
       <c r="Z4" s="50"/>
       <c r="AA4" s="47" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="AC4" s="47" t="s">
         <v>1561</v>
@@ -8983,7 +8979,7 @@
         <v>1558</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="R6" s="47">
         <v>3</v>
@@ -8995,10 +8991,10 @@
         <v>10</v>
       </c>
       <c r="U6" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6" s="47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="47">
         <v>5431</v>
@@ -9013,13 +9009,13 @@
         <v>1560</v>
       </c>
       <c r="AC6" s="79" t="s">
-        <v>1724</v>
-      </c>
-      <c r="AE6" s="59" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AE6" s="61" t="s">
+        <v>1593</v>
+      </c>
+      <c r="AF6" s="47" t="s">
         <v>1562</v>
-      </c>
-      <c r="AF6" s="47" t="s">
-        <v>1563</v>
       </c>
       <c r="AH6" s="47">
         <v>1.5</v>
@@ -9033,16 +9029,16 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F7" s="59" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H7" s="59" t="s">
         <v>1567</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>1568</v>
       </c>
       <c r="R7" s="47">
         <v>3</v>
@@ -9069,24 +9065,24 @@
         <v>1483</v>
       </c>
       <c r="AF7" s="47" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AJ7" s="47" t="s">
         <v>1569</v>
-      </c>
-      <c r="AJ7" s="47" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H8" s="61" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="R8" s="47">
         <v>3</v>
@@ -9119,13 +9115,13 @@
         <v>1561</v>
       </c>
       <c r="AD8" s="47" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AE8" s="61" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="AF8" s="47" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="AG8" s="47">
         <v>0</v>
@@ -9134,30 +9130,30 @@
         <v>0.3</v>
       </c>
       <c r="AJ8" s="47" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H9" s="61" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I9" s="61" t="s">
         <v>1584</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="J9" s="67" t="s">
         <v>1585</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="K9" s="61" t="s">
         <v>1586</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>1587</v>
       </c>
       <c r="R9" s="47">
         <v>3</v>
@@ -9178,7 +9174,7 @@
         <v>5076</v>
       </c>
       <c r="X9" s="47" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="Y9" s="47" t="s">
         <v>623</v>
@@ -9190,10 +9186,10 @@
         <v>1561</v>
       </c>
       <c r="AE9" s="47" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="AF9" s="47" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="AG9" s="47">
         <v>0</v>
@@ -9207,25 +9203,25 @@
     </row>
     <row r="10" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H10" s="61" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I10" s="61" t="s">
         <v>1606</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="J10" s="67" t="s">
         <v>1607</v>
       </c>
-      <c r="J10" s="67" t="s">
-        <v>1608</v>
-      </c>
       <c r="K10" s="61" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="R10" s="47">
         <v>3</v>
@@ -9246,7 +9242,7 @@
         <v>5076</v>
       </c>
       <c r="X10" s="47" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="Y10" s="47" t="s">
         <v>623</v>
@@ -9258,10 +9254,10 @@
         <v>1561</v>
       </c>
       <c r="AE10" s="47" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="AF10" s="47" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="AG10" s="47">
         <v>0</v>
@@ -9275,19 +9271,19 @@
     </row>
     <row r="11" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="K11" s="61"/>
       <c r="R11" s="47">
@@ -9309,7 +9305,7 @@
         <v>5040</v>
       </c>
       <c r="X11" s="47" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="Y11" s="47" t="s">
         <v>462</v>
@@ -9321,10 +9317,10 @@
         <v>1561</v>
       </c>
       <c r="AE11" s="47" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="AF11" s="47" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AG11" s="47">
         <v>0</v>
@@ -9333,27 +9329,27 @@
         <v>0.45</v>
       </c>
       <c r="AJ11" s="47" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H12" s="61" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J12" s="67" t="s">
         <v>1618</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>1616</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>1619</v>
       </c>
       <c r="R12" s="47">
         <v>3</v>
@@ -9374,7 +9370,7 @@
         <v>5041</v>
       </c>
       <c r="X12" s="47" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>463</v>
@@ -9386,10 +9382,10 @@
         <v>1561</v>
       </c>
       <c r="AE12" s="47" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="AF12" s="47" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="AG12" s="47">
         <v>625</v>
@@ -9403,19 +9399,19 @@
     </row>
     <row r="13" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="R13" s="47">
         <v>3</v>
@@ -9436,7 +9432,7 @@
         <v>5040</v>
       </c>
       <c r="X13" s="47" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="Y13" s="47" t="s">
         <v>462</v>
@@ -9448,10 +9444,10 @@
         <v>1561</v>
       </c>
       <c r="AE13" s="47" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="AF13" s="47" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AG13" s="47">
         <v>0</v>
@@ -9460,30 +9456,30 @@
         <v>0.45</v>
       </c>
       <c r="AJ13" s="47" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H14" s="68" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I14" s="68" t="s">
         <v>1636</v>
       </c>
-      <c r="I14" s="68" t="s">
+      <c r="J14" s="69" t="s">
         <v>1637</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="K14" s="68" t="s">
         <v>1638</v>
-      </c>
-      <c r="K14" s="68" t="s">
-        <v>1639</v>
       </c>
       <c r="R14" s="47">
         <v>3</v>
@@ -9510,42 +9506,42 @@
         <v>1100</v>
       </c>
       <c r="AA14" s="47" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="AB14" s="47" t="s">
         <v>1560</v>
       </c>
       <c r="AC14" s="47" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AD14" s="47" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AE14" s="47" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AF14" s="47" t="s">
         <v>1642</v>
-      </c>
-      <c r="AD14" s="47" t="s">
-        <v>1588</v>
-      </c>
-      <c r="AE14" s="47" t="s">
-        <v>1589</v>
-      </c>
-      <c r="AF14" s="47" t="s">
-        <v>1643</v>
       </c>
       <c r="AH14" s="47">
         <v>0.2</v>
       </c>
       <c r="AJ14" s="47" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="R15" s="47">
         <v>3</v>
@@ -9572,22 +9568,22 @@
         <v>1101</v>
       </c>
       <c r="AA15" s="47" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="AB15" s="47" t="s">
         <v>1560</v>
       </c>
       <c r="AC15" s="47" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="AD15" s="47" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AE15" s="47" t="s">
         <v>1588</v>
       </c>
-      <c r="AE15" s="47" t="s">
-        <v>1589</v>
-      </c>
       <c r="AF15" s="47" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="AH15" s="47">
         <v>0.4</v>
@@ -9598,16 +9594,16 @@
     </row>
     <row r="16" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F16" s="77" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H16" s="77" t="s">
         <v>1715</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>1716</v>
       </c>
       <c r="R16" s="47">
         <v>3</v>
@@ -9628,34 +9624,34 @@
         <v>5111</v>
       </c>
       <c r="X16" s="47" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="Y16" s="47" t="s">
         <v>1101</v>
       </c>
       <c r="AA16" s="47" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="AB16" s="47" t="s">
         <v>1560</v>
       </c>
       <c r="AC16" s="77" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AD16" s="77" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AE16" s="47" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AF16" s="77" t="s">
         <v>1719</v>
-      </c>
-      <c r="AD16" s="77" t="s">
-        <v>1718</v>
-      </c>
-      <c r="AE16" s="47" t="s">
-        <v>1589</v>
-      </c>
-      <c r="AF16" s="77" t="s">
-        <v>1720</v>
       </c>
       <c r="AH16" s="47">
         <v>0.4</v>
       </c>
       <c r="AJ16" s="77" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AK16" s="47">
         <v>0.1</v>
@@ -9663,22 +9659,22 @@
     </row>
     <row r="17" spans="1:37" ht="69" x14ac:dyDescent="0.25">
       <c r="A17" s="78" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H17" s="70" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I17" s="70" t="s">
         <v>1653</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="J17" s="71" t="s">
         <v>1654</v>
-      </c>
-      <c r="J17" s="71" t="s">
-        <v>1655</v>
       </c>
       <c r="R17" s="47">
         <v>3</v>
@@ -9702,25 +9698,25 @@
         <v>1559</v>
       </c>
       <c r="Y17" s="73" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="AA17" s="47" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="AB17" s="47" t="s">
         <v>1560</v>
       </c>
       <c r="AC17" s="47" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="AD17" s="47" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AE17" s="47" t="s">
         <v>1588</v>
       </c>
-      <c r="AE17" s="47" t="s">
-        <v>1589</v>
-      </c>
       <c r="AF17" s="47" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="AG17" s="47">
         <v>0</v>
@@ -9729,7 +9725,7 @@
         <v>0.3</v>
       </c>
       <c r="AJ17" s="47" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="AK17" s="47">
         <v>0.1</v>
@@ -9737,25 +9733,25 @@
     </row>
     <row r="18" spans="1:37" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F18" s="70" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H18" s="70" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I18" s="70" t="s">
         <v>1659</v>
       </c>
-      <c r="I18" s="70" t="s">
+      <c r="J18" s="71" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K18" s="70" t="s">
         <v>1660</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>1664</v>
-      </c>
-      <c r="K18" s="70" t="s">
-        <v>1661</v>
       </c>
       <c r="R18" s="47">
         <v>3</v>
@@ -9779,54 +9775,54 @@
         <v>1031</v>
       </c>
       <c r="AA18" s="47" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AB18" s="47" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AC18" s="47" t="s">
         <v>1641</v>
       </c>
-      <c r="AB18" s="47" t="s">
-        <v>1662</v>
-      </c>
-      <c r="AC18" s="47" t="s">
-        <v>1642</v>
-      </c>
       <c r="AD18" s="47" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AE18" s="47" t="s">
         <v>1483</v>
       </c>
       <c r="AF18" s="47" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="AG18" s="47">
         <v>300</v>
       </c>
       <c r="AJ18" s="47" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D19" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F19" s="74" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I19" s="74" t="s">
         <v>1679</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>1680</v>
       </c>
       <c r="R19" s="47">
         <v>3</v>
       </c>
       <c r="X19" s="47" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="Y19" s="74" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="AE19" s="47" t="s">
         <v>1483</v>
@@ -9834,25 +9830,25 @@
     </row>
     <row r="20" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D20" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H20" s="74" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="R20" s="47">
         <v>3</v>
       </c>
       <c r="X20" s="47" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="Y20" s="74" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="AE20" s="47" t="s">
         <v>1483</v>
@@ -9860,25 +9856,25 @@
     </row>
     <row r="21" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D21" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F21" s="74" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H21" s="74" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="R21" s="47">
         <v>3</v>
       </c>
       <c r="X21" s="47" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="Y21" s="74" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="AE21" s="47" t="s">
         <v>1483</v>
@@ -9886,28 +9882,28 @@
     </row>
     <row r="22" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D22" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F22" s="74" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H22" s="74" t="s">
         <v>1691</v>
       </c>
-      <c r="H22" s="74" t="s">
-        <v>1692</v>
-      </c>
       <c r="I22" s="79" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="R22" s="47">
         <v>3</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="Y22" s="74" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="AE22" s="47" t="s">
         <v>1483</v>
@@ -9915,28 +9911,28 @@
     </row>
     <row r="23" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D23" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F23" s="74" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H23" s="74" t="s">
         <v>1695</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="I23" s="74" t="s">
         <v>1696</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>1697</v>
       </c>
       <c r="R23" s="47">
         <v>3</v>
       </c>
       <c r="X23" s="47" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="Y23" s="74" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="AE23" s="47" t="s">
         <v>1483</v>
@@ -9944,40 +9940,40 @@
     </row>
     <row r="24" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D24" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F24" s="74" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H24" s="74" t="s">
         <v>1699</v>
       </c>
-      <c r="H24" s="74" t="s">
+      <c r="I24" s="74" t="s">
         <v>1700</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="J24" s="75" t="s">
         <v>1701</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="K24" s="74" t="s">
         <v>1702</v>
       </c>
-      <c r="K24" s="74" t="s">
+      <c r="L24" s="74" t="s">
+        <v>1704</v>
+      </c>
+      <c r="M24" s="74" t="s">
         <v>1703</v>
-      </c>
-      <c r="L24" s="74" t="s">
-        <v>1705</v>
-      </c>
-      <c r="M24" s="74" t="s">
-        <v>1704</v>
       </c>
       <c r="R24" s="47">
         <v>3</v>
       </c>
       <c r="X24" s="47" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="Y24" s="74" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="AE24" s="47" t="s">
         <v>1483</v>
@@ -9985,28 +9981,28 @@
     </row>
     <row r="25" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D25" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F25" s="74" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I25" s="74" t="s">
         <v>1708</v>
-      </c>
-      <c r="H25" s="74" t="s">
-        <v>1710</v>
-      </c>
-      <c r="I25" s="74" t="s">
-        <v>1709</v>
       </c>
       <c r="R25" s="47">
         <v>3</v>
       </c>
       <c r="X25" s="47" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="Y25" s="74" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="AE25" s="47" t="s">
         <v>1483</v>
@@ -10014,25 +10010,25 @@
     </row>
     <row r="26" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D26" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F26" s="76" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H26" s="76" t="s">
         <v>1712</v>
-      </c>
-      <c r="H26" s="76" t="s">
-        <v>1713</v>
       </c>
       <c r="R26" s="47">
         <v>3</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="Y26" s="76" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="AE26" s="47" t="s">
         <v>1483</v>
@@ -10472,10 +10468,10 @@
   <dimension ref="A1:BW22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BQ2" sqref="BQ2"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10678,7 +10674,7 @@
         <v>39</v>
       </c>
       <c r="BH1" s="23" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="BI1" s="10" t="s">
         <v>40</v>
@@ -10835,7 +10831,7 @@
         <v>1501</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="AQ2" s="33" t="s">
         <v>67</v>
@@ -10877,7 +10873,7 @@
         <v>1396</v>
       </c>
       <c r="BD2" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="BE2" s="10" t="s">
         <v>76</v>
@@ -10889,7 +10885,7 @@
         <v>78</v>
       </c>
       <c r="BH2" s="23" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="BI2" s="10" t="s">
         <v>79</v>
@@ -11758,7 +11754,7 @@
     </row>
     <row r="8" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B8" s="15">
         <v>1</v>
@@ -11767,7 +11763,7 @@
         <v>126</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -11807,7 +11803,7 @@
         <v>952</v>
       </c>
       <c r="AB8" s="47" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="AN8" s="16">
         <v>1</v>
@@ -11884,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="BR8" s="5">
         <v>24</v>
@@ -11907,7 +11903,7 @@
     </row>
     <row r="9" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B9" s="15">
         <v>1</v>
@@ -11916,7 +11912,7 @@
         <v>126</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E9" s="16">
         <v>2</v>
@@ -11956,7 +11952,7 @@
         <v>952</v>
       </c>
       <c r="AB9" s="47" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="AN9" s="16">
         <v>1</v>
@@ -12033,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="BQ9" s="5" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="BR9" s="5">
         <v>24</v>
@@ -12056,7 +12052,7 @@
     </row>
     <row r="10" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B10" s="15">
         <v>1</v>
@@ -12065,7 +12061,7 @@
         <v>126</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E10" s="16">
         <v>3</v>
@@ -12105,7 +12101,7 @@
         <v>952</v>
       </c>
       <c r="AB10" s="47" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="AN10" s="16">
         <v>1</v>
@@ -12182,7 +12178,7 @@
         <v>1</v>
       </c>
       <c r="BQ10" s="5" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="BR10" s="5">
         <v>24</v>
@@ -12205,7 +12201,7 @@
     </row>
     <row r="11" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B11" s="15">
         <v>1</v>
@@ -12214,7 +12210,7 @@
         <v>146</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -12260,13 +12256,13 @@
         <v>621</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AN11" s="16">
         <v>1</v>
       </c>
       <c r="AO11" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP11" s="16">
         <v>280</v>
@@ -12276,7 +12272,7 @@
       </c>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT11" s="16" t="s">
         <v>263</v>
@@ -12340,7 +12336,7 @@
         <v>1</v>
       </c>
       <c r="BQ11" s="45" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="BR11" s="5">
         <v>25</v>
@@ -12363,7 +12359,7 @@
     </row>
     <row r="12" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B12" s="15">
         <v>1</v>
@@ -12372,7 +12368,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E12" s="16">
         <v>2</v>
@@ -12418,13 +12414,13 @@
         <v>621</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AN12" s="16">
         <v>1</v>
       </c>
       <c r="AO12" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP12" s="16">
         <v>280</v>
@@ -12434,7 +12430,7 @@
       </c>
       <c r="AR12" s="16"/>
       <c r="AS12" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT12" s="16" t="s">
         <v>263</v>
@@ -12498,7 +12494,7 @@
         <v>1</v>
       </c>
       <c r="BQ12" s="45" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="BR12" s="5">
         <v>25</v>
@@ -12521,7 +12517,7 @@
     </row>
     <row r="13" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B13" s="15">
         <v>1</v>
@@ -12530,7 +12526,7 @@
         <v>146</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E13" s="16">
         <v>3</v>
@@ -12576,13 +12572,13 @@
         <v>621</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AN13" s="16">
         <v>1</v>
       </c>
       <c r="AO13" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP13" s="16">
         <v>280</v>
@@ -12592,7 +12588,7 @@
       </c>
       <c r="AR13" s="16"/>
       <c r="AS13" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT13" s="16" t="s">
         <v>263</v>
@@ -12656,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="BQ13" s="45" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="BR13" s="5">
         <v>25</v>
@@ -12679,16 +12675,16 @@
     </row>
     <row r="14" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>1628</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>1629</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
@@ -12697,7 +12693,7 @@
         <v>87</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16">
@@ -12728,13 +12724,13 @@
         <v>461</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="AN14" s="16">
         <v>1</v>
       </c>
       <c r="AO14" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP14" s="16">
         <v>290</v>
@@ -12744,7 +12740,7 @@
       </c>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT14" s="16" t="s">
         <v>263</v>
@@ -12811,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="BQ14" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="BR14" s="5">
         <v>20</v>
@@ -12834,16 +12830,16 @@
     </row>
     <row r="15" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B15" s="15">
         <v>1</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D15" s="62" t="s">
         <v>1628</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>1629</v>
       </c>
       <c r="E15" s="16">
         <v>2</v>
@@ -12883,13 +12879,13 @@
         <v>461</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="AN15" s="16">
         <v>1</v>
       </c>
       <c r="AO15" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP15" s="16">
         <v>290</v>
@@ -12899,7 +12895,7 @@
       </c>
       <c r="AR15" s="16"/>
       <c r="AS15" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT15" s="16" t="s">
         <v>263</v>
@@ -12966,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="BQ15" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="BR15" s="5">
         <v>20</v>
@@ -12989,16 +12985,16 @@
     </row>
     <row r="16" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B16" s="15">
         <v>1</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D16" s="62" t="s">
         <v>1628</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>1629</v>
       </c>
       <c r="E16" s="16">
         <v>3</v>
@@ -13007,7 +13003,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="16">
@@ -13038,13 +13034,13 @@
         <v>461</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="AN16" s="16">
         <v>1</v>
       </c>
       <c r="AO16" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP16" s="16">
         <v>290</v>
@@ -13054,7 +13050,7 @@
       </c>
       <c r="AR16" s="16"/>
       <c r="AS16" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT16" s="16" t="s">
         <v>263</v>
@@ -13121,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="BQ16" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="BR16" s="5">
         <v>20</v>
@@ -13144,16 +13140,16 @@
     </row>
     <row r="17" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
       </c>
       <c r="C17" s="62" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D17" s="62" t="s">
         <v>1649</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>1650</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -13199,13 +13195,13 @@
         <v>1099</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="AN17" s="16">
         <v>1</v>
       </c>
       <c r="AO17" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP17" s="16">
         <v>295</v>
@@ -13215,7 +13211,7 @@
       </c>
       <c r="AR17" s="16"/>
       <c r="AS17" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT17" s="16" t="s">
         <v>263</v>
@@ -13282,7 +13278,7 @@
         <v>1</v>
       </c>
       <c r="BQ17" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="BR17" s="5">
         <v>21</v>
@@ -13305,16 +13301,16 @@
     </row>
     <row r="18" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B18" s="15">
         <v>1</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E18" s="16">
         <v>2</v>
@@ -13357,13 +13353,13 @@
         <v>1099</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="AN18" s="16">
         <v>1</v>
       </c>
       <c r="AO18" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP18" s="16">
         <v>295</v>
@@ -13373,7 +13369,7 @@
       </c>
       <c r="AR18" s="16"/>
       <c r="AS18" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT18" s="16" t="s">
         <v>263</v>
@@ -13440,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="BQ18" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="BR18" s="5">
         <v>21</v>
@@ -13463,16 +13459,16 @@
     </row>
     <row r="19" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B19" s="15">
         <v>1</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E19" s="16">
         <v>3</v>
@@ -13515,13 +13511,13 @@
         <v>1099</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="AN19" s="16">
         <v>1</v>
       </c>
       <c r="AO19" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP19" s="16">
         <v>295</v>
@@ -13531,7 +13527,7 @@
       </c>
       <c r="AR19" s="16"/>
       <c r="AS19" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT19" s="16" t="s">
         <v>263</v>
@@ -13598,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="BQ19" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="BR19" s="5">
         <v>21</v>
@@ -13621,16 +13617,16 @@
     </row>
     <row r="20" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B20" s="15">
         <v>1</v>
       </c>
       <c r="C20" s="62" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D20" s="62" t="s">
         <v>1668</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>1669</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -13667,13 +13663,13 @@
         <v>1028</v>
       </c>
       <c r="AB20" s="45" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="AN20" s="16">
         <v>1</v>
       </c>
       <c r="AO20" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP20" s="16">
         <v>295</v>
@@ -13683,7 +13679,7 @@
       </c>
       <c r="AR20" s="16"/>
       <c r="AS20" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT20" s="16" t="s">
         <v>263</v>
@@ -13744,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="BQ20" s="5" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="BR20" s="5">
         <v>25</v>
@@ -13767,16 +13763,16 @@
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B21" s="15">
         <v>1</v>
       </c>
       <c r="C21" s="62" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D21" s="62" t="s">
         <v>1668</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>1669</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -13818,13 +13814,13 @@
         <v>1028</v>
       </c>
       <c r="AB21" s="45" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="AN21" s="16">
         <v>1</v>
       </c>
       <c r="AO21" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP21" s="16">
         <v>295</v>
@@ -13833,7 +13829,7 @@
         <v>0.6</v>
       </c>
       <c r="AS21" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT21" s="16" t="s">
         <v>263</v>
@@ -13893,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="BQ21" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="BR21" s="72">
         <v>25</v>
@@ -13916,16 +13912,16 @@
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
       </c>
       <c r="C22" s="62" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D22" s="62" t="s">
         <v>1668</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>1669</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
@@ -13967,13 +13963,13 @@
         <v>1028</v>
       </c>
       <c r="AB22" s="45" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="AN22" s="16">
         <v>1</v>
       </c>
       <c r="AO22" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AP22" s="16">
         <v>295</v>
@@ -13982,7 +13978,7 @@
         <v>0.6</v>
       </c>
       <c r="AS22" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AT22" s="16" t="s">
         <v>263</v>
@@ -14042,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="BQ22" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="BR22" s="72">
         <v>25</v>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F8106-2415-4F81-9866-24592D98EC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D27EEC-00F4-4618-9AB7-53F499FA174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9624" yWindow="1128" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7104" yWindow="840" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1727">
   <si>
     <t>主键</t>
   </si>
@@ -4867,10 +4867,6 @@
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>range 1000 1600 2000</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
@@ -6419,6 +6415,44 @@
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>range 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00 1600 2000</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>models/heroes/pudge/pudge.vmdl</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>models/heroes/zeus/zeus.vmdl</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>models/heroes/axe/axe.vmdl</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -6820,7 +6854,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7021,6 +7055,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8575,9 +8612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD6" sqref="AD6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8688,13 +8725,13 @@
         <v>1535</v>
       </c>
       <c r="AI1" s="60" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="AJ1" s="49" t="s">
         <v>1536</v>
       </c>
       <c r="AK1" s="60" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="AL1" s="47" t="s">
         <v>1436</v>
@@ -8801,13 +8838,13 @@
         <v>1534</v>
       </c>
       <c r="AI2" s="49" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="AJ2" s="49" t="s">
         <v>1537</v>
       </c>
       <c r="AK2" s="73" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="AL2" s="41" t="s">
         <v>1472</v>
@@ -8859,7 +8896,7 @@
     </row>
     <row r="4" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -8870,10 +8907,10 @@
         <v>1551</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>1554</v>
-      </c>
-      <c r="I4" s="58" t="s">
         <v>1553</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>1723</v>
       </c>
       <c r="R4" s="47">
         <v>3</v>
@@ -8901,10 +8938,10 @@
       </c>
       <c r="Z4" s="50"/>
       <c r="AA4" s="47" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="AC4" s="47" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="AD4" s="50"/>
       <c r="AE4" s="47" t="s">
@@ -8967,19 +9004,19 @@
     </row>
     <row r="6" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F6" s="59" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H6" s="59" t="s">
         <v>1557</v>
       </c>
-      <c r="H6" s="59" t="s">
-        <v>1558</v>
-      </c>
       <c r="I6" s="59" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="R6" s="47">
         <v>3</v>
@@ -9000,22 +9037,22 @@
         <v>5431</v>
       </c>
       <c r="X6" s="47" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="Y6" s="47" t="s">
         <v>954</v>
       </c>
       <c r="AB6" s="47" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="AC6" s="79" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="AE6" s="61" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="AF6" s="47" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="AH6" s="47">
         <v>1.5</v>
@@ -9029,16 +9066,16 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F7" s="59" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H7" s="59" t="s">
         <v>1566</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>1567</v>
       </c>
       <c r="R7" s="47">
         <v>3</v>
@@ -9065,24 +9102,24 @@
         <v>1483</v>
       </c>
       <c r="AF7" s="47" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AJ7" s="47" t="s">
         <v>1568</v>
-      </c>
-      <c r="AJ7" s="47" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H8" s="61" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="R8" s="47">
         <v>3</v>
@@ -9103,25 +9140,25 @@
         <v>5075</v>
       </c>
       <c r="X8" s="47" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="Y8" s="47" t="s">
         <v>622</v>
       </c>
       <c r="AB8" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AC8" s="47" t="s">
         <v>1560</v>
       </c>
-      <c r="AC8" s="47" t="s">
-        <v>1561</v>
-      </c>
       <c r="AD8" s="47" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="AE8" s="61" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="AF8" s="47" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="AG8" s="47">
         <v>0</v>
@@ -9130,30 +9167,30 @@
         <v>0.3</v>
       </c>
       <c r="AJ8" s="47" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H9" s="61" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I9" s="61" t="s">
         <v>1583</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="J9" s="67" t="s">
         <v>1584</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="K9" s="61" t="s">
         <v>1585</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>1586</v>
       </c>
       <c r="R9" s="47">
         <v>3</v>
@@ -9174,22 +9211,22 @@
         <v>5076</v>
       </c>
       <c r="X9" s="47" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="Y9" s="47" t="s">
         <v>623</v>
       </c>
       <c r="AB9" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AC9" s="47" t="s">
         <v>1560</v>
       </c>
-      <c r="AC9" s="47" t="s">
-        <v>1561</v>
-      </c>
       <c r="AE9" s="47" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AF9" s="47" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="AG9" s="47">
         <v>0</v>
@@ -9203,25 +9240,25 @@
     </row>
     <row r="10" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H10" s="61" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I10" s="61" t="s">
         <v>1605</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="J10" s="67" t="s">
         <v>1606</v>
       </c>
-      <c r="J10" s="67" t="s">
-        <v>1607</v>
-      </c>
       <c r="K10" s="61" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R10" s="47">
         <v>3</v>
@@ -9242,22 +9279,22 @@
         <v>5076</v>
       </c>
       <c r="X10" s="47" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y10" s="47" t="s">
         <v>623</v>
       </c>
       <c r="AB10" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AC10" s="47" t="s">
         <v>1560</v>
       </c>
-      <c r="AC10" s="47" t="s">
-        <v>1561</v>
-      </c>
       <c r="AE10" s="47" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AF10" s="47" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="AG10" s="47">
         <v>0</v>
@@ -9271,19 +9308,19 @@
     </row>
     <row r="11" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="K11" s="61"/>
       <c r="R11" s="47">
@@ -9305,22 +9342,22 @@
         <v>5040</v>
       </c>
       <c r="X11" s="47" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y11" s="47" t="s">
         <v>462</v>
       </c>
       <c r="AB11" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AC11" s="47" t="s">
         <v>1560</v>
       </c>
-      <c r="AC11" s="47" t="s">
-        <v>1561</v>
-      </c>
       <c r="AE11" s="47" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AF11" s="47" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="AG11" s="47">
         <v>0</v>
@@ -9329,27 +9366,27 @@
         <v>0.45</v>
       </c>
       <c r="AJ11" s="47" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H12" s="61" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J12" s="67" t="s">
         <v>1617</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>1615</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>1618</v>
       </c>
       <c r="R12" s="47">
         <v>3</v>
@@ -9364,28 +9401,28 @@
         <v>3</v>
       </c>
       <c r="V12" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W12" s="47">
         <v>5041</v>
       </c>
       <c r="X12" s="47" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="Y12" s="47" t="s">
         <v>463</v>
       </c>
       <c r="AB12" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AC12" s="47" t="s">
         <v>1560</v>
       </c>
-      <c r="AC12" s="47" t="s">
-        <v>1561</v>
-      </c>
       <c r="AE12" s="47" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AF12" s="47" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AG12" s="47">
         <v>625</v>
@@ -9399,19 +9436,19 @@
     </row>
     <row r="13" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="R13" s="47">
         <v>3</v>
@@ -9432,22 +9469,22 @@
         <v>5040</v>
       </c>
       <c r="X13" s="47" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y13" s="47" t="s">
         <v>462</v>
       </c>
       <c r="AB13" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AC13" s="47" t="s">
         <v>1560</v>
       </c>
-      <c r="AC13" s="47" t="s">
-        <v>1561</v>
-      </c>
       <c r="AE13" s="47" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AF13" s="47" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="AG13" s="47">
         <v>0</v>
@@ -9456,30 +9493,30 @@
         <v>0.45</v>
       </c>
       <c r="AJ13" s="47" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H14" s="68" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I14" s="68" t="s">
         <v>1635</v>
       </c>
-      <c r="I14" s="68" t="s">
+      <c r="J14" s="69" t="s">
         <v>1636</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="K14" s="68" t="s">
         <v>1637</v>
-      </c>
-      <c r="K14" s="68" t="s">
-        <v>1638</v>
       </c>
       <c r="R14" s="47">
         <v>3</v>
@@ -9500,48 +9537,48 @@
         <v>5110</v>
       </c>
       <c r="X14" s="47" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="Y14" s="47" t="s">
         <v>1100</v>
       </c>
       <c r="AA14" s="47" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AB14" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AC14" s="47" t="s">
         <v>1640</v>
       </c>
-      <c r="AB14" s="47" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AC14" s="47" t="s">
+      <c r="AD14" s="47" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AE14" s="47" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AF14" s="47" t="s">
         <v>1641</v>
-      </c>
-      <c r="AD14" s="47" t="s">
-        <v>1587</v>
-      </c>
-      <c r="AE14" s="47" t="s">
-        <v>1588</v>
-      </c>
-      <c r="AF14" s="47" t="s">
-        <v>1642</v>
       </c>
       <c r="AH14" s="47">
         <v>0.2</v>
       </c>
       <c r="AJ14" s="47" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="R15" s="47">
         <v>3</v>
@@ -9562,28 +9599,28 @@
         <v>5111</v>
       </c>
       <c r="X15" s="47" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="Y15" s="47" t="s">
         <v>1101</v>
       </c>
       <c r="AA15" s="47" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AB15" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AC15" s="47" t="s">
         <v>1640</v>
       </c>
-      <c r="AB15" s="47" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AC15" s="47" t="s">
-        <v>1641</v>
-      </c>
       <c r="AD15" s="47" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AE15" s="47" t="s">
         <v>1587</v>
       </c>
-      <c r="AE15" s="47" t="s">
-        <v>1588</v>
-      </c>
       <c r="AF15" s="47" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="AH15" s="47">
         <v>0.4</v>
@@ -9594,16 +9631,16 @@
     </row>
     <row r="16" spans="1:38" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F16" s="77" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H16" s="77" t="s">
         <v>1714</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>1715</v>
       </c>
       <c r="R16" s="47">
         <v>3</v>
@@ -9624,34 +9661,34 @@
         <v>5111</v>
       </c>
       <c r="X16" s="47" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y16" s="47" t="s">
         <v>1101</v>
       </c>
       <c r="AA16" s="47" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AB16" s="47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AC16" s="77" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AD16" s="77" t="s">
         <v>1716</v>
       </c>
-      <c r="AB16" s="47" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AC16" s="77" t="s">
+      <c r="AE16" s="47" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AF16" s="77" t="s">
         <v>1718</v>
-      </c>
-      <c r="AD16" s="77" t="s">
-        <v>1717</v>
-      </c>
-      <c r="AE16" s="47" t="s">
-        <v>1588</v>
-      </c>
-      <c r="AF16" s="77" t="s">
-        <v>1719</v>
       </c>
       <c r="AH16" s="47">
         <v>0.4</v>
       </c>
       <c r="AJ16" s="77" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AK16" s="47">
         <v>0.1</v>
@@ -9659,22 +9696,22 @@
     </row>
     <row r="17" spans="1:37" ht="69" x14ac:dyDescent="0.25">
       <c r="A17" s="78" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>1465</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H17" s="70" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I17" s="70" t="s">
         <v>1652</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="J17" s="71" t="s">
         <v>1653</v>
-      </c>
-      <c r="J17" s="71" t="s">
-        <v>1654</v>
       </c>
       <c r="R17" s="47">
         <v>3</v>
@@ -9695,28 +9732,28 @@
         <v>5008</v>
       </c>
       <c r="X17" s="47" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Y17" s="73" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AA17" s="47" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AB17" s="47" t="s">
         <v>1559</v>
       </c>
-      <c r="Y17" s="73" t="s">
-        <v>1673</v>
-      </c>
-      <c r="AA17" s="47" t="s">
+      <c r="AC17" s="47" t="s">
         <v>1640</v>
       </c>
-      <c r="AB17" s="47" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AC17" s="47" t="s">
-        <v>1641</v>
-      </c>
       <c r="AD17" s="47" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AE17" s="47" t="s">
         <v>1587</v>
       </c>
-      <c r="AE17" s="47" t="s">
-        <v>1588</v>
-      </c>
       <c r="AF17" s="47" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="AG17" s="47">
         <v>0</v>
@@ -9725,7 +9762,7 @@
         <v>0.3</v>
       </c>
       <c r="AJ17" s="47" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="AK17" s="47">
         <v>0.1</v>
@@ -9733,25 +9770,25 @@
     </row>
     <row r="18" spans="1:37" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F18" s="70" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H18" s="70" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I18" s="70" t="s">
         <v>1658</v>
       </c>
-      <c r="I18" s="70" t="s">
+      <c r="J18" s="71" t="s">
+        <v>1662</v>
+      </c>
+      <c r="K18" s="70" t="s">
         <v>1659</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>1663</v>
-      </c>
-      <c r="K18" s="70" t="s">
-        <v>1660</v>
       </c>
       <c r="R18" s="47">
         <v>3</v>
@@ -9775,54 +9812,54 @@
         <v>1031</v>
       </c>
       <c r="AA18" s="47" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AB18" s="47" t="s">
+        <v>1660</v>
+      </c>
+      <c r="AC18" s="47" t="s">
         <v>1640</v>
       </c>
-      <c r="AB18" s="47" t="s">
-        <v>1661</v>
-      </c>
-      <c r="AC18" s="47" t="s">
-        <v>1641</v>
-      </c>
       <c r="AD18" s="47" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="AE18" s="47" t="s">
         <v>1483</v>
       </c>
       <c r="AF18" s="47" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="AG18" s="47">
         <v>300</v>
       </c>
       <c r="AJ18" s="47" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D19" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F19" s="74" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I19" s="74" t="s">
         <v>1678</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>1679</v>
       </c>
       <c r="R19" s="47">
         <v>3</v>
       </c>
       <c r="X19" s="47" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Y19" s="74" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="AE19" s="47" t="s">
         <v>1483</v>
@@ -9830,25 +9867,25 @@
     </row>
     <row r="20" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D20" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H20" s="74" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="R20" s="47">
         <v>3</v>
       </c>
       <c r="X20" s="47" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Y20" s="74" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="AE20" s="47" t="s">
         <v>1483</v>
@@ -9856,25 +9893,25 @@
     </row>
     <row r="21" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D21" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F21" s="74" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H21" s="74" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="R21" s="47">
         <v>3</v>
       </c>
       <c r="X21" s="47" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Y21" s="74" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="AE21" s="47" t="s">
         <v>1483</v>
@@ -9882,28 +9919,28 @@
     </row>
     <row r="22" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D22" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F22" s="74" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H22" s="74" t="s">
         <v>1690</v>
       </c>
-      <c r="H22" s="74" t="s">
-        <v>1691</v>
-      </c>
       <c r="I22" s="79" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="R22" s="47">
         <v>3</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Y22" s="74" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="AE22" s="47" t="s">
         <v>1483</v>
@@ -9911,28 +9948,28 @@
     </row>
     <row r="23" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D23" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F23" s="74" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H23" s="74" t="s">
         <v>1694</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="I23" s="74" t="s">
         <v>1695</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>1696</v>
       </c>
       <c r="R23" s="47">
         <v>3</v>
       </c>
       <c r="X23" s="47" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Y23" s="74" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="AE23" s="47" t="s">
         <v>1483</v>
@@ -9940,40 +9977,40 @@
     </row>
     <row r="24" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D24" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F24" s="74" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H24" s="74" t="s">
         <v>1698</v>
       </c>
-      <c r="H24" s="74" t="s">
+      <c r="I24" s="74" t="s">
         <v>1699</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="J24" s="75" t="s">
         <v>1700</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="K24" s="74" t="s">
         <v>1701</v>
       </c>
-      <c r="K24" s="74" t="s">
+      <c r="L24" s="74" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M24" s="74" t="s">
         <v>1702</v>
-      </c>
-      <c r="L24" s="74" t="s">
-        <v>1704</v>
-      </c>
-      <c r="M24" s="74" t="s">
-        <v>1703</v>
       </c>
       <c r="R24" s="47">
         <v>3</v>
       </c>
       <c r="X24" s="47" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Y24" s="74" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="AE24" s="47" t="s">
         <v>1483</v>
@@ -9981,28 +10018,28 @@
     </row>
     <row r="25" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D25" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F25" s="74" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I25" s="74" t="s">
         <v>1707</v>
-      </c>
-      <c r="H25" s="74" t="s">
-        <v>1709</v>
-      </c>
-      <c r="I25" s="74" t="s">
-        <v>1708</v>
       </c>
       <c r="R25" s="47">
         <v>3</v>
       </c>
       <c r="X25" s="47" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Y25" s="74" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="AE25" s="47" t="s">
         <v>1483</v>
@@ -10010,25 +10047,25 @@
     </row>
     <row r="26" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D26" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F26" s="76" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H26" s="76" t="s">
         <v>1711</v>
-      </c>
-      <c r="H26" s="76" t="s">
-        <v>1712</v>
       </c>
       <c r="R26" s="47">
         <v>3</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Y26" s="76" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="AE26" s="47" t="s">
         <v>1483</v>
@@ -10467,11 +10504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="AT1" sqref="AT1:AT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10510,8 +10547,7 @@
     <col min="43" max="43" width="10" style="36" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="21" style="7" customWidth="1"/>
     <col min="45" max="45" width="33.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="34.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="32.6640625" style="7" customWidth="1"/>
+    <col min="46" max="47" width="34.77734375" style="7" customWidth="1"/>
     <col min="48" max="55" width="6.77734375" style="7" customWidth="1"/>
     <col min="56" max="56" width="5.109375" style="7" customWidth="1"/>
     <col min="57" max="57" width="5.88671875" style="7" customWidth="1"/>
@@ -10674,7 +10710,7 @@
         <v>39</v>
       </c>
       <c r="BH1" s="23" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="BI1" s="10" t="s">
         <v>40</v>
@@ -10831,7 +10867,7 @@
         <v>1501</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="AQ2" s="33" t="s">
         <v>67</v>
@@ -10873,7 +10909,7 @@
         <v>1396</v>
       </c>
       <c r="BD2" s="10" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="BE2" s="10" t="s">
         <v>76</v>
@@ -10885,7 +10921,7 @@
         <v>78</v>
       </c>
       <c r="BH2" s="23" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="BI2" s="10" t="s">
         <v>79</v>
@@ -11036,14 +11072,14 @@
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,17,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,17,FALSE))</f>
         <v/>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AS3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AT3" s="19" t="str">
+      <c r="AT3" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AU3" s="19"/>
+      <c r="AU3" s="14"/>
       <c r="AV3" s="14">
         <v>5</v>
       </c>
@@ -11216,14 +11252,14 @@
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,17,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,17,FALSE))</f>
         <v/>
       </c>
-      <c r="AS4" s="19" t="s">
+      <c r="AS4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AT4" s="19" t="str">
+      <c r="AT4" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AU4" s="19"/>
+      <c r="AU4" s="14"/>
       <c r="AV4" s="14">
         <v>5</v>
       </c>
@@ -11306,7 +11342,7 @@
       <c r="F5" s="16" t="s">
         <v>1494</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="62" t="s">
         <v>1495</v>
       </c>
       <c r="H5" s="15"/>
@@ -11314,22 +11350,19 @@
         <v>0.7</v>
       </c>
       <c r="L5" s="5">
-        <v>6872</v>
+        <v>137</v>
       </c>
       <c r="M5" s="5">
-        <v>14948</v>
+        <v>138</v>
       </c>
       <c r="N5" s="5">
-        <v>18450</v>
+        <v>139</v>
       </c>
       <c r="O5" s="5">
-        <v>18451</v>
+        <v>140</v>
       </c>
       <c r="P5" s="5">
-        <v>13478</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>18455</v>
+        <v>141</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>1496</v>
@@ -11355,17 +11388,16 @@
         <v>305</v>
       </c>
       <c r="AQ5" s="35">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AR5" s="16"/>
       <c r="AS5" s="16" t="s">
         <v>1498</v>
       </c>
-      <c r="AT5" s="19" t="str">
-        <f>VLOOKUP("npc_dota_hero_"&amp;$D5,__OriginalData!$A$2:$W$122,19,FALSE)</f>
-        <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
-      </c>
-      <c r="AU5" s="19" t="s">
+      <c r="AT5" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU5" s="14" t="s">
         <v>1546</v>
       </c>
       <c r="AV5" s="16">
@@ -11469,22 +11501,19 @@
         <v>0.8</v>
       </c>
       <c r="L6" s="5">
-        <v>6872</v>
+        <v>8586</v>
       </c>
       <c r="M6" s="5">
-        <v>14948</v>
+        <v>8587</v>
       </c>
       <c r="N6" s="5">
-        <v>18450</v>
+        <v>8588</v>
       </c>
       <c r="O6" s="5">
-        <v>18451</v>
+        <v>8589</v>
       </c>
       <c r="P6" s="5">
-        <v>13478</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>18455</v>
+        <v>8590</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>1496</v>
@@ -11510,17 +11539,16 @@
         <v>305</v>
       </c>
       <c r="AQ6" s="35">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AR6" s="16"/>
       <c r="AS6" s="16" t="s">
         <v>1498</v>
       </c>
-      <c r="AT6" s="19" t="str">
-        <f>VLOOKUP("npc_dota_hero_"&amp;$D6,__OriginalData!$A$2:$W$122,19,FALSE)</f>
-        <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
-      </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AT6" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU6" s="14" t="s">
         <v>1546</v>
       </c>
       <c r="AV6" s="16">
@@ -11638,9 +11666,6 @@
       <c r="P7" s="5">
         <v>13478</v>
       </c>
-      <c r="Q7" s="5">
-        <v>18455</v>
-      </c>
       <c r="X7" s="5" t="s">
         <v>1496</v>
       </c>
@@ -11665,17 +11690,16 @@
         <v>305</v>
       </c>
       <c r="AQ7" s="35">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AR7" s="16"/>
       <c r="AS7" s="16" t="s">
         <v>1498</v>
       </c>
-      <c r="AT7" s="19" t="str">
-        <f>VLOOKUP("npc_dota_hero_"&amp;$D7,__OriginalData!$A$2:$W$122,19,FALSE)</f>
-        <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
-      </c>
-      <c r="AU7" s="19" t="s">
+      <c r="AT7" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU7" s="14" t="s">
         <v>1546</v>
       </c>
       <c r="AV7" s="16">
@@ -11754,7 +11778,7 @@
     </row>
     <row r="8" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B8" s="15">
         <v>1</v>
@@ -11763,7 +11787,7 @@
         <v>126</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -11803,7 +11827,7 @@
         <v>952</v>
       </c>
       <c r="AB8" s="47" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="AN8" s="16">
         <v>1</v>
@@ -11815,7 +11839,7 @@
         <v>330</v>
       </c>
       <c r="AQ8" s="35">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AR8" s="16"/>
       <c r="AS8" s="16" t="s">
@@ -11880,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="BR8" s="5">
         <v>24</v>
@@ -11903,7 +11927,7 @@
     </row>
     <row r="9" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B9" s="15">
         <v>1</v>
@@ -11912,7 +11936,7 @@
         <v>126</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E9" s="16">
         <v>2</v>
@@ -11952,7 +11976,7 @@
         <v>952</v>
       </c>
       <c r="AB9" s="47" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="AN9" s="16">
         <v>1</v>
@@ -11964,7 +11988,7 @@
         <v>330</v>
       </c>
       <c r="AQ9" s="35">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16" t="s">
@@ -12029,7 +12053,7 @@
         <v>1</v>
       </c>
       <c r="BQ9" s="5" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="BR9" s="5">
         <v>24</v>
@@ -12052,7 +12076,7 @@
     </row>
     <row r="10" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B10" s="15">
         <v>1</v>
@@ -12061,7 +12085,7 @@
         <v>126</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E10" s="16">
         <v>3</v>
@@ -12101,7 +12125,7 @@
         <v>952</v>
       </c>
       <c r="AB10" s="47" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="AN10" s="16">
         <v>1</v>
@@ -12113,7 +12137,7 @@
         <v>330</v>
       </c>
       <c r="AQ10" s="35">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AR10" s="16"/>
       <c r="AS10" s="16" t="s">
@@ -12178,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="BQ10" s="5" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="BR10" s="5">
         <v>24</v>
@@ -12201,7 +12225,7 @@
     </row>
     <row r="11" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B11" s="15">
         <v>1</v>
@@ -12210,7 +12234,7 @@
         <v>146</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -12218,8 +12242,8 @@
       <c r="F11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>617</v>
+      <c r="G11" s="62" t="s">
+        <v>1724</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16">
@@ -12256,23 +12280,23 @@
         <v>621</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="AN11" s="16">
         <v>1</v>
       </c>
       <c r="AO11" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP11" s="16">
         <v>280</v>
       </c>
       <c r="AQ11" s="35">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT11" s="16" t="s">
         <v>263</v>
@@ -12336,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="BQ11" s="45" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="BR11" s="5">
         <v>25</v>
@@ -12359,7 +12383,7 @@
     </row>
     <row r="12" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B12" s="15">
         <v>1</v>
@@ -12368,7 +12392,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E12" s="16">
         <v>2</v>
@@ -12414,23 +12438,23 @@
         <v>621</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="AN12" s="16">
         <v>1</v>
       </c>
       <c r="AO12" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP12" s="16">
         <v>280</v>
       </c>
       <c r="AQ12" s="35">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AR12" s="16"/>
       <c r="AS12" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT12" s="16" t="s">
         <v>263</v>
@@ -12494,7 +12518,7 @@
         <v>1</v>
       </c>
       <c r="BQ12" s="45" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="BR12" s="5">
         <v>25</v>
@@ -12517,7 +12541,7 @@
     </row>
     <row r="13" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B13" s="15">
         <v>1</v>
@@ -12526,7 +12550,7 @@
         <v>146</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E13" s="16">
         <v>3</v>
@@ -12572,23 +12596,23 @@
         <v>621</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="AN13" s="16">
         <v>1</v>
       </c>
       <c r="AO13" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP13" s="16">
         <v>280</v>
       </c>
       <c r="AQ13" s="35">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AR13" s="16"/>
       <c r="AS13" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT13" s="16" t="s">
         <v>263</v>
@@ -12652,7 +12676,7 @@
         <v>1</v>
       </c>
       <c r="BQ13" s="45" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="BR13" s="5">
         <v>25</v>
@@ -12675,16 +12699,16 @@
     </row>
     <row r="14" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>1627</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>1628</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
@@ -12693,7 +12717,7 @@
         <v>87</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16">
@@ -12724,23 +12748,23 @@
         <v>461</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="AN14" s="16">
         <v>1</v>
       </c>
       <c r="AO14" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP14" s="16">
         <v>290</v>
       </c>
       <c r="AQ14" s="35">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT14" s="16" t="s">
         <v>263</v>
@@ -12807,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="BQ14" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="BR14" s="5">
         <v>20</v>
@@ -12830,16 +12854,16 @@
     </row>
     <row r="15" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B15" s="15">
         <v>1</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D15" s="62" t="s">
         <v>1627</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>1628</v>
       </c>
       <c r="E15" s="16">
         <v>2</v>
@@ -12879,23 +12903,23 @@
         <v>461</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="AN15" s="16">
         <v>1</v>
       </c>
       <c r="AO15" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP15" s="16">
         <v>290</v>
       </c>
       <c r="AQ15" s="35">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AR15" s="16"/>
       <c r="AS15" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT15" s="16" t="s">
         <v>263</v>
@@ -12962,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="BQ15" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="BR15" s="5">
         <v>20</v>
@@ -12985,16 +13009,16 @@
     </row>
     <row r="16" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B16" s="15">
         <v>1</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D16" s="62" t="s">
         <v>1627</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>1628</v>
       </c>
       <c r="E16" s="16">
         <v>3</v>
@@ -13003,7 +13027,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="16">
@@ -13034,23 +13058,23 @@
         <v>461</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="AN16" s="16">
         <v>1</v>
       </c>
       <c r="AO16" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP16" s="16">
         <v>290</v>
       </c>
       <c r="AQ16" s="35">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AR16" s="16"/>
       <c r="AS16" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT16" s="16" t="s">
         <v>263</v>
@@ -13117,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="BQ16" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="BR16" s="5">
         <v>20</v>
@@ -13140,16 +13164,16 @@
     </row>
     <row r="17" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
       </c>
       <c r="C17" s="62" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D17" s="62" t="s">
         <v>1648</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>1649</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -13157,8 +13181,8 @@
       <c r="F17" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>1095</v>
+      <c r="G17" s="62" t="s">
+        <v>1725</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16">
@@ -13195,23 +13219,23 @@
         <v>1099</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AN17" s="16">
         <v>1</v>
       </c>
       <c r="AO17" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP17" s="16">
         <v>295</v>
       </c>
       <c r="AQ17" s="35">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AR17" s="16"/>
       <c r="AS17" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT17" s="16" t="s">
         <v>263</v>
@@ -13278,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="BQ17" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="BR17" s="5">
         <v>21</v>
@@ -13301,16 +13325,16 @@
     </row>
     <row r="18" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B18" s="15">
         <v>1</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E18" s="16">
         <v>2</v>
@@ -13353,23 +13377,23 @@
         <v>1099</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AN18" s="16">
         <v>1</v>
       </c>
       <c r="AO18" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP18" s="16">
         <v>295</v>
       </c>
       <c r="AQ18" s="35">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AR18" s="16"/>
       <c r="AS18" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT18" s="16" t="s">
         <v>263</v>
@@ -13436,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="BQ18" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="BR18" s="5">
         <v>21</v>
@@ -13459,16 +13483,16 @@
     </row>
     <row r="19" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B19" s="15">
         <v>1</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E19" s="16">
         <v>3</v>
@@ -13511,23 +13535,23 @@
         <v>1099</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AN19" s="16">
         <v>1</v>
       </c>
       <c r="AO19" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP19" s="16">
         <v>295</v>
       </c>
       <c r="AQ19" s="35">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AR19" s="16"/>
       <c r="AS19" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT19" s="16" t="s">
         <v>263</v>
@@ -13594,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="BQ19" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="BR19" s="5">
         <v>21</v>
@@ -13617,16 +13641,16 @@
     </row>
     <row r="20" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B20" s="15">
         <v>1</v>
       </c>
       <c r="C20" s="62" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D20" s="62" t="s">
         <v>1667</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>1668</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -13634,8 +13658,8 @@
       <c r="F20" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>1024</v>
+      <c r="G20" s="62" t="s">
+        <v>1726</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16">
@@ -13663,23 +13687,23 @@
         <v>1028</v>
       </c>
       <c r="AB20" s="45" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="AN20" s="16">
         <v>1</v>
       </c>
       <c r="AO20" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP20" s="16">
         <v>295</v>
       </c>
       <c r="AQ20" s="35">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AR20" s="16"/>
       <c r="AS20" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT20" s="16" t="s">
         <v>263</v>
@@ -13740,7 +13764,7 @@
         <v>1</v>
       </c>
       <c r="BQ20" s="5" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="BR20" s="5">
         <v>25</v>
@@ -13763,16 +13787,16 @@
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B21" s="15">
         <v>1</v>
       </c>
       <c r="C21" s="62" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D21" s="62" t="s">
         <v>1667</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>1668</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -13814,22 +13838,22 @@
         <v>1028</v>
       </c>
       <c r="AB21" s="45" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="AN21" s="16">
         <v>1</v>
       </c>
       <c r="AO21" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP21" s="16">
         <v>295</v>
       </c>
       <c r="AQ21" s="35">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AS21" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT21" s="16" t="s">
         <v>263</v>
@@ -13889,7 +13913,7 @@
         <v>1</v>
       </c>
       <c r="BQ21" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="BR21" s="72">
         <v>25</v>
@@ -13912,16 +13936,16 @@
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
       </c>
       <c r="C22" s="62" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D22" s="62" t="s">
         <v>1667</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>1668</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
@@ -13963,22 +13987,22 @@
         <v>1028</v>
       </c>
       <c r="AB22" s="45" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="AN22" s="16">
         <v>1</v>
       </c>
       <c r="AO22" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AP22" s="16">
         <v>295</v>
       </c>
       <c r="AQ22" s="35">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AS22" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AT22" s="16" t="s">
         <v>263</v>
@@ -14038,7 +14062,7 @@
         <v>1</v>
       </c>
       <c r="BQ22" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="BR22" s="72">
         <v>25</v>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D27EEC-00F4-4618-9AB7-53F499FA174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCEA578-D504-4951-BEFB-8C45019EBDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7104" yWindow="840" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10872" yWindow="912" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1728">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,11 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4863,22 +4863,22 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4924,7 +4924,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4940,7 +4940,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4987,7 +4987,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5013,7 +5013,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5030,30 +5030,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5105,7 +5105,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5151,7 +5151,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5253,7 +5253,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5270,15 +5270,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5295,11 +5295,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5319,21 +5319,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5349,7 +5349,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,15 +5365,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5439,7 +5439,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5461,11 +5461,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5481,7 +5481,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5497,7 +5497,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5513,7 +5513,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5529,7 +5529,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5545,7 +5545,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5580,35 +5580,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5633,7 +5633,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5652,7 +5652,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5668,7 +5668,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5684,7 +5684,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5700,7 +5700,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5716,7 +5716,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5729,7 +5729,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5752,7 +5752,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5769,7 +5769,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5786,7 +5786,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5803,11 +5803,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5826,7 +5826,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5842,7 +5842,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5858,7 +5858,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5883,7 +5883,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5899,7 +5899,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5915,7 +5915,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5925,38 +5925,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5973,23 +5973,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6005,7 +6005,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6021,27 +6021,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>okang 15 20 25</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>hujia 10 15 20</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6057,18 +6037,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6084,11 +6064,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6104,11 +6084,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6124,11 +6104,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6144,19 +6124,19 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6172,7 +6152,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6188,7 +6168,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6204,11 +6184,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6224,11 +6204,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6244,7 +6224,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6260,27 +6240,27 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>path_17</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_17</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6296,11 +6276,11 @@
       </rPr>
       <t>amage 30</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>jiansu -10 -20 -40</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6316,7 +6296,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6332,7 +6312,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6348,15 +6328,15 @@
       </rPr>
       <t xml:space="preserve"> 1000 2000 4000</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_hujia</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6372,30 +6352,30 @@
       </rPr>
       <t>amage 175 225 275</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ACT_DOTA_CAST_ABILITY_2</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Ability_lina_dragon_slave</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6411,11 +6391,11 @@
       </rPr>
       <t>hance 25</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6441,19 +6421,85 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/pudge/pudge.vmdl</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/zeus/zeus.vmdl</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/axe/axe.vmdl</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hujia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>okang 10 15 25</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6464,12 +6510,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6850,18 +6903,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6872,22 +6925,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6896,28 +6949,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6926,28 +6979,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6956,46 +7009,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7004,47 +7060,47 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8602,7 +8658,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8612,9 +8668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8910,7 +8966,7 @@
         <v>1553</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="R4" s="47">
         <v>3</v>
@@ -9028,10 +9084,10 @@
         <v>10</v>
       </c>
       <c r="U6" s="47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6" s="47">
         <v>5431</v>
@@ -9046,7 +9102,7 @@
         <v>1559</v>
       </c>
       <c r="AC6" s="79" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="AE6" s="61" t="s">
         <v>1592</v>
@@ -9308,7 +9364,7 @@
     </row>
     <row r="11" spans="1:38" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>1465</v>
@@ -9637,10 +9693,10 @@
         <v>1465</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="R16" s="47">
         <v>3</v>
@@ -9667,28 +9723,28 @@
         <v>1101</v>
       </c>
       <c r="AA16" s="47" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="AB16" s="47" t="s">
         <v>1559</v>
       </c>
       <c r="AC16" s="77" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="AD16" s="77" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="AE16" s="47" t="s">
         <v>1587</v>
       </c>
       <c r="AF16" s="77" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="AH16" s="47">
         <v>0.4</v>
       </c>
       <c r="AJ16" s="77" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="AK16" s="47">
         <v>0.1</v>
@@ -9846,20 +9902,20 @@
       <c r="F19" s="74" t="s">
         <v>1677</v>
       </c>
-      <c r="H19" s="74" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>1678</v>
+      <c r="H19" s="81" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>1727</v>
       </c>
       <c r="R19" s="47">
         <v>3</v>
       </c>
       <c r="X19" s="47" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="Y19" s="74" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="AE19" s="47" t="s">
         <v>1483</v>
@@ -9867,25 +9923,25 @@
     </row>
     <row r="20" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D20" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="H20" s="74" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="R20" s="47">
         <v>3</v>
       </c>
       <c r="X20" s="47" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="Y20" s="74" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="AE20" s="47" t="s">
         <v>1483</v>
@@ -9893,25 +9949,25 @@
     </row>
     <row r="21" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D21" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F21" s="74" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="H21" s="74" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="R21" s="47">
         <v>3</v>
       </c>
       <c r="X21" s="47" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="Y21" s="74" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="AE21" s="47" t="s">
         <v>1483</v>
@@ -9919,28 +9975,28 @@
     </row>
     <row r="22" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D22" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="H22" s="74" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="I22" s="79" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="R22" s="47">
         <v>3</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="Y22" s="74" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="AE22" s="47" t="s">
         <v>1483</v>
@@ -9948,28 +10004,28 @@
     </row>
     <row r="23" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D23" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F23" s="74" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H23" s="74" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I23" s="74" t="s">
         <v>1693</v>
-      </c>
-      <c r="H23" s="74" t="s">
-        <v>1694</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>1695</v>
       </c>
       <c r="R23" s="47">
         <v>3</v>
       </c>
       <c r="X23" s="47" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="Y23" s="74" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="AE23" s="47" t="s">
         <v>1483</v>
@@ -9977,40 +10033,40 @@
     </row>
     <row r="24" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D24" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F24" s="74" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H24" s="74" t="s">
+        <v>1696</v>
+      </c>
+      <c r="I24" s="74" t="s">
         <v>1697</v>
       </c>
-      <c r="H24" s="74" t="s">
+      <c r="J24" s="75" t="s">
         <v>1698</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="K24" s="74" t="s">
         <v>1699</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="L24" s="74" t="s">
+        <v>1701</v>
+      </c>
+      <c r="M24" s="74" t="s">
         <v>1700</v>
-      </c>
-      <c r="K24" s="74" t="s">
-        <v>1701</v>
-      </c>
-      <c r="L24" s="74" t="s">
-        <v>1703</v>
-      </c>
-      <c r="M24" s="74" t="s">
-        <v>1702</v>
       </c>
       <c r="R24" s="47">
         <v>3</v>
       </c>
       <c r="X24" s="47" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="Y24" s="74" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="AE24" s="47" t="s">
         <v>1483</v>
@@ -10018,28 +10074,28 @@
     </row>
     <row r="25" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D25" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F25" s="74" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H25" s="74" t="s">
         <v>1706</v>
       </c>
-      <c r="H25" s="74" t="s">
-        <v>1708</v>
-      </c>
       <c r="I25" s="74" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="R25" s="47">
         <v>3</v>
       </c>
       <c r="X25" s="47" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="Y25" s="74" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AE25" s="47" t="s">
         <v>1483</v>
@@ -10047,32 +10103,32 @@
     </row>
     <row r="26" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D26" s="70" t="s">
         <v>1465</v>
       </c>
       <c r="F26" s="76" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="H26" s="76" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="R26" s="47">
         <v>3</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="Y26" s="76" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="AE26" s="47" t="s">
         <v>1483</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10283,7 +10339,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10494,7 +10550,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10504,11 +10560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT1" sqref="AT1:AT1048576"/>
+      <selection pane="bottomRight" activeCell="BE5" sqref="BE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11407,7 +11463,7 @@
         <v>25</v>
       </c>
       <c r="AX5" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY5" s="16">
         <v>0</v>
@@ -11558,7 +11614,7 @@
         <v>25</v>
       </c>
       <c r="AX6" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY6" s="16">
         <v>0</v>
@@ -11709,7 +11765,7 @@
         <v>25</v>
       </c>
       <c r="AX7" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY7" s="16">
         <v>0</v>
@@ -11858,7 +11914,7 @@
         <v>24</v>
       </c>
       <c r="AX8" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY8" s="16">
         <v>0</v>
@@ -12007,7 +12063,7 @@
         <v>24</v>
       </c>
       <c r="AX9" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY9" s="16">
         <v>0</v>
@@ -12156,7 +12212,7 @@
         <v>24</v>
       </c>
       <c r="AX10" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY10" s="16">
         <v>0</v>
@@ -12243,7 +12299,7 @@
         <v>87</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16">
@@ -12311,7 +12367,7 @@
         <v>24</v>
       </c>
       <c r="AX11" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY11" s="16">
         <v>0</v>
@@ -12469,7 +12525,7 @@
         <v>24</v>
       </c>
       <c r="AX12" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY12" s="16">
         <v>0</v>
@@ -12627,7 +12683,7 @@
         <v>24</v>
       </c>
       <c r="AX13" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY13" s="16">
         <v>0</v>
@@ -12779,7 +12835,7 @@
         <v>24</v>
       </c>
       <c r="AX14" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY14" s="16">
         <v>0</v>
@@ -12934,7 +12990,7 @@
         <v>24</v>
       </c>
       <c r="AX15" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY15" s="16">
         <v>0</v>
@@ -13034,7 +13090,7 @@
         <v>0.9</v>
       </c>
       <c r="L16" s="5">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="M16" s="5">
         <v>4794</v>
@@ -13047,6 +13103,9 @@
       </c>
       <c r="P16" s="5">
         <v>504</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>14251</v>
       </c>
       <c r="X16" s="5" t="s">
         <v>458</v>
@@ -13089,7 +13148,7 @@
         <v>24</v>
       </c>
       <c r="AX16" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY16" s="16">
         <v>0</v>
@@ -13129,7 +13188,7 @@
         <v>60</v>
       </c>
       <c r="BL16" s="5" t="s">
-        <v>466</v>
+        <v>1725</v>
       </c>
       <c r="BM16" s="5">
         <v>1000</v>
@@ -13182,7 +13241,7 @@
         <v>87</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16">
@@ -13250,7 +13309,7 @@
         <v>24</v>
       </c>
       <c r="AX17" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY17" s="16">
         <v>0</v>
@@ -13408,7 +13467,7 @@
         <v>24</v>
       </c>
       <c r="AX18" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY18" s="16">
         <v>0</v>
@@ -13566,7 +13625,7 @@
         <v>24</v>
       </c>
       <c r="AX19" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY19" s="16">
         <v>0</v>
@@ -13659,7 +13718,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16">
@@ -13718,7 +13777,7 @@
         <v>24</v>
       </c>
       <c r="AX20" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY20" s="16">
         <v>0</v>
@@ -13868,7 +13927,7 @@
         <v>24</v>
       </c>
       <c r="AX21" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY21" s="16">
         <v>0</v>
@@ -14017,7 +14076,7 @@
         <v>24</v>
       </c>
       <c r="AX22" s="16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AY22" s="16">
         <v>0</v>
@@ -14085,7 +14144,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -23197,7 +23256,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCEA578-D504-4951-BEFB-8C45019EBDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1FE4A-17EC-43F8-92A6-6DEE3AF0325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10872" yWindow="912" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8556" yWindow="900" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1750">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,11 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4863,22 +4863,22 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4924,7 +4924,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4940,7 +4940,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4987,7 +4987,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5013,7 +5013,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5030,30 +5030,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5105,7 +5105,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5151,7 +5151,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5253,7 +5253,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5270,15 +5270,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5295,11 +5295,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5319,21 +5319,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5349,7 +5349,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,15 +5365,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5439,7 +5439,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5461,11 +5461,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5481,7 +5481,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5497,7 +5497,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5513,7 +5513,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5529,7 +5529,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5545,7 +5545,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5580,35 +5580,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5633,7 +5633,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5652,7 +5652,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5668,7 +5668,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5684,7 +5684,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5700,7 +5700,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5716,7 +5716,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5729,7 +5729,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5752,7 +5752,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5769,7 +5769,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5786,7 +5786,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5803,11 +5803,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5826,7 +5826,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5842,7 +5842,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5858,7 +5858,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5883,7 +5883,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5899,7 +5899,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5915,7 +5915,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5925,38 +5925,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5973,23 +5973,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6005,7 +6005,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6021,7 +6021,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6037,18 +6037,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6064,11 +6064,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6084,11 +6084,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6104,11 +6104,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6124,19 +6124,19 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6152,7 +6152,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6168,7 +6168,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6184,11 +6184,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6204,11 +6204,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6224,7 +6224,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6240,27 +6240,27 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>path_17</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_17</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6276,11 +6276,11 @@
       </rPr>
       <t>amage 30</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>jiansu -10 -20 -40</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6296,7 +6296,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6312,7 +6312,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6328,15 +6328,15 @@
       </rPr>
       <t xml:space="preserve"> 1000 2000 4000</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_hujia</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6352,30 +6352,30 @@
       </rPr>
       <t>amage 175 225 275</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ACT_DOTA_CAST_ABILITY_2</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Ability_lina_dragon_slave</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6391,11 +6391,11 @@
       </rPr>
       <t>hance 25</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6421,23 +6421,23 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/pudge/pudge.vmdl</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/zeus/zeus.vmdl</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/axe/axe.vmdl</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6483,7 +6483,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6499,7 +6499,358 @@
       </rPr>
       <t>okang 10 15 25</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>rune_0</t>
+  </si>
+  <si>
+    <r>
+      <t>rune_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rune_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>rune_4</t>
+  </si>
+  <si>
+    <r>
+      <t>rune_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>rune_6</t>
+  </si>
+  <si>
+    <t>rune_8</t>
+  </si>
+  <si>
+    <r>
+      <t>rune_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ability/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rune_0</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uration 2</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability/rune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rune_1</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability/rune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rune_3</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability/rune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rune_4</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability/rune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rune_5</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability/rune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rune_6</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability/rune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rune_9</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability/rune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rune_8</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold 500</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dsub 1</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anasub 1</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp 5</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield 50</t>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6510,12 +6861,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6903,18 +7261,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6925,22 +7283,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6949,28 +7307,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6979,28 +7337,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7009,46 +7367,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7057,47 +7418,47 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7116,6 +7477,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7164,12 +7526,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -7194,12 +7556,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -7303,7 +7665,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7317,21 +7693,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8658,7 +9020,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8666,11 +9028,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V6" sqref="V6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10127,8 +10490,174 @@
         <v>1483</v>
       </c>
     </row>
+    <row r="27" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F27" s="82" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R27" s="47">
+        <v>1</v>
+      </c>
+      <c r="X27" s="47" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="82" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R28" s="47">
+        <v>1</v>
+      </c>
+      <c r="X28" s="47" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="82" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H29" s="82" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R29" s="47">
+        <v>1</v>
+      </c>
+      <c r="X29" s="47" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F30" s="82" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H30" s="82" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R30" s="47">
+        <v>1</v>
+      </c>
+      <c r="X30" s="47" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F31" s="82" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H31" s="82" t="s">
+        <v>1745</v>
+      </c>
+      <c r="R31" s="47">
+        <v>1</v>
+      </c>
+      <c r="X31" s="47" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F32" s="82" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H32" s="82" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I32" s="82" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J32" s="83" t="s">
+        <v>1747</v>
+      </c>
+      <c r="R32" s="47">
+        <v>1</v>
+      </c>
+      <c r="X32" s="47" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D33" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F33" s="82" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H33" s="82" t="s">
+        <v>1748</v>
+      </c>
+      <c r="R33" s="47">
+        <v>1</v>
+      </c>
+      <c r="X33" s="47" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="82" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F34" s="82" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H34" s="82" t="s">
+        <v>1749</v>
+      </c>
+      <c r="R34" s="47">
+        <v>1</v>
+      </c>
+      <c r="X34" s="47" t="s">
+        <v>1679</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10339,7 +10868,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10550,7 +11079,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10558,13 +11087,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW22"/>
+  <dimension ref="A1:BY22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BE5" sqref="BE5"/>
+      <selection pane="bottomRight" activeCell="BT7" sqref="BT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10621,6 +11150,8 @@
     <col min="73" max="73" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:75" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11463,7 +11994,7 @@
         <v>25</v>
       </c>
       <c r="AX5" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY5" s="16">
         <v>0</v>
@@ -11614,7 +12145,7 @@
         <v>25</v>
       </c>
       <c r="AX6" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY6" s="16">
         <v>0</v>
@@ -11765,7 +12296,7 @@
         <v>25</v>
       </c>
       <c r="AX7" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY7" s="16">
         <v>0</v>
@@ -11914,7 +12445,7 @@
         <v>24</v>
       </c>
       <c r="AX8" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY8" s="16">
         <v>0</v>
@@ -12063,7 +12594,7 @@
         <v>24</v>
       </c>
       <c r="AX9" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY9" s="16">
         <v>0</v>
@@ -12212,7 +12743,7 @@
         <v>24</v>
       </c>
       <c r="AX10" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY10" s="16">
         <v>0</v>
@@ -12367,7 +12898,7 @@
         <v>24</v>
       </c>
       <c r="AX11" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY11" s="16">
         <v>0</v>
@@ -12525,7 +13056,7 @@
         <v>24</v>
       </c>
       <c r="AX12" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY12" s="16">
         <v>0</v>
@@ -12683,7 +13214,7 @@
         <v>24</v>
       </c>
       <c r="AX13" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY13" s="16">
         <v>0</v>
@@ -12835,7 +13366,7 @@
         <v>24</v>
       </c>
       <c r="AX14" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY14" s="16">
         <v>0</v>
@@ -12990,7 +13521,7 @@
         <v>24</v>
       </c>
       <c r="AX15" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY15" s="16">
         <v>0</v>
@@ -13148,7 +13679,7 @@
         <v>24</v>
       </c>
       <c r="AX16" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY16" s="16">
         <v>0</v>
@@ -13221,7 +13752,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>1644</v>
       </c>
@@ -13309,7 +13840,7 @@
         <v>24</v>
       </c>
       <c r="AX17" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY17" s="16">
         <v>0</v>
@@ -13382,7 +13913,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>1645</v>
       </c>
@@ -13467,7 +13998,7 @@
         <v>24</v>
       </c>
       <c r="AX18" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY18" s="16">
         <v>0</v>
@@ -13540,7 +14071,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="19" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>1646</v>
       </c>
@@ -13625,7 +14156,7 @@
         <v>24</v>
       </c>
       <c r="AX19" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY19" s="16">
         <v>0</v>
@@ -13698,7 +14229,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="20" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>1663</v>
       </c>
@@ -13777,7 +14308,7 @@
         <v>24</v>
       </c>
       <c r="AX20" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY20" s="16">
         <v>0</v>
@@ -13844,7 +14375,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>1664</v>
       </c>
@@ -13927,7 +14458,7 @@
         <v>24</v>
       </c>
       <c r="AX21" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY21" s="16">
         <v>0</v>
@@ -13992,8 +14523,10 @@
       <c r="BW21" s="5">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX21" s="5"/>
+      <c r="BY21" s="5"/>
+    </row>
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>1665</v>
       </c>
@@ -14076,7 +14609,7 @@
         <v>24</v>
       </c>
       <c r="AX22" s="16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AY22" s="16">
         <v>0</v>
@@ -14141,10 +14674,12 @@
       <c r="BW22" s="5">
         <v>2.6</v>
       </c>
+      <c r="BX22" s="5"/>
+      <c r="BY22" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -14159,20 +14694,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="30" priority="1797" operator="equal">
-      <formula>"water"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="1793" operator="equal">
+      <formula>"metal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="1796" operator="equal">
-      <formula>"wood"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="1794" operator="equal">
+      <formula>"earth"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="1795" operator="equal">
       <formula>"fire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="1794" operator="equal">
-      <formula>"earth"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="1796" operator="equal">
+      <formula>"wood"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1793" operator="equal">
-      <formula>"metal"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="1797" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E21">
@@ -14238,11 +14773,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="containsText" dxfId="11" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="11" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
@@ -14256,11 +14791,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BJ4">
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BM2">
@@ -14300,7 +14835,7 @@
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23256,7 +23791,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1FE4A-17EC-43F8-92A6-6DEE3AF0325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2882D3BA-21DE-4067-8EF0-B504F3BAECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8556" yWindow="900" windowWidth="19068" windowHeight="15564" tabRatio="623" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11604" yWindow="2160" windowWidth="19068" windowHeight="13248" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="1762">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,11 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4863,22 +4863,22 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4924,7 +4924,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4940,7 +4940,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4987,7 +4987,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5013,7 +5013,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5030,30 +5030,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5105,7 +5105,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5151,7 +5151,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5253,7 +5253,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5270,15 +5270,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5295,11 +5295,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5319,21 +5319,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5349,7 +5349,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,15 +5365,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5439,7 +5439,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5461,11 +5461,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5481,7 +5481,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5497,7 +5497,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5513,7 +5513,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5529,7 +5529,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5545,7 +5545,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5580,35 +5580,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5633,7 +5633,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5652,7 +5652,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5668,7 +5668,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5684,7 +5684,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5700,7 +5700,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5716,7 +5716,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5729,7 +5729,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5752,7 +5752,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5769,7 +5769,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5786,7 +5786,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5803,11 +5803,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5826,7 +5826,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5842,7 +5842,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5858,7 +5858,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5883,7 +5883,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5899,7 +5899,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5915,7 +5915,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5925,38 +5925,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5973,23 +5973,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6005,7 +6005,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6021,7 +6021,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6037,18 +6037,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6064,11 +6064,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6084,11 +6084,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6104,11 +6104,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6124,19 +6124,19 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6152,7 +6152,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6168,7 +6168,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6184,11 +6184,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6204,11 +6204,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6224,7 +6224,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6240,27 +6240,27 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>path_17</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_17</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6276,11 +6276,11 @@
       </rPr>
       <t>amage 30</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>jiansu -10 -20 -40</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6296,7 +6296,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6312,7 +6312,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6328,15 +6328,15 @@
       </rPr>
       <t xml:space="preserve"> 1000 2000 4000</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_hujia</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6352,30 +6352,30 @@
       </rPr>
       <t>amage 175 225 275</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ACT_DOTA_CAST_ABILITY_2</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Ability_lina_dragon_slave</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6391,11 +6391,11 @@
       </rPr>
       <t>hance 25</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6421,23 +6421,23 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/pudge/pudge.vmdl</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/zeus/zeus.vmdl</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/axe/axe.vmdl</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6483,7 +6483,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6499,7 +6499,7 @@
       </rPr>
       <t>okang 10 15 25</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>rune_0</t>
@@ -6518,7 +6518,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6608,7 +6608,7 @@
       </rPr>
       <t>rune_0</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6624,7 +6624,7 @@
       </rPr>
       <t>uration 2</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6650,7 +6650,7 @@
       </rPr>
       <t>rune_1</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6676,7 +6676,7 @@
       </rPr>
       <t>rune_3</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6702,7 +6702,7 @@
       </rPr>
       <t>rune_4</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6728,7 +6728,7 @@
       </rPr>
       <t>rune_5</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6754,7 +6754,7 @@
       </rPr>
       <t>rune_6</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6780,7 +6780,7 @@
       </rPr>
       <t>rune_9</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6806,11 +6806,11 @@
       </rPr>
       <t>rune_8</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>gold 500</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6826,7 +6826,7 @@
       </rPr>
       <t>dsub 1</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6842,15 +6842,80 @@
       </rPr>
       <t>anasub 1</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>exp 5</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>shield 50</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_tp_scroll</t>
+    </r>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ability/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>items/item_tp_scroll</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_tpscroll</t>
+  </si>
+  <si>
+    <t>ITEM_FULLY_SHAREABLE</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/tpscroll01.vmdl</t>
+  </si>
+  <si>
+    <t>ItemSellable</t>
+  </si>
+  <si>
+    <t>可否出售</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemDisplayCharges</t>
+  </si>
+  <si>
+    <t>显示充能</t>
+  </si>
+  <si>
+    <t>ItemQuality</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>consumable</t>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6861,12 +6926,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7261,18 +7333,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7283,22 +7355,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7307,28 +7379,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7337,28 +7409,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="32" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7367,46 +7439,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7415,47 +7490,47 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7474,10 +7549,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9020,7 +9106,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9031,9 +9117,9 @@
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10657,7 +10743,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10665,20 +10751,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB13AB9-1417-4C41-848B-F3B8563F927C}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.77734375" style="38"/>
+    <col min="1" max="1" width="23" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" style="38"/>
     <col min="5" max="5" width="11.109375" style="38" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="38"/>
+    <col min="6" max="14" width="8.77734375" style="38"/>
+    <col min="15" max="15" width="9.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" style="38" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" style="38" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.44140625" style="38" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.77734375" style="38"/>
+    <col min="26" max="26" width="9.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="16" style="38" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" style="38" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.44140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.44140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.44140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.77734375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>1457</v>
       </c>
@@ -10700,53 +10808,62 @@
       <c r="Q1" s="38" t="s">
         <v>1451</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="84" t="s">
+        <v>1756</v>
+      </c>
+      <c r="S1" s="38" t="s">
         <v>1450</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="T1" s="89" t="s">
+        <v>1760</v>
+      </c>
+      <c r="U1" s="38" t="s">
         <v>1449</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="V1" s="60" t="s">
+        <v>1758</v>
+      </c>
+      <c r="W1" s="38" t="s">
         <v>1448</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>1447</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="Y1" s="38" t="s">
         <v>1446</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>1445</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="AA1" s="38" t="s">
         <v>1444</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>1443</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>1442</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>1441</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>1440</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>1439</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AG1" s="38" t="s">
         <v>1438</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>1437</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AI1" s="38" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1435</v>
       </c>
@@ -10798,50 +10915,59 @@
       <c r="Q2" s="39" t="s">
         <v>1419</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="87" t="s">
+        <v>1755</v>
+      </c>
+      <c r="S2" s="39" t="s">
         <v>1418</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="T2" s="87" t="s">
+        <v>1759</v>
+      </c>
+      <c r="U2" s="39" t="s">
         <v>1417</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="V2" s="88" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W2" s="39" t="s">
         <v>1416</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="X2" s="39" t="s">
         <v>1415</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="Y2" s="39" t="s">
         <v>1414</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="Z2" s="38" t="s">
         <v>1413</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="AA2" s="38" t="s">
         <v>1412</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="AB2" s="38" t="s">
         <v>1411</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="AC2" s="38" t="s">
         <v>1410</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AD2" s="38" t="s">
         <v>1409</v>
       </c>
-      <c r="AB2" s="38" t="s">
+      <c r="AE2" s="38" t="s">
         <v>1408</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AF2" s="38" t="s">
         <v>1407</v>
       </c>
-      <c r="AD2" s="38" t="s">
+      <c r="AG2" s="38" t="s">
         <v>1406</v>
       </c>
-      <c r="AE2" s="38" t="s">
+      <c r="AH2" s="38" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>1404</v>
       </c>
@@ -10857,20 +10983,70 @@
       <c r="G3" s="38" t="s">
         <v>1400</v>
       </c>
-      <c r="W3" s="38">
+      <c r="Z3" s="38">
         <v>2</v>
       </c>
-      <c r="X3" s="42" t="s">
+      <c r="AA3" s="42" t="s">
         <v>1478</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="AB3" s="38" t="s">
         <v>1399</v>
       </c>
     </row>
+    <row r="4" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>1753</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>0</v>
+      </c>
+      <c r="R4" s="38">
+        <v>0</v>
+      </c>
+      <c r="S4" s="38">
+        <v>0</v>
+      </c>
+      <c r="T4" s="84" t="s">
+        <v>1761</v>
+      </c>
+      <c r="U4" s="38">
+        <v>1</v>
+      </c>
+      <c r="V4" s="38">
+        <v>1</v>
+      </c>
+      <c r="W4" s="38">
+        <v>1</v>
+      </c>
+      <c r="X4" s="38" t="s">
+        <v>1754</v>
+      </c>
+      <c r="AA4" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="85" t="s">
+        <v>1752</v>
+      </c>
+      <c r="AD4" s="47" t="s">
+        <v>1618</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11079,7 +11255,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -11089,7 +11265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -14679,7 +14855,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -23791,7 +23967,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2882D3BA-21DE-4067-8EF0-B504F3BAECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567307F5-1E22-4614-83A1-576D761C8A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11604" yWindow="2160" windowWidth="19068" windowHeight="13248" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1212" windowWidth="19068" windowHeight="13248" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1777">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,11 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4863,22 +4863,22 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4924,7 +4924,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4940,7 +4940,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4987,7 +4987,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5013,7 +5013,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5030,30 +5030,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5105,7 +5105,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5151,7 +5151,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5253,7 +5253,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5270,15 +5270,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5295,11 +5295,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5319,21 +5319,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5349,7 +5349,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,15 +5365,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5439,7 +5439,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5461,11 +5461,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5481,7 +5481,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5497,7 +5497,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5513,7 +5513,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5529,7 +5529,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5545,7 +5545,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5580,35 +5580,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5633,7 +5633,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5652,7 +5652,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5668,7 +5668,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5684,7 +5684,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5700,7 +5700,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5716,7 +5716,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5729,7 +5729,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5752,7 +5752,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5769,7 +5769,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5786,7 +5786,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5803,11 +5803,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5826,7 +5826,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5842,7 +5842,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5858,7 +5858,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5883,7 +5883,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5899,7 +5899,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5915,7 +5915,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5925,38 +5925,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5973,23 +5973,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6005,7 +6005,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6021,7 +6021,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6037,18 +6037,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6064,11 +6064,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6084,11 +6084,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6104,11 +6104,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6124,19 +6124,19 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6152,7 +6152,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6168,7 +6168,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6184,11 +6184,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6204,11 +6204,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6224,7 +6224,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6240,27 +6240,27 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>path_17</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_17</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6276,11 +6276,11 @@
       </rPr>
       <t>amage 30</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>jiansu -10 -20 -40</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6296,7 +6296,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6312,7 +6312,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6328,15 +6328,15 @@
       </rPr>
       <t xml:space="preserve"> 1000 2000 4000</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_hujia</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6352,30 +6352,30 @@
       </rPr>
       <t>amage 175 225 275</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ACT_DOTA_CAST_ABILITY_2</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Ability_lina_dragon_slave</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6391,11 +6391,11 @@
       </rPr>
       <t>hance 25</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6421,23 +6421,23 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/pudge/pudge.vmdl</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/zeus/zeus.vmdl</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/axe/axe.vmdl</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6483,7 +6483,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6499,7 +6499,7 @@
       </rPr>
       <t>okang 10 15 25</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>rune_0</t>
@@ -6518,7 +6518,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6608,7 +6608,7 @@
       </rPr>
       <t>rune_0</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6624,7 +6624,7 @@
       </rPr>
       <t>uration 2</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6650,7 +6650,7 @@
       </rPr>
       <t>rune_1</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6676,7 +6676,7 @@
       </rPr>
       <t>rune_3</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6702,7 +6702,7 @@
       </rPr>
       <t>rune_4</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6728,7 +6728,7 @@
       </rPr>
       <t>rune_5</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6754,7 +6754,7 @@
       </rPr>
       <t>rune_6</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6780,7 +6780,7 @@
       </rPr>
       <t>rune_9</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6806,11 +6806,11 @@
       </rPr>
       <t>rune_8</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>gold 500</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6826,7 +6826,7 @@
       </rPr>
       <t>dsub 1</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6842,15 +6842,48 @@
       </rPr>
       <t>anasub 1</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>exp 5</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>shield 50</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_tpscroll</t>
+  </si>
+  <si>
+    <t>ITEM_FULLY_SHAREABLE</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/tpscroll01.vmdl</t>
+  </si>
+  <si>
+    <t>ItemSellable</t>
+  </si>
+  <si>
+    <t>可否出售</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemDisplayCharges</t>
+  </si>
+  <si>
+    <t>显示充能</t>
+  </si>
+  <si>
+    <t>ItemQuality</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>consumable</t>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6864,13 +6897,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_tp_scroll</t>
+      <t>_gtg_tpscroll</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>ability/</t>
+      <t>item_</t>
     </r>
     <r>
       <rPr>
@@ -6880,42 +6913,137 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>items/item_tp_scroll</t>
+      <t>qtg_</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_tpscroll</t>
-  </si>
-  <si>
-    <t>ITEM_FULLY_SHAREABLE</t>
-  </si>
-  <si>
-    <t>models/props_gameplay/tpscroll01.vmdl</t>
-  </si>
-  <si>
-    <t>ItemSellable</t>
-  </si>
-  <si>
-    <t>可否出售</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemDisplayCharges</t>
-  </si>
-  <si>
-    <t>显示充能</t>
-  </si>
-  <si>
-    <t>ItemQuality</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量</t>
-  </si>
-  <si>
-    <t>consumable</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blink</t>
+    </r>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tem_blink</t>
+    </r>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/items/item_qtg_tpscroll</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>item/items/item_qtg_blink</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are</t>
+    </r>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_qtg_arcane_boots</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/items/item_qtg_arcane_boots</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onus_movement 20</t>
+    </r>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onus_mana 2</t>
+    </r>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_arcane_boots</t>
+  </si>
+  <si>
+    <t>replenish_hero 4</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>replenish_bz 40</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_boots</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_movement_speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6926,12 +7054,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7333,18 +7468,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7355,22 +7490,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7379,28 +7514,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7409,28 +7544,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="32" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="33" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7439,46 +7574,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7487,47 +7625,47 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7546,22 +7684,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9106,7 +9248,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9116,10 +9258,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10743,7 +10885,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10751,17 +10893,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB13AB9-1417-4C41-848B-F3B8563F927C}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.77734375" style="38"/>
+    <col min="3" max="3" width="15.44140625" style="91" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="38"/>
     <col min="5" max="5" width="11.109375" style="38" customWidth="1"/>
     <col min="6" max="14" width="8.77734375" style="38"/>
     <col min="15" max="15" width="9.109375" style="38" bestFit="1" customWidth="1"/>
@@ -10793,7 +10936,7 @@
       <c r="B1" s="38" t="s">
         <v>1456</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="91" t="s">
         <v>1455</v>
       </c>
       <c r="D1" s="38" t="s">
@@ -10809,19 +10952,19 @@
         <v>1451</v>
       </c>
       <c r="R1" s="84" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="S1" s="38" t="s">
         <v>1450</v>
       </c>
-      <c r="T1" s="89" t="s">
-        <v>1760</v>
+      <c r="T1" s="88" t="s">
+        <v>1758</v>
       </c>
       <c r="U1" s="38" t="s">
         <v>1449</v>
       </c>
       <c r="V1" s="60" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="W1" s="38" t="s">
         <v>1448</v>
@@ -10870,7 +11013,7 @@
       <c r="B2" s="38" t="s">
         <v>1434</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="91" t="s">
         <v>1433</v>
       </c>
       <c r="D2" s="38" t="s">
@@ -10915,20 +11058,20 @@
       <c r="Q2" s="39" t="s">
         <v>1419</v>
       </c>
-      <c r="R2" s="87" t="s">
-        <v>1755</v>
+      <c r="R2" s="86" t="s">
+        <v>1753</v>
       </c>
       <c r="S2" s="39" t="s">
         <v>1418</v>
       </c>
-      <c r="T2" s="87" t="s">
-        <v>1759</v>
+      <c r="T2" s="86" t="s">
+        <v>1757</v>
       </c>
       <c r="U2" s="39" t="s">
         <v>1417</v>
       </c>
-      <c r="V2" s="88" t="s">
-        <v>1757</v>
+      <c r="V2" s="87" t="s">
+        <v>1755</v>
       </c>
       <c r="W2" s="39" t="s">
         <v>1416</v>
@@ -10994,18 +11137,18 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>1750</v>
+      <c r="A4" s="89" t="s">
+        <v>1760</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>1403</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="90" t="s">
+        <v>1763</v>
+      </c>
+      <c r="P4" s="38" t="s">
         <v>1751</v>
       </c>
-      <c r="P4" s="38" t="s">
-        <v>1753</v>
-      </c>
       <c r="Q4" s="38">
         <v>0</v>
       </c>
@@ -11016,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="84" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="U4" s="38">
         <v>1</v>
@@ -11028,23 +11171,95 @@
         <v>1</v>
       </c>
       <c r="X4" s="38" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="AA4" s="38">
         <v>1</v>
       </c>
       <c r="AB4" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="85" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="AD4" s="47" t="s">
         <v>1618</v>
       </c>
     </row>
+    <row r="5" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>1765</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AA5" s="38">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="89" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AD5" s="47" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C6" s="90"/>
+      <c r="E6" s="89" t="s">
+        <v>1776</v>
+      </c>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="47"/>
+    </row>
+    <row r="7" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>1773</v>
+      </c>
+      <c r="T7" s="89" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AA7" s="38">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="89" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AD7" s="89" t="s">
+        <v>1774</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11255,7 +11470,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -14855,7 +15070,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -23967,7 +24182,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567307F5-1E22-4614-83A1-576D761C8A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2D62B0-C357-4B3D-B97E-981795CAFEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1212" windowWidth="19068" windowHeight="13248" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7536" yWindow="1572" windowWidth="19068" windowHeight="13248" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="1794">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,11 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4863,22 +4863,22 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4924,7 +4924,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4940,7 +4940,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4987,7 +4987,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5013,7 +5013,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5030,30 +5030,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5105,7 +5105,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5151,7 +5151,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5253,7 +5253,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5270,15 +5270,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5295,11 +5295,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5319,21 +5319,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5349,7 +5349,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,15 +5365,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5439,7 +5439,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5461,11 +5461,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5481,7 +5481,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5497,7 +5497,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5513,7 +5513,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5529,7 +5529,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5545,7 +5545,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5580,35 +5580,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5633,7 +5633,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5652,7 +5652,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5668,7 +5668,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5684,7 +5684,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5700,7 +5700,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5716,7 +5716,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5729,7 +5729,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5752,7 +5752,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5769,7 +5769,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5786,7 +5786,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5803,11 +5803,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5826,7 +5826,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5842,7 +5842,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5858,7 +5858,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5883,7 +5883,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5899,7 +5899,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5915,7 +5915,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5925,38 +5925,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5973,23 +5973,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6005,7 +6005,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6021,7 +6021,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6037,18 +6037,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6064,11 +6064,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6084,11 +6084,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6104,11 +6104,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6124,19 +6124,19 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6152,7 +6152,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6168,7 +6168,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6184,11 +6184,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6204,11 +6204,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6224,7 +6224,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6240,27 +6240,27 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>path_17</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_17</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6276,11 +6276,11 @@
       </rPr>
       <t>amage 30</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>jiansu -10 -20 -40</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6296,7 +6296,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6312,7 +6312,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6328,15 +6328,15 @@
       </rPr>
       <t xml:space="preserve"> 1000 2000 4000</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_hujia</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6352,30 +6352,30 @@
       </rPr>
       <t>amage 175 225 275</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ACT_DOTA_CAST_ABILITY_2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Ability_lina_dragon_slave</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6391,11 +6391,11 @@
       </rPr>
       <t>hance 25</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6421,23 +6421,23 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/pudge/pudge.vmdl</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/zeus/zeus.vmdl</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/axe/axe.vmdl</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6483,7 +6483,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6499,7 +6499,7 @@
       </rPr>
       <t>okang 10 15 25</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>rune_0</t>
@@ -6518,7 +6518,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6608,7 +6608,7 @@
       </rPr>
       <t>rune_0</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6624,7 +6624,7 @@
       </rPr>
       <t>uration 2</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6650,7 +6650,7 @@
       </rPr>
       <t>rune_1</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6676,7 +6676,7 @@
       </rPr>
       <t>rune_3</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6702,7 +6702,7 @@
       </rPr>
       <t>rune_4</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6728,7 +6728,7 @@
       </rPr>
       <t>rune_5</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6754,7 +6754,7 @@
       </rPr>
       <t>rune_6</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6780,7 +6780,7 @@
       </rPr>
       <t>rune_9</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6806,11 +6806,11 @@
       </rPr>
       <t>rune_8</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>gold 500</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6826,7 +6826,7 @@
       </rPr>
       <t>dsub 1</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6842,15 +6842,15 @@
       </rPr>
       <t>anasub 1</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>exp 5</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>shield 50</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>item_tpscroll</t>
@@ -6866,7 +6866,7 @@
   </si>
   <si>
     <t>可否出售</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ItemDisplayCharges</t>
@@ -6876,30 +6876,14 @@
   </si>
   <si>
     <t>ItemQuality</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>质量</t>
   </si>
   <si>
     <t>consumable</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>item</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_gtg_tpscroll</t>
-    </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6925,7 +6909,7 @@
       </rPr>
       <t>blink</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6941,18 +6925,14 @@
       </rPr>
       <t>tem_blink</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>item/items/item_qtg_tpscroll</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>component</t>
   </si>
   <si>
     <t>item/items/item_qtg_blink</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6968,15 +6948,15 @@
       </rPr>
       <t>are</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_arcane_boots</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>item/items/item_qtg_arcane_boots</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6992,7 +6972,7 @@
       </rPr>
       <t>onus_movement 20</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7008,26 +6988,26 @@
       </rPr>
       <t>onus_mana 2</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>item_arcane_boots</t>
   </si>
   <si>
     <t>replenish_hero 4</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>replenish_bz 40</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>item_boots</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7043,7 +7023,137 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_faerie_fire</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hp_restore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>replenish_amount 2</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_famango</t>
+  </si>
+  <si>
+    <t>item_qtg_tpscroll</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/items/item_qtg_tpscroll</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_belt_of_strength</t>
+  </si>
+  <si>
+    <t>item_boots_of_elves</t>
+  </si>
+  <si>
+    <t>item_robe</t>
+  </si>
+  <si>
+    <t>item_crown</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tem_lua</t>
+    </r>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_qtg_iron_talon</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/items/item_qtg_iron_talon</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_attack_speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>models/props_gameplay/quelling_blade.vmdl</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_iron_talon</t>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7054,12 +7164,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7468,18 +7585,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7490,22 +7607,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7514,28 +7631,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7544,28 +7661,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="33" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="34" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7574,46 +7691,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7622,47 +7742,47 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7681,29 +7801,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9248,7 +9369,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9258,10 +9379,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10885,7 +11006,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10893,10 +11014,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB13AB9-1417-4C41-848B-F3B8563F927C}">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11137,23 +11258,26 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>1760</v>
+      <c r="A4" s="93" t="s">
+        <v>1780</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>1403</v>
       </c>
-      <c r="C4" s="90" t="s">
-        <v>1763</v>
+      <c r="C4" s="94" t="s">
+        <v>1781</v>
+      </c>
+      <c r="O4" s="38">
+        <v>200</v>
       </c>
       <c r="P4" s="38" t="s">
         <v>1751</v>
       </c>
       <c r="Q4" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="38">
         <v>0</v>
@@ -11186,80 +11310,211 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B5" s="89" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>1765</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>1764</v>
-      </c>
-      <c r="AA5" s="38">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="89" t="s">
-        <v>1762</v>
-      </c>
-      <c r="AD5" s="47" t="s">
-        <v>1618</v>
-      </c>
+        <v>1775</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="E5" s="93" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>1777</v>
+      </c>
+      <c r="O5" s="38">
+        <v>100</v>
+      </c>
+      <c r="T5" s="84"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="47"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>1775</v>
+        <v>1779</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>1779</v>
       </c>
       <c r="C6" s="90"/>
-      <c r="E6" s="89" t="s">
-        <v>1776</v>
-      </c>
-      <c r="AC6" s="89"/>
+      <c r="E6" s="93" t="s">
+        <v>1778</v>
+      </c>
+      <c r="O6" s="38">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>1</v>
+      </c>
+      <c r="R6" s="38">
+        <v>1</v>
+      </c>
+      <c r="T6" s="84"/>
+      <c r="AC6" s="85"/>
       <c r="AD6" s="47"/>
     </row>
-    <row r="7" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>1782</v>
+      </c>
+      <c r="O7" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>1783</v>
+      </c>
+      <c r="O8" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>1784</v>
+      </c>
+      <c r="O9" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1785</v>
+      </c>
+      <c r="O10" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="93" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="O11" s="38">
+        <v>1000</v>
+      </c>
+      <c r="Q11" s="38">
+        <v>1</v>
+      </c>
+      <c r="R11" s="38">
+        <v>1</v>
+      </c>
+      <c r="T11" s="93" t="s">
+        <v>1791</v>
+      </c>
+      <c r="X11" s="93" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AA11" s="38">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="93" t="s">
+        <v>1793</v>
+      </c>
+      <c r="AD11" s="89" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>1763</v>
+      </c>
+      <c r="T15" s="38" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AA15" s="38">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="89" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AD15" s="47" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C16" s="90"/>
+      <c r="E16" s="89" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="47"/>
+    </row>
+    <row r="17" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="89" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E17" s="89" t="s">
         <v>1767</v>
       </c>
-      <c r="B7" s="89" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C7" s="92" t="s">
+      <c r="F17" s="89" t="s">
         <v>1768</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="G17" s="89" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H17" s="89" t="s">
+        <v>1771</v>
+      </c>
+      <c r="T17" s="89" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AA17" s="38">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="89" t="s">
         <v>1769</v>
       </c>
-      <c r="F7" s="89" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G7" s="89" t="s">
+      <c r="AD17" s="89" t="s">
         <v>1772</v>
       </c>
-      <c r="H7" s="89" t="s">
-        <v>1773</v>
-      </c>
-      <c r="T7" s="89" t="s">
-        <v>1766</v>
-      </c>
-      <c r="AA7" s="38">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="89" t="s">
-        <v>1771</v>
-      </c>
-      <c r="AD7" s="89" t="s">
-        <v>1774</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11470,7 +11725,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -15070,7 +15325,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -24182,7 +24437,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2D62B0-C357-4B3D-B97E-981795CAFEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6B9DC-1121-424D-BEC7-E9F44348E97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7536" yWindow="1572" windowWidth="19068" windowHeight="13248" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,11 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4863,22 +4863,22 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4924,7 +4924,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4940,7 +4940,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4987,7 +4987,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5013,7 +5013,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5030,30 +5030,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5105,7 +5105,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5151,7 +5151,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5253,7 +5253,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5270,15 +5270,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5295,11 +5295,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5319,21 +5319,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5349,7 +5349,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,15 +5365,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5439,7 +5439,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5461,11 +5461,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5481,7 +5481,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5497,7 +5497,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5513,7 +5513,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5529,7 +5529,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5545,7 +5545,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5580,35 +5580,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5633,7 +5633,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5652,7 +5652,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5668,7 +5668,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5684,7 +5684,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5700,7 +5700,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5716,7 +5716,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5729,7 +5729,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5752,7 +5752,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5769,7 +5769,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5786,7 +5786,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5803,11 +5803,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5826,7 +5826,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5842,7 +5842,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5858,7 +5858,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5883,7 +5883,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5899,7 +5899,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5915,7 +5915,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5925,38 +5925,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5973,23 +5973,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6005,7 +6005,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6021,7 +6021,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6037,18 +6037,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6064,11 +6064,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6084,11 +6084,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6104,11 +6104,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6124,19 +6124,19 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6152,7 +6152,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6168,7 +6168,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6184,11 +6184,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6204,11 +6204,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6224,7 +6224,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6240,27 +6240,27 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>path_17</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_17</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6276,11 +6276,11 @@
       </rPr>
       <t>amage 30</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>jiansu -10 -20 -40</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6296,7 +6296,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6312,7 +6312,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6328,15 +6328,15 @@
       </rPr>
       <t xml:space="preserve"> 1000 2000 4000</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_hujia</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6352,30 +6352,30 @@
       </rPr>
       <t>amage 175 225 275</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ACT_DOTA_CAST_ABILITY_2</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Ability_lina_dragon_slave</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6391,11 +6391,11 @@
       </rPr>
       <t>hance 25</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6421,23 +6421,23 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/pudge/pudge.vmdl</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/zeus/zeus.vmdl</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/axe/axe.vmdl</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6483,7 +6483,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6499,7 +6499,7 @@
       </rPr>
       <t>okang 10 15 25</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>rune_0</t>
@@ -6518,7 +6518,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6608,7 +6608,7 @@
       </rPr>
       <t>rune_0</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6624,7 +6624,7 @@
       </rPr>
       <t>uration 2</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6650,7 +6650,7 @@
       </rPr>
       <t>rune_1</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6676,7 +6676,7 @@
       </rPr>
       <t>rune_3</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6702,7 +6702,7 @@
       </rPr>
       <t>rune_4</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6728,7 +6728,7 @@
       </rPr>
       <t>rune_5</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6754,7 +6754,7 @@
       </rPr>
       <t>rune_6</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6780,7 +6780,7 @@
       </rPr>
       <t>rune_9</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6806,11 +6806,11 @@
       </rPr>
       <t>rune_8</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>gold 500</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6826,7 +6826,7 @@
       </rPr>
       <t>dsub 1</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6842,15 +6842,15 @@
       </rPr>
       <t>anasub 1</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>exp 5</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>shield 50</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>item_tpscroll</t>
@@ -6866,7 +6866,7 @@
   </si>
   <si>
     <t>可否出售</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ItemDisplayCharges</t>
@@ -6876,14 +6876,14 @@
   </si>
   <si>
     <t>ItemQuality</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>质量</t>
   </si>
   <si>
     <t>consumable</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6909,7 +6909,7 @@
       </rPr>
       <t>blink</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6925,14 +6925,14 @@
       </rPr>
       <t>tem_blink</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>component</t>
   </si>
   <si>
     <t>item/items/item_qtg_blink</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6948,15 +6948,15 @@
       </rPr>
       <t>are</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_arcane_boots</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item/items/item_qtg_arcane_boots</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6972,7 +6972,7 @@
       </rPr>
       <t>onus_movement 20</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6988,26 +6988,26 @@
       </rPr>
       <t>onus_mana 2</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_arcane_boots</t>
   </si>
   <si>
     <t>replenish_hero 4</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>replenish_bz 40</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_boots</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7023,7 +7023,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_faerie_fire</t>
@@ -7042,7 +7042,7 @@
       </rPr>
       <t xml:space="preserve"> 5</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7058,22 +7058,22 @@
       </rPr>
       <t xml:space="preserve"> 100</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>replenish_amount 2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_famango</t>
   </si>
   <si>
     <t>item_qtg_tpscroll</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item/items/item_qtg_tpscroll</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_belt_of_strength</t>
@@ -7101,15 +7101,15 @@
       </rPr>
       <t>tem_lua</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_iron_talon</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item/items/item_qtg_iron_talon</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7125,7 +7125,7 @@
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7141,19 +7141,19 @@
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>component</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>models/props_gameplay/quelling_blade.vmdl</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_iron_talon</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7164,12 +7164,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7585,9 +7592,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7595,8 +7602,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7607,22 +7614,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7631,28 +7638,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7661,28 +7668,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="35" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7691,46 +7698,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7739,47 +7749,47 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7798,33 +7808,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7875,12 +7882,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -7905,12 +7912,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -8014,7 +8021,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39979247413556324"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8028,21 +8049,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39979247413556324"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9369,7 +9376,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11006,7 +11013,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11016,8 +11023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB13AB9-1417-4C41-848B-F3B8563F927C}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11267,17 +11274,14 @@
       <c r="C4" s="94" t="s">
         <v>1781</v>
       </c>
-      <c r="O4" s="38">
-        <v>200</v>
-      </c>
       <c r="P4" s="38" t="s">
         <v>1751</v>
       </c>
       <c r="Q4" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="38">
         <v>0</v>
@@ -11514,7 +11518,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11725,7 +11729,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -15325,7 +15329,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -15340,20 +15344,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="30" priority="1793" operator="equal">
-      <formula>"metal"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="1797" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="1794" operator="equal">
-      <formula>"earth"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="1796" operator="equal">
+      <formula>"wood"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="1795" operator="equal">
       <formula>"fire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="1796" operator="equal">
-      <formula>"wood"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="1794" operator="equal">
+      <formula>"earth"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1797" operator="equal">
-      <formula>"water"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="1793" operator="equal">
+      <formula>"metal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E21">
@@ -15419,11 +15423,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="containsText" dxfId="11" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="11" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
@@ -15437,11 +15441,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BJ4">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BM2">
@@ -24437,7 +24441,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6B9DC-1121-424D-BEC7-E9F44348E97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB83FAA-7E60-418C-8D02-F85BE794C408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7536" yWindow="1572" windowWidth="19068" windowHeight="13248" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9386,10 +9386,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11023,8 +11023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB13AB9-1417-4C41-848B-F3B8563F927C}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11436,7 +11436,7 @@
         <v>1792</v>
       </c>
       <c r="AA11" s="38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="93" t="s">
         <v>1793</v>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB83FAA-7E60-418C-8D02-F85BE794C408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA2E4A9-FAF3-4EE2-94FB-4FE6F9BAE6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7536" yWindow="1572" windowWidth="19068" windowHeight="13248" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2016" yWindow="1320" windowWidth="21408" windowHeight="15156" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="2063">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,11 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4863,22 +4863,22 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4924,7 +4924,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4940,7 +4940,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4987,7 +4987,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5013,7 +5013,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5030,30 +5030,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5105,7 +5105,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5151,7 +5151,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5253,7 +5253,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5270,15 +5270,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5295,11 +5295,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5319,21 +5319,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5349,7 +5349,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,15 +5365,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5439,7 +5439,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5461,11 +5461,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5481,7 +5481,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5497,7 +5497,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5513,7 +5513,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5529,7 +5529,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5545,7 +5545,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5580,35 +5580,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5633,7 +5633,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5652,7 +5652,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5668,7 +5668,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5684,7 +5684,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5700,7 +5700,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5716,7 +5716,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5729,7 +5729,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5752,7 +5752,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5769,7 +5769,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5786,7 +5786,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5803,11 +5803,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5826,7 +5826,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5842,7 +5842,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5858,7 +5858,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5883,7 +5883,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5899,7 +5899,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5915,7 +5915,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5925,38 +5925,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5973,23 +5973,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6005,7 +6005,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6021,7 +6021,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6037,18 +6037,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6064,11 +6064,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6084,11 +6084,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6104,11 +6104,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6124,19 +6124,19 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6152,7 +6152,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6168,7 +6168,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6184,11 +6184,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6204,11 +6204,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6224,7 +6224,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6240,27 +6240,27 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>path_17</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_17</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6276,11 +6276,11 @@
       </rPr>
       <t>amage 30</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>jiansu -10 -20 -40</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6296,7 +6296,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6312,7 +6312,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6328,15 +6328,15 @@
       </rPr>
       <t xml:space="preserve"> 1000 2000 4000</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_hujia</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6352,30 +6352,30 @@
       </rPr>
       <t>amage 175 225 275</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ACT_DOTA_CAST_ABILITY_2</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Ability_lina_dragon_slave</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6391,11 +6391,11 @@
       </rPr>
       <t>hance 25</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6421,23 +6421,23 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/pudge/pudge.vmdl</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/zeus/zeus.vmdl</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/axe/axe.vmdl</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6483,7 +6483,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6499,7 +6499,7 @@
       </rPr>
       <t>okang 10 15 25</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>rune_0</t>
@@ -6518,7 +6518,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6608,7 +6608,7 @@
       </rPr>
       <t>rune_0</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6624,7 +6624,7 @@
       </rPr>
       <t>uration 2</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6650,7 +6650,7 @@
       </rPr>
       <t>rune_1</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6676,7 +6676,7 @@
       </rPr>
       <t>rune_3</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6702,7 +6702,7 @@
       </rPr>
       <t>rune_4</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6728,7 +6728,7 @@
       </rPr>
       <t>rune_5</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6754,7 +6754,7 @@
       </rPr>
       <t>rune_6</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6780,7 +6780,7 @@
       </rPr>
       <t>rune_9</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6806,11 +6806,11 @@
       </rPr>
       <t>rune_8</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>gold 500</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6826,7 +6826,7 @@
       </rPr>
       <t>dsub 1</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6842,15 +6842,15 @@
       </rPr>
       <t>anasub 1</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>exp 5</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>shield 50</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>item_tpscroll</t>
@@ -6866,7 +6866,7 @@
   </si>
   <si>
     <t>可否出售</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ItemDisplayCharges</t>
@@ -6876,14 +6876,14 @@
   </si>
   <si>
     <t>ItemQuality</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>质量</t>
   </si>
   <si>
     <t>consumable</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6909,7 +6909,7 @@
       </rPr>
       <t>blink</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6925,14 +6925,14 @@
       </rPr>
       <t>tem_blink</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>component</t>
   </si>
   <si>
     <t>item/items/item_qtg_blink</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6948,15 +6948,15 @@
       </rPr>
       <t>are</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_arcane_boots</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>item/items/item_qtg_arcane_boots</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6972,7 +6972,7 @@
       </rPr>
       <t>onus_movement 20</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6988,30 +6988,258 @@
       </rPr>
       <t>onus_mana 2</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>item_arcane_boots</t>
   </si>
   <si>
     <t>replenish_hero 4</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>replenish_bz 40</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_boots</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>bonus_movement_speed</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_faerie_fire</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hp_restore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>replenish_amount 2</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_famango</t>
+  </si>
+  <si>
+    <t>item_qtg_tpscroll</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/items/item_qtg_tpscroll</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_belt_of_strength</t>
+  </si>
+  <si>
+    <t>item_boots_of_elves</t>
+  </si>
+  <si>
+    <t>item_robe</t>
+  </si>
+  <si>
+    <t>item_crown</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tem_lua</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_qtg_iron_talon</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/items/item_qtg_iron_talon</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_attack_speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>models/props_gameplay/quelling_blade.vmdl</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_iron_talon</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_orb_of_venom</t>
+  </si>
+  <si>
+    <r>
+      <t>poison_damage_melee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>poison_damage_range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison_movement_speed_melee -15</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>poison_movement_speed_range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -5</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_blight_stone</t>
+  </si>
+  <si>
+    <r>
+      <t>corruption_armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -3</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_blades_of_attack</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_gloves</t>
+  </si>
+  <si>
+    <t>item_chainmail</t>
+  </si>
+  <si>
+    <t>item_quarterstaff</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_attack_speed</t>
     </r>
     <r>
       <rPr>
@@ -7023,14 +7251,46 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_faerie_fire</t>
-  </si>
-  <si>
-    <r>
-      <t>bonus_damage</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_helm_of_iron_will</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_armor</t>
     </r>
     <r>
       <rPr>
@@ -7042,11 +7302,11 @@
       </rPr>
       <t xml:space="preserve"> 5</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>hp_restore</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_regen</t>
     </r>
     <r>
       <rPr>
@@ -7056,40 +7316,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 100</t>
-    </r>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>replenish_amount 2</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_famango</t>
-  </si>
-  <si>
-    <t>item_qtg_tpscroll</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>item/items/item_qtg_tpscroll</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_belt_of_strength</t>
-  </si>
-  <si>
-    <t>item_boots_of_elves</t>
-  </si>
-  <si>
-    <t>item_robe</t>
-  </si>
-  <si>
-    <t>item_crown</t>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
     </r>
     <r>
       <rPr>
@@ -7099,21 +7332,149 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tem_lua</t>
-    </r>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_qtg_iron_talon</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>item/items/item_qtg_iron_talon</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>bonus_attack_speed</t>
+      <t>ealth_regen 5</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_claymore</t>
+  </si>
+  <si>
+    <t>bonus_damage 20</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_ring_of_regen</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_health_regen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_sobi_mask</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_mana_regen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>mana_regen_hero 1</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>mana_regen_hero_round 4</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ana_regen_bz 10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_sobi_mask</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_fluffy_hat</t>
+  </si>
+  <si>
+    <t>item_cloak</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_magical_armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_boots</t>
+  </si>
+  <si>
+    <t>item_lifesteal</t>
+  </si>
+  <si>
+    <r>
+      <t>lifesteal_percent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>creep_lifesteal_reduction_pct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 40</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_voodoo_mask</t>
+  </si>
+  <si>
+    <r>
+      <t>spell_lifesteal</t>
     </r>
     <r>
       <rPr>
@@ -7125,11 +7486,11 @@
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>bonus_armor</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
     </r>
     <r>
       <rPr>
@@ -7139,21 +7500,2597 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>models/props_gameplay/quelling_blade.vmdl</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_iron_talon</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ghost</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_orb_of_corrosion</t>
+  </si>
+  <si>
+    <t>item_recipe_orb_of_corrosion</t>
+  </si>
+  <si>
+    <r>
+      <t>armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -4</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>slow_melee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>slow_range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>health_bonus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 250</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_falcon_blade</t>
+  </si>
+  <si>
+    <t>item_recipe_falcon_blade</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_mana_regen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0 </t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus_health 200</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus_health 300</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_qtg_power_treads</t>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_qtg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_power_treads</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemRecipe</t>
+  </si>
+  <si>
+    <t>是否合成卷轴</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemResult</t>
+  </si>
+  <si>
+    <t>合成结果</t>
+  </si>
+  <si>
+    <t>合成配方</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ItemRequirements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[{]</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}]</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>models/props_gameplay/recipe.vmdl</t>
+  </si>
+  <si>
+    <t>item_boots*;item_gloves;item_belt_of_strength</t>
+  </si>
+  <si>
+    <t>item_boots*;item_gloves;item_robe</t>
+  </si>
+  <si>
+    <t>item_boots*;item_gloves;item_boots_of_elves</t>
+  </si>
+  <si>
+    <t>item_power_treads</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_stat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_attack_speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_phase_boots</t>
+  </si>
+  <si>
+    <t>bonus_movement_speed 20</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus_movement_speed_ranged 20</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus_movement_speed_melee 30</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus_movement_speed 25</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>phase_duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10.0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_oblivion_staff</t>
+  </si>
+  <si>
+    <t>item_recipe_oblivion_staff</t>
+  </si>
+  <si>
+    <t>item_quarterstaff;item_robe</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_intellect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_qtg_mask_of_madness</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_mask_of_madness</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_lifesteal;item_quarterstaff</t>
+  </si>
+  <si>
+    <t>item_moon_shard</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tranquil_boots</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tranquil_boots</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_boots;item_ring_of_regen</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medallion_of_courage</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medallion_of_courage</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_arcane_boots</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipe</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipe</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>witch_blade</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>witch_blade</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_qtg_orchid</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_orchid</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_dagon</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solar_crest</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solar_crest</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refresher</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refresher</t>
+    </r>
+  </si>
+  <si>
+    <t>item_qtg_rod_of_atos</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_recipe_qtg_rod_of_atos</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>octarine_core</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sheepstick</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sheepstick</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_vanguard</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 300</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ealth_regen 10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blade_mail</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blade_mail</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_soul_booster</t>
+  </si>
+  <si>
+    <t>item_qtg_crimson_guard</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_crimson_guard</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_shivas_guard</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shivas_guard</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_platemail</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heart</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heart</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heart</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_strength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 40</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>health_regen_pct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_regen 20</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_assault</t>
+  </si>
+  <si>
+    <t>item_recipe_assault</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_attack_speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 60</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>aura_radius 800</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aura_positive_armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aura_negative_armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_lesser_crit</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lesser_crit</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 40</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_claymore;item_blades_of_attack;item_blades_of_attack</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_desolator</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>desolator</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 50</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_ethereal_blade</t>
+  </si>
+  <si>
+    <t>item_recipe_ethereal_blade</t>
+  </si>
+  <si>
+    <t>item_butterfly</t>
+  </si>
+  <si>
+    <t>item_recipe_butterfly</t>
+  </si>
+  <si>
+    <t>item_eagle;item_quarterstaff</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_claymore;item_blades_of_attack;item_blight_stone</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_platemail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;item_platemail;item_hyperstone</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_vitality_booster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;item_reaver</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_platemail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;item_mystic_staff</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_claymore;item_platemail</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_evasion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_recipe_radiance</t>
+  </si>
+  <si>
+    <t>item_radiance</t>
+  </si>
+  <si>
+    <t>item_relic;item_claymore</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 80</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>evasion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>blind_pct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_greater_crit</t>
+  </si>
+  <si>
+    <t>item_recipe_greater_crit</t>
+  </si>
+  <si>
+    <t>item_lesser_crit;item_demon_edge</t>
+  </si>
+  <si>
+    <t>item_rapier</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bloodthorn</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bloodthorn</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_qtg_orchid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;item_mage_slayer</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_qtg_revenants_brooch</t>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_revenants_brooch</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>witch_blade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;item_mystic_staff</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_sange</t>
+  </si>
+  <si>
+    <t>item_recipe_sange</t>
+  </si>
+  <si>
+    <r>
+      <t>status_resistance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hp_regen_amp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_yasha</t>
+  </si>
+  <si>
+    <t>item_recipe_yasha</t>
+  </si>
+  <si>
+    <r>
+      <t>movement_speed_percent_bonus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_kaya</t>
+  </si>
+  <si>
+    <t>item_recipe_kaya</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>mana_regen_multiplier 0</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_mage_slayer</t>
+  </si>
+  <si>
+    <t>item_recipe_mage_slayer</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_attack_speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_kaya_and_sange</t>
+  </si>
+  <si>
+    <t>item_recipe_kaya_and_sange</t>
+  </si>
+  <si>
+    <r>
+      <t>mana_regen_multiplier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_sange_and_yasha</t>
+  </si>
+  <si>
+    <t>movement_speed_percent_bonus 0</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_yasha_and_kaya</t>
+  </si>
+  <si>
+    <t>item_recipe_yasha_and_kaya</t>
+  </si>
+  <si>
+    <t>item_satanic</t>
+  </si>
+  <si>
+    <t>item_skadi</t>
+  </si>
+  <si>
+    <t>item_recipe_skadi</t>
+  </si>
+  <si>
+    <r>
+      <t>bonus_mana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_ultimate_orb;item_ultimate_orb;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item_vitality_booster</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_overwhelming_blink</t>
+  </si>
+  <si>
+    <t>item_swift_blink</t>
+  </si>
+  <si>
+    <t>item_arcane_blink</t>
+  </si>
+  <si>
+    <t>item_ring_of_health</t>
+  </si>
+  <si>
+    <t>item_void_stone</t>
+  </si>
+  <si>
+    <t>item_cornucopia</t>
+  </si>
+  <si>
+    <t>item_energy_booster</t>
+  </si>
+  <si>
+    <t>item_vitality_booster</t>
+  </si>
+  <si>
+    <t>item_hyperstone</t>
+  </si>
+  <si>
+    <t>item_hyperstone</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_ultimate_orb</t>
+  </si>
+  <si>
+    <t>item_demon_edge</t>
+  </si>
+  <si>
+    <t>item_mystic_staff</t>
+  </si>
+  <si>
+    <t>item_reaver</t>
+  </si>
+  <si>
+    <t>item_eagle</t>
+  </si>
+  <si>
+    <t>item_relic</t>
+  </si>
+  <si>
+    <r>
+      <t>health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_regen 10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus_mana 2</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_all_stats</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_demon_edge</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_intellect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_strength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2500</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_agility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bonus_damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 60</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blink;item_reaver</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blink;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item_eagle</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blink;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item_mystic_staff</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overwhelming_blink</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>swift_blink</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arcane_blink</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ghost</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_mask_of_madness</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tranquil_boots</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medallion_of_courage</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipe</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>witch_blade</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_orchid</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solar_crest</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_rod_of_atos</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refresher</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>octarine_core</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sheepstick</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_blade_mail</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_crimson_guard</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bloodthorn</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_revenants_brooch</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_overwhelming_blink</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>swift_blink</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arcane_blink</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>swift_blink</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_qtg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_arcane_blink</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_datadriven</t>
+  </si>
+  <si>
+    <t>item_cloak;item_ring_of_regen;item_ring_of_health</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_gloves;item_staff_of_wizardry;item_chainmail;item_quarterstaff</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_staff_of_wizardry;item_quarterstaff;item_void_stone</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_qtg_medallion_of_courage;item_crown;item_quarterstaff</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_staff_of_wizardry;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item_vitality_booster;item_robe</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_cornucopia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;item_cornucopia</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_recipe_qtg_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>octarine_core</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_void_stone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;item_void_stone;item_vitality_booster;item_energy_booster</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_mystic_staff;item_ultimate_orb;item_void_stone</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_vanguard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;item_helm_of_iron_will</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_recipe_qtg_overwhelming_blink</t>
+  </si>
+  <si>
+    <r>
+      <t>item_kaya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;item_qtg_ghost</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_datadriven</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_chainmail;item_sobi_mask;item_blight_stone</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_boots;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item_energy_booster</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_recipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipe</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_heart</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aura_attack_speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bonus_strength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 16</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus_health 350</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_recipe_overwhelming_blink</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_swift_blink</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe_arcane_blink</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7164,12 +10101,19 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7592,18 +10536,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7614,22 +10558,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7638,28 +10582,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7668,28 +10612,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="36" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7698,46 +10642,49 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7746,47 +10693,47 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7805,35 +10752,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7882,12 +10834,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -7912,12 +10864,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -8021,7 +10973,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8035,21 +11001,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9376,7 +12328,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9386,10 +12338,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10326,8 +13278,8 @@
       <c r="AC14" s="47" t="s">
         <v>1640</v>
       </c>
-      <c r="AD14" s="47" t="s">
-        <v>1586</v>
+      <c r="AD14" s="98" t="s">
+        <v>1714</v>
       </c>
       <c r="AE14" s="47" t="s">
         <v>1587</v>
@@ -11013,7 +13965,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11021,43 +13973,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB13AB9-1417-4C41-848B-F3B8563F927C}">
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AP128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD114" sqref="AD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="38" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" style="91" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="38"/>
+    <col min="4" max="4" width="8.77734375" style="38" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="38" customWidth="1"/>
-    <col min="6" max="14" width="8.77734375" style="38"/>
-    <col min="15" max="15" width="9.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" style="38" customWidth="1"/>
-    <col min="19" max="19" width="15.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" style="38" customWidth="1"/>
-    <col min="21" max="21" width="17.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.44140625" style="38" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.77734375" style="38"/>
-    <col min="26" max="26" width="9.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="16" style="38" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19" style="38" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.77734375" style="38"/>
+    <col min="6" max="14" width="8.77734375" style="38" customWidth="1"/>
+    <col min="15" max="16" width="9.109375" style="38" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" style="38" customWidth="1"/>
+    <col min="18" max="19" width="16.109375" style="38" customWidth="1"/>
+    <col min="20" max="21" width="15.109375" style="38" customWidth="1"/>
+    <col min="22" max="23" width="17.44140625" style="38" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" style="38" customWidth="1"/>
+    <col min="25" max="26" width="8.77734375" style="38" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" style="38" customWidth="1"/>
+    <col min="28" max="29" width="16" style="38" customWidth="1"/>
+    <col min="30" max="30" width="19" style="38" customWidth="1"/>
+    <col min="31" max="31" width="14.44140625" style="38" customWidth="1"/>
+    <col min="32" max="32" width="21.44140625" style="38" customWidth="1"/>
+    <col min="33" max="33" width="20.6640625" style="38" customWidth="1"/>
+    <col min="34" max="34" width="21.109375" style="38" customWidth="1"/>
+    <col min="35" max="35" width="18.33203125" style="38" customWidth="1"/>
+    <col min="36" max="36" width="20.44140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="8.77734375" style="39"/>
+    <col min="42" max="16384" width="8.77734375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>1457</v>
       </c>
@@ -11073,68 +14025,77 @@
       <c r="O1" s="38" t="s">
         <v>1453</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="95" t="s">
+        <v>2038</v>
+      </c>
+      <c r="Q1" s="38" t="s">
         <v>1452</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="R1" s="38" t="s">
         <v>1451</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="S1" s="84" t="s">
         <v>1754</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="T1" s="38" t="s">
         <v>1450</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="U1" s="88" t="s">
         <v>1758</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="V1" s="38" t="s">
         <v>1449</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="W1" s="60" t="s">
         <v>1756</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>1448</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="Y1" s="38" t="s">
         <v>1447</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>1446</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AA1" s="38" t="s">
         <v>1445</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>1444</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>1443</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>1442</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>1441</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>1440</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AG1" s="38" t="s">
         <v>1439</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>1438</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AI1" s="38" t="s">
         <v>1437</v>
       </c>
-      <c r="AI1" s="38" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="95" t="s">
+        <v>1848</v>
+      </c>
+      <c r="AK1" s="96" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AL1" s="96" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1435</v>
       </c>
@@ -11144,7 +14105,7 @@
       <c r="C2" s="91" t="s">
         <v>1433</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="95" t="s">
         <v>1432</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -11180,65 +14141,89 @@
       <c r="O2" s="39" t="s">
         <v>1421</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="96" t="s">
+        <v>2038</v>
+      </c>
+      <c r="Q2" s="39" t="s">
         <v>1420</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="R2" s="39" t="s">
         <v>1419</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="S2" s="86" t="s">
         <v>1753</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="T2" s="39" t="s">
         <v>1418</v>
       </c>
-      <c r="T2" s="86" t="s">
+      <c r="U2" s="86" t="s">
         <v>1757</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="V2" s="39" t="s">
         <v>1417</v>
       </c>
-      <c r="V2" s="87" t="s">
+      <c r="W2" s="87" t="s">
         <v>1755</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="X2" s="39" t="s">
         <v>1416</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="Y2" s="39" t="s">
         <v>1415</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Z2" s="39" t="s">
         <v>1414</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="AA2" s="38" t="s">
         <v>1413</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AB2" s="38" t="s">
         <v>1412</v>
       </c>
-      <c r="AB2" s="38" t="s">
+      <c r="AC2" s="38" t="s">
         <v>1411</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AD2" s="38" t="s">
         <v>1410</v>
       </c>
-      <c r="AD2" s="38" t="s">
+      <c r="AE2" s="38" t="s">
         <v>1409</v>
       </c>
-      <c r="AE2" s="38" t="s">
+      <c r="AF2" s="38" t="s">
         <v>1408</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AG2" s="38" t="s">
         <v>1407</v>
       </c>
-      <c r="AG2" s="38" t="s">
+      <c r="AH2" s="38" t="s">
         <v>1406</v>
       </c>
-      <c r="AH2" s="38" t="s">
+      <c r="AI2" s="38" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="38" t="s">
+        <v>1847</v>
+      </c>
+      <c r="AK2" s="39" t="s">
+        <v>1849</v>
+      </c>
+      <c r="AL2" s="96" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AM2" s="96" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AN2" s="96" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AO2" s="96" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AP2" s="95" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>1404</v>
       </c>
@@ -11254,43 +14239,43 @@
       <c r="G3" s="38" t="s">
         <v>1400</v>
       </c>
-      <c r="Z3" s="38">
+      <c r="AA3" s="38">
         <v>2</v>
       </c>
-      <c r="AA3" s="42" t="s">
+      <c r="AB3" s="42" t="s">
         <v>1478</v>
       </c>
-      <c r="AB3" s="38" t="s">
+      <c r="AC3" s="38" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>1403</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>1781</v>
-      </c>
-      <c r="P4" s="38" t="s">
+        <v>1779</v>
+      </c>
+      <c r="P4" s="38">
+        <v>1600</v>
+      </c>
+      <c r="Q4" s="38" t="s">
         <v>1751</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="R4" s="38">
+        <v>1</v>
+      </c>
+      <c r="S4" s="38">
+        <v>1</v>
+      </c>
+      <c r="T4" s="38">
         <v>0</v>
       </c>
-      <c r="R4" s="38">
-        <v>0</v>
-      </c>
-      <c r="S4" s="38">
-        <v>0</v>
-      </c>
-      <c r="T4" s="84" t="s">
+      <c r="U4" s="84" t="s">
         <v>1759</v>
-      </c>
-      <c r="U4" s="38">
-        <v>1</v>
       </c>
       <c r="V4" s="38">
         <v>1</v>
@@ -11298,227 +14283,2349 @@
       <c r="W4" s="38">
         <v>1</v>
       </c>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="38" t="s">
         <v>1752</v>
       </c>
-      <c r="AA4" s="38">
+      <c r="AB4" s="38">
         <v>1</v>
       </c>
-      <c r="AB4" s="38">
+      <c r="AC4" s="38">
         <v>0</v>
       </c>
-      <c r="AC4" s="85" t="s">
+      <c r="AD4" s="85" t="s">
         <v>1750</v>
       </c>
-      <c r="AD4" s="47" t="s">
+      <c r="AE4" s="47" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="C5" s="90"/>
       <c r="E5" s="93" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="F5" s="93" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="O5" s="38">
         <v>100</v>
       </c>
-      <c r="T5" s="84"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="47"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="U5" s="84"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="47"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="C6" s="90"/>
       <c r="E6" s="93" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="O6" s="38">
         <v>100</v>
       </c>
-      <c r="Q6" s="38">
-        <v>1</v>
-      </c>
       <c r="R6" s="38">
         <v>1</v>
       </c>
-      <c r="T6" s="84"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="47"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S6" s="38">
+        <v>1</v>
+      </c>
+      <c r="U6" s="84"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="47"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="O7" s="38">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="O8" s="38">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="O9" s="38">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="O10" s="38">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E11" s="93" t="s">
         <v>1787</v>
       </c>
-      <c r="B11" s="93" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C11" s="94" t="s">
+      <c r="F11" s="93" t="s">
         <v>1788</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>1789</v>
-      </c>
-      <c r="F11" s="93" t="s">
-        <v>1790</v>
       </c>
       <c r="G11" s="93"/>
       <c r="O11" s="38">
         <v>1000</v>
       </c>
-      <c r="Q11" s="38">
-        <v>1</v>
+      <c r="P11" s="38">
+        <v>1607</v>
       </c>
       <c r="R11" s="38">
         <v>1</v>
       </c>
-      <c r="T11" s="93" t="s">
+      <c r="S11" s="38">
+        <v>1</v>
+      </c>
+      <c r="U11" s="93" t="s">
+        <v>1789</v>
+      </c>
+      <c r="Y11" s="93" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AB11" s="38">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="93" t="s">
         <v>1791</v>
       </c>
-      <c r="X11" s="93" t="s">
+      <c r="AE11" s="89" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>1792</v>
       </c>
-      <c r="AA11" s="38">
+      <c r="B12" s="38" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H12" s="95" t="s">
+        <v>1796</v>
+      </c>
+      <c r="O12" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>1798</v>
+      </c>
+      <c r="O13" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>1800</v>
+      </c>
+      <c r="O14" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>1804</v>
+      </c>
+      <c r="O15" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E16" s="95" t="s">
+        <v>1805</v>
+      </c>
+      <c r="O16" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>1800</v>
+      </c>
+      <c r="O17" s="38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F18" s="95" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G18" s="95" t="s">
+        <v>1810</v>
+      </c>
+      <c r="O18" s="38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>1812</v>
+      </c>
+      <c r="O19" s="38">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>1810</v>
+      </c>
+      <c r="O20" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G21" s="95" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H21" s="95" t="s">
+        <v>1819</v>
+      </c>
+      <c r="O21" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O22" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E23" s="95" t="s">
+        <v>1823</v>
+      </c>
+      <c r="O23" s="38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>1866</v>
+      </c>
+      <c r="O24" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E25" s="95" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>1827</v>
+      </c>
+      <c r="O25" s="38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E26" s="95" t="s">
+        <v>1829</v>
+      </c>
+      <c r="O26" s="38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27" s="95" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="O27" s="38">
+        <v>1500</v>
+      </c>
+      <c r="P27" s="38">
+        <v>1623</v>
+      </c>
+      <c r="AD27" s="95" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>1763</v>
+      </c>
+      <c r="O28" s="38">
+        <v>2000</v>
+      </c>
+      <c r="P28" s="38">
+        <v>1624</v>
+      </c>
+      <c r="R28" s="38">
         <v>1</v>
       </c>
-      <c r="AC11" s="93" t="s">
-        <v>1793</v>
-      </c>
-      <c r="AD11" s="89" t="s">
+      <c r="S28" s="38">
+        <v>1</v>
+      </c>
+      <c r="U28" s="38" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AB28" s="38">
+        <v>5</v>
+      </c>
+      <c r="AD28" s="89" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AE28" s="47" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>1832</v>
+      </c>
+      <c r="O29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="39"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E30" s="95" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F30" s="95" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G30" s="95" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H30" s="95" t="s">
+        <v>1836</v>
+      </c>
+      <c r="I30" s="95" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J30" s="95" t="s">
+        <v>1838</v>
+      </c>
+      <c r="O30" s="38">
+        <v>1500</v>
+      </c>
+      <c r="AP30" s="39"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="39"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E32" s="95" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F32" s="95" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G32" s="95" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H32" s="95" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I32" s="95" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J32" s="95" t="s">
+        <v>1819</v>
+      </c>
+      <c r="O32" s="38">
+        <v>1500</v>
+      </c>
+      <c r="AP32" s="39"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A33" s="95" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B33" s="95" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O33" s="38">
+        <v>0</v>
+      </c>
+      <c r="P33" s="38">
+        <v>1629</v>
+      </c>
+      <c r="Y33" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AJ33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="38" t="s">
+        <v>1845</v>
+      </c>
+      <c r="AM33" s="39" t="s">
+        <v>1858</v>
+      </c>
+      <c r="AN33" s="39" t="s">
+        <v>1859</v>
+      </c>
+      <c r="AO33" s="39" t="s">
+        <v>1860</v>
+      </c>
+      <c r="AP33" s="39"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E34" s="95" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F34" s="95" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G34" s="95" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H34" s="95" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I34" s="95" t="s">
+        <v>1864</v>
+      </c>
+      <c r="O34" s="38">
+        <v>1500</v>
+      </c>
+      <c r="P34" s="38">
+        <v>1630</v>
+      </c>
+      <c r="AD34" s="95" t="s">
+        <v>1861</v>
+      </c>
+      <c r="AP34" s="39"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E35" s="95" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F35" s="95" t="s">
+        <v>1870</v>
+      </c>
+      <c r="O35" s="38">
+        <v>1500</v>
+      </c>
+      <c r="AB35" s="38">
+        <v>3</v>
+      </c>
+      <c r="AP35" s="39"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="O36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="38" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AM36" s="96" t="s">
+        <v>1873</v>
+      </c>
+      <c r="AP36" s="39"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E37" s="95" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F37" s="95" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G37" s="95" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H37" s="95" t="s">
+        <v>1787</v>
+      </c>
+      <c r="O37" s="38">
+        <v>1500</v>
+      </c>
+      <c r="AP37" s="39"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A38" s="95" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O38" s="38">
+        <v>0</v>
+      </c>
+      <c r="P38" s="38">
+        <v>1634</v>
+      </c>
+      <c r="Y38" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AJ38" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="38" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AM38" s="39" t="s">
+        <v>1877</v>
+      </c>
+      <c r="AP38" s="39"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>1875</v>
+      </c>
+      <c r="O39" s="38">
+        <v>2000</v>
+      </c>
+      <c r="P39" s="38">
+        <v>1635</v>
+      </c>
+      <c r="AD39" s="95" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AP39" s="39"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>1878</v>
+      </c>
+      <c r="O40" s="38">
+        <v>4000</v>
+      </c>
+      <c r="AP40" s="39"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A41" s="95" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O41" s="38">
+        <v>0</v>
+      </c>
+      <c r="P41" s="38">
+        <v>1637</v>
+      </c>
+      <c r="Y41" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AJ41" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="95" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AM41" s="96" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AP41" s="39"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A42" s="95" t="s">
+        <v>1879</v>
+      </c>
+      <c r="O42" s="38">
+        <v>1000</v>
+      </c>
+      <c r="P42" s="38">
+        <v>1638</v>
+      </c>
+      <c r="AD42" s="95" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AP42" s="39"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A43" s="95" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O43" s="38">
+        <v>0</v>
+      </c>
+      <c r="P43" s="38">
+        <v>1639</v>
+      </c>
+      <c r="Y43" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AJ43" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="95" t="s">
+        <v>1882</v>
+      </c>
+      <c r="AM43" s="100" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AP43" s="39"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A44" s="95" t="s">
+        <v>1882</v>
+      </c>
+      <c r="O44" s="38">
+        <v>1500</v>
+      </c>
+      <c r="P44" s="38">
+        <v>1640</v>
+      </c>
+      <c r="AD44" s="95" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AP44" s="39"/>
+    </row>
+    <row r="45" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="95" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O45" s="38">
+        <v>0</v>
+      </c>
+      <c r="P45" s="38">
+        <v>1641</v>
+      </c>
+      <c r="Y45" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AJ45" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="95" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AM45" s="100" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AP45" s="39"/>
+    </row>
+    <row r="46" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="95" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E46" s="89" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F46" s="89" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G46" s="89" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H46" s="89" t="s">
+        <v>1771</v>
+      </c>
+      <c r="O46" s="38">
+        <v>1500</v>
+      </c>
+      <c r="P46" s="38">
+        <v>1642</v>
+      </c>
+      <c r="U46" s="89" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AB46" s="38">
+        <v>4</v>
+      </c>
+      <c r="AD46" s="89" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AE46" s="89" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C15" s="90" t="s">
-        <v>1763</v>
-      </c>
-      <c r="T15" s="38" t="s">
-        <v>1762</v>
-      </c>
-      <c r="AA15" s="38">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="89" t="s">
-        <v>1761</v>
-      </c>
-      <c r="AD15" s="47" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B16" s="89" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C16" s="90"/>
-      <c r="E16" s="89" t="s">
-        <v>1774</v>
-      </c>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="47"/>
-    </row>
-    <row r="17" spans="1:30" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B17" s="89" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F17" s="89" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G17" s="89" t="s">
-        <v>1770</v>
-      </c>
-      <c r="H17" s="89" t="s">
-        <v>1771</v>
-      </c>
-      <c r="T17" s="89" t="s">
-        <v>1764</v>
-      </c>
-      <c r="AA17" s="38">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="89" t="s">
-        <v>1769</v>
-      </c>
-      <c r="AD17" s="89" t="s">
-        <v>1772</v>
+      <c r="AP46" s="39"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A47" s="95" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O47" s="38">
+        <v>1000</v>
+      </c>
+      <c r="P47" s="38">
+        <v>1643</v>
+      </c>
+      <c r="Y47" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD47" s="99" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AJ47" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="95" t="s">
+        <v>1885</v>
+      </c>
+      <c r="AM47" s="96" t="s">
+        <v>2040</v>
+      </c>
+      <c r="AP47" s="39"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A48" s="95" t="s">
+        <v>1885</v>
+      </c>
+      <c r="O48" s="38">
+        <v>3500</v>
+      </c>
+      <c r="P48" s="38">
+        <v>1644</v>
+      </c>
+      <c r="AD48" s="95" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AP48" s="39"/>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A49" s="95" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O49" s="38">
+        <v>0</v>
+      </c>
+      <c r="P49" s="38">
+        <v>1645</v>
+      </c>
+      <c r="AJ49" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="95" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AM49" s="96" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AP49" s="39"/>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A50" s="95" t="s">
+        <v>1887</v>
+      </c>
+      <c r="O50" s="38">
+        <v>3000</v>
+      </c>
+      <c r="P50" s="38">
+        <v>1646</v>
+      </c>
+      <c r="AD50" s="95" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AP50" s="39"/>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A51" s="95" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>1891</v>
+      </c>
+      <c r="AP51" s="39"/>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A52" s="95" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O52" s="38">
+        <v>0</v>
+      </c>
+      <c r="P52" s="38">
+        <v>1648</v>
+      </c>
+      <c r="AJ52" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="89" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AM52" s="96" t="s">
+        <v>2042</v>
+      </c>
+      <c r="AP52" s="39"/>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A53" s="89" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B53" s="89"/>
+      <c r="C53" s="90"/>
+      <c r="E53" s="89"/>
+      <c r="O53" s="38">
+        <v>3000</v>
+      </c>
+      <c r="P53" s="38">
+        <v>1649</v>
+      </c>
+      <c r="AD53" s="95" t="s">
+        <v>2023</v>
+      </c>
+      <c r="AE53" s="47"/>
+      <c r="AP53" s="39"/>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" s="95" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O54" s="38">
+        <v>0</v>
+      </c>
+      <c r="P54" s="38">
+        <v>1650</v>
+      </c>
+      <c r="AJ54" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="95" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AM54" s="96" t="s">
+        <v>2043</v>
+      </c>
+      <c r="AP54" s="39"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A55" s="95" t="s">
+        <v>1892</v>
+      </c>
+      <c r="O55" s="38">
+        <v>3000</v>
+      </c>
+      <c r="P55" s="38">
+        <v>1651</v>
+      </c>
+      <c r="AD55" s="95" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AP55" s="39"/>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A56" s="95" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O56" s="38">
+        <v>0</v>
+      </c>
+      <c r="P56" s="38">
+        <v>1652</v>
+      </c>
+      <c r="AJ56" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="95" t="s">
+        <v>1896</v>
+      </c>
+      <c r="AM56" s="96" t="s">
+        <v>2044</v>
+      </c>
+      <c r="AP56" s="39"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A57" s="95" t="s">
+        <v>1896</v>
+      </c>
+      <c r="O57" s="38">
+        <v>2500</v>
+      </c>
+      <c r="P57" s="38">
+        <v>1653</v>
+      </c>
+      <c r="AD57" s="95" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AP57" s="39"/>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A58" s="95" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O58" s="38">
+        <v>0</v>
+      </c>
+      <c r="P58" s="38">
+        <v>1654</v>
+      </c>
+      <c r="AJ58" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="95" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AM58" s="96" t="s">
+        <v>2045</v>
+      </c>
+      <c r="AP58" s="39"/>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A59" s="95" t="s">
+        <v>1894</v>
+      </c>
+      <c r="O59" s="38">
+        <v>5000</v>
+      </c>
+      <c r="P59" s="38">
+        <v>1655</v>
+      </c>
+      <c r="AD59" s="95" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AP59" s="39"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A60" s="95" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O60" s="38">
+        <v>0</v>
+      </c>
+      <c r="P60" s="38">
+        <v>1656</v>
+      </c>
+      <c r="AJ60" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="95" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AM60" s="96" t="s">
+        <v>2047</v>
+      </c>
+      <c r="AP60" s="39"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A61" s="95" t="s">
+        <v>1898</v>
+      </c>
+      <c r="O61" s="38">
+        <v>4000</v>
+      </c>
+      <c r="P61" s="38">
+        <v>1657</v>
+      </c>
+      <c r="AD61" s="95" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AP61" s="39"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A62" s="95" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O62" s="38">
+        <v>0</v>
+      </c>
+      <c r="P62" s="38">
+        <v>1658</v>
+      </c>
+      <c r="AJ62" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="95" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AM62" s="96" t="s">
+        <v>2048</v>
+      </c>
+      <c r="AP62" s="39"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A63" s="95" t="s">
+        <v>1899</v>
+      </c>
+      <c r="O63" s="38">
+        <v>5500</v>
+      </c>
+      <c r="P63" s="38">
+        <v>1659</v>
+      </c>
+      <c r="AD63" s="95" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AP63" s="39"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E64" s="95" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F64" s="95" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G64" s="95" t="s">
+        <v>1903</v>
+      </c>
+      <c r="O64" s="38">
+        <v>2000</v>
+      </c>
+      <c r="AP64" s="39"/>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A65" s="95" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B65" s="95" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O65" s="38">
+        <v>0</v>
+      </c>
+      <c r="P65" s="38">
+        <v>1661</v>
+      </c>
+      <c r="Y65" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AJ65" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="95" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AM65" s="96" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AP65" s="39"/>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A66" s="95" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O66" s="38">
+        <v>3000</v>
+      </c>
+      <c r="P66" s="38">
+        <v>1662</v>
+      </c>
+      <c r="AD66" s="97" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AP66" s="39"/>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A67" s="38" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>1906</v>
+      </c>
+      <c r="O67" s="38">
+        <v>3000</v>
+      </c>
+      <c r="AP67" s="39"/>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A68" s="95" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O68" s="38">
+        <v>0</v>
+      </c>
+      <c r="P68" s="38">
+        <v>1664</v>
+      </c>
+      <c r="AJ68" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK68" s="38" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AM68" s="96" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AP68" s="39"/>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
+        <v>1907</v>
+      </c>
+      <c r="O69" s="38">
+        <v>3000</v>
+      </c>
+      <c r="P69" s="38">
+        <v>1665</v>
+      </c>
+      <c r="AD69" s="95" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AP69" s="39"/>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A70" s="95" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B70" s="95" t="s">
+        <v>1910</v>
+      </c>
+      <c r="O70" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="96" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AP70" s="39"/>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A71" s="38" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>1909</v>
+      </c>
+      <c r="O71" s="38">
+        <v>4000</v>
+      </c>
+      <c r="AP71" s="39"/>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A72" s="95" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O72" s="38">
+        <v>500</v>
+      </c>
+      <c r="P72" s="38">
+        <v>1668</v>
+      </c>
+      <c r="Y72" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD72" s="99" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AJ72" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="95" t="s">
+        <v>1912</v>
+      </c>
+      <c r="AM72" s="96" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AP72" s="39"/>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A73" s="95" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B73" s="95" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E73" s="95" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F73" s="95" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G73" s="95" t="s">
+        <v>1916</v>
+      </c>
+      <c r="H73" s="95" t="s">
+        <v>1917</v>
+      </c>
+      <c r="O73" s="38">
+        <v>4000</v>
+      </c>
+      <c r="P73" s="38">
+        <v>1669</v>
+      </c>
+      <c r="AD73" s="95" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AP73" s="39"/>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>1919</v>
+      </c>
+      <c r="O74" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="96" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AP74" s="39"/>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A75" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E75" s="95" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F75" s="95" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G75" s="95" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H75" s="95" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I75" s="95" t="s">
+        <v>1924</v>
+      </c>
+      <c r="J75" s="99" t="s">
+        <v>2057</v>
+      </c>
+      <c r="O75" s="38">
+        <v>5000</v>
+      </c>
+      <c r="AP75" s="39"/>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A76" s="95" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B76" s="95" t="s">
+        <v>1926</v>
+      </c>
+      <c r="O76" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="96" t="s">
+        <v>1928</v>
+      </c>
+      <c r="AP76" s="39"/>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E77" s="95" t="s">
+        <v>1927</v>
+      </c>
+      <c r="O77" s="38">
+        <v>2500</v>
+      </c>
+      <c r="AP77" s="39"/>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A78" s="95" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B78" s="95" t="s">
+        <v>1930</v>
+      </c>
+      <c r="O78" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="96" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AP78" s="39"/>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A79" s="38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E79" s="95" t="s">
+        <v>1931</v>
+      </c>
+      <c r="O79" s="38">
+        <v>3500</v>
+      </c>
+      <c r="AP79" s="39"/>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A80" s="38" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B80" s="99" t="s">
+        <v>2052</v>
+      </c>
+      <c r="O80" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AJ80" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK80" s="38" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AM80" s="100" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AP80" s="39"/>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E81" s="95" t="s">
+        <v>1968</v>
+      </c>
+      <c r="O81" s="38">
+        <v>3000</v>
+      </c>
+      <c r="AP81" s="39"/>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A82" s="38" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O82" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="96" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AP82" s="39"/>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A83" s="38" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E83" s="95" t="s">
+        <v>1942</v>
+      </c>
+      <c r="O83" s="38">
+        <v>3500</v>
+      </c>
+      <c r="AP83" s="39"/>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A84" s="38" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>1943</v>
+      </c>
+      <c r="O84" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM84" s="96" t="s">
+        <v>1945</v>
+      </c>
+      <c r="AP84" s="39"/>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A85" s="38" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E85" s="95" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F85" s="95" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G85" s="95" t="s">
+        <v>1948</v>
+      </c>
+      <c r="O85" s="38">
+        <v>5000</v>
+      </c>
+      <c r="AP85" s="39"/>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>1950</v>
+      </c>
+      <c r="O86" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="39" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AP86" s="39"/>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A87" s="38" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>1949</v>
+      </c>
+      <c r="O87" s="38">
+        <v>5000</v>
+      </c>
+      <c r="AP87" s="39"/>
+    </row>
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A88" s="38" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>1952</v>
+      </c>
+      <c r="O88" s="38">
+        <v>6000</v>
+      </c>
+      <c r="AP88" s="39"/>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A89" s="95" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O89" s="38">
+        <v>0</v>
+      </c>
+      <c r="P89" s="38">
+        <v>1685</v>
+      </c>
+      <c r="Y89" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AJ89" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK89" s="95" t="s">
+        <v>1953</v>
+      </c>
+      <c r="AM89" s="96" t="s">
+        <v>1955</v>
+      </c>
+      <c r="AP89" s="39"/>
+    </row>
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A90" s="95" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O90" s="38">
+        <v>5500</v>
+      </c>
+      <c r="P90" s="38">
+        <v>1686</v>
+      </c>
+      <c r="AD90" s="95" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AP90" s="39"/>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A91" s="95" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O91" s="38">
+        <v>0</v>
+      </c>
+      <c r="P91" s="38">
+        <v>1687</v>
+      </c>
+      <c r="AJ91" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK91" s="38" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AM91" s="96" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AP91" s="39"/>
+    </row>
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A92" s="38" t="s">
+        <v>1956</v>
+      </c>
+      <c r="O92" s="38">
+        <v>5500</v>
+      </c>
+      <c r="P92" s="38">
+        <v>1688</v>
+      </c>
+      <c r="Y92" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD92" s="95" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AP92" s="39"/>
+    </row>
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>1960</v>
+      </c>
+      <c r="O93" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP93" s="39"/>
+    </row>
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A94" s="38" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E94" s="99" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F94" s="95" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G94" s="95" t="s">
+        <v>1962</v>
+      </c>
+      <c r="O94" s="38">
+        <v>1500</v>
+      </c>
+      <c r="AP94" s="39"/>
+    </row>
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A95" s="38" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O95" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="39"/>
+    </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A96" s="38" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E96" s="95" t="s">
+        <v>1965</v>
+      </c>
+      <c r="O96" s="38">
+        <v>1500</v>
+      </c>
+      <c r="AP96" s="39"/>
+    </row>
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A97" s="95" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B97" s="95" t="s">
+        <v>1967</v>
+      </c>
+      <c r="O97" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP97" s="39"/>
+    </row>
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A98" s="38" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E98" s="95" t="s">
+        <v>1968</v>
+      </c>
+      <c r="O98" s="38">
+        <v>1500</v>
+      </c>
+      <c r="AP98" s="39"/>
+    </row>
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A99" s="38" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B99" s="99" t="s">
+        <v>2052</v>
+      </c>
+      <c r="O99" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP99" s="39"/>
+    </row>
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A100" s="38" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E100" s="95" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F100" s="95" t="s">
+        <v>1971</v>
+      </c>
+      <c r="G100" s="95" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H100" s="95" t="s">
+        <v>1972</v>
+      </c>
+      <c r="O100" s="38">
+        <v>2500</v>
+      </c>
+      <c r="AP100" s="39"/>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A101" s="38" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>1974</v>
+      </c>
+      <c r="O101" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP101" s="39"/>
+    </row>
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E102" s="95" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F102" s="95" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G102" s="95" t="s">
+        <v>1961</v>
+      </c>
+      <c r="O102" s="38">
+        <v>3000</v>
+      </c>
+      <c r="AP102" s="39"/>
+    </row>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A103" s="38" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>1974</v>
+      </c>
+      <c r="O103" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP103" s="39"/>
+    </row>
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A104" s="38" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E104" s="95" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F104" s="95" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G104" s="95" t="s">
+        <v>1962</v>
+      </c>
+      <c r="O104" s="38">
+        <v>3000</v>
+      </c>
+      <c r="AP104" s="39"/>
+    </row>
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A105" s="38" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>1979</v>
+      </c>
+      <c r="O105" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP105" s="39"/>
+    </row>
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A106" s="38" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E106" s="95" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F106" s="95" t="s">
+        <v>1965</v>
+      </c>
+      <c r="O106" s="38">
+        <v>3000</v>
+      </c>
+      <c r="AP106" s="39"/>
+    </row>
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A107" s="38" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>1980</v>
+      </c>
+      <c r="O107" s="38">
+        <v>5000</v>
+      </c>
+      <c r="AP107" s="39"/>
+    </row>
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A108" s="38" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B108" s="38" t="s">
+        <v>1982</v>
+      </c>
+      <c r="O108" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM108" s="96" t="s">
+        <v>1984</v>
+      </c>
+      <c r="AP108" s="39"/>
+    </row>
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A109" s="38" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E109" s="95" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F109" s="99" t="s">
+        <v>2059</v>
+      </c>
+      <c r="O109" s="38">
+        <v>5000</v>
+      </c>
+      <c r="AP109" s="39"/>
+    </row>
+    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A110" s="99" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O110" s="38">
+        <v>500</v>
+      </c>
+      <c r="P110" s="38">
+        <v>1706</v>
+      </c>
+      <c r="Y110" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD110" s="97" t="s">
+        <v>2060</v>
+      </c>
+      <c r="AJ110" s="96" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AK110" s="95" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AM110" s="96" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AP110" s="39"/>
+    </row>
+    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A111" s="95" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B111" s="38" t="s">
+        <v>1985</v>
+      </c>
+      <c r="O111" s="38">
+        <v>5000</v>
+      </c>
+      <c r="P111" s="38">
+        <v>1707</v>
+      </c>
+      <c r="AD111" s="97" t="s">
+        <v>2033</v>
+      </c>
+      <c r="AJ111" s="39"/>
+      <c r="AP111" s="39"/>
+    </row>
+    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A112" s="95" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B112" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O112" s="38">
+        <v>500</v>
+      </c>
+      <c r="P112" s="38">
+        <v>1708</v>
+      </c>
+      <c r="Y112" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD112" s="99" t="s">
+        <v>2061</v>
+      </c>
+      <c r="AJ112" s="96" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AK112" s="95" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AM112" s="96" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AP112" s="39"/>
+    </row>
+    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A113" s="95" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B113" s="38" t="s">
+        <v>1986</v>
+      </c>
+      <c r="O113" s="38">
+        <v>5000</v>
+      </c>
+      <c r="P113" s="38">
+        <v>1709</v>
+      </c>
+      <c r="AD113" s="95" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AJ113" s="39"/>
+      <c r="AP113" s="39"/>
+    </row>
+    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A114" s="95" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B114" s="38" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O114" s="38">
+        <v>500</v>
+      </c>
+      <c r="P114" s="38">
+        <v>1710</v>
+      </c>
+      <c r="Y114" s="38" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD114" s="99" t="s">
+        <v>2062</v>
+      </c>
+      <c r="AJ114" s="96" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AK114" s="95" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AM114" s="96" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AP114" s="39"/>
+    </row>
+    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A115" s="95" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>1987</v>
+      </c>
+      <c r="O115" s="38">
+        <v>5000</v>
+      </c>
+      <c r="P115" s="38">
+        <v>1711</v>
+      </c>
+      <c r="AD115" s="95" t="s">
+        <v>2035</v>
+      </c>
+      <c r="AP115" s="39"/>
+    </row>
+    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A116" s="38" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B116" s="38" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E116" s="95" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F116" s="95" t="s">
+        <v>2001</v>
+      </c>
+      <c r="O116" s="38">
+        <v>1000</v>
+      </c>
+      <c r="AP116" s="39"/>
+    </row>
+    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A117" s="38" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B117" s="38" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E117" s="95" t="s">
+        <v>1816</v>
+      </c>
+      <c r="O117" s="38">
+        <v>1000</v>
+      </c>
+      <c r="AP117" s="39"/>
+    </row>
+    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A118" s="38" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E118" s="95" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F118" s="95" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G118" s="95" t="s">
+        <v>1800</v>
+      </c>
+      <c r="O118" s="38">
+        <v>2500</v>
+      </c>
+      <c r="AP118" s="39"/>
+    </row>
+    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A119" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B119" s="38" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E119" s="95" t="s">
+        <v>2002</v>
+      </c>
+      <c r="O119" s="38">
+        <v>1000</v>
+      </c>
+      <c r="AP119" s="39"/>
+    </row>
+    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A120" s="38" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B120" s="38" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E120" s="95" t="s">
+        <v>1902</v>
+      </c>
+      <c r="O120" s="38">
+        <v>1000</v>
+      </c>
+      <c r="AP120" s="39"/>
+    </row>
+    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A121" s="38" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B121" s="38" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E121" s="95" t="s">
+        <v>2003</v>
+      </c>
+      <c r="O121" s="38">
+        <v>1500</v>
+      </c>
+      <c r="AP121" s="39"/>
+    </row>
+    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A122" s="38" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B122" s="95" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E122" s="95" t="s">
+        <v>1920</v>
+      </c>
+      <c r="O122" s="38">
+        <v>2000</v>
+      </c>
+      <c r="AP122" s="39"/>
+    </row>
+    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A123" s="38" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B123" s="38" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E123" s="95" t="s">
+        <v>2004</v>
+      </c>
+      <c r="O123" s="38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A124" s="38" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B124" s="95" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E124" s="95" t="s">
+        <v>1927</v>
+      </c>
+      <c r="O124" s="38">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A125" s="38" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B125" s="38" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E125" s="95" t="s">
+        <v>2006</v>
+      </c>
+      <c r="O125" s="38">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A126" s="38" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B126" s="38" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E126" s="95" t="s">
+        <v>2007</v>
+      </c>
+      <c r="O126" s="38">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A127" s="38" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B127" s="38" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E127" s="95" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O127" s="38">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A128" s="38" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B128" s="38" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E128" s="95" t="s">
+        <v>2009</v>
+      </c>
+      <c r="O128" s="38">
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11729,7 +16836,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -15329,7 +20436,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <conditionalFormatting sqref="A3:D4">
     <cfRule type="containsText" dxfId="33" priority="1669" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
@@ -15344,20 +20451,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="30" priority="1797" operator="equal">
-      <formula>"water"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="1793" operator="equal">
+      <formula>"metal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="1796" operator="equal">
-      <formula>"wood"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="1794" operator="equal">
+      <formula>"earth"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="1795" operator="equal">
       <formula>"fire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="1794" operator="equal">
-      <formula>"earth"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="1796" operator="equal">
+      <formula>"wood"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1793" operator="equal">
-      <formula>"metal"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="1797" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E21">
@@ -15423,11 +20530,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="containsText" dxfId="11" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="11" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1464" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AT1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1463" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
@@ -15441,11 +20548,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BJ4">
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BM2">
@@ -24441,7 +29548,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\dafuwengx\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA2E4A9-FAF3-4EE2-94FB-4FE6F9BAE6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF0FA06-DC8D-45C6-A1B1-45FFEC03072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="1320" windowWidth="21408" windowHeight="15156" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7032" yWindow="888" windowWidth="21408" windowHeight="15156" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="2063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="2065">
   <si>
     <t>主键</t>
   </si>
@@ -4237,43 +4237,43 @@
   </si>
   <si>
     <t>BountyGoldMin</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>BountyGoldMax</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Creature[{]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>npc_kv_generator_test</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1 1 1 1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1000 2000 30000 40000</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1 1 2 3 4</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_lua</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -4304,39 +4304,39 @@
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ItemStackable</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ItemInitialCharges</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ItemPermanent</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ItemPurchasable</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ItemShareability</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ItemCost</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -4361,230 +4361,230 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>其他键需要自己加了</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>可否叠加</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>初始点数</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>永久物品</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>可否购买</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>共享</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_kv_generator_test2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
     <t>是否激活</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>英雄名字</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>another_test 10.5 2.3 3.3 1.1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>test 1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>radius 1 2 3 4</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability_test</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>HeroNames</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>这种只有两列的表，会直接转成 "npc_dota_hero_ancient_apparition" "1"的形式</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>target_damage {
 "value" "110 120 130"
 "special_bonus_unique_abaddon_2" "+30"
 }</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>PlainKV</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>#Loc{}_Description</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>测试技能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>测试技能的描述</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1 2 3 4</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_tiny</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_YES</t>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_muerta</t>
@@ -4603,118 +4603,118 @@
   </si>
   <si>
     <t>bz_pa_1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phantom_assassin</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AttackCapabilities</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_11</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>HealthBarOffset</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_pa_111</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AttributeStrengthGain</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseAgility</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AttributeAgilityGain</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AttributeBaseIntelligence</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AttributeIntelligenceGain</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>skeleton_king_reincarnation</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Disruptor</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4730,50 +4730,50 @@
       </rPr>
       <t>uration 160</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>学习要求等级</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>RequiredLevel</t>
   </si>
   <si>
     <t>升级间隔等级</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>LevelsBetweenUpgrades</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>目标队伍</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AbilitySound</t>
   </si>
   <si>
     <t>施法音效</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Hero_PhantomAssassin.Strike.Start</t>
   </si>
   <si>
     <t>施法范围</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
@@ -4783,11 +4783,11 @@
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>施法动画</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastAnimation</t>
@@ -4800,7 +4800,7 @@
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
@@ -4816,18 +4816,18 @@
   </si>
   <si>
     <t>单位相关类型</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_NPC_UNIT_RELATIONSHIP_TYPE_BUILDING</t>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4843,11 +4843,11 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitTargetTeam</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4863,22 +4863,22 @@
       </rPr>
       <t>Ability_phantom_strike</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>attack_times 1 2 3</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Ability_meepo_poof</t>
   </si>
   <si>
     <t>Ability_phantom_strike</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4924,7 +4924,7 @@
       </rPr>
       <t>Ability_meepo_poof</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4940,7 +4940,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
@@ -4987,7 +4987,7 @@
       </rPr>
       <t>/Ability_meepo_ransack</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5003,7 +5003,7 @@
       </rPr>
       <t>ddsh 1 2 3</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Meepo.Geostrike</t>
@@ -5013,7 +5013,7 @@
   </si>
   <si>
     <t>poof_damage 100 150 200</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5030,30 +5030,30 @@
       </rPr>
       <t>_meepo_1</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_11</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_meepo_111</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MovementSpeed</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamageMin</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_AGILITY</t>
   </si>
   <si>
     <t>meepo</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Ability_pudge_rot</t>
@@ -5105,7 +5105,7 @@
       </rPr>
       <t>Ability_pudge_meat_hook</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5151,7 +5151,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,7 +5167,7 @@
       </rPr>
       <t>amage 100 200 300</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5183,7 +5183,7 @@
       </rPr>
       <t>ange 200 250 300</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,7 +5199,7 @@
       </rPr>
       <t>amage 30 50 70</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,7 +5215,7 @@
       </rPr>
       <t>ime_damage 0.5</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +5231,7 @@
       </rPr>
       <t>ot_slow -25 -35- 50</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
@@ -5253,7 +5253,7 @@
   </si>
   <si>
     <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5270,15 +5270,15 @@
       </rPr>
       <t>z_pudge_1</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_11</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_pudge_111</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5295,11 +5295,11 @@
       </rPr>
       <t>udge</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>pudge</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
@@ -5319,21 +5319,21 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>攻击警戒范围</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5349,7 +5349,7 @@
       </rPr>
       <t>nge 300 400 500</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5365,15 +5365,15 @@
       </rPr>
       <t>amage 50 75 100</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>time_damage 0.5</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_pudge_rot</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5439,7 +5439,7 @@
       </rPr>
       <t>rot</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
@@ -5461,11 +5461,11 @@
       </rPr>
       <t>bility/lina/Ability_lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_lina_light_strike_array</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5481,7 +5481,7 @@
       </rPr>
       <t>ragon_slave_speed 1200</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5497,7 +5497,7 @@
       </rPr>
       <t>ange 3</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5513,7 +5513,7 @@
       </rPr>
       <t>ragon_slave_damage 200 250 300</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5529,7 +5529,7 @@
       </rPr>
       <t>ight_strike_array_damage 150 200 250</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5545,7 +5545,7 @@
       </rPr>
       <t>ight_strike_array_stun_duration 1</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
@@ -5580,35 +5580,35 @@
       </rPr>
       <t>lina_dragon_slave</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/lina/Ability_BZ_lina_dragon_slave</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_11</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_lina_111</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>lina</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_lina_dragon_slave</t>
@@ -5633,7 +5633,7 @@
       </rPr>
       <t>bility/zuus/Ability_zuus_arc_lightning</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Ability_zuus_lightning_bolt</t>
@@ -5652,7 +5652,7 @@
       </rPr>
       <t>rc_damage 75 95 115</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5668,7 +5668,7 @@
       </rPr>
       <t>ange 5</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5684,7 +5684,7 @@
       </rPr>
       <t>ump_count 3 4 5</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5700,7 +5700,7 @@
       </rPr>
       <t>ump_delay 0.3</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5716,7 +5716,7 @@
       </rPr>
       <t>amage 200 250 300</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -5729,7 +5729,7 @@
   </si>
   <si>
     <t>ability/zuus/Ability_zuus_lightning_bolt</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
@@ -5752,7 +5752,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5769,7 +5769,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5786,7 +5786,7 @@
       </rPr>
       <t>zuus</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5803,11 +5803,11 @@
       </rPr>
       <t>uus</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zuus</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Ability_BZ_zuus_lightning_bolt</t>
@@ -5826,7 +5826,7 @@
       </rPr>
       <t>uration 1 2 3</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5842,7 +5842,7 @@
       </rPr>
       <t>amage 100 125 150</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5858,7 +5858,7 @@
       </rPr>
       <t>onus_atk -20 -30 -40</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Axe.Battle_Hunger</t>
@@ -5883,7 +5883,7 @@
       </rPr>
       <t>adius 300</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5899,7 +5899,7 @@
       </rPr>
       <t>hance 15 20 25</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5915,7 +5915,7 @@
       </rPr>
       <t>amage 100 120 140</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
@@ -5925,38 +5925,38 @@
   </si>
   <si>
     <t>trigger_attacks 7 6 5</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_11</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>bz_axe_111</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>axe</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
     <t>Ability_axe_helix_counter</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_helix_counter</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5973,23 +5973,23 @@
       </rPr>
       <t>helix_counter</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>axe_battle_hunger</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>AbilityModifierSupportValue</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/axe/Ability_axe_battle_hunger</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6005,7 +6005,7 @@
       </rPr>
       <t>_12</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6021,7 +6021,7 @@
       </rPr>
       <t>bility/path/path_12</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6037,18 +6037,18 @@
       </rPr>
       <t>ath_12</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
   <si>
     <t>path_13_hujia</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>path_13_mokang</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6064,11 +6064,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>path_13</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6084,11 +6084,11 @@
       </rPr>
       <t xml:space="preserve"> 15 25 35</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_mokang</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6104,11 +6104,11 @@
       </rPr>
       <t>ath_14</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_14</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6124,19 +6124,19 @@
       </rPr>
       <t>ime 1 1.5 2</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>path_14</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>path_15</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_15</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6152,7 +6152,7 @@
       </rPr>
       <t xml:space="preserve"> 20 50 100</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6168,7 +6168,7 @@
       </rPr>
       <t>isu 10 20 40</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6184,11 +6184,11 @@
       </rPr>
       <t>ath_16</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_16</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6204,11 +6204,11 @@
       </rPr>
       <t>hangxian 1 2 4</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>huimo 1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6224,7 +6224,7 @@
       </rPr>
       <t>uimo_bz 10 20 40</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6240,27 +6240,27 @@
       </rPr>
       <t xml:space="preserve"> 15 25 40</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>spell_amp 10 20 30</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>no_cd_chance 0 20 40</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>path_16</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>path_17</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_17</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6276,11 +6276,11 @@
       </rPr>
       <t>amage 30</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>jiansu -10 -20 -40</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6296,7 +6296,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6312,7 +6312,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6328,15 +6328,15 @@
       </rPr>
       <t xml:space="preserve"> 1000 2000 4000</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/path/path_13_hujia</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ability/zuus/Ability_BZ_zuus_lightning_bolt</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6352,30 +6352,30 @@
       </rPr>
       <t>amage 175 225 275</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED | DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Zuus.LightningBolt</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ACT_DOTA_CAST_ABILITY_2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Ability_lina_dragon_slave</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6391,11 +6391,11 @@
       </rPr>
       <t>hance 25</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6421,23 +6421,23 @@
       </rPr>
       <t>00 1600 2000</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/pudge/pudge.vmdl</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/zeus/zeus.vmdl</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/axe/axe.vmdl</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6483,7 +6483,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6499,7 +6499,7 @@
       </rPr>
       <t>okang 10 15 25</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>rune_0</t>
@@ -6518,7 +6518,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6608,7 +6608,7 @@
       </rPr>
       <t>rune_0</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6624,7 +6624,7 @@
       </rPr>
       <t>uration 2</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6650,7 +6650,7 @@
       </rPr>
       <t>rune_1</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6676,7 +6676,7 @@
       </rPr>
       <t>rune_3</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6702,7 +6702,7 @@
       </rPr>
       <t>rune_4</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6728,7 +6728,7 @@
       </rPr>
       <t>rune_5</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6754,7 +6754,7 @@
       </rPr>
       <t>rune_6</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6780,7 +6780,7 @@
       </rPr>
       <t>rune_9</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6806,11 +6806,11 @@
       </rPr>
       <t>rune_8</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>gold 500</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6826,7 +6826,7 @@
       </rPr>
       <t>dsub 1</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6842,15 +6842,15 @@
       </rPr>
       <t>anasub 1</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>exp 5</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>shield 50</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>item_tpscroll</t>
@@ -6866,7 +6866,7 @@
   </si>
   <si>
     <t>可否出售</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>ItemDisplayCharges</t>
@@ -6876,14 +6876,14 @@
   </si>
   <si>
     <t>ItemQuality</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>质量</t>
   </si>
   <si>
     <t>consumable</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6909,7 +6909,7 @@
       </rPr>
       <t>blink</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6925,14 +6925,14 @@
       </rPr>
       <t>tem_blink</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>component</t>
   </si>
   <si>
     <t>item/items/item_qtg_blink</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6948,15 +6948,15 @@
       </rPr>
       <t>are</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_arcane_boots</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item/items/item_qtg_arcane_boots</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6972,7 +6972,7 @@
       </rPr>
       <t>onus_movement 20</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6988,22 +6988,22 @@
       </rPr>
       <t>onus_mana 2</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_arcane_boots</t>
   </si>
   <si>
     <t>replenish_hero 4</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>replenish_bz 40</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_faerie_fire</t>
@@ -7022,7 +7022,7 @@
       </rPr>
       <t xml:space="preserve"> 5</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7038,22 +7038,22 @@
       </rPr>
       <t xml:space="preserve"> 100</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>replenish_amount 2</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_famango</t>
   </si>
   <si>
     <t>item_qtg_tpscroll</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item/items/item_qtg_tpscroll</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_belt_of_strength</t>
@@ -7081,15 +7081,15 @@
       </rPr>
       <t>tem_lua</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_iron_talon</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item/items/item_qtg_iron_talon</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7105,35 +7105,19 @@
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>bonus_armor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>component</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>models/props_gameplay/quelling_blade.vmdl</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_iron_talon</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_orb_of_venom</t>
@@ -7152,7 +7136,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7168,11 +7152,11 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>poison_movement_speed_melee -15</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7188,7 +7172,7 @@
       </rPr>
       <t xml:space="preserve"> -5</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_blight_stone</t>
@@ -7207,7 +7191,7 @@
       </rPr>
       <t xml:space="preserve"> -3</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_blades_of_attack</t>
@@ -7226,7 +7210,7 @@
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_gloves</t>
@@ -7251,7 +7235,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7267,7 +7251,7 @@
       </rPr>
       <t xml:space="preserve"> 4</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7283,7 +7267,7 @@
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_helm_of_iron_will</t>
@@ -7302,7 +7286,7 @@
       </rPr>
       <t xml:space="preserve"> 5</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7318,7 +7302,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7334,14 +7318,14 @@
       </rPr>
       <t>ealth_regen 5</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_claymore</t>
   </si>
   <si>
     <t>bonus_damage 20</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_ring_of_regen</t>
@@ -7360,7 +7344,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_sobi_mask</t>
@@ -7379,15 +7363,15 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>mana_regen_hero 1</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>mana_regen_hero_round 4</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7403,11 +7387,11 @@
       </rPr>
       <t>ana_regen_bz 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_sobi_mask</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_fluffy_hat</t>
@@ -7429,7 +7413,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_boots</t>
@@ -7451,7 +7435,7 @@
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7467,7 +7451,7 @@
       </rPr>
       <t xml:space="preserve"> 40</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_voodoo_mask</t>
@@ -7486,7 +7470,7 @@
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7512,7 +7496,7 @@
       </rPr>
       <t>ghost</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_orb_of_corrosion</t>
@@ -7534,7 +7518,7 @@
       </rPr>
       <t xml:space="preserve"> -4</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7550,7 +7534,7 @@
       </rPr>
       <t xml:space="preserve"> 15</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7566,7 +7550,7 @@
       </rPr>
       <t xml:space="preserve"> 5</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7582,7 +7566,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7598,7 +7582,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7614,7 +7598,7 @@
       </rPr>
       <t xml:space="preserve"> 250</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_falcon_blade</t>
@@ -7636,7 +7620,7 @@
       </rPr>
       <t xml:space="preserve"> 0 </t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7652,15 +7636,15 @@
       </rPr>
       <t xml:space="preserve"> 15</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>bonus_health 200</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>bonus_health 300</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_power_treads</t>
@@ -7689,14 +7673,14 @@
       </rPr>
       <t>_power_treads</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>ItemRecipe</t>
   </si>
   <si>
     <t>是否合成卷轴</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>ItemResult</t>
@@ -7706,7 +7690,7 @@
   </si>
   <si>
     <t>合成配方</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7722,7 +7706,7 @@
       </rPr>
       <t>[{]</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7738,7 +7722,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7754,7 +7738,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7770,7 +7754,7 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7786,7 +7770,7 @@
       </rPr>
       <t>}]</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>models/props_gameplay/recipe.vmdl</t>
@@ -7802,7 +7786,7 @@
   </si>
   <si>
     <t>item_power_treads</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7818,7 +7802,7 @@
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7834,7 +7818,7 @@
       </rPr>
       <t xml:space="preserve"> 25</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7850,26 +7834,26 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_phase_boots</t>
   </si>
   <si>
     <t>bonus_movement_speed 20</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>bonus_movement_speed_ranged 20</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>bonus_movement_speed_melee 30</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>bonus_movement_speed 25</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7885,7 +7869,7 @@
       </rPr>
       <t xml:space="preserve"> 10.0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_oblivion_staff</t>
@@ -7895,7 +7879,7 @@
   </si>
   <si>
     <t>item_quarterstaff;item_robe</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7911,7 +7895,7 @@
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_mask_of_madness</t>
@@ -7940,7 +7924,7 @@
       </rPr>
       <t>qtg_mask_of_madness</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_lifesteal;item_quarterstaff</t>
@@ -7972,7 +7956,7 @@
       </rPr>
       <t>tranquil_boots</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7998,11 +7982,11 @@
       </rPr>
       <t>tranquil_boots</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_boots;item_ring_of_regen</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8028,7 +8012,7 @@
       </rPr>
       <t>medallion_of_courage</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8044,7 +8028,7 @@
       </rPr>
       <t>medallion_of_courage</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8070,7 +8054,7 @@
       </rPr>
       <t>qtg_arcane_boots</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8096,7 +8080,7 @@
       </rPr>
       <t>pipe</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8112,7 +8096,7 @@
       </rPr>
       <t>pipe</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8138,7 +8122,7 @@
       </rPr>
       <t>witch_blade</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8154,7 +8138,7 @@
       </rPr>
       <t>witch_blade</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_orchid</t>
@@ -8183,7 +8167,7 @@
       </rPr>
       <t>qtg_orchid</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_dagon</t>
@@ -8212,7 +8196,7 @@
       </rPr>
       <t>solar_crest</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8228,7 +8212,7 @@
       </rPr>
       <t>solar_crest</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8254,7 +8238,7 @@
       </rPr>
       <t>refresher</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8273,11 +8257,11 @@
   </si>
   <si>
     <t>item_qtg_rod_of_atos</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_recipe_qtg_rod_of_atos</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8303,7 +8287,7 @@
       </rPr>
       <t>octarine_core</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8329,7 +8313,7 @@
       </rPr>
       <t>sheepstick</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8345,7 +8329,7 @@
       </rPr>
       <t>sheepstick</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_vanguard</t>
@@ -8364,7 +8348,7 @@
       </rPr>
       <t xml:space="preserve"> 300</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8380,7 +8364,7 @@
       </rPr>
       <t>ealth_regen 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8406,7 +8390,7 @@
       </rPr>
       <t>blade_mail</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8422,7 +8406,7 @@
       </rPr>
       <t>blade_mail</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_soul_booster</t>
@@ -8454,7 +8438,7 @@
       </rPr>
       <t>qtg_crimson_guard</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_shivas_guard</t>
@@ -8483,7 +8467,7 @@
       </rPr>
       <t>shivas_guard</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_platemail</t>
@@ -8512,7 +8496,7 @@
       </rPr>
       <t>heart</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8528,7 +8512,7 @@
       </rPr>
       <t>heart</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8544,7 +8528,7 @@
       </rPr>
       <t>heart</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8560,7 +8544,7 @@
       </rPr>
       <t xml:space="preserve"> 40</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8576,11 +8560,11 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>health_regen 20</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_assault</t>
@@ -8602,7 +8586,7 @@
       </rPr>
       <t xml:space="preserve"> 60</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8618,11 +8602,11 @@
       </rPr>
       <t xml:space="preserve"> 25</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>aura_radius 800</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8638,7 +8622,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8654,7 +8638,7 @@
       </rPr>
       <t xml:space="preserve"> -10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_lesser_crit</t>
@@ -8683,7 +8667,7 @@
       </rPr>
       <t>lesser_crit</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8699,11 +8683,11 @@
       </rPr>
       <t xml:space="preserve"> 40</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_claymore;item_blades_of_attack;item_blades_of_attack</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_desolator</t>
@@ -8732,7 +8716,7 @@
       </rPr>
       <t>desolator</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8748,7 +8732,7 @@
       </rPr>
       <t xml:space="preserve"> 50</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_ethereal_blade</t>
@@ -8764,11 +8748,11 @@
   </si>
   <si>
     <t>item_eagle;item_quarterstaff</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_claymore;item_blades_of_attack;item_blight_stone</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8784,7 +8768,7 @@
       </rPr>
       <t>;item_platemail;item_hyperstone</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8800,7 +8784,7 @@
       </rPr>
       <t>;item_reaver</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8816,11 +8800,11 @@
       </rPr>
       <t>;item_mystic_staff</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_claymore;item_platemail</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8836,7 +8820,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_recipe_radiance</t>
@@ -8846,7 +8830,7 @@
   </si>
   <si>
     <t>item_relic;item_claymore</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8862,7 +8846,7 @@
       </rPr>
       <t xml:space="preserve"> 80</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8878,7 +8862,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8894,7 +8878,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_greater_crit</t>
@@ -8932,7 +8916,7 @@
       </rPr>
       <t>bloodthorn</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8948,7 +8932,7 @@
       </rPr>
       <t>bloodthorn</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8964,7 +8948,7 @@
       </rPr>
       <t>;item_mage_slayer</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_revenants_brooch</t>
@@ -8993,7 +8977,7 @@
       </rPr>
       <t>qtg_revenants_brooch</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9019,7 +9003,7 @@
       </rPr>
       <t>;item_mystic_staff</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_sange</t>
@@ -9041,7 +9025,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9057,7 +9041,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_yasha</t>
@@ -9079,18 +9063,18 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_kaya</t>
   </si>
   <si>
     <t>item_recipe_kaya</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>mana_regen_multiplier 0</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_mage_slayer</t>
@@ -9112,7 +9096,7 @@
       </rPr>
       <t xml:space="preserve"> 15</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9128,7 +9112,7 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_kaya_and_sange</t>
@@ -9150,14 +9134,14 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_sange_and_yasha</t>
   </si>
   <si>
     <t>movement_speed_percent_bonus 0</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_yasha_and_kaya</t>
@@ -9188,7 +9172,7 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9204,7 +9188,7 @@
       </rPr>
       <t>item_vitality_booster</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_overwhelming_blink</t>
@@ -9235,7 +9219,7 @@
   </si>
   <si>
     <t>item_hyperstone</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_ultimate_orb</t>
@@ -9269,11 +9253,11 @@
       </rPr>
       <t>_regen 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>bonus_mana 2</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9289,7 +9273,7 @@
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9305,11 +9289,11 @@
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_demon_edge</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9325,7 +9309,7 @@
       </rPr>
       <t xml:space="preserve"> 25</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9341,7 +9325,7 @@
       </rPr>
       <t xml:space="preserve"> 2500</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9357,7 +9341,7 @@
       </rPr>
       <t xml:space="preserve"> 25</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9373,7 +9357,7 @@
       </rPr>
       <t xml:space="preserve"> 60</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9399,7 +9383,7 @@
       </rPr>
       <t>blink;item_reaver</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9425,7 +9409,7 @@
       </rPr>
       <t>item_eagle</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9451,11 +9435,11 @@
       </rPr>
       <t>item_mystic_staff</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9481,7 +9465,7 @@
       </rPr>
       <t>overwhelming_blink</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9507,7 +9491,7 @@
       </rPr>
       <t>swift_blink</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9533,7 +9517,7 @@
       </rPr>
       <t>arcane_blink</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9549,11 +9533,11 @@
       </rPr>
       <t>ghost</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_mask_of_madness</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9569,7 +9553,7 @@
       </rPr>
       <t>tranquil_boots</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9585,7 +9569,7 @@
       </rPr>
       <t>medallion_of_courage</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9601,7 +9585,7 @@
       </rPr>
       <t>pipe</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9617,11 +9601,11 @@
       </rPr>
       <t>witch_blade</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_orchid</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9637,11 +9621,11 @@
       </rPr>
       <t>solar_crest</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_rod_of_atos</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9657,7 +9641,7 @@
       </rPr>
       <t>refresher</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9673,7 +9657,7 @@
       </rPr>
       <t>octarine_core</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9689,15 +9673,15 @@
       </rPr>
       <t>sheepstick</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_blade_mail</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_crimson_guard</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9713,15 +9697,15 @@
       </rPr>
       <t>bloodthorn</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_revenants_brooch</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_overwhelming_blink</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9737,7 +9721,7 @@
       </rPr>
       <t>swift_blink</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9753,7 +9737,7 @@
       </rPr>
       <t>arcane_blink</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9779,7 +9763,7 @@
       </rPr>
       <t>swift_blink</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9805,7 +9789,7 @@
       </rPr>
       <t>_arcane_blink</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9821,26 +9805,26 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_datadriven</t>
   </si>
   <si>
     <t>item_cloak;item_ring_of_regen;item_ring_of_health</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_gloves;item_staff_of_wizardry;item_chainmail;item_quarterstaff</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_staff_of_wizardry;item_quarterstaff;item_void_stone</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_qtg_medallion_of_courage;item_crown;item_quarterstaff</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9856,7 +9840,7 @@
       </rPr>
       <t>item_vitality_booster;item_robe</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9872,7 +9856,7 @@
       </rPr>
       <t>;item_cornucopia</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9888,7 +9872,7 @@
       </rPr>
       <t>octarine_core</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9904,11 +9888,11 @@
       </rPr>
       <t>;item_void_stone;item_vitality_booster;item_energy_booster</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_mystic_staff;item_ultimate_orb;item_void_stone</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9924,7 +9908,7 @@
       </rPr>
       <t>;item_helm_of_iron_will</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_recipe_qtg_overwhelming_blink</t>
@@ -9943,15 +9927,15 @@
       </rPr>
       <t>;item_qtg_ghost</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_datadriven</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>item_chainmail;item_sobi_mask;item_blight_stone</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9967,7 +9951,7 @@
       </rPr>
       <t>item_energy_booster</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10003,7 +9987,7 @@
       </rPr>
       <t>pipe</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10019,7 +10003,7 @@
       </rPr>
       <t>recipe_heart</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10050,15 +10034,15 @@
       </rPr>
       <t xml:space="preserve"> 16</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>bonus_health 350</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41